--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19700AC5-B5B6-480F-B751-86B7A8A6B1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD555624-88B0-48ED-A1A2-64EEB01092FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39195" yWindow="765" windowWidth="23625" windowHeight="20445" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,30 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 이격 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 이격 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 이격 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/UI/Deck/Icon_Range_Front</t>
   </si>
   <si>
@@ -661,34 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200001, 200001, 200001, 200001, 200002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200003, 200003, 200003, 200003, 200004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200005, 200005, 200005, 200005, 200006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200007, 200007, 200007, 200007, 200008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200009, 200009, 200009, 200009, 200010]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200011, 200011, 200011, 200011, 200012]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200013, 200013, 200013, 200013, 200014]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,22 +653,12 @@
     <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100006</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100007</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100008</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100009</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100010</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100011</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100012</t>
+    <t>[200002, 200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200001, 200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1089,6 +1027,7 @@
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
+      <sheetName val="@inequality_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1225,6 +1164,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1645,7 +1585,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1925,7 +1865,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1942,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1962,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -2014,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
@@ -2041,10 +1981,10 @@
         <v>100001</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>17</v>
@@ -2068,10 +2008,10 @@
         <v>100002</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>17</v>
@@ -2095,10 +2035,10 @@
         <v>100003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
@@ -2122,10 +2062,10 @@
         <v>100004</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>17</v>
@@ -2149,10 +2089,10 @@
         <v>100005</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
@@ -2176,176 +2116,74 @@
         <v>100006</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C11,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E11" s="4">
-        <v>100007</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100008</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C12,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E12" s="4">
-        <v>100008</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C13,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E13" s="4">
-        <v>100009</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>100010</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C14,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E14" s="4">
-        <v>100010</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C15,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E15" s="4">
-        <v>100011</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C16,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E16" s="4">
-        <v>100012</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2367,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2541,7 +2379,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2587,7 +2425,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2597,7 +2435,7 @@
         <v>전열 배치</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2633,17 +2471,17 @@
         <v>62</v>
       </c>
       <c r="C7" s="4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
+        <v>중열 배치</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2679,7 +2517,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2689,7 +2527,7 @@
         <v>중열 배치</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2725,7 +2563,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="4">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -2735,7 +2573,7 @@
         <v>후열 배치</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -2744,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J9" s="4">
         <v>20</v>
@@ -2771,7 +2609,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -2781,7 +2619,7 @@
         <v>후열 배치</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -2790,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="J10" s="4">
         <v>25</v>
@@ -2806,282 +2644,6 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D11,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>200</v>
-      </c>
-      <c r="J11" s="4">
-        <v>20</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4">
-        <v>10</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100008</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D12,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>220</v>
-      </c>
-      <c r="J12" s="4">
-        <v>25</v>
-      </c>
-      <c r="K12" s="4">
-        <v>12</v>
-      </c>
-      <c r="L12" s="4">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D13,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>200</v>
-      </c>
-      <c r="J13" s="4">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4">
-        <v>10</v>
-      </c>
-      <c r="L13" s="4">
-        <v>10</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>100010</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D14,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>220</v>
-      </c>
-      <c r="J14" s="4">
-        <v>25</v>
-      </c>
-      <c r="K14" s="4">
-        <v>12</v>
-      </c>
-      <c r="L14" s="4">
-        <v>10</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="4">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D15,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>200</v>
-      </c>
-      <c r="J15" s="4">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4">
-        <v>10</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="4">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D16,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>220</v>
-      </c>
-      <c r="J16" s="4">
-        <v>25</v>
-      </c>
-      <c r="K16" s="4">
-        <v>12</v>
-      </c>
-      <c r="L16" s="4">
-        <v>10</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3096,7 +2658,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D16</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3121,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3166,7 +2728,7 @@
         <v>전열 배치</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,7 +2740,7 @@
         <v>중열 배치</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3190,7 +2752,7 @@
         <v>후열 배치</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD555624-88B0-48ED-A1A2-64EEB01092FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CE5A5-AFFF-49A5-B806-DF8CB6E179CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39195" yWindow="765" windowWidth="23625" windowHeight="20445" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{250B69B1-EEC0-42F1-B492-7CA4196213F2}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{250B69B1-EEC0-42F1-B492-7CA4196213F2}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,6 +658,14 @@
   </si>
   <si>
     <t>[200001, 200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,65 +1113,17 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
@@ -2205,32 +2165,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,46 +2199,49 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2288,22 +2252,22 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -2315,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -2323,8 +2287,11 @@
       <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2332,46 +2299,49 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2382,42 +2352,45 @@
         <v>15</v>
       </c>
       <c r="D5" s="4">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D5,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="F5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>200</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>20</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10</v>
       </c>
       <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2428,42 +2401,45 @@
         <v>17</v>
       </c>
       <c r="D6" s="4">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D6,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="F6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>220</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>25</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>12</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2474,42 +2450,45 @@
         <v>25</v>
       </c>
       <c r="D7" s="4">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="F7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>200</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>20</v>
-      </c>
-      <c r="K7" s="4">
-        <v>10</v>
       </c>
       <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2520,42 +2499,45 @@
         <v>28</v>
       </c>
       <c r="D8" s="4">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D8,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="F8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E8,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>220</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>25</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2566,42 +2548,45 @@
         <v>35</v>
       </c>
       <c r="D9" s="4">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D9,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="F9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E9,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>150</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>20</v>
-      </c>
-      <c r="K9" s="4">
-        <v>10</v>
       </c>
       <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2612,38 +2597,41 @@
         <v>32</v>
       </c>
       <c r="D10" s="4">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D10,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="F10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E10,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>250</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>25</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>10</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2658,7 +2646,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>E5:E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CE5A5-AFFF-49A5-B806-DF8CB6E179CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C132757-A013-4E25-A4BD-0C84A79B2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1822,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2085,66 +2085,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2155,7 +2095,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C16</xm:sqref>
+          <xm:sqref>C5:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2167,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C132757-A013-4E25-A4BD-0C84A79B2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB072AE7-3DDF-45FA-B817-09A4A3E7303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="10350" yWindow="2205" windowWidth="23625" windowHeight="17160" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{250B69B1-EEC0-42F1-B492-7CA4196213F2}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{250B69B1-EEC0-42F1-B492-7CA4196213F2}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,18 +452,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배치 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM:POSITION_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,19 +645,31 @@
     <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100006</t>
   </si>
   <si>
-    <t>[200002, 200001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200001, 200001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접근 사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001, 100002,100003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100101, 100102,100103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100201, 100202,100203]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100301, 100302,100303]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100401, 100402,100403]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,17 +1117,65 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
@@ -1824,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1842,7 +1894,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1862,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -1905,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1914,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
@@ -1941,10 +1993,10 @@
         <v>100001</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>17</v>
@@ -1968,10 +2020,10 @@
         <v>100002</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>17</v>
@@ -1982,7 +2034,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1995,10 +2047,10 @@
         <v>100003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
@@ -2009,7 +2061,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -2022,10 +2074,10 @@
         <v>100004</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>17</v>
@@ -2036,7 +2088,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -2049,10 +2101,10 @@
         <v>100005</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
@@ -2063,7 +2115,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -2076,10 +2128,10 @@
         <v>100006</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>17</v>
@@ -2105,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,22 +2168,21 @@
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2139,49 +2190,46 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2192,22 +2240,22 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -2219,7 +2267,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -2227,11 +2275,8 @@
       <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -2248,330 +2293,309 @@
         <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4">
         <v>15</v>
       </c>
       <c r="D5" s="4">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E5,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>90</v>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J5" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="M5" s="4">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4">
         <v>17</v>
       </c>
       <c r="D6" s="4">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E6,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>89</v>
+      <c r="F6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J6" s="4">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L6" s="4">
-        <v>12</v>
-      </c>
-      <c r="M6" s="4">
         <v>10</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
         <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E7,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>90</v>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J7" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="M7" s="4">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
         <v>28</v>
       </c>
       <c r="D8" s="4">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E8,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D8,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>89</v>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J8" s="4">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L8" s="4">
-        <v>12</v>
-      </c>
-      <c r="M8" s="4">
         <v>10</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="M8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4">
         <v>35</v>
       </c>
       <c r="D9" s="4">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E9,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D9,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>90</v>
+      <c r="F9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J9" s="4">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4">
         <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(E10,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D10,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J10" s="4">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K10" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L10" s="4">
-        <v>12</v>
-      </c>
-      <c r="M10" s="4">
         <v>10</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="M10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2586,7 +2610,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E10</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2611,23 +2635,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2638,13 +2662,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2656,7 +2680,7 @@
         <v>전열 배치</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2668,7 +2692,7 @@
         <v>중열 배치</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2680,7 +2704,7 @@
         <v>후열 배치</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB072AE7-3DDF-45FA-B817-09A4A3E7303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F135D999-6DE7-4396-9808-5DFC60E74311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="2205" windowWidth="23625" windowHeight="17160" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,30 @@
   </si>
   <si>
     <t>[100401, 100402,100403]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,65 +1141,17 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
@@ -1597,7 +1573,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2157,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2174,15 +2150,18 @@
     <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2217,19 +2196,28 @@
         <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2267,16 +2255,25 @@
         <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2311,19 +2308,28 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2359,17 +2365,26 @@
         <v>10</v>
       </c>
       <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="4">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2405,17 +2420,26 @@
         <v>12</v>
       </c>
       <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="4">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2451,17 +2475,26 @@
         <v>10</v>
       </c>
       <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="4">
         <v>10</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2497,17 +2530,26 @@
         <v>12</v>
       </c>
       <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="4">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2543,17 +2585,26 @@
         <v>10</v>
       </c>
       <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2589,13 +2640,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="4">
         <v>10</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2605,7 +2665,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91720D30-9468-4AB6-BAC6-9A5D46CCF4E3}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
@@ -2623,7 +2683,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F135D999-6DE7-4396-9808-5DFC60E74311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9669E80F-0903-4992-B1D2-01276DD3549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,67 +633,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100003</t>
+    <t>접근 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001, 100002,100003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100101, 100102,100103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100201, 100202,100203]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100301, 100302,100303]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100401, 100402,100403]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100006</t>
-  </si>
-  <si>
-    <t>접근 사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001, 100002,100003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100101, 100102,100103]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100201, 100202,100203]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100301, 100302,100303]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100401, 100402,100403]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evasion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100501, 100502,100503]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +769,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +859,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,17 +1150,65 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
@@ -1457,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1853,7 +1910,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1961,7 +2018,7 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C5,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
@@ -1988,7 +2045,7 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C6,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
@@ -2015,7 +2072,7 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C7,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
@@ -2023,7 +2080,7 @@
         <v>100003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>74</v>
@@ -2042,7 +2099,7 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C8,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
@@ -2050,7 +2107,7 @@
         <v>100004</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>75</v>
@@ -2069,7 +2126,7 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C9,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
@@ -2077,7 +2134,7 @@
         <v>100005</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>74</v>
@@ -2096,7 +2153,7 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C10,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
@@ -2104,7 +2161,7 @@
         <v>100006</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>75</v>
@@ -2133,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2153,15 +2210,14 @@
     <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2225,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -2196,13 +2252,13 @@
         <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>48</v>
@@ -2210,14 +2266,8 @@
       <c r="P2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2266,14 +2316,8 @@
       <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2281,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -2308,13 +2352,13 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>57</v>
@@ -2322,14 +2366,8 @@
       <c r="P4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2342,12 +2380,12 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2356,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J5" s="4">
         <v>20</v>
@@ -2379,12 +2417,8 @@
       <c r="P5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2397,12 +2431,12 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2411,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="J6" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4">
         <v>12</v>
@@ -2434,12 +2468,8 @@
       <c r="P6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2452,12 +2482,12 @@
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2466,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J7" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="4">
         <v>10</v>
@@ -2489,12 +2519,8 @@
       <c r="P7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2507,12 +2533,12 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D8,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2521,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="J8" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4">
         <v>12</v>
@@ -2544,12 +2570,8 @@
       <c r="P8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2562,12 +2584,12 @@
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D9,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -2576,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="J9" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4">
         <v>10</v>
@@ -2599,12 +2621,8 @@
       <c r="P9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2617,12 +2635,12 @@
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="8" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D10,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -2631,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="J10" s="4">
         <v>25</v>
@@ -2653,10 +2671,6 @@
       </c>
       <c r="P10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2679,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91720D30-9468-4AB6-BAC6-9A5D46CCF4E3}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9669E80F-0903-4992-B1D2-01276DD3549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59098336-2EAC-4632-BEC1-CFEBC6C7196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -2192,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2697,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59098336-2EAC-4632-BEC1-CFEBC6C7196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36665637-3464-436B-80BC-7DBEC506FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="2370" yWindow="2310" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,14 @@
   </si>
   <si>
     <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,6 +1070,7 @@
       <sheetName val="@position"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
       <sheetName val="@team_type"/>
@@ -1073,6 +1082,8 @@
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1160,56 +1171,65 @@
       <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>SECOND_TARGET_RULE_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
             <v>STAT_MULTIPLE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
             <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
+            <v>ONETIME_EFFECT_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
+            <v>DURATION_EFFECT_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
             <v>PROJECTILE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1909,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2080,7 +2100,7 @@
         <v>100003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>74</v>
@@ -2107,7 +2127,7 @@
         <v>100004</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>75</v>
@@ -2134,7 +2154,7 @@
         <v>100005</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>74</v>
@@ -2192,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36665637-3464-436B-80BC-7DBEC506FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6582A461-74AC-4C82-8DA3-948C1F5C6E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="2310" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,10 +682,6 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1086,8 +1082,8 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -1189,9 +1185,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -1227,9 +1223,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1930,7 +1926,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2100,7 +2096,7 @@
         <v>100003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>74</v>
@@ -2154,7 +2150,7 @@
         <v>100005</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>74</v>
@@ -2181,7 +2177,7 @@
         <v>100006</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>75</v>
@@ -2375,7 +2371,7 @@
         <v>94</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>93</v>
@@ -2660,7 +2656,7 @@
         <v>후열 배치</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6582A461-74AC-4C82-8DA3-948C1F5C6E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49271153-9AC9-4822-962E-9A5DB8A950F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="2310" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -1185,9 +1185,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -1223,9 +1223,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49271153-9AC9-4822-962E-9A5DB8A950F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A0535-7902-4226-B104-3445DE505309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2310" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="pc_data" sheetId="2" r:id="rId4"/>
     <sheet name="pc_battle_data" sheetId="5" r:id="rId5"/>
     <sheet name="position_icon_data" sheetId="6" r:id="rId6"/>
+    <sheet name="role_icon_data" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -47,10 +47,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    role_icon_data 시트 참조</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{250B69B1-EEC0-42F1-B492-7CA4196213F2}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
       <text>
         <r>
           <rPr>
@@ -111,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,6 +717,256 @@
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100005</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태생 성급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 정보_나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 정보_생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 정보_키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 정보_취미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 일러스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bone_star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illustration_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8, 15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인별그램 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7, 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너튜브 감상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9, 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 탐방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 최대 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role_Icon_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_habby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할군(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIBE_TYPE</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>HUMAN</t>
+  </si>
+  <si>
+    <t>인간종족</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>엘프족</t>
+  </si>
+  <si>
+    <t>WEREBEAST</t>
+  </si>
+  <si>
+    <t>수인족</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>안드로이드</t>
+  </si>
+  <si>
+    <t>DEVIL</t>
+  </si>
+  <si>
+    <t>악마</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>천사</t>
+  </si>
+  <si>
+    <t>POSITION_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>전열 배치</t>
+  </si>
+  <si>
+    <t>MIDDLE</t>
+  </si>
+  <si>
+    <t>중열 배치</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>후열 배치</t>
+  </si>
+  <si>
+    <t>ROLE_TYPE</t>
+  </si>
+  <si>
+    <t>TANKER</t>
+  </si>
+  <si>
+    <t>탱커</t>
+  </si>
+  <si>
+    <t>DEARLER</t>
+  </si>
+  <si>
+    <t>딜러</t>
+  </si>
+  <si>
+    <t>SUPPORTER</t>
+  </si>
+  <si>
+    <t>서포터</t>
+  </si>
+  <si>
+    <t>HEALER</t>
+  </si>
+  <si>
+    <t>힐러</t>
   </si>
 </sst>
 </file>
@@ -773,7 +1041,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +1078,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -840,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +1140,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,178 +1177,11 @@
     <sheetNames>
       <sheetName val="@tribe"/>
       <sheetName val="@position"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>HUMAN</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>인간종족</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>ELF</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>엘프족</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>WEREBEAST</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>수인족</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>ANDROID</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>안드로이드</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>DEVIL</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>악마</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ANGEL</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>천사</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>FRONT</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>전열 배치</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>MIDDLE</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>중열 배치</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>BACK</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>후열 배치</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="@tribe"/>
-      <sheetName val="@position"/>
+      <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1084,7 +1200,8 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
             <v>NPC_TYPE</v>
@@ -1157,78 +1274,32 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="예림 김" id="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" userId="e5ea80ba949d36f3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1526,6 +1597,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2023-12-19T02:22:00.75" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
+    <text>role_icon_data 시트 참조</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
   <dimension ref="A1:B23"/>
@@ -1643,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1654,265 +1733,283 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>'[1]@tribe'!$A$1</f>
-        <v>TRIBE_TYPE</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'[1]@position'!$A$1</f>
-        <v>POSITION_TYPE</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
       </c>
       <c r="I1" t="str">
-        <f>'[2]@npc'!$A$1</f>
+        <f>'[1]@npc'!$A$1</f>
         <v>NPC_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="str">
-        <f>'[1]@tribe'!$A3</f>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>'[1]@npc'!$A3</f>
         <v>type</v>
       </c>
-      <c r="B2" s="5" t="str">
-        <f>'[1]@tribe'!$B3</f>
+      <c r="J2" s="5" t="str">
+        <f>'[1]@npc'!$B3</f>
         <v>value</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>'[1]@tribe'!$C3</f>
+      <c r="K2" s="5" t="str">
+        <f>'[1]@npc'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>'[1]@position'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>'[1]@position'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>'[1]@position'!$C3</f>
-        <v>comment</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>'[2]@npc'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f>'[2]@npc'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>'[2]@npc'!$C3</f>
-        <v>comment</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="str">
-        <f>'[1]@tribe'!$A4</f>
+      <c r="M2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>'[1]@npc'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="B3" s="4">
-        <f>'[1]@tribe'!$B4</f>
+      <c r="J3" s="4">
+        <f>'[1]@npc'!$B4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4">
-        <f>'[1]@tribe'!$C4</f>
+      <c r="K3" s="4" t="str">
+        <f>'[1]@npc'!$C4</f>
+        <v>NONE</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f>'[1]@position'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="F3" s="4">
-        <f>'[1]@position'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>'[1]@position'!$C4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>'[2]@npc'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="J3" s="4">
-        <f>'[2]@npc'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>'[2]@npc'!$C4</f>
-        <v>NONE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="str">
-        <f>'[1]@tribe'!$A5</f>
-        <v>HUMAN</v>
+      <c r="O3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B4" s="4">
-        <f>'[1]@tribe'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f>'[1]@tribe'!$C5</f>
-        <v>인간종족</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f>'[1]@position'!$A5</f>
-        <v>FRONT</v>
+      <c r="C4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="F4" s="4">
-        <f>'[1]@position'!$B5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <f>'[1]@position'!$C5</f>
-        <v>전열 배치</v>
+      <c r="G4" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>'[2]@npc'!$A5</f>
+        <f>'[1]@npc'!$A5</f>
         <v>NPC</v>
       </c>
       <c r="J4" s="4">
-        <f>'[2]@npc'!$B5</f>
+        <f>'[1]@npc'!$B5</f>
         <v>1</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f>'[2]@npc'!$C5</f>
+        <f>'[1]@npc'!$C5</f>
         <v>우호 NPC</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="str">
-        <f>'[1]@tribe'!$A6</f>
-        <v>ELF</v>
+      <c r="M4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B5" s="4">
-        <f>'[1]@tribe'!$B6</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f>'[1]@tribe'!$C6</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>'[1]@position'!$A6</f>
-        <v>MIDDLE</v>
+      <c r="C5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="F5" s="4">
-        <f>'[1]@position'!$B6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f>'[1]@position'!$C6</f>
-        <v>중열 배치</v>
+      <c r="G5" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>'[2]@npc'!$A6</f>
+        <f>'[1]@npc'!$A6</f>
         <v>NORMAL</v>
       </c>
       <c r="J5" s="4">
-        <f>'[2]@npc'!$B6</f>
+        <f>'[1]@npc'!$B6</f>
         <v>2</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f>'[2]@npc'!$C6</f>
+        <f>'[1]@npc'!$C6</f>
         <v>일반 몬스터</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="str">
-        <f>'[1]@tribe'!$A7</f>
-        <v>WEREBEAST</v>
+      <c r="M5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B6" s="4">
-        <f>'[1]@tribe'!$B7</f>
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f>'[1]@tribe'!$C7</f>
-        <v>수인족</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>'[1]@position'!$A7</f>
-        <v>BACK</v>
+      <c r="C6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="F6" s="4">
-        <f>'[1]@position'!$B7</f>
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f>'[1]@position'!$C7</f>
-        <v>후열 배치</v>
+      <c r="G6" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>'[2]@npc'!$A7</f>
+        <f>'[1]@npc'!$A7</f>
         <v>ELITE</v>
       </c>
       <c r="J6" s="4">
-        <f>'[2]@npc'!$B7</f>
+        <f>'[1]@npc'!$B7</f>
         <v>3</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>'[2]@npc'!$C7</f>
+        <f>'[1]@npc'!$C7</f>
         <v>엘리트 몬스터</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="str">
-        <f>'[1]@tribe'!$A8</f>
-        <v>ANDROID</v>
+      <c r="M6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B7" s="4">
-        <f>'[1]@tribe'!$B8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f>'[1]@tribe'!$C8</f>
-        <v>안드로이드</v>
+      <c r="C7" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>'[2]@npc'!$A8</f>
+        <f>'[1]@npc'!$A8</f>
         <v>BOSS</v>
       </c>
       <c r="J7" s="4">
-        <f>'[2]@npc'!$B8</f>
+        <f>'[1]@npc'!$B8</f>
         <v>4</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>'[2]@npc'!$C8</f>
+        <f>'[1]@npc'!$C8</f>
         <v>보스 몬스터</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="str">
-        <f>'[1]@tribe'!$A9</f>
-        <v>DEVIL</v>
+      <c r="M7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B8" s="4">
-        <f>'[1]@tribe'!$B9</f>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f>'[1]@tribe'!$C9</f>
-        <v>악마</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="str">
-        <f>'[1]@tribe'!$A10</f>
-        <v>ANGEL</v>
+      <c r="C8" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B9" s="4">
-        <f>'[1]@tribe'!$B10</f>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <f>'[1]@tribe'!$C10</f>
-        <v>천사</v>
+      <c r="C9" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1922,31 +2019,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1954,25 +2058,49 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1980,25 +2108,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2006,25 +2158,49 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2032,26 +2208,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D5,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>탱커</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C5,'!참조_ENUM'!$B$3:$B$9,0))</f>
+      <c r="G5" s="8" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F5,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
-      <c r="E5" s="4">
+      <c r="H5" s="4">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="4">
+        <v>170</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="4">
         <v>100001</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2059,26 +2258,49 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C6,'!참조_ENUM'!$B$3:$B$9,0))</f>
+      <c r="E6" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D6,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>딜러</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F6,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
-      <c r="E6" s="4">
+      <c r="H6" s="4">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="4">
+        <v>160</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="4">
         <v>100002</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2086,26 +2308,49 @@
         <v>67</v>
       </c>
       <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C7,'!참조_ENUM'!$B$3:$B$9,0))</f>
+      <c r="E7" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D7,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>딜러</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F7,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
-      <c r="E7" s="4">
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="4">
+        <v>150</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="4">
         <v>100003</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2113,26 +2358,49 @@
         <v>68</v>
       </c>
       <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D8,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>서포터</v>
+      </c>
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C8,'!참조_ENUM'!$B$3:$B$9,0))</f>
+      <c r="G8" s="8" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F8,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
-      <c r="E8" s="4">
+      <c r="H8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="4">
+        <v>168</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="4">
         <v>100004</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2140,26 +2408,49 @@
         <v>69</v>
       </c>
       <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D9,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>힐러</v>
+      </c>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C9,'!참조_ENUM'!$B$3:$B$9,0))</f>
+      <c r="G9" s="8" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F9,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
-      <c r="E9" s="4">
+      <c r="H9" s="4">
+        <v>22</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="4">
+        <v>167</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="4">
         <v>100005</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2167,36 +2458,60 @@
         <v>70</v>
       </c>
       <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D10,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>힐러</v>
+      </c>
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(C10,'!참조_ENUM'!$B$3:$B$9,0))</f>
+      <c r="G10" s="8" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F10,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>엘프족</v>
       </c>
-      <c r="E10" s="4">
+      <c r="H10" s="4">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="4">
+        <v>156</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="4">
         <v>100006</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB1BCE71-3EAB-4590-9217-600A06D14B9E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2D309E3-2B23-42F9-9AB3-CC28C1A0CAC9}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$9</xm:f>
+            <xm:f>'!참조_ENUM'!$N$3:$N$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C10</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2206,34 +2521,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,49 +2562,58 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2291,25 +2621,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -2330,10 +2660,19 @@
         <v>21</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2341,49 +2680,58 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2391,50 +2739,58 @@
         <v>60</v>
       </c>
       <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D5,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>500</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>20</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <v>10</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="4">
+        <v>100</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2442,50 +2798,58 @@
         <v>62</v>
       </c>
       <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D6,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>500</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>21</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>12</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>10</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="R6" s="4">
+        <v>100</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2493,50 +2857,58 @@
         <v>60</v>
       </c>
       <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>25</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>500</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>22</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Q7" s="4">
         <v>10</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="4">
+        <v>100</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2544,50 +2916,58 @@
         <v>62</v>
       </c>
       <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
         <v>28</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D8,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>500</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>23</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>0.1</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <v>10</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="R8" s="4">
+        <v>100</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2595,50 +2975,58 @@
         <v>60</v>
       </c>
       <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
         <v>35</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D9,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>500</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>24</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>0.1</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <v>10</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="R9" s="4">
+        <v>100</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2646,46 +3034,54 @@
         <v>62</v>
       </c>
       <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
         <v>32</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D10,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>500</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>25</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>0.1</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <v>10</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="4">
+        <v>100</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2693,18 +3089,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91720D30-9468-4AB6-BAC6-9A5D46CCF4E3}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2713,7 +3097,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2765,7 +3149,7 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(A5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
@@ -2777,7 +3161,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(A6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
@@ -2789,7 +3173,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(A7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
@@ -2813,4 +3197,123 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A5,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>탱커</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A6,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>딜러</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A7,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>서포터</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A8,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>힐러</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4DCC7D4-63FC-4AC0-9034-73DB73E842EA}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$N$3:$N$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A0535-7902-4226-B104-3445DE505309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C4BF8-1598-48A2-98DD-5856C8E96D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,18 +811,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attack_recovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Role_Icon_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,6 +959,33 @@
   </si>
   <si>
     <t>힐러</t>
+  </si>
+  <si>
+    <t>UI 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd_prefab_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100006</t>
   </si>
 </sst>
 </file>
@@ -1740,37 +1759,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I1" t="str">
         <f>'[1]@npc'!$A$1</f>
         <v>NPC_TYPE</v>
       </c>
       <c r="M1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>'[1]@npc'!$A3</f>
@@ -1785,18 +1804,18 @@
         <v>comment</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1805,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>'[1]@npc'!$A4</f>
@@ -1826,33 +1845,33 @@
         <v>NONE</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@npc'!$A5</f>
@@ -1867,33 +1886,33 @@
         <v>우호 NPC</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@npc'!$A6</f>
@@ -1908,33 +1927,33 @@
         <v>일반 몬스터</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@npc'!$A7</f>
@@ -1949,24 +1968,24 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N6" s="4">
         <v>3</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@npc'!$A8</f>
@@ -1981,35 +2000,35 @@
         <v>보스 몬스터</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N7" s="4">
         <v>4</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2020,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2039,18 +2058,19 @@
     <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.875" customWidth="1"/>
+    <col min="15" max="15" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2084,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2091,16 +2111,19 @@
         <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2149,8 +2172,11 @@
       <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2161,10 +2187,10 @@
         <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>66</v>
@@ -2173,16 +2199,16 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
@@ -2191,16 +2217,19 @@
         <v>77</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2243,14 +2272,17 @@
         <v>81</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2293,14 +2325,17 @@
         <v>82</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2343,14 +2378,17 @@
         <v>98</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2393,14 +2431,17 @@
         <v>95</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2443,14 +2484,17 @@
         <v>99</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2493,10 +2537,13 @@
         <v>95</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2521,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2545,16 +2592,15 @@
     <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2607,13 +2653,10 @@
         <v>48</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2666,13 +2709,10 @@
         <v>21</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2680,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>84</v>
@@ -2710,7 +2750,7 @@
         <v>56</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>94</v>
@@ -2725,13 +2765,10 @@
         <v>57</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2748,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>85</v>
@@ -2783,14 +2820,11 @@
       <c r="Q5" s="4">
         <v>10</v>
       </c>
-      <c r="R5" s="4">
-        <v>100</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2807,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>86</v>
@@ -2842,14 +2876,11 @@
       <c r="Q6" s="4">
         <v>10</v>
       </c>
-      <c r="R6" s="4">
-        <v>100</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2866,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>87</v>
@@ -2901,14 +2932,11 @@
       <c r="Q7" s="4">
         <v>10</v>
       </c>
-      <c r="R7" s="4">
-        <v>100</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2925,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>88</v>
@@ -2960,14 +2988,11 @@
       <c r="Q8" s="4">
         <v>10</v>
       </c>
-      <c r="R8" s="4">
-        <v>100</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2984,7 +3009,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>89</v>
@@ -3019,14 +3044,11 @@
       <c r="Q9" s="4">
         <v>10</v>
       </c>
-      <c r="R9" s="4">
-        <v>100</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3043,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>96</v>
@@ -3078,10 +3100,7 @@
       <c r="Q10" s="4">
         <v>10</v>
       </c>
-      <c r="R10" s="4">
-        <v>100</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3216,12 +3235,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -3232,7 +3251,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3243,7 +3262,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C4BF8-1598-48A2-98DD-5856C8E96D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F3A9B9-C9D3-4715-9A34-B4B619BCACDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="50280" yWindow="1485" windowWidth="14490" windowHeight="18420" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="175">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,14 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접근 사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[100501, 100502,100503]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,14 +699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Heros/Hero_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태생 성급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,10 +783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 최대 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,10 +815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,23 +941,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100001</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/Hero_100006</t>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1759,37 +1756,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I1" t="str">
         <f>'[1]@npc'!$A$1</f>
         <v>NPC_TYPE</v>
       </c>
       <c r="M1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>'[1]@npc'!$A3</f>
@@ -1804,18 +1801,18 @@
         <v>comment</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1824,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>'[1]@npc'!$A4</f>
@@ -1845,33 +1842,33 @@
         <v>NONE</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@npc'!$A5</f>
@@ -1886,33 +1883,33 @@
         <v>우호 NPC</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@npc'!$A6</f>
@@ -1927,33 +1924,33 @@
         <v>일반 몬스터</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@npc'!$A7</f>
@@ -1968,24 +1965,24 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="N6" s="4">
         <v>3</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@npc'!$A8</f>
@@ -2000,35 +1997,35 @@
         <v>보스 몬스터</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N7" s="4">
         <v>4</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2041,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2078,13 +2075,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2093,16 +2090,16 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
@@ -2111,13 +2108,13 @@
         <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>8</v>
@@ -2134,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2184,13 +2181,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>66</v>
@@ -2199,16 +2196,16 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
@@ -2217,13 +2214,13 @@
         <v>77</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>15</v>
@@ -2257,22 +2254,22 @@
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>74</v>
@@ -2310,22 +2307,22 @@
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>75</v>
@@ -2363,22 +2360,22 @@
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>74</v>
@@ -2416,22 +2413,22 @@
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>75</v>
@@ -2469,22 +2466,22 @@
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>74</v>
@@ -2522,22 +2519,22 @@
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>75</v>
@@ -2568,39 +2565,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,55 +2604,52 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2664,25 +2657,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -2706,13 +2699,10 @@
         <v>21</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2720,55 +2710,52 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2776,55 +2763,52 @@
         <v>60</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>85</v>
+      <c r="E5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J5" s="4">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
       <c r="O5" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" s="4">
         <v>10</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2832,55 +2816,52 @@
         <v>62</v>
       </c>
       <c r="C6" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>86</v>
+      <c r="E6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J6" s="4">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L6" s="4">
-        <v>12</v>
+        <v>0.01</v>
       </c>
       <c r="M6" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
       </c>
       <c r="O6" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Q6" s="4">
         <v>10</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2888,55 +2869,52 @@
         <v>60</v>
       </c>
       <c r="C7" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>87</v>
+      <c r="E7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J7" s="4">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="K7" s="4">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="M7" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
       <c r="O7" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Q7" s="4">
         <v>10</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2944,55 +2922,52 @@
         <v>62</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>88</v>
+      <c r="E8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J8" s="4">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L8" s="4">
-        <v>12</v>
+        <v>0.01</v>
       </c>
       <c r="M8" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
       </c>
       <c r="O8" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Q8" s="4">
         <v>10</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -3000,55 +2975,52 @@
         <v>60</v>
       </c>
       <c r="C9" s="4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>89</v>
+      <c r="E9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J9" s="4">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="M9" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="4">
         <v>10</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3056,51 +3028,48 @@
         <v>62</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>96</v>
+      <c r="E10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J10" s="4">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="K10" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L10" s="4">
-        <v>12</v>
+        <v>0.01</v>
       </c>
       <c r="M10" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
       </c>
       <c r="O10" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" s="4">
         <v>10</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3235,12 +3204,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -3251,7 +3220,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3262,7 +3231,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F3A9B9-C9D3-4715-9A34-B4B619BCACDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7798AFB-C78C-4494-97FA-8D6DB9D54135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50280" yWindow="1485" windowWidth="14490" windowHeight="18420" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -615,14 +615,6 @@
     <t>Assets/AssetResources/Textures/UI/Deck/Icon_Range_Back</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/pc_icons/100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/pc_icons/100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,6 +974,13 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,6 +1191,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
       <sheetName val="@role"/>
       <sheetName val="@npc"/>
@@ -1214,10 +1214,29 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
             <v>NPC_TYPE</v>
@@ -1290,7 +1309,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1307,6 +1325,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1756,37 +1781,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I1" t="str">
         <f>'[1]@npc'!$A$1</f>
         <v>NPC_TYPE</v>
       </c>
       <c r="M1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>'[1]@npc'!$A3</f>
@@ -1801,18 +1826,18 @@
         <v>comment</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1821,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>'[1]@npc'!$A4</f>
@@ -1842,33 +1867,33 @@
         <v>NONE</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@npc'!$A5</f>
@@ -1883,33 +1908,33 @@
         <v>우호 NPC</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@npc'!$A6</f>
@@ -1924,33 +1949,33 @@
         <v>일반 몬스터</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@npc'!$A7</f>
@@ -1965,24 +1990,24 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N6" s="4">
         <v>3</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@npc'!$A8</f>
@@ -1997,35 +2022,35 @@
         <v>보스 몬스터</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N7" s="4">
         <v>4</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2038,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2063,7 +2088,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" s="9"/>
     </row>
@@ -2075,13 +2100,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2090,31 +2115,31 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>8</v>
@@ -2131,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2181,13 +2206,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>66</v>
@@ -2196,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>15</v>
@@ -2254,25 +2279,25 @@
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
@@ -2307,25 +2332,25 @@
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
@@ -2360,25 +2385,25 @@
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
@@ -2413,25 +2438,25 @@
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
@@ -2466,25 +2491,25 @@
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
@@ -2519,25 +2544,25 @@
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
@@ -2567,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2593,7 +2618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2629,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -2631,16 +2656,16 @@
         <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>48</v>
@@ -2710,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -2737,16 +2762,16 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>57</v>
@@ -2769,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2822,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2875,10 +2900,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2928,10 +2953,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2981,10 +3006,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3034,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3097,7 +3122,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3204,12 +3229,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -3220,7 +3245,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3231,7 +3256,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7798AFB-C78C-4494-97FA-8D6DB9D54135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C1C03-E08A-4EF7-91E0-BB3671F622B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,108 +823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRIBE_TYPE</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>HUMAN</t>
-  </si>
-  <si>
-    <t>인간종족</t>
-  </si>
-  <si>
-    <t>ELF</t>
-  </si>
-  <si>
-    <t>엘프족</t>
-  </si>
-  <si>
-    <t>WEREBEAST</t>
-  </si>
-  <si>
-    <t>수인족</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>안드로이드</t>
-  </si>
-  <si>
-    <t>DEVIL</t>
-  </si>
-  <si>
-    <t>악마</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>천사</t>
-  </si>
-  <si>
-    <t>POSITION_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
-    <t>전열 배치</t>
-  </si>
-  <si>
-    <t>MIDDLE</t>
-  </si>
-  <si>
-    <t>중열 배치</t>
-  </si>
-  <si>
-    <t>BACK</t>
-  </si>
-  <si>
-    <t>후열 배치</t>
-  </si>
-  <si>
-    <t>ROLE_TYPE</t>
-  </si>
-  <si>
-    <t>TANKER</t>
-  </si>
-  <si>
-    <t>탱커</t>
-  </si>
-  <si>
-    <t>DEARLER</t>
-  </si>
-  <si>
-    <t>딜러</t>
-  </si>
-  <si>
-    <t>SUPPORTER</t>
-  </si>
-  <si>
-    <t>서포터</t>
-  </si>
-  <si>
-    <t>HEALER</t>
-  </si>
-  <si>
-    <t>힐러</t>
-  </si>
-  <si>
     <t>UI 프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,6 +880,30 @@
   <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 탱커</t>
+  </si>
+  <si>
+    <t>2 딜러</t>
+  </si>
+  <si>
+    <t>3 서포터</t>
+  </si>
+  <si>
+    <t>4 힐러</t>
+  </si>
+  <si>
+    <t>2 엘프족</t>
+  </si>
+  <si>
+    <t>1 전열 배치</t>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
+  </si>
+  <si>
+    <t>3 후열 배치</t>
   </si>
 </sst>
 </file>
@@ -1220,6 +1142,94 @@
             <v>TRIBE_TYPE</v>
           </cell>
         </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>HUMAN</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 인간종족</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ELF</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 엘프족</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>WEREBEAST</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 수인족</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ANDROID</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 안드로이드</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>DEVIL</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 악마</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ANGEL</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 천사</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
@@ -1228,11 +1238,132 @@
             <v>POSITION_TYPE</v>
           </cell>
         </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>FRONT</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 전열 배치</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MIDDLE</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 중열 배치</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>BACK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 후열 배치</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
             <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>TANKER</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 탱커</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DEARLER</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 딜러</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SUPPORTER</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 서포터</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>HEALER</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 힐러</v>
           </cell>
         </row>
       </sheetData>
@@ -1272,7 +1403,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>우호 NPC</v>
+            <v>1 우호 NPC</v>
           </cell>
         </row>
         <row r="6">
@@ -1283,7 +1414,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>일반 몬스터</v>
+            <v>2 일반 몬스터</v>
           </cell>
         </row>
         <row r="7">
@@ -1294,7 +1425,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>엘리트 몬스터</v>
+            <v>3 엘리트 몬스터</v>
           </cell>
         </row>
         <row r="8">
@@ -1305,7 +1436,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>보스 몬스터</v>
+            <v>4 보스 몬스터</v>
           </cell>
         </row>
       </sheetData>
@@ -1325,13 +1456,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1766,7 +1891,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1774,44 +1899,55 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
+      <c r="A1" t="str">
+        <f>'[1]@tribe'!$A$1</f>
+        <v>TRIBE_TYPE</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'[1]@position'!$A$1</f>
+        <v>POSITION_TYPE</v>
       </c>
       <c r="I1" t="str">
         <f>'[1]@npc'!$A$1</f>
         <v>NPC_TYPE</v>
       </c>
-      <c r="M1" t="s">
-        <v>151</v>
+      <c r="M1" t="str">
+        <f>'[1]@role'!$A$1</f>
+        <v>ROLE_TYPE</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>129</v>
+      <c r="A2" s="5" t="str">
+        <f>'[1]@tribe'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f>'[1]@tribe'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>'[1]@tribe'!$C3</f>
+        <v>comment</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>'[1]@position'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>'[1]@position'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>'[1]@position'!$C3</f>
+        <v>comment</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>'[1]@npc'!$A3</f>
@@ -1821,38 +1957,47 @@
         <f>'[1]@npc'!$B3</f>
         <v>value</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="1" t="str">
         <f>'[1]@npc'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>129</v>
+      <c r="M2" s="5" t="str">
+        <f>'[1]@role'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="N2" s="5" t="str">
+        <f>'[1]@role'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f>'[1]@role'!$C3</f>
+        <v>comment</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>130</v>
+      <c r="A3" s="4" t="str">
+        <f>'[1]@tribe'!$A4</f>
+        <v>NONE</v>
       </c>
       <c r="B3" s="4">
+        <f>'[1]@tribe'!$B4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="str">
+        <f>'[1]@tribe'!$C4</f>
+        <v>NONE</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>'[1]@position'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'[1]@position'!$B4</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>144</v>
+      <c r="G3" s="4" t="str">
+        <f>'[1]@position'!$C4</f>
+        <v>NONE</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>'[1]@npc'!$A4</f>
@@ -1866,34 +2011,43 @@
         <f>'[1]@npc'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>130</v>
+      <c r="M3" s="4" t="str">
+        <f>'[1]@role'!$A4</f>
+        <v>NONE</v>
       </c>
       <c r="N3" s="4">
+        <f>'[1]@role'!$B4</f>
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>130</v>
+      <c r="O3" s="4" t="str">
+        <f>'[1]@role'!$C4</f>
+        <v>NONE</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>131</v>
+      <c r="A4" s="4" t="str">
+        <f>'[1]@tribe'!$A5</f>
+        <v>HUMAN</v>
       </c>
       <c r="B4" s="4">
+        <f>'[1]@tribe'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>145</v>
+      <c r="C4" s="4" t="str">
+        <f>'[1]@tribe'!$C5</f>
+        <v>1 인간종족</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>'[1]@position'!$A5</f>
+        <v>FRONT</v>
       </c>
       <c r="F4" s="4">
+        <f>'[1]@position'!$B5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>146</v>
+      <c r="G4" s="4" t="str">
+        <f>'[1]@position'!$C5</f>
+        <v>1 전열 배치</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@npc'!$A5</f>
@@ -1905,36 +2059,45 @@
       </c>
       <c r="K4" s="4" t="str">
         <f>'[1]@npc'!$C5</f>
-        <v>우호 NPC</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>152</v>
+        <v>1 우호 NPC</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f>'[1]@role'!$A5</f>
+        <v>TANKER</v>
       </c>
       <c r="N4" s="4">
+        <f>'[1]@role'!$B5</f>
         <v>1</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>153</v>
+      <c r="O4" s="4" t="str">
+        <f>'[1]@role'!$C5</f>
+        <v>1 탱커</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>133</v>
+      <c r="A5" s="4" t="str">
+        <f>'[1]@tribe'!$A6</f>
+        <v>ELF</v>
       </c>
       <c r="B5" s="4">
+        <f>'[1]@tribe'!$B6</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>147</v>
+      <c r="C5" s="4" t="str">
+        <f>'[1]@tribe'!$C6</f>
+        <v>2 엘프족</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>'[1]@position'!$A6</f>
+        <v>MIDDLE</v>
       </c>
       <c r="F5" s="4">
+        <f>'[1]@position'!$B6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>148</v>
+      <c r="G5" s="4" t="str">
+        <f>'[1]@position'!$C6</f>
+        <v>2 중열 배치</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@npc'!$A6</f>
@@ -1946,36 +2109,45 @@
       </c>
       <c r="K5" s="4" t="str">
         <f>'[1]@npc'!$C6</f>
-        <v>일반 몬스터</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>154</v>
+        <v>2 일반 몬스터</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f>'[1]@role'!$A6</f>
+        <v>DEARLER</v>
       </c>
       <c r="N5" s="4">
+        <f>'[1]@role'!$B6</f>
         <v>2</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>155</v>
+      <c r="O5" s="4" t="str">
+        <f>'[1]@role'!$C6</f>
+        <v>2 딜러</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>135</v>
+      <c r="A6" s="4" t="str">
+        <f>'[1]@tribe'!$A7</f>
+        <v>WEREBEAST</v>
       </c>
       <c r="B6" s="4">
+        <f>'[1]@tribe'!$B7</f>
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>149</v>
+      <c r="C6" s="4" t="str">
+        <f>'[1]@tribe'!$C7</f>
+        <v>3 수인족</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>'[1]@position'!$A7</f>
+        <v>BACK</v>
       </c>
       <c r="F6" s="4">
+        <f>'[1]@position'!$B7</f>
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>150</v>
+      <c r="G6" s="4" t="str">
+        <f>'[1]@position'!$C7</f>
+        <v>3 후열 배치</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@npc'!$A7</f>
@@ -1987,27 +2159,33 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>'[1]@npc'!$C7</f>
-        <v>엘리트 몬스터</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>156</v>
+        <v>3 엘리트 몬스터</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f>'[1]@role'!$A7</f>
+        <v>SUPPORTER</v>
       </c>
       <c r="N6" s="4">
+        <f>'[1]@role'!$B7</f>
         <v>3</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>157</v>
+      <c r="O6" s="4" t="str">
+        <f>'[1]@role'!$C7</f>
+        <v>3 서포터</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>137</v>
+      <c r="A7" s="4" t="str">
+        <f>'[1]@tribe'!$A8</f>
+        <v>ANDROID</v>
       </c>
       <c r="B7" s="4">
+        <f>'[1]@tribe'!$B8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>138</v>
+      <c r="C7" s="4" t="str">
+        <f>'[1]@tribe'!$C8</f>
+        <v>4 안드로이드</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@npc'!$A8</f>
@@ -2019,38 +2197,47 @@
       </c>
       <c r="K7" s="4" t="str">
         <f>'[1]@npc'!$C8</f>
-        <v>보스 몬스터</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>158</v>
+        <v>4 보스 몬스터</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>'[1]@role'!$A8</f>
+        <v>HEALER</v>
       </c>
       <c r="N7" s="4">
+        <f>'[1]@role'!$B8</f>
         <v>4</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>159</v>
+      <c r="O7" s="4" t="str">
+        <f>'[1]@role'!$C8</f>
+        <v>4 힐러</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>139</v>
+      <c r="A8" s="4" t="str">
+        <f>'[1]@tribe'!$A9</f>
+        <v>DEVIL</v>
       </c>
       <c r="B8" s="4">
+        <f>'[1]@tribe'!$B9</f>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>140</v>
+      <c r="C8" s="4" t="str">
+        <f>'[1]@tribe'!$C9</f>
+        <v>5 악마</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>141</v>
+      <c r="A9" s="4" t="str">
+        <f>'[1]@tribe'!$A10</f>
+        <v>ANGEL</v>
       </c>
       <c r="B9" s="4">
+        <f>'[1]@tribe'!$B10</f>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>142</v>
+      <c r="C9" s="4" t="str">
+        <f>'[1]@tribe'!$C10</f>
+        <v>6 천사</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2320,7 @@
         <v>74</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
@@ -2239,7 +2426,7 @@
         <v>75</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>14</v>
@@ -2262,18 +2449,18 @@
         <v>3</v>
       </c>
       <c r="D5" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D5,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>탱커</v>
+      <c r="E5" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="F5" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F5,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
+      <c r="G5" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
@@ -2291,13 +2478,13 @@
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
@@ -2315,18 +2502,18 @@
         <v>3</v>
       </c>
       <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D6,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>딜러</v>
+      <c r="E6" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F6" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G6" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F6,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
+      <c r="G6" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
@@ -2344,13 +2531,13 @@
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
@@ -2368,18 +2555,18 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D7,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>딜러</v>
+      <c r="E7" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F7" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G7" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F7,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
+      <c r="G7" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
@@ -2397,13 +2584,13 @@
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
@@ -2421,18 +2608,18 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D8,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>서포터</v>
+      <c r="E8" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="F8" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G8" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F8,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
+      <c r="G8" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
@@ -2450,13 +2637,13 @@
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
@@ -2474,18 +2661,18 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="E9" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D9,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>힐러</v>
+      <c r="E9" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="F9" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G9" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F9,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
+      <c r="G9" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
@@ -2503,13 +2690,13 @@
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
@@ -2527,18 +2714,18 @@
         <v>3</v>
       </c>
       <c r="D10" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="E10" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(D10,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>힐러</v>
+      <c r="E10" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="F10" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G10" s="8" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(F10,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>엘프족</v>
+      <c r="G10" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
@@ -2556,13 +2743,13 @@
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
@@ -2575,12 +2762,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2D309E3-2B23-42F9-9AB3-CC28C1A0CAC9}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F419FD-C813-4E3F-9701-4E344FD4F16F}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$N$3:$N$7</xm:f>
+            <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>E5:E10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5:G10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2593,7 +2786,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2791,6 +2984,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2844,6 +3038,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2897,10 +3092,11 @@
         <v>25</v>
       </c>
       <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>83</v>
@@ -2950,10 +3146,11 @@
         <v>28</v>
       </c>
       <c r="D8" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>84</v>
@@ -3003,10 +3200,11 @@
         <v>35</v>
       </c>
       <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>85</v>
@@ -3056,10 +3254,11 @@
         <v>32</v>
       </c>
       <c r="D10" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E10,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>91</v>
@@ -3102,6 +3301,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EDE5AAC-EA03-49C0-8F36-A8C87C852493}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3110,13 +3321,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="55.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3160,11 +3371,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(A5,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
+      <c r="B5" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>71</v>
@@ -3172,11 +3383,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(A6,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>72</v>
@@ -3184,11 +3395,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(A7,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
+      <c r="B7" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>73</v>
@@ -3199,12 +3410,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7B19488-04A6-4427-B577-24C6D5664A51}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6FB2740-FBB8-461F-933D-644A7FCD7CD7}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A7</xm:sqref>
+          <xm:sqref>B5:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3216,14 +3427,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3267,11 +3478,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A5,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>탱커</v>
+      <c r="B5" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>71</v>
@@ -3279,11 +3490,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A6,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>딜러</v>
+      <c r="B6" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>72</v>
@@ -3291,11 +3502,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A7,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>서포터</v>
+      <c r="B7" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>73</v>
@@ -3303,11 +3514,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(A8,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>힐러</v>
+      <c r="B8" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>73</v>
@@ -3319,11 +3530,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4DCC7D4-63FC-4AC0-9034-73DB73E842EA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{132A07EF-E29B-4FB8-8FED-9AEFB590EA3A}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$N$3:$N$7</xm:f>
+            <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A8</xm:sqref>
+          <xm:sqref>B5:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C1C03-E08A-4EF7-91E0-BB3671F622B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC1126D-B010-469C-A990-C6255904A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="159">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,15 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/UI/Deck/Icon_Range_Front</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Deck/Icon_Range_Middle</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Deck/Icon_Range_Back</t>
-  </si>
-  <si>
     <t>프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,10 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bone_star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Illustration_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,6 +891,58 @@
   </si>
   <si>
     <t>3 후열 배치</t>
+  </si>
+  <si>
+    <t>default_star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Supporter</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Dealer</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Front</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Tanker</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Dealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Supporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1022,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1045,13 +1084,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1137,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,6 +1193,8 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1457,6 +1518,8 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2251,7 +2314,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2275,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I1" s="9"/>
     </row>
@@ -2287,13 +2350,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2302,31 +2365,31 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>8</v>
@@ -2343,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2393,13 +2456,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>66</v>
@@ -2408,31 +2471,31 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>15</v>
@@ -2453,38 +2516,38 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
@@ -2506,38 +2569,38 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
@@ -2559,38 +2622,38 @@
         <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
@@ -2612,38 +2675,38 @@
         <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
@@ -2665,38 +2728,38 @@
         <v>4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
@@ -2718,38 +2781,38 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
@@ -2811,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2885,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -2849,16 +2912,16 @@
         <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>48</v>
@@ -2928,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -2955,16 +3018,16 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>57</v>
@@ -2988,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -3042,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3096,10 +3159,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3150,10 +3213,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3204,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3258,10 +3321,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3321,19 +3384,19 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3375,10 +3438,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3387,10 +3450,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3399,10 +3462,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3425,27 +3488,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -3453,10 +3517,13 @@
       <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3464,10 +3531,13 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -3475,53 +3545,68 @@
       <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC1126D-B010-469C-A990-C6255904A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23CF0A-842F-43FC-A548-1C63258E4D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1125" yWindow="1920" windowWidth="35370" windowHeight="15435" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -914,10 +914,6 @@
     <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Front</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,6 +938,10 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3383,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027EC5D8-FC36-4542-A37D-F1864C3593F6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3453,7 +3453,7 @@
         <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
         <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3518,7 +3518,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3561,7 +3561,7 @@
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3576,7 +3576,7 @@
         <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3606,7 +3606,7 @@
         <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23CF0A-842F-43FC-A548-1C63258E4D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62FCDB-192E-48CD-8FA3-5EDED041BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1920" windowWidth="35370" windowHeight="15435" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39885" yWindow="4050" windowWidth="35370" windowHeight="15435" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="165">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +942,30 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_bg_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Dealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Supporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Healer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1084,24 +1108,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,15 +1150,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3383,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027EC5D8-FC36-4542-A37D-F1864C3593F6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3488,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3500,14 +3504,15 @@
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="60.625" customWidth="1"/>
     <col min="4" max="4" width="59.75" customWidth="1"/>
+    <col min="5" max="5" width="62.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -3517,11 +3522,14 @@
       <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>119</v>
       </c>
@@ -3531,11 +3539,14 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
@@ -3545,11 +3556,14 @@
       <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
@@ -3560,11 +3574,14 @@
       <c r="C5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
@@ -3575,11 +3592,14 @@
       <c r="C6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
@@ -3590,11 +3610,14 @@
       <c r="C7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
@@ -3605,8 +3628,11 @@
       <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>157</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62FCDB-192E-48CD-8FA3-5EDED041BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F24AD2-5ED2-4534-BF13-DD182635CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39885" yWindow="4050" windowWidth="35370" windowHeight="15435" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1182,7 +1182,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1199,6 +1198,12 @@
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1524,6 +1529,11 @@
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2852,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3048,7 +3058,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3102,7 +3112,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3156,7 +3166,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="4">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3210,7 +3220,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3264,7 +3274,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="4">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3318,7 +3328,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="4">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E10,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3494,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F24AD2-5ED2-4534-BF13-DD182635CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DC858-E4CA-47EB-ABA4-DF06BB076660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39420" yWindow="915" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1510,19 +1510,73 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -2327,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2863,7 +2917,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3098,7 +3152,7 @@
         <v>0.1</v>
       </c>
       <c r="P5" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>61</v>
@@ -3152,7 +3206,7 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>63</v>
@@ -3206,7 +3260,7 @@
         <v>0.1</v>
       </c>
       <c r="P7" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>61</v>
@@ -3260,7 +3314,7 @@
         <v>0.1</v>
       </c>
       <c r="P8" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>63</v>
@@ -3314,7 +3368,7 @@
         <v>0.1</v>
       </c>
       <c r="P9" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>61</v>
@@ -3368,7 +3422,7 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>63</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DC858-E4CA-47EB-ABA4-DF06BB076660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2954E75-CF35-4F83-86C1-1E2052E4B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="915" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,10 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,10 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI 프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sd_prefab_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -966,6 +958,30 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 UI 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투용 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 스탠딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 서약 스탠딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#lobby_basic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#lobby_merry_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,7 +1219,7 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@sd_body_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1510,73 +1526,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -1587,7 +1549,7 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2379,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2398,19 +2360,21 @@
     <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.875" customWidth="1"/>
-    <col min="15" max="15" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2418,13 +2382,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2433,37 +2397,43 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2507,16 +2477,22 @@
         <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2524,13 +2500,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>66</v>
@@ -2539,37 +2515,43 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2584,45 +2566,47 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2637,45 +2621,47 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2690,45 +2676,47 @@
         <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2743,45 +2731,47 @@
         <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2796,45 +2786,47 @@
         <v>4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2849,41 +2841,43 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2916,7 +2910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -2942,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,7 +2947,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -2980,16 +2974,16 @@
         <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>48</v>
@@ -3059,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -3086,16 +3080,16 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>57</v>
@@ -3119,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -3173,10 +3167,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3227,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3281,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3335,10 +3329,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3389,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3464,7 +3458,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3506,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3518,10 +3512,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3530,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3573,12 +3567,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -3587,15 +3581,15 @@
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3612,7 +3606,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -3621,10 +3615,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3633,16 +3627,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,16 +3645,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3669,16 +3663,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3687,16 +3681,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2954E75-CF35-4F83-86C1-1E2052E4B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6D81F-862A-4C09-BDDF-A173E7052685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -889,20 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Tanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Supporter</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Dealer</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Job_Healer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Front</t>
   </si>
   <si>
@@ -918,21 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Tanker</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Dealer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Supporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Job_Healer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/UI/CharacterInfo/Img_Position_Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,22 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Tanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Dealer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Supporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Common/Box_Job_Tag_Healer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결과 UI 프리팹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,6 +938,42 @@
   <si>
     <t>#lobby_merry_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Role_Tanker</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Role_Tanker</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Role_Tag_Tanker</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Role_Dealer</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Role_Dealer</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Role_Tag_Dealer</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Role_Supporter</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Role_Supporter</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Role_Tag_Supporter</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Role_Healer</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Icon_Slot_Role_Healer</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Common/Box_Role_Tag_Healer</t>
   </si>
 </sst>
 </file>
@@ -1220,6 +1211,8 @@
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
+      <sheetName val="@effect_count_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1526,19 +1519,73 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -1550,6 +1597,14 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2343,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -2412,16 +2467,16 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
@@ -2536,10 +2591,10 @@
         <v>121</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>14</v>
@@ -3503,7 +3558,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3515,7 +3570,7 @@
         <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3527,7 +3582,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3552,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A2:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3581,10 +3636,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3615,10 +3670,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3630,10 +3685,10 @@
         <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>159</v>
@@ -3648,13 +3703,13 @@
         <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3666,13 +3721,13 @@
         <v>137</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3684,13 +3739,13 @@
         <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6D81F-862A-4C09-BDDF-A173E7052685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044454D-96FD-48CE-B317-7E3B8E5BA5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41040" yWindow="690" windowWidth="35760" windowHeight="19920" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,14 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 이동 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,6 +966,30 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/UI/Common/Box_Role_Tag_Healer</t>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1199,7 +1215,6 @@
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
-      <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
@@ -1210,8 +1225,9 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@effect_count_type"/>
+      <sheetName val="@projectile_type"/>
       <sheetName val="@sd_body_type"/>
-      <sheetName val="@effect_count_type"/>
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
@@ -1519,73 +1535,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -1596,14 +1558,8 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2425,7 +2381,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="9"/>
     </row>
@@ -2437,13 +2393,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2452,37 +2408,37 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>8</v>
@@ -2499,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2555,52 +2511,52 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>15</v>
@@ -2621,40 +2577,40 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
@@ -2676,40 +2632,40 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
@@ -2721,7 +2677,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -2731,40 +2687,40 @@
         <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
@@ -2776,7 +2732,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -2786,40 +2742,40 @@
         <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
@@ -2831,7 +2787,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -2841,40 +2797,40 @@
         <v>4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
@@ -2886,7 +2842,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -2896,40 +2852,40 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
@@ -2963,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2979,22 +2935,23 @@
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3002,7 +2959,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -3023,31 +2980,37 @@
         <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3097,10 +3060,16 @@
         <v>21</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -3117,48 +3086,54 @@
         <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -3168,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -3186,33 +3161,39 @@
         <v>20</v>
       </c>
       <c r="K5" s="4">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.01</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <v>0.1</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <v>5</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
@@ -3222,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3240,33 +3221,39 @@
         <v>21</v>
       </c>
       <c r="K6" s="4">
+        <v>21</v>
+      </c>
+      <c r="L6" s="4">
         <v>12</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.01</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>0.1</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <v>5</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
@@ -3276,10 +3263,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3294,33 +3281,39 @@
         <v>22</v>
       </c>
       <c r="K7" s="4">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.01</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Q7" s="4">
         <v>0.1</v>
       </c>
-      <c r="P7" s="4">
+      <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -3330,10 +3323,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3348,33 +3341,39 @@
         <v>23</v>
       </c>
       <c r="K8" s="4">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4">
         <v>0.01</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>1</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <v>0.1</v>
       </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <v>12</v>
@@ -3384,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3402,33 +3401,39 @@
         <v>24</v>
       </c>
       <c r="K9" s="4">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.01</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>1</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <v>0.1</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <v>5</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -3438,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3456,25 +3461,31 @@
         <v>25</v>
       </c>
       <c r="K10" s="4">
+        <v>25</v>
+      </c>
+      <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>12</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.01</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>1</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <v>0.1</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <v>5</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>63</v>
+      <c r="S10" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3513,18 +3524,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3546,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3555,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3567,10 +3578,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3579,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3622,29 +3633,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3661,19 +3672,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3682,16 +3693,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3700,16 +3711,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3718,16 +3729,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3736,16 +3747,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044454D-96FD-48CE-B317-7E3B8E5BA5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2614D-47D2-43D4-9743-85C23BD6D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41040" yWindow="690" windowWidth="35760" windowHeight="19920" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39135" yWindow="2730" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1215,6 +1215,7 @@
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
+      <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
@@ -1225,10 +1226,8 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
-      <sheetName val="@projectile_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1558,9 +1557,8 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2921,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3152,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>100004</v>
       </c>
       <c r="I5" s="4">
         <v>500</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2614D-47D2-43D4-9743-85C23BD6D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9512ADBF-A3F4-488E-828A-CB751D0C1C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39135" yWindow="2730" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1740" yWindow="2205" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -526,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>super_skill_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,6 +985,10 @@
   </si>
   <si>
     <t>물리 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_skill_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2379,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="9"/>
     </row>
@@ -2391,13 +2391,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2406,37 +2406,37 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>8</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2509,52 +2509,52 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>15</v>
@@ -2575,40 +2575,40 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
@@ -2630,40 +2630,40 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
@@ -2675,7 +2675,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -2685,40 +2685,40 @@
         <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
@@ -2730,7 +2730,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -2740,40 +2740,40 @@
         <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
@@ -2785,7 +2785,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -2795,40 +2795,40 @@
         <v>4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
@@ -2840,7 +2840,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -2850,40 +2850,40 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
@@ -2920,7 +2920,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2946,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2957,7 +2957,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -2978,28 +2978,28 @@
         <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>46</v>
@@ -3075,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -3090,40 +3090,40 @@
         <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -3131,7 +3131,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -3141,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -3191,7 +3191,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
@@ -3201,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -3251,7 +3251,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
@@ -3261,10 +3261,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -3321,10 +3321,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -3371,7 +3371,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4">
         <v>12</v>
@@ -3381,10 +3381,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3431,7 +3431,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -3441,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3522,15 +3522,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -3555,7 +3555,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3564,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3576,10 +3576,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3588,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3631,29 +3631,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3670,19 +3670,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3691,16 +3691,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3709,16 +3709,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3727,16 +3727,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3745,16 +3745,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9512ADBF-A3F4-488E-828A-CB751D0C1C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046AD384-3E34-4331-BB6E-0C53DA350E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2205" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="51525" yWindow="15" windowWidth="25215" windowHeight="19980" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="174">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,13 +195,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아</t>
-  </si>
-  <si>
     <t>캐릭터설명설명설명</t>
-  </si>
-  <si>
-    <t>루시아 이격</t>
   </si>
   <si>
     <t>사용 가능한 데이터 타입</t>
@@ -550,18 +544,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아 요정 타입 서포터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격하자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아 이격 요정 타입 서포터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나도 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,22 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 이격 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 이격 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,6 +960,39 @@
   <si>
     <t>special_skill_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 안드로이드</t>
+  </si>
+  <si>
+    <t>1 인간종족</t>
+  </si>
+  <si>
+    <t>바이올렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 천사</t>
   </si>
 </sst>
 </file>
@@ -1534,21 +1537,75 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1558,7 +1615,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1885,12 +1948,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1900,7 +1963,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,63 +1973,63 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2352,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2379,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I1" s="9"/>
     </row>
@@ -2391,13 +2454,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2406,37 +2469,37 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>8</v>
@@ -2453,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2468,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>0</v>
@@ -2509,52 +2572,52 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>15</v>
@@ -2565,54 +2628,54 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E5,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2620,7 +2683,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -2630,44 +2693,44 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2675,54 +2738,54 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E7,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2730,54 +2793,54 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E8,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2785,54 +2848,54 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E9,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2840,54 +2903,54 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E10,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2983,10 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2946,66 +3012,66 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -3016,16 +3082,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>0</v>
@@ -3034,34 +3100,34 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>9</v>
@@ -3075,76 +3141,77 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
+      <c r="B5" s="4" t="str">
+        <f>VLOOKUP(A5,pc_data!A:B,2)</f>
+        <v>루시아</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -3183,28 +3250,29 @@
         <v>5</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
+      <c r="B6" s="4" t="str">
+        <f>VLOOKUP(A6,pc_data!A:B,2)</f>
+        <v>라일라</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3243,28 +3311,29 @@
         <v>5</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(A7,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3303,28 +3372,29 @@
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>59</v>
+      <c r="B8" s="4" t="str">
+        <f>VLOOKUP(A8,pc_data!A:B,2)</f>
+        <v>데이지</v>
       </c>
       <c r="C8" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3363,28 +3433,29 @@
         <v>5</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
+      <c r="B9" s="4" t="str">
+        <f>VLOOKUP(A9,pc_data!A:B,2)</f>
+        <v>에일린</v>
       </c>
       <c r="C9" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3423,28 +3494,29 @@
         <v>5</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
+      <c r="B10" s="4" t="str">
+        <f>VLOOKUP(A10,pc_data!A:B,2)</f>
+        <v>클로이</v>
       </c>
       <c r="C10" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E10,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3483,7 +3555,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3522,23 +3594,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3549,13 +3621,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3564,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3576,10 +3648,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3588,10 +3660,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3631,29 +3703,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3670,19 +3742,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3691,16 +3763,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3709,16 +3781,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3727,16 +3799,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3745,16 +3817,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046AD384-3E34-4331-BB6E-0C53DA350E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B8E50C-5F2F-4DC9-A050-3B249303D05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51525" yWindow="15" windowWidth="25215" windowHeight="19980" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1223,6 +1223,7 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
@@ -1615,7 +1616,8 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
             <v>EFFECT_COUNT_TYPE</v>
@@ -2056,7 +2058,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2415,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2986,7 +2988,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>100104</v>
       </c>
       <c r="I6" s="4">
         <v>500</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B8E50C-5F2F-4DC9-A050-3B249303D05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E800D-7D11-4576-807D-97E8DFC5FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -1232,6 +1232,7 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1538,75 +1539,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1617,13 +1564,8 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2988,7 +2930,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E800D-7D11-4576-807D-97E8DFC5FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DD2E2-76A6-409A-B1F1-298D524BFED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39000" yWindow="495" windowWidth="26535" windowHeight="19980" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="180">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,30 @@
   </si>
   <si>
     <t>6 천사</t>
+  </si>
+  <si>
+    <t>별성 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#star_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1067,7 +1091,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +1134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1140,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1205,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1257,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -1233,6 +1268,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1565,7 +1601,7 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2924,42 +2960,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -2967,58 +3004,61 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3026,25 +3066,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>19</v>
@@ -3074,10 +3114,13 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3085,58 +3128,61 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3145,360 +3191,3432 @@
         <v>루시아</v>
       </c>
       <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="E5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
       <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>100004</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>500</v>
-      </c>
-      <c r="J5" s="4">
-        <v>20</v>
       </c>
       <c r="K5" s="4">
         <v>20</v>
       </c>
       <c r="L5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M5" s="4">
         <v>10</v>
       </c>
       <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
         <v>0.01</v>
       </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
       <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
         <v>0.1</v>
       </c>
-      <c r="R5" s="4">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="4">
+        <v>5</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,pc_data!A:B,2)</f>
-        <v>라일라</v>
+        <v>루시아</v>
       </c>
       <c r="C6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F6,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>100004</v>
+      </c>
+      <c r="J6" s="4">
+        <v>500</v>
+      </c>
+      <c r="K6" s="4">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>100104</v>
-      </c>
-      <c r="I6" s="4">
-        <v>500</v>
-      </c>
-      <c r="J6" s="4">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4">
-        <v>12</v>
-      </c>
-      <c r="M6" s="4">
-        <v>12</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
       <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
         <v>0.1</v>
       </c>
-      <c r="R6" s="4">
-        <v>5</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>100003</v>
+        <v>100001</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,pc_data!A:B,2)</f>
-        <v>바이올렛</v>
+        <v>루시아</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F7,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <v>100004</v>
+      </c>
+      <c r="J7" s="4">
         <v>500</v>
       </c>
-      <c r="J7" s="4">
-        <v>22</v>
-      </c>
       <c r="K7" s="4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7" s="4">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4">
         <v>0.01</v>
       </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
       <c r="P7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="4">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4">
         <v>0.1</v>
       </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="4">
+        <v>5</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>100004</v>
+        <v>100001</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,pc_data!A:B,2)</f>
-        <v>데이지</v>
+        <v>루시아</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F8,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <v>100004</v>
+      </c>
+      <c r="J8" s="4">
         <v>500</v>
       </c>
-      <c r="J8" s="4">
-        <v>23</v>
-      </c>
       <c r="K8" s="4">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L8" s="4">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N8" s="4">
+        <v>25</v>
+      </c>
+      <c r="O8" s="4">
         <v>0.01</v>
       </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
       <c r="P8" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="4">
+        <v>4</v>
+      </c>
+      <c r="R8" s="4">
         <v>0.1</v>
       </c>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S8" s="4">
+        <v>5</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>100005</v>
+        <v>100001</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,pc_data!A:B,2)</f>
-        <v>에일린</v>
+        <v>루시아</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F9,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>100004</v>
+      </c>
+      <c r="J9" s="4">
         <v>500</v>
       </c>
-      <c r="J9" s="4">
-        <v>24</v>
-      </c>
       <c r="K9" s="4">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L9" s="4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M9" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N9" s="4">
+        <v>30</v>
+      </c>
+      <c r="O9" s="4">
         <v>0.01</v>
       </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
       <c r="P9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="4">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4">
         <v>0.1</v>
       </c>
-      <c r="R9" s="4">
-        <v>5</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="4">
+        <v>5</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>100006</v>
+        <v>100001</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,pc_data!A:B,2)</f>
+        <v>루시아</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F10,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>100004</v>
+      </c>
+      <c r="J10" s="4">
+        <v>500</v>
+      </c>
+      <c r="K10" s="4">
+        <v>70</v>
+      </c>
+      <c r="L10" s="4">
+        <v>70</v>
+      </c>
+      <c r="M10" s="4">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4">
+        <v>35</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P10" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>6</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>5</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <f>VLOOKUP(A11,pc_data!A:B,2)</f>
+        <v>라일라</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F11,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100104</v>
+      </c>
+      <c r="J11" s="12">
+        <v>500</v>
+      </c>
+      <c r="K11" s="12">
+        <v>20</v>
+      </c>
+      <c r="L11" s="12">
+        <v>20</v>
+      </c>
+      <c r="M11" s="12">
+        <v>10</v>
+      </c>
+      <c r="N11" s="12">
+        <v>10</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="12">
+        <v>5</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B12" s="12" t="str">
+        <f>VLOOKUP(A12,pc_data!A:B,2)</f>
+        <v>라일라</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F12,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100104</v>
+      </c>
+      <c r="J12" s="12">
+        <v>500</v>
+      </c>
+      <c r="K12" s="12">
+        <v>30</v>
+      </c>
+      <c r="L12" s="12">
+        <v>30</v>
+      </c>
+      <c r="M12" s="12">
+        <v>15</v>
+      </c>
+      <c r="N12" s="12">
+        <v>15</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>2</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>5</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <f>VLOOKUP(A13,pc_data!A:B,2)</f>
+        <v>라일라</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F13,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100104</v>
+      </c>
+      <c r="J13" s="12">
+        <v>500</v>
+      </c>
+      <c r="K13" s="12">
+        <v>40</v>
+      </c>
+      <c r="L13" s="12">
+        <v>40</v>
+      </c>
+      <c r="M13" s="12">
+        <v>20</v>
+      </c>
+      <c r="N13" s="12">
+        <v>20</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P13" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>3</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>5</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f>VLOOKUP(A14,pc_data!A:B,2)</f>
+        <v>라일라</v>
+      </c>
+      <c r="C14" s="12">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F14,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100104</v>
+      </c>
+      <c r="J14" s="12">
+        <v>500</v>
+      </c>
+      <c r="K14" s="12">
+        <v>50</v>
+      </c>
+      <c r="L14" s="12">
+        <v>50</v>
+      </c>
+      <c r="M14" s="12">
+        <v>25</v>
+      </c>
+      <c r="N14" s="12">
+        <v>25</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P14" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>4</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="12">
+        <v>5</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B15" s="12" t="str">
+        <f>VLOOKUP(A15,pc_data!A:B,2)</f>
+        <v>라일라</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F15,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100104</v>
+      </c>
+      <c r="J15" s="12">
+        <v>500</v>
+      </c>
+      <c r="K15" s="12">
+        <v>60</v>
+      </c>
+      <c r="L15" s="12">
+        <v>60</v>
+      </c>
+      <c r="M15" s="12">
+        <v>30</v>
+      </c>
+      <c r="N15" s="12">
+        <v>30</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>5</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S15" s="12">
+        <v>5</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f>VLOOKUP(A16,pc_data!A:B,2)</f>
+        <v>라일라</v>
+      </c>
+      <c r="C16" s="12">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F16,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100104</v>
+      </c>
+      <c r="J16" s="12">
+        <v>500</v>
+      </c>
+      <c r="K16" s="12">
+        <v>70</v>
+      </c>
+      <c r="L16" s="12">
+        <v>70</v>
+      </c>
+      <c r="M16" s="12">
+        <v>35</v>
+      </c>
+      <c r="N16" s="12">
+        <v>35</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>6</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S16" s="12">
+        <v>5</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>VLOOKUP(A17,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F17,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>500</v>
+      </c>
+      <c r="K17" s="4">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>5</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>VLOOKUP(A18,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F18,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>500</v>
+      </c>
+      <c r="K18" s="4">
+        <v>30</v>
+      </c>
+      <c r="L18" s="4">
+        <v>30</v>
+      </c>
+      <c r="M18" s="4">
+        <v>15</v>
+      </c>
+      <c r="N18" s="4">
+        <v>15</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>2</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>5</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>VLOOKUP(A19,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F19,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>500</v>
+      </c>
+      <c r="K19" s="4">
+        <v>40</v>
+      </c>
+      <c r="L19" s="4">
+        <v>40</v>
+      </c>
+      <c r="M19" s="4">
+        <v>20</v>
+      </c>
+      <c r="N19" s="4">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>3</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>5</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>VLOOKUP(A20,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F20,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>500</v>
+      </c>
+      <c r="K20" s="4">
+        <v>50</v>
+      </c>
+      <c r="L20" s="4">
+        <v>50</v>
+      </c>
+      <c r="M20" s="4">
+        <v>25</v>
+      </c>
+      <c r="N20" s="4">
+        <v>25</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P20" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>4</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>5</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>VLOOKUP(A21,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F21,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>500</v>
+      </c>
+      <c r="K21" s="4">
+        <v>60</v>
+      </c>
+      <c r="L21" s="4">
+        <v>60</v>
+      </c>
+      <c r="M21" s="4">
+        <v>30</v>
+      </c>
+      <c r="N21" s="4">
+        <v>30</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>5</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>VLOOKUP(A22,pc_data!A:B,2)</f>
+        <v>바이올렛</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F22,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>500</v>
+      </c>
+      <c r="K22" s="4">
+        <v>70</v>
+      </c>
+      <c r="L22" s="4">
+        <v>70</v>
+      </c>
+      <c r="M22" s="4">
+        <v>35</v>
+      </c>
+      <c r="N22" s="4">
+        <v>35</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P22" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>6</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S22" s="4">
+        <v>5</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>100004</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <f>VLOOKUP(A23,pc_data!A:B,2)</f>
+        <v>데이지</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5</v>
+      </c>
+      <c r="E23" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F23,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>500</v>
+      </c>
+      <c r="K23" s="12">
+        <v>20</v>
+      </c>
+      <c r="L23" s="12">
+        <v>20</v>
+      </c>
+      <c r="M23" s="12">
+        <v>10</v>
+      </c>
+      <c r="N23" s="12">
+        <v>10</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>1</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S23" s="12">
+        <v>5</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>100004</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f>VLOOKUP(A24,pc_data!A:B,2)</f>
+        <v>데이지</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F24,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>500</v>
+      </c>
+      <c r="K24" s="12">
+        <v>30</v>
+      </c>
+      <c r="L24" s="12">
+        <v>30</v>
+      </c>
+      <c r="M24" s="12">
+        <v>15</v>
+      </c>
+      <c r="N24" s="12">
+        <v>15</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P24" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>2</v>
+      </c>
+      <c r="R24" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S24" s="12">
+        <v>5</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>100004</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f>VLOOKUP(A25,pc_data!A:B,2)</f>
+        <v>데이지</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F25,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>500</v>
+      </c>
+      <c r="K25" s="12">
+        <v>40</v>
+      </c>
+      <c r="L25" s="12">
+        <v>40</v>
+      </c>
+      <c r="M25" s="12">
+        <v>20</v>
+      </c>
+      <c r="N25" s="12">
+        <v>20</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P25" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>3</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="12">
+        <v>5</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>100004</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f>VLOOKUP(A26,pc_data!A:B,2)</f>
+        <v>데이지</v>
+      </c>
+      <c r="C26" s="12">
+        <v>4</v>
+      </c>
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F26,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>500</v>
+      </c>
+      <c r="K26" s="12">
+        <v>50</v>
+      </c>
+      <c r="L26" s="12">
+        <v>50</v>
+      </c>
+      <c r="M26" s="12">
+        <v>25</v>
+      </c>
+      <c r="N26" s="12">
+        <v>25</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P26" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>4</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S26" s="12">
+        <v>5</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>100004</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <f>VLOOKUP(A27,pc_data!A:B,2)</f>
+        <v>데이지</v>
+      </c>
+      <c r="C27" s="12">
+        <v>5</v>
+      </c>
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F27,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>500</v>
+      </c>
+      <c r="K27" s="12">
+        <v>60</v>
+      </c>
+      <c r="L27" s="12">
+        <v>60</v>
+      </c>
+      <c r="M27" s="12">
+        <v>30</v>
+      </c>
+      <c r="N27" s="12">
+        <v>30</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P27" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>5</v>
+      </c>
+      <c r="R27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S27" s="12">
+        <v>5</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>100004</v>
+      </c>
+      <c r="B28" s="12" t="str">
+        <f>VLOOKUP(A28,pc_data!A:B,2)</f>
+        <v>데이지</v>
+      </c>
+      <c r="C28" s="12">
+        <v>6</v>
+      </c>
+      <c r="D28" s="12">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F28,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>500</v>
+      </c>
+      <c r="K28" s="12">
+        <v>70</v>
+      </c>
+      <c r="L28" s="12">
+        <v>70</v>
+      </c>
+      <c r="M28" s="12">
+        <v>35</v>
+      </c>
+      <c r="N28" s="12">
+        <v>35</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P28" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>6</v>
+      </c>
+      <c r="R28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S28" s="12">
+        <v>5</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>VLOOKUP(A29,pc_data!A:B,2)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>500</v>
+      </c>
+      <c r="K29" s="4">
+        <v>20</v>
+      </c>
+      <c r="L29" s="4">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4">
+        <v>10</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="4">
+        <v>5</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>VLOOKUP(A30,pc_data!A:B,2)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F30,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>500</v>
+      </c>
+      <c r="K30" s="4">
+        <v>30</v>
+      </c>
+      <c r="L30" s="4">
+        <v>30</v>
+      </c>
+      <c r="M30" s="4">
+        <v>15</v>
+      </c>
+      <c r="N30" s="4">
+        <v>15</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>2</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="4">
+        <v>5</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>VLOOKUP(A31,pc_data!A:B,2)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F31,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>500</v>
+      </c>
+      <c r="K31" s="4">
+        <v>40</v>
+      </c>
+      <c r="L31" s="4">
+        <v>40</v>
+      </c>
+      <c r="M31" s="4">
+        <v>20</v>
+      </c>
+      <c r="N31" s="4">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P31" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>3</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S31" s="4">
+        <v>5</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>VLOOKUP(A32,pc_data!A:B,2)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F32,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>500</v>
+      </c>
+      <c r="K32" s="4">
+        <v>50</v>
+      </c>
+      <c r="L32" s="4">
+        <v>50</v>
+      </c>
+      <c r="M32" s="4">
+        <v>25</v>
+      </c>
+      <c r="N32" s="4">
+        <v>25</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P32" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>4</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="4">
+        <v>5</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>VLOOKUP(A33,pc_data!A:B,2)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F33,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>500</v>
+      </c>
+      <c r="K33" s="4">
+        <v>60</v>
+      </c>
+      <c r="L33" s="4">
+        <v>60</v>
+      </c>
+      <c r="M33" s="4">
+        <v>30</v>
+      </c>
+      <c r="N33" s="4">
+        <v>30</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>5</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="4">
+        <v>5</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>VLOOKUP(A34,pc_data!A:B,2)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F34,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>500</v>
+      </c>
+      <c r="K34" s="4">
+        <v>70</v>
+      </c>
+      <c r="L34" s="4">
+        <v>70</v>
+      </c>
+      <c r="M34" s="4">
+        <v>35</v>
+      </c>
+      <c r="N34" s="4">
+        <v>35</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P34" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>6</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S34" s="4">
+        <v>5</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>100006</v>
+      </c>
+      <c r="B35" s="12" t="str">
+        <f>VLOOKUP(A35,pc_data!A:B,2)</f>
         <v>클로이</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E10,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F35,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
         <v>500</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K35" s="12">
+        <v>20</v>
+      </c>
+      <c r="L35" s="12">
+        <v>20</v>
+      </c>
+      <c r="M35" s="12">
+        <v>10</v>
+      </c>
+      <c r="N35" s="12">
+        <v>10</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P35" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>1</v>
+      </c>
+      <c r="R35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S35" s="12">
+        <v>5</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>100006</v>
+      </c>
+      <c r="B36" s="12" t="str">
+        <f>VLOOKUP(A36,pc_data!A:B,2)</f>
+        <v>클로이</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F36,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>500</v>
+      </c>
+      <c r="K36" s="12">
+        <v>30</v>
+      </c>
+      <c r="L36" s="12">
+        <v>30</v>
+      </c>
+      <c r="M36" s="12">
+        <v>15</v>
+      </c>
+      <c r="N36" s="12">
+        <v>15</v>
+      </c>
+      <c r="O36" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P36" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>2</v>
+      </c>
+      <c r="R36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S36" s="12">
+        <v>5</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>100006</v>
+      </c>
+      <c r="B37" s="12" t="str">
+        <f>VLOOKUP(A37,pc_data!A:B,2)</f>
+        <v>클로이</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F37,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>500</v>
+      </c>
+      <c r="K37" s="12">
+        <v>40</v>
+      </c>
+      <c r="L37" s="12">
+        <v>40</v>
+      </c>
+      <c r="M37" s="12">
+        <v>20</v>
+      </c>
+      <c r="N37" s="12">
+        <v>20</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P37" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>3</v>
+      </c>
+      <c r="R37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S37" s="12">
+        <v>5</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>100006</v>
+      </c>
+      <c r="B38" s="12" t="str">
+        <f>VLOOKUP(A38,pc_data!A:B,2)</f>
+        <v>클로이</v>
+      </c>
+      <c r="C38" s="12">
+        <v>4</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F38,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>500</v>
+      </c>
+      <c r="K38" s="12">
+        <v>50</v>
+      </c>
+      <c r="L38" s="12">
+        <v>50</v>
+      </c>
+      <c r="M38" s="12">
         <v>25</v>
       </c>
-      <c r="K10" s="4">
+      <c r="N38" s="12">
         <v>25</v>
       </c>
-      <c r="L10" s="4">
-        <v>12</v>
-      </c>
-      <c r="M10" s="4">
-        <v>12</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="O38" s="12">
         <v>0.01</v>
       </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="P38" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>4</v>
+      </c>
+      <c r="R38" s="12">
         <v>0.1</v>
       </c>
-      <c r="R10" s="4">
-        <v>5</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="S38" s="12">
+        <v>5</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>100006</v>
+      </c>
+      <c r="B39" s="12" t="str">
+        <f>VLOOKUP(A39,pc_data!A:B,2)</f>
+        <v>클로이</v>
+      </c>
+      <c r="C39" s="12">
+        <v>5</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F39,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>500</v>
+      </c>
+      <c r="K39" s="12">
+        <v>60</v>
+      </c>
+      <c r="L39" s="12">
+        <v>60</v>
+      </c>
+      <c r="M39" s="12">
+        <v>30</v>
+      </c>
+      <c r="N39" s="12">
+        <v>30</v>
+      </c>
+      <c r="O39" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P39" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>5</v>
+      </c>
+      <c r="R39" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S39" s="12">
+        <v>5</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>100006</v>
+      </c>
+      <c r="B40" s="12" t="str">
+        <f>VLOOKUP(A40,pc_data!A:B,2)</f>
+        <v>클로이</v>
+      </c>
+      <c r="C40" s="12">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>500</v>
+      </c>
+      <c r="K40" s="12">
+        <v>70</v>
+      </c>
+      <c r="L40" s="12">
+        <v>70</v>
+      </c>
+      <c r="M40" s="12">
+        <v>35</v>
+      </c>
+      <c r="N40" s="12">
+        <v>35</v>
+      </c>
+      <c r="O40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P40" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>6</v>
+      </c>
+      <c r="R40" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S40" s="12">
+        <v>5</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>500</v>
+      </c>
+      <c r="K41" s="4">
+        <v>20</v>
+      </c>
+      <c r="L41" s="4">
+        <v>20</v>
+      </c>
+      <c r="M41" s="4">
+        <v>10</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>5</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>500</v>
+      </c>
+      <c r="K42" s="4">
+        <v>30</v>
+      </c>
+      <c r="L42" s="4">
+        <v>30</v>
+      </c>
+      <c r="M42" s="4">
+        <v>15</v>
+      </c>
+      <c r="N42" s="4">
+        <v>15</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P42" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>2</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S42" s="4">
+        <v>5</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>500</v>
+      </c>
+      <c r="K43" s="4">
+        <v>40</v>
+      </c>
+      <c r="L43" s="4">
+        <v>40</v>
+      </c>
+      <c r="M43" s="4">
+        <v>20</v>
+      </c>
+      <c r="N43" s="4">
+        <v>20</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P43" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>3</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S43" s="4">
+        <v>5</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>500</v>
+      </c>
+      <c r="K44" s="4">
+        <v>50</v>
+      </c>
+      <c r="L44" s="4">
+        <v>50</v>
+      </c>
+      <c r="M44" s="4">
+        <v>25</v>
+      </c>
+      <c r="N44" s="4">
+        <v>25</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P44" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>4</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S44" s="4">
+        <v>5</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>500</v>
+      </c>
+      <c r="K45" s="4">
+        <v>60</v>
+      </c>
+      <c r="L45" s="4">
+        <v>60</v>
+      </c>
+      <c r="M45" s="4">
+        <v>30</v>
+      </c>
+      <c r="N45" s="4">
+        <v>30</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P45" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>5</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S45" s="4">
+        <v>5</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="4">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>500</v>
+      </c>
+      <c r="K46" s="4">
+        <v>70</v>
+      </c>
+      <c r="L46" s="4">
+        <v>70</v>
+      </c>
+      <c r="M46" s="4">
+        <v>35</v>
+      </c>
+      <c r="N46" s="4">
+        <v>35</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P46" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>6</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S46" s="4">
+        <v>5</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3</v>
+      </c>
+      <c r="E47" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F47,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>500</v>
+      </c>
+      <c r="K47" s="12">
+        <v>20</v>
+      </c>
+      <c r="L47" s="12">
+        <v>20</v>
+      </c>
+      <c r="M47" s="12">
+        <v>10</v>
+      </c>
+      <c r="N47" s="12">
+        <v>10</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P47" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>1</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S47" s="12">
+        <v>5</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+      <c r="D48" s="12">
+        <v>3</v>
+      </c>
+      <c r="E48" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F48,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>500</v>
+      </c>
+      <c r="K48" s="12">
+        <v>30</v>
+      </c>
+      <c r="L48" s="12">
+        <v>30</v>
+      </c>
+      <c r="M48" s="12">
+        <v>15</v>
+      </c>
+      <c r="N48" s="12">
+        <v>15</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P48" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>2</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S48" s="12">
+        <v>5</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="12">
+        <v>3</v>
+      </c>
+      <c r="D49" s="12">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F49,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>500</v>
+      </c>
+      <c r="K49" s="12">
+        <v>40</v>
+      </c>
+      <c r="L49" s="12">
+        <v>40</v>
+      </c>
+      <c r="M49" s="12">
+        <v>20</v>
+      </c>
+      <c r="N49" s="12">
+        <v>20</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P49" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>3</v>
+      </c>
+      <c r="R49" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S49" s="12">
+        <v>5</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="12">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F50,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>500</v>
+      </c>
+      <c r="K50" s="12">
+        <v>50</v>
+      </c>
+      <c r="L50" s="12">
+        <v>50</v>
+      </c>
+      <c r="M50" s="12">
+        <v>25</v>
+      </c>
+      <c r="N50" s="12">
+        <v>25</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P50" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>4</v>
+      </c>
+      <c r="R50" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S50" s="12">
+        <v>5</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="12">
+        <v>5</v>
+      </c>
+      <c r="D51" s="12">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F51,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>500</v>
+      </c>
+      <c r="K51" s="12">
+        <v>60</v>
+      </c>
+      <c r="L51" s="12">
+        <v>60</v>
+      </c>
+      <c r="M51" s="12">
+        <v>30</v>
+      </c>
+      <c r="N51" s="12">
+        <v>30</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P51" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>5</v>
+      </c>
+      <c r="R51" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S51" s="12">
+        <v>5</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="12">
+        <v>6</v>
+      </c>
+      <c r="D52" s="12">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F52,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>500</v>
+      </c>
+      <c r="K52" s="12">
+        <v>70</v>
+      </c>
+      <c r="L52" s="12">
+        <v>70</v>
+      </c>
+      <c r="M52" s="12">
+        <v>35</v>
+      </c>
+      <c r="N52" s="12">
+        <v>35</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P52" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>6</v>
+      </c>
+      <c r="R52" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S52" s="12">
+        <v>5</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F53,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>500</v>
+      </c>
+      <c r="K53" s="4">
+        <v>20</v>
+      </c>
+      <c r="L53" s="4">
+        <v>20</v>
+      </c>
+      <c r="M53" s="4">
+        <v>10</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S53" s="4">
+        <v>5</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F54,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>500</v>
+      </c>
+      <c r="K54" s="4">
+        <v>30</v>
+      </c>
+      <c r="L54" s="4">
+        <v>30</v>
+      </c>
+      <c r="M54" s="4">
+        <v>15</v>
+      </c>
+      <c r="N54" s="4">
+        <v>15</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P54" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>2</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S54" s="4">
+        <v>5</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F55,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>500</v>
+      </c>
+      <c r="K55" s="4">
+        <v>40</v>
+      </c>
+      <c r="L55" s="4">
+        <v>40</v>
+      </c>
+      <c r="M55" s="4">
+        <v>20</v>
+      </c>
+      <c r="N55" s="4">
+        <v>20</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P55" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>3</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S55" s="4">
+        <v>5</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F56,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>500</v>
+      </c>
+      <c r="K56" s="4">
+        <v>50</v>
+      </c>
+      <c r="L56" s="4">
+        <v>50</v>
+      </c>
+      <c r="M56" s="4">
+        <v>25</v>
+      </c>
+      <c r="N56" s="4">
+        <v>25</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P56" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>4</v>
+      </c>
+      <c r="R56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S56" s="4">
+        <v>5</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7</v>
+      </c>
+      <c r="E57" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F57,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>500</v>
+      </c>
+      <c r="K57" s="4">
+        <v>60</v>
+      </c>
+      <c r="L57" s="4">
+        <v>60</v>
+      </c>
+      <c r="M57" s="4">
+        <v>30</v>
+      </c>
+      <c r="N57" s="4">
+        <v>30</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P57" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>5</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S57" s="4">
+        <v>5</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="4">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F58,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>500</v>
+      </c>
+      <c r="K58" s="4">
+        <v>70</v>
+      </c>
+      <c r="L58" s="4">
+        <v>70</v>
+      </c>
+      <c r="M58" s="4">
+        <v>35</v>
+      </c>
+      <c r="N58" s="4">
+        <v>35</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P58" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>6</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S58" s="4">
+        <v>5</v>
+      </c>
+      <c r="T58" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3513,7 +6631,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E10</xm:sqref>
+          <xm:sqref>F5:F58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DD2E2-76A6-409A-B1F1-298D524BFED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0AE256-F7FA-4356-A553-E02E9C4DFBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="495" windowWidth="26535" windowHeight="19980" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1003,10 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#star_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>츠키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,6 +1012,10 @@
   </si>
   <si>
     <t>유미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2966,7 +2966,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3128,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>65</v>
@@ -5491,7 +5491,7 @@
         <v>100007</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -5554,7 +5554,7 @@
         <v>100007</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -5617,7 +5617,7 @@
         <v>100007</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -5680,7 +5680,7 @@
         <v>100007</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -5743,7 +5743,7 @@
         <v>100007</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -5806,7 +5806,7 @@
         <v>100007</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -5869,7 +5869,7 @@
         <v>100008</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -5932,7 +5932,7 @@
         <v>100008</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -5995,7 +5995,7 @@
         <v>100008</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
@@ -6058,7 +6058,7 @@
         <v>100008</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
@@ -6121,7 +6121,7 @@
         <v>100008</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -6184,7 +6184,7 @@
         <v>100008</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
@@ -6247,7 +6247,7 @@
         <v>100009</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>100009</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -6373,7 +6373,7 @@
         <v>100009</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -6436,7 +6436,7 @@
         <v>100009</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -6499,7 +6499,7 @@
         <v>100009</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
@@ -6562,7 +6562,7 @@
         <v>100009</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0AE256-F7FA-4356-A553-E02E9C4DFBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09669B3-B746-4BE7-8654-4FDFE3242396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41160" yWindow="1635" windowWidth="27975" windowHeight="19770" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,6 +1017,18 @@
   <si>
     <t>star_grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
   </si>
 </sst>
 </file>
@@ -1269,6 +1281,8 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1602,6 +1616,8 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2395,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2761,7 +2777,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
@@ -2816,7 +2832,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
@@ -2871,7 +2887,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
@@ -2926,7 +2942,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
@@ -2962,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09669B3-B746-4BE7-8654-4FDFE3242396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF04415-B5E2-4D82-9E65-56CFEDA60046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41160" yWindow="1635" windowWidth="27975" windowHeight="19770" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24135" windowHeight="19770" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="187">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -999,10 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>츠키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,6 +1025,22 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_2:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2411,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2503,7 +2515,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2777,7 +2789,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
@@ -2832,7 +2844,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
@@ -2887,7 +2899,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
@@ -2942,7 +2954,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
@@ -2982,7 +2994,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3076,13 +3088,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3144,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>65</v>
@@ -5507,7 +5519,7 @@
         <v>100007</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -5570,7 +5582,7 @@
         <v>100007</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -5633,7 +5645,7 @@
         <v>100007</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -5696,7 +5708,7 @@
         <v>100007</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -5759,7 +5771,7 @@
         <v>100007</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -5822,7 +5834,7 @@
         <v>100007</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -5885,7 +5897,7 @@
         <v>100008</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -5948,7 +5960,7 @@
         <v>100008</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -6011,7 +6023,7 @@
         <v>100008</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
@@ -6074,7 +6086,7 @@
         <v>100008</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
@@ -6137,7 +6149,7 @@
         <v>100008</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -6200,7 +6212,7 @@
         <v>100008</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
@@ -6263,7 +6275,7 @@
         <v>100009</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -6326,7 +6338,7 @@
         <v>100009</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -6389,7 +6401,7 @@
         <v>100009</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -6452,7 +6464,7 @@
         <v>100009</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -6515,7 +6527,7 @@
         <v>100009</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
@@ -6578,7 +6590,7 @@
         <v>100009</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
@@ -6660,7 +6672,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6688,7 +6700,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6766,8 +6778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6803,7 +6815,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF04415-B5E2-4D82-9E65-56CFEDA60046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBDD0F6-34CC-4ACA-B6C0-706203639DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24135" windowHeight="19770" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40545" yWindow="3105" windowWidth="34815" windowHeight="16545" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="188">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,6 +1040,10 @@
   </si>
   <si>
     <t>key_1:ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1601,21 +1605,75 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1625,7 +1683,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
@@ -2424,7 +2488,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2946,7 +3010,7 @@
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>121</v>
@@ -2990,11 +3054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4758,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5142,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F35,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5158,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="12">
-        <v>0</v>
+        <v>100504</v>
       </c>
       <c r="J35" s="12">
         <v>500</v>
@@ -5206,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F36,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5222,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="12">
-        <v>0</v>
+        <v>100504</v>
       </c>
       <c r="J36" s="12">
         <v>500</v>
@@ -5270,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F37,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5286,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="12">
-        <v>0</v>
+        <v>100504</v>
       </c>
       <c r="J37" s="12">
         <v>500</v>
@@ -5334,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F38,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5350,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="12">
-        <v>0</v>
+        <v>100504</v>
       </c>
       <c r="J38" s="12">
         <v>500</v>
@@ -5398,7 +5462,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F39,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5414,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="12">
-        <v>0</v>
+        <v>100504</v>
       </c>
       <c r="J39" s="12">
         <v>500</v>
@@ -5462,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5478,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="12">
-        <v>0</v>
+        <v>100504</v>
       </c>
       <c r="J40" s="12">
         <v>500</v>
@@ -5525,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5588,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5651,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5714,14 +5778,14 @@
         <v>4</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>76</v>
@@ -5777,14 +5841,14 @@
         <v>5</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>76</v>
@@ -5840,14 +5904,14 @@
         <v>6</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>76</v>
@@ -6778,7 +6842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92158E8-6195-4B72-A6F4-4B8DB1FFB095}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBDD0F6-34CC-4ACA-B6C0-706203639DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95056928-F722-43EC-903B-6FD80BD889AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3105" windowWidth="34815" windowHeight="16545" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="47670" yWindow="3090" windowWidth="27915" windowHeight="18000" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,10 +65,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={CC159883-DA20-4026-854B-1C5B0E1D2B86}</author>
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{CC159883-DA20-4026-854B-1C5B0E1D2B86}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    상태이상 저항 값</t>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{86028095-9DEB-4D11-8C94-4AAA289DA834}">
       <text>
         <r>
           <rPr>
@@ -129,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="200">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,10 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회복량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attack_recovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,6 +1049,58 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cri_Inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cri_Inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cri_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cri_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resist </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1174,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1296,9 +1359,6 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
-      <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1605,75 +1665,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1683,17 +1689,8 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2008,6 +2005,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W2" dT="2024-02-02T05:50:03.72" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{CC159883-DA20-4026-854B-1C5B0E1D2B86}">
+    <text>상태이상 저항 값</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
   <dimension ref="A1:B23"/>
@@ -2532,7 +2537,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2556,16 +2561,16 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
@@ -2579,7 +2584,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2588,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2644,13 +2649,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>59</v>
@@ -2659,16 +2664,16 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
@@ -2677,13 +2682,13 @@
         <v>60</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>14</v>
@@ -2700,7 +2705,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -2710,14 +2715,14 @@
         <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
@@ -2735,15 +2740,15 @@
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
@@ -2755,7 +2760,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -2765,14 +2770,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
@@ -2790,15 +2795,15 @@
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
@@ -2810,7 +2815,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -2820,14 +2825,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
@@ -2845,15 +2850,15 @@
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
@@ -2865,7 +2870,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -2875,14 +2880,14 @@
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
@@ -2900,15 +2905,15 @@
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
@@ -2920,7 +2925,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -2930,14 +2935,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
@@ -2955,15 +2960,15 @@
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
@@ -2975,7 +2980,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -2985,14 +2990,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
@@ -3010,15 +3015,15 @@
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
@@ -3052,13 +3057,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45:F46"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3075,20 +3080,22 @@
     <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.25" customWidth="1"/>
+    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,7 +3103,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
@@ -3120,45 +3127,63 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3209,10 +3234,28 @@
         <v>19</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3220,7 +3263,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>65</v>
@@ -3238,7 +3281,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>49</v>
@@ -3247,34 +3290,52 @@
         <v>50</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3293,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>66</v>
@@ -3320,25 +3381,43 @@
         <v>10</v>
       </c>
       <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
         <v>0.01</v>
       </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
         <v>0.1</v>
       </c>
-      <c r="S5" s="4">
-        <v>5</v>
-      </c>
-      <c r="T5" s="4" t="s">
+      <c r="Y5" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100001</v>
       </c>
@@ -3357,7 +3436,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>66</v>
@@ -3384,25 +3463,43 @@
         <v>15</v>
       </c>
       <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
         <v>0.01</v>
       </c>
-      <c r="P6" s="4">
+      <c r="T6" s="4">
         <v>2</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="U6" s="4">
         <v>2</v>
       </c>
-      <c r="R6" s="4">
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
         <v>0.1</v>
       </c>
-      <c r="S6" s="4">
-        <v>5</v>
-      </c>
-      <c r="T6" s="4" t="s">
+      <c r="Y6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100001</v>
       </c>
@@ -3421,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>66</v>
@@ -3448,25 +3545,43 @@
         <v>20</v>
       </c>
       <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
         <v>0.01</v>
       </c>
-      <c r="P7" s="4">
+      <c r="T7" s="4">
         <v>3</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="U7" s="4">
         <v>3</v>
       </c>
-      <c r="R7" s="4">
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <v>0.1</v>
       </c>
-      <c r="S7" s="4">
-        <v>5</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="Y7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100001</v>
       </c>
@@ -3485,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>66</v>
@@ -3512,25 +3627,43 @@
         <v>25</v>
       </c>
       <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
         <v>0.01</v>
       </c>
-      <c r="P8" s="4">
+      <c r="T8" s="4">
         <v>4</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="U8" s="4">
         <v>4</v>
       </c>
-      <c r="R8" s="4">
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
         <v>0.1</v>
       </c>
-      <c r="S8" s="4">
-        <v>5</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="Y8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100001</v>
       </c>
@@ -3549,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>66</v>
@@ -3576,25 +3709,43 @@
         <v>30</v>
       </c>
       <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
         <v>0.01</v>
       </c>
-      <c r="P9" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>5</v>
-      </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
+        <v>5</v>
+      </c>
+      <c r="U9" s="4">
+        <v>5</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
         <v>0.1</v>
       </c>
-      <c r="S9" s="4">
-        <v>5</v>
-      </c>
-      <c r="T9" s="4" t="s">
+      <c r="Y9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100001</v>
       </c>
@@ -3613,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>66</v>
@@ -3640,25 +3791,43 @@
         <v>35</v>
       </c>
       <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
         <v>0.01</v>
       </c>
-      <c r="P10" s="4">
+      <c r="T10" s="4">
         <v>6</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="U10" s="4">
         <v>6</v>
       </c>
-      <c r="R10" s="4">
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
         <v>0.1</v>
       </c>
-      <c r="S10" s="4">
-        <v>5</v>
-      </c>
-      <c r="T10" s="4" t="s">
+      <c r="Y10" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>100002</v>
       </c>
@@ -3677,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>67</v>
@@ -3704,25 +3873,43 @@
         <v>10</v>
       </c>
       <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12">
         <v>0.01</v>
       </c>
-      <c r="P11" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>1</v>
-      </c>
-      <c r="R11" s="12">
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
         <v>0.1</v>
       </c>
-      <c r="S11" s="12">
-        <v>5</v>
-      </c>
-      <c r="T11" s="12" t="s">
+      <c r="Y11" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>100002</v>
       </c>
@@ -3741,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>67</v>
@@ -3768,25 +3955,43 @@
         <v>15</v>
       </c>
       <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
         <v>0.01</v>
       </c>
-      <c r="P12" s="12">
+      <c r="T12" s="12">
         <v>2</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="U12" s="12">
         <v>2</v>
       </c>
-      <c r="R12" s="12">
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
         <v>0.1</v>
       </c>
-      <c r="S12" s="12">
-        <v>5</v>
-      </c>
-      <c r="T12" s="12" t="s">
+      <c r="Y12" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>100002</v>
       </c>
@@ -3805,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>67</v>
@@ -3832,25 +4037,43 @@
         <v>20</v>
       </c>
       <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
         <v>0.01</v>
       </c>
-      <c r="P13" s="12">
+      <c r="T13" s="12">
         <v>3</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="U13" s="12">
         <v>3</v>
       </c>
-      <c r="R13" s="12">
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
         <v>0.1</v>
       </c>
-      <c r="S13" s="12">
-        <v>5</v>
-      </c>
-      <c r="T13" s="12" t="s">
+      <c r="Y13" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>100002</v>
       </c>
@@ -3869,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>67</v>
@@ -3896,25 +4119,43 @@
         <v>25</v>
       </c>
       <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1</v>
+      </c>
+      <c r="S14" s="12">
         <v>0.01</v>
       </c>
-      <c r="P14" s="12">
+      <c r="T14" s="12">
         <v>4</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="U14" s="12">
         <v>4</v>
       </c>
-      <c r="R14" s="12">
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
         <v>0.1</v>
       </c>
-      <c r="S14" s="12">
-        <v>5</v>
-      </c>
-      <c r="T14" s="12" t="s">
+      <c r="Y14" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>100002</v>
       </c>
@@ -3933,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>67</v>
@@ -3960,25 +4201,43 @@
         <v>30</v>
       </c>
       <c r="O15" s="12">
+        <v>1</v>
+      </c>
+      <c r="P15" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1</v>
+      </c>
+      <c r="S15" s="12">
         <v>0.01</v>
       </c>
-      <c r="P15" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>5</v>
-      </c>
-      <c r="R15" s="12">
+      <c r="T15" s="12">
+        <v>5</v>
+      </c>
+      <c r="U15" s="12">
+        <v>5</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
         <v>0.1</v>
       </c>
-      <c r="S15" s="12">
-        <v>5</v>
-      </c>
-      <c r="T15" s="12" t="s">
+      <c r="Y15" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>100002</v>
       </c>
@@ -3997,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>67</v>
@@ -4024,25 +4283,43 @@
         <v>35</v>
       </c>
       <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1</v>
+      </c>
+      <c r="S16" s="12">
         <v>0.01</v>
       </c>
-      <c r="P16" s="12">
+      <c r="T16" s="12">
         <v>6</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="U16" s="12">
         <v>6</v>
       </c>
-      <c r="R16" s="12">
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
         <v>0.1</v>
       </c>
-      <c r="S16" s="12">
-        <v>5</v>
-      </c>
-      <c r="T16" s="12" t="s">
+      <c r="Y16" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100003</v>
       </c>
@@ -4061,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>68</v>
@@ -4088,25 +4365,43 @@
         <v>10</v>
       </c>
       <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
         <v>0.01</v>
       </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
         <v>0.1</v>
       </c>
-      <c r="S17" s="4">
-        <v>5</v>
-      </c>
-      <c r="T17" s="4" t="s">
+      <c r="Y17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>100003</v>
       </c>
@@ -4125,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>68</v>
@@ -4152,25 +4447,43 @@
         <v>15</v>
       </c>
       <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
         <v>0.01</v>
       </c>
-      <c r="P18" s="4">
+      <c r="T18" s="4">
         <v>2</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="U18" s="4">
         <v>2</v>
       </c>
-      <c r="R18" s="4">
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
         <v>0.1</v>
       </c>
-      <c r="S18" s="4">
-        <v>5</v>
-      </c>
-      <c r="T18" s="4" t="s">
+      <c r="Y18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>100003</v>
       </c>
@@ -4189,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>68</v>
@@ -4216,25 +4529,43 @@
         <v>20</v>
       </c>
       <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
         <v>0.01</v>
       </c>
-      <c r="P19" s="4">
+      <c r="T19" s="4">
         <v>3</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="U19" s="4">
         <v>3</v>
       </c>
-      <c r="R19" s="4">
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
         <v>0.1</v>
       </c>
-      <c r="S19" s="4">
-        <v>5</v>
-      </c>
-      <c r="T19" s="4" t="s">
+      <c r="Y19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>100003</v>
       </c>
@@ -4253,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>68</v>
@@ -4280,25 +4611,43 @@
         <v>25</v>
       </c>
       <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
         <v>0.01</v>
       </c>
-      <c r="P20" s="4">
+      <c r="T20" s="4">
         <v>4</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="U20" s="4">
         <v>4</v>
       </c>
-      <c r="R20" s="4">
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
         <v>0.1</v>
       </c>
-      <c r="S20" s="4">
-        <v>5</v>
-      </c>
-      <c r="T20" s="4" t="s">
+      <c r="Y20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>100003</v>
       </c>
@@ -4317,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>68</v>
@@ -4344,25 +4693,43 @@
         <v>30</v>
       </c>
       <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
         <v>0.01</v>
       </c>
-      <c r="P21" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>5</v>
-      </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
+        <v>5</v>
+      </c>
+      <c r="U21" s="4">
+        <v>5</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
         <v>0.1</v>
       </c>
-      <c r="S21" s="4">
-        <v>5</v>
-      </c>
-      <c r="T21" s="4" t="s">
+      <c r="Y21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>100003</v>
       </c>
@@ -4381,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>68</v>
@@ -4408,25 +4775,43 @@
         <v>35</v>
       </c>
       <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
         <v>0.01</v>
       </c>
-      <c r="P22" s="4">
+      <c r="T22" s="4">
         <v>6</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="U22" s="4">
         <v>6</v>
       </c>
-      <c r="R22" s="4">
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
         <v>0.1</v>
       </c>
-      <c r="S22" s="4">
-        <v>5</v>
-      </c>
-      <c r="T22" s="4" t="s">
+      <c r="Y22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>100004</v>
       </c>
@@ -4445,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>69</v>
@@ -4472,25 +4857,43 @@
         <v>10</v>
       </c>
       <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>1</v>
+      </c>
+      <c r="R23" s="12">
+        <v>1</v>
+      </c>
+      <c r="S23" s="12">
         <v>0.01</v>
       </c>
-      <c r="P23" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>1</v>
-      </c>
-      <c r="R23" s="12">
+      <c r="T23" s="12">
+        <v>1</v>
+      </c>
+      <c r="U23" s="12">
+        <v>1</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
+        <v>0</v>
+      </c>
+      <c r="X23" s="12">
         <v>0.1</v>
       </c>
-      <c r="S23" s="12">
-        <v>5</v>
-      </c>
-      <c r="T23" s="12" t="s">
+      <c r="Y23" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>100004</v>
       </c>
@@ -4509,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>69</v>
@@ -4536,25 +4939,43 @@
         <v>15</v>
       </c>
       <c r="O24" s="12">
+        <v>1</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>1</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1</v>
+      </c>
+      <c r="S24" s="12">
         <v>0.01</v>
       </c>
-      <c r="P24" s="12">
+      <c r="T24" s="12">
         <v>2</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="U24" s="12">
         <v>2</v>
       </c>
-      <c r="R24" s="12">
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
         <v>0.1</v>
       </c>
-      <c r="S24" s="12">
-        <v>5</v>
-      </c>
-      <c r="T24" s="12" t="s">
+      <c r="Y24" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>100004</v>
       </c>
@@ -4573,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>69</v>
@@ -4600,25 +5021,43 @@
         <v>20</v>
       </c>
       <c r="O25" s="12">
+        <v>1</v>
+      </c>
+      <c r="P25" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1</v>
+      </c>
+      <c r="R25" s="12">
+        <v>1</v>
+      </c>
+      <c r="S25" s="12">
         <v>0.01</v>
       </c>
-      <c r="P25" s="12">
+      <c r="T25" s="12">
         <v>3</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="U25" s="12">
         <v>3</v>
       </c>
-      <c r="R25" s="12">
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
         <v>0.1</v>
       </c>
-      <c r="S25" s="12">
-        <v>5</v>
-      </c>
-      <c r="T25" s="12" t="s">
+      <c r="Y25" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>100004</v>
       </c>
@@ -4637,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>69</v>
@@ -4664,25 +5103,43 @@
         <v>25</v>
       </c>
       <c r="O26" s="12">
+        <v>1</v>
+      </c>
+      <c r="P26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1</v>
+      </c>
+      <c r="R26" s="12">
+        <v>1</v>
+      </c>
+      <c r="S26" s="12">
         <v>0.01</v>
       </c>
-      <c r="P26" s="12">
+      <c r="T26" s="12">
         <v>4</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="U26" s="12">
         <v>4</v>
       </c>
-      <c r="R26" s="12">
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <v>0</v>
+      </c>
+      <c r="X26" s="12">
         <v>0.1</v>
       </c>
-      <c r="S26" s="12">
-        <v>5</v>
-      </c>
-      <c r="T26" s="12" t="s">
+      <c r="Y26" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>100004</v>
       </c>
@@ -4701,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>69</v>
@@ -4728,25 +5185,43 @@
         <v>30</v>
       </c>
       <c r="O27" s="12">
+        <v>1</v>
+      </c>
+      <c r="P27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>1</v>
+      </c>
+      <c r="R27" s="12">
+        <v>1</v>
+      </c>
+      <c r="S27" s="12">
         <v>0.01</v>
       </c>
-      <c r="P27" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>5</v>
-      </c>
-      <c r="R27" s="12">
+      <c r="T27" s="12">
+        <v>5</v>
+      </c>
+      <c r="U27" s="12">
+        <v>5</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
         <v>0.1</v>
       </c>
-      <c r="S27" s="12">
-        <v>5</v>
-      </c>
-      <c r="T27" s="12" t="s">
+      <c r="Y27" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>100004</v>
       </c>
@@ -4765,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>69</v>
@@ -4792,25 +5267,43 @@
         <v>35</v>
       </c>
       <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>1</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1</v>
+      </c>
+      <c r="S28" s="12">
         <v>0.01</v>
       </c>
-      <c r="P28" s="12">
+      <c r="T28" s="12">
         <v>6</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="U28" s="12">
         <v>6</v>
       </c>
-      <c r="R28" s="12">
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
         <v>0.1</v>
       </c>
-      <c r="S28" s="12">
-        <v>5</v>
-      </c>
-      <c r="T28" s="12" t="s">
+      <c r="Y28" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>100005</v>
       </c>
@@ -4829,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>70</v>
@@ -4856,25 +5349,43 @@
         <v>10</v>
       </c>
       <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
         <v>0.01</v>
       </c>
-      <c r="P29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4">
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
         <v>0.1</v>
       </c>
-      <c r="S29" s="4">
-        <v>5</v>
-      </c>
-      <c r="T29" s="4" t="s">
+      <c r="Y29" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>100005</v>
       </c>
@@ -4893,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>70</v>
@@ -4920,25 +5431,43 @@
         <v>15</v>
       </c>
       <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4">
         <v>0.01</v>
       </c>
-      <c r="P30" s="4">
+      <c r="T30" s="4">
         <v>2</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="U30" s="4">
         <v>2</v>
       </c>
-      <c r="R30" s="4">
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
         <v>0.1</v>
       </c>
-      <c r="S30" s="4">
-        <v>5</v>
-      </c>
-      <c r="T30" s="4" t="s">
+      <c r="Y30" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>100005</v>
       </c>
@@ -4957,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>70</v>
@@ -4984,25 +5513,43 @@
         <v>20</v>
       </c>
       <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4">
         <v>0.01</v>
       </c>
-      <c r="P31" s="4">
+      <c r="T31" s="4">
         <v>3</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="U31" s="4">
         <v>3</v>
       </c>
-      <c r="R31" s="4">
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
         <v>0.1</v>
       </c>
-      <c r="S31" s="4">
-        <v>5</v>
-      </c>
-      <c r="T31" s="4" t="s">
+      <c r="Y31" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>100005</v>
       </c>
@@ -5021,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>70</v>
@@ -5048,25 +5595,43 @@
         <v>25</v>
       </c>
       <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
         <v>0.01</v>
       </c>
-      <c r="P32" s="4">
+      <c r="T32" s="4">
         <v>4</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="U32" s="4">
         <v>4</v>
       </c>
-      <c r="R32" s="4">
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
         <v>0.1</v>
       </c>
-      <c r="S32" s="4">
-        <v>5</v>
-      </c>
-      <c r="T32" s="4" t="s">
+      <c r="Y32" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>100005</v>
       </c>
@@ -5085,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>70</v>
@@ -5112,25 +5677,43 @@
         <v>30</v>
       </c>
       <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
         <v>0.01</v>
       </c>
-      <c r="P33" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>5</v>
-      </c>
-      <c r="R33" s="4">
+      <c r="T33" s="4">
+        <v>5</v>
+      </c>
+      <c r="U33" s="4">
+        <v>5</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
         <v>0.1</v>
       </c>
-      <c r="S33" s="4">
-        <v>5</v>
-      </c>
-      <c r="T33" s="4" t="s">
+      <c r="Y33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>100005</v>
       </c>
@@ -5149,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>70</v>
@@ -5176,25 +5759,43 @@
         <v>35</v>
       </c>
       <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
         <v>0.01</v>
       </c>
-      <c r="P34" s="4">
+      <c r="T34" s="4">
         <v>6</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="U34" s="4">
         <v>6</v>
       </c>
-      <c r="R34" s="4">
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
         <v>0.1</v>
       </c>
-      <c r="S34" s="4">
-        <v>5</v>
-      </c>
-      <c r="T34" s="4" t="s">
+      <c r="Y34" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>100006</v>
       </c>
@@ -5213,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>76</v>
@@ -5240,25 +5841,43 @@
         <v>10</v>
       </c>
       <c r="O35" s="12">
+        <v>1</v>
+      </c>
+      <c r="P35" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>1</v>
+      </c>
+      <c r="R35" s="12">
+        <v>1</v>
+      </c>
+      <c r="S35" s="12">
         <v>0.01</v>
       </c>
-      <c r="P35" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="12">
-        <v>1</v>
-      </c>
-      <c r="R35" s="12">
+      <c r="T35" s="12">
+        <v>1</v>
+      </c>
+      <c r="U35" s="12">
+        <v>1</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="12">
+        <v>0</v>
+      </c>
+      <c r="X35" s="12">
         <v>0.1</v>
       </c>
-      <c r="S35" s="12">
-        <v>5</v>
-      </c>
-      <c r="T35" s="12" t="s">
+      <c r="Y35" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>100006</v>
       </c>
@@ -5277,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>76</v>
@@ -5304,25 +5923,43 @@
         <v>15</v>
       </c>
       <c r="O36" s="12">
+        <v>1</v>
+      </c>
+      <c r="P36" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>1</v>
+      </c>
+      <c r="R36" s="12">
+        <v>1</v>
+      </c>
+      <c r="S36" s="12">
         <v>0.01</v>
       </c>
-      <c r="P36" s="12">
+      <c r="T36" s="12">
         <v>2</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="U36" s="12">
         <v>2</v>
       </c>
-      <c r="R36" s="12">
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <v>0</v>
+      </c>
+      <c r="X36" s="12">
         <v>0.1</v>
       </c>
-      <c r="S36" s="12">
-        <v>5</v>
-      </c>
-      <c r="T36" s="12" t="s">
+      <c r="Y36" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>100006</v>
       </c>
@@ -5341,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>76</v>
@@ -5368,25 +6005,43 @@
         <v>20</v>
       </c>
       <c r="O37" s="12">
+        <v>1</v>
+      </c>
+      <c r="P37" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>1</v>
+      </c>
+      <c r="R37" s="12">
+        <v>1</v>
+      </c>
+      <c r="S37" s="12">
         <v>0.01</v>
       </c>
-      <c r="P37" s="12">
+      <c r="T37" s="12">
         <v>3</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="U37" s="12">
         <v>3</v>
       </c>
-      <c r="R37" s="12">
+      <c r="V37" s="12">
+        <v>0</v>
+      </c>
+      <c r="W37" s="12">
+        <v>0</v>
+      </c>
+      <c r="X37" s="12">
         <v>0.1</v>
       </c>
-      <c r="S37" s="12">
-        <v>5</v>
-      </c>
-      <c r="T37" s="12" t="s">
+      <c r="Y37" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>100006</v>
       </c>
@@ -5405,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>76</v>
@@ -5432,25 +6087,43 @@
         <v>25</v>
       </c>
       <c r="O38" s="12">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>1</v>
+      </c>
+      <c r="R38" s="12">
+        <v>1</v>
+      </c>
+      <c r="S38" s="12">
         <v>0.01</v>
       </c>
-      <c r="P38" s="12">
+      <c r="T38" s="12">
         <v>4</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="U38" s="12">
         <v>4</v>
       </c>
-      <c r="R38" s="12">
+      <c r="V38" s="12">
+        <v>0</v>
+      </c>
+      <c r="W38" s="12">
+        <v>0</v>
+      </c>
+      <c r="X38" s="12">
         <v>0.1</v>
       </c>
-      <c r="S38" s="12">
-        <v>5</v>
-      </c>
-      <c r="T38" s="12" t="s">
+      <c r="Y38" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>100006</v>
       </c>
@@ -5469,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>76</v>
@@ -5496,25 +6169,43 @@
         <v>30</v>
       </c>
       <c r="O39" s="12">
+        <v>1</v>
+      </c>
+      <c r="P39" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>1</v>
+      </c>
+      <c r="R39" s="12">
+        <v>1</v>
+      </c>
+      <c r="S39" s="12">
         <v>0.01</v>
       </c>
-      <c r="P39" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="12">
-        <v>5</v>
-      </c>
-      <c r="R39" s="12">
+      <c r="T39" s="12">
+        <v>5</v>
+      </c>
+      <c r="U39" s="12">
+        <v>5</v>
+      </c>
+      <c r="V39" s="12">
+        <v>0</v>
+      </c>
+      <c r="W39" s="12">
+        <v>0</v>
+      </c>
+      <c r="X39" s="12">
         <v>0.1</v>
       </c>
-      <c r="S39" s="12">
-        <v>5</v>
-      </c>
-      <c r="T39" s="12" t="s">
+      <c r="Y39" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>100006</v>
       </c>
@@ -5533,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>76</v>
@@ -5560,30 +6251,48 @@
         <v>35</v>
       </c>
       <c r="O40" s="12">
+        <v>1</v>
+      </c>
+      <c r="P40" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>1</v>
+      </c>
+      <c r="R40" s="12">
+        <v>1</v>
+      </c>
+      <c r="S40" s="12">
         <v>0.01</v>
       </c>
-      <c r="P40" s="12">
+      <c r="T40" s="12">
         <v>6</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="U40" s="12">
         <v>6</v>
       </c>
-      <c r="R40" s="12">
+      <c r="V40" s="12">
+        <v>0</v>
+      </c>
+      <c r="W40" s="12">
+        <v>0</v>
+      </c>
+      <c r="X40" s="12">
         <v>0.1</v>
       </c>
-      <c r="S40" s="12">
-        <v>5</v>
-      </c>
-      <c r="T40" s="12" t="s">
+      <c r="Y40" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100007</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -5596,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>76</v>
@@ -5623,30 +6332,48 @@
         <v>10</v>
       </c>
       <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
         <v>0.01</v>
       </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4">
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
         <v>0.1</v>
       </c>
-      <c r="S41" s="4">
-        <v>5</v>
-      </c>
-      <c r="T41" s="4" t="s">
+      <c r="Y41" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>100007</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -5659,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>76</v>
@@ -5686,30 +6413,48 @@
         <v>15</v>
       </c>
       <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4">
         <v>0.01</v>
       </c>
-      <c r="P42" s="4">
+      <c r="T42" s="4">
         <v>2</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="U42" s="4">
         <v>2</v>
       </c>
-      <c r="R42" s="4">
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0</v>
+      </c>
+      <c r="X42" s="4">
         <v>0.1</v>
       </c>
-      <c r="S42" s="4">
-        <v>5</v>
-      </c>
-      <c r="T42" s="4" t="s">
+      <c r="Y42" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>100007</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -5722,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>76</v>
@@ -5749,30 +6494,48 @@
         <v>20</v>
       </c>
       <c r="O43" s="4">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
         <v>0.01</v>
       </c>
-      <c r="P43" s="4">
+      <c r="T43" s="4">
         <v>3</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="U43" s="4">
         <v>3</v>
       </c>
-      <c r="R43" s="4">
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0</v>
+      </c>
+      <c r="X43" s="4">
         <v>0.1</v>
       </c>
-      <c r="S43" s="4">
-        <v>5</v>
-      </c>
-      <c r="T43" s="4" t="s">
+      <c r="Y43" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>100007</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -5785,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>76</v>
@@ -5812,30 +6575,48 @@
         <v>25</v>
       </c>
       <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
         <v>0.01</v>
       </c>
-      <c r="P44" s="4">
+      <c r="T44" s="4">
         <v>4</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="U44" s="4">
         <v>4</v>
       </c>
-      <c r="R44" s="4">
+      <c r="V44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0</v>
+      </c>
+      <c r="X44" s="4">
         <v>0.1</v>
       </c>
-      <c r="S44" s="4">
-        <v>5</v>
-      </c>
-      <c r="T44" s="4" t="s">
+      <c r="Y44" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>100007</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -5848,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>76</v>
@@ -5875,30 +6656,48 @@
         <v>30</v>
       </c>
       <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4">
         <v>0.01</v>
       </c>
-      <c r="P45" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>5</v>
-      </c>
-      <c r="R45" s="4">
+      <c r="T45" s="4">
+        <v>5</v>
+      </c>
+      <c r="U45" s="4">
+        <v>5</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0</v>
+      </c>
+      <c r="X45" s="4">
         <v>0.1</v>
       </c>
-      <c r="S45" s="4">
-        <v>5</v>
-      </c>
-      <c r="T45" s="4" t="s">
+      <c r="Y45" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>100007</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -5911,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>76</v>
@@ -5938,30 +6737,48 @@
         <v>35</v>
       </c>
       <c r="O46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
         <v>0.01</v>
       </c>
-      <c r="P46" s="4">
+      <c r="T46" s="4">
         <v>6</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="U46" s="4">
         <v>6</v>
       </c>
-      <c r="R46" s="4">
+      <c r="V46" s="4">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
+        <v>0</v>
+      </c>
+      <c r="X46" s="4">
         <v>0.1</v>
       </c>
-      <c r="S46" s="4">
-        <v>5</v>
-      </c>
-      <c r="T46" s="4" t="s">
+      <c r="Y46" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>100008</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -5974,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>76</v>
@@ -6001,30 +6818,48 @@
         <v>10</v>
       </c>
       <c r="O47" s="12">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>1</v>
+      </c>
+      <c r="R47" s="12">
+        <v>1</v>
+      </c>
+      <c r="S47" s="12">
         <v>0.01</v>
       </c>
-      <c r="P47" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>1</v>
-      </c>
-      <c r="R47" s="12">
+      <c r="T47" s="12">
+        <v>1</v>
+      </c>
+      <c r="U47" s="12">
+        <v>1</v>
+      </c>
+      <c r="V47" s="12">
+        <v>0</v>
+      </c>
+      <c r="W47" s="12">
+        <v>0</v>
+      </c>
+      <c r="X47" s="12">
         <v>0.1</v>
       </c>
-      <c r="S47" s="12">
-        <v>5</v>
-      </c>
-      <c r="T47" s="12" t="s">
+      <c r="Y47" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>100008</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -6037,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>76</v>
@@ -6064,30 +6899,48 @@
         <v>15</v>
       </c>
       <c r="O48" s="12">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>1</v>
+      </c>
+      <c r="R48" s="12">
+        <v>1</v>
+      </c>
+      <c r="S48" s="12">
         <v>0.01</v>
       </c>
-      <c r="P48" s="12">
+      <c r="T48" s="12">
         <v>2</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="U48" s="12">
         <v>2</v>
       </c>
-      <c r="R48" s="12">
+      <c r="V48" s="12">
+        <v>0</v>
+      </c>
+      <c r="W48" s="12">
+        <v>0</v>
+      </c>
+      <c r="X48" s="12">
         <v>0.1</v>
       </c>
-      <c r="S48" s="12">
-        <v>5</v>
-      </c>
-      <c r="T48" s="12" t="s">
+      <c r="Y48" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>100008</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
@@ -6100,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>76</v>
@@ -6127,30 +6980,48 @@
         <v>20</v>
       </c>
       <c r="O49" s="12">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>1</v>
+      </c>
+      <c r="R49" s="12">
+        <v>1</v>
+      </c>
+      <c r="S49" s="12">
         <v>0.01</v>
       </c>
-      <c r="P49" s="12">
+      <c r="T49" s="12">
         <v>3</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="U49" s="12">
         <v>3</v>
       </c>
-      <c r="R49" s="12">
+      <c r="V49" s="12">
+        <v>0</v>
+      </c>
+      <c r="W49" s="12">
+        <v>0</v>
+      </c>
+      <c r="X49" s="12">
         <v>0.1</v>
       </c>
-      <c r="S49" s="12">
-        <v>5</v>
-      </c>
-      <c r="T49" s="12" t="s">
+      <c r="Y49" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>100008</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
@@ -6163,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>76</v>
@@ -6190,30 +7061,48 @@
         <v>25</v>
       </c>
       <c r="O50" s="12">
+        <v>1</v>
+      </c>
+      <c r="P50" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>1</v>
+      </c>
+      <c r="R50" s="12">
+        <v>1</v>
+      </c>
+      <c r="S50" s="12">
         <v>0.01</v>
       </c>
-      <c r="P50" s="12">
+      <c r="T50" s="12">
         <v>4</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="U50" s="12">
         <v>4</v>
       </c>
-      <c r="R50" s="12">
+      <c r="V50" s="12">
+        <v>0</v>
+      </c>
+      <c r="W50" s="12">
+        <v>0</v>
+      </c>
+      <c r="X50" s="12">
         <v>0.1</v>
       </c>
-      <c r="S50" s="12">
-        <v>5</v>
-      </c>
-      <c r="T50" s="12" t="s">
+      <c r="Y50" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>100008</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -6226,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>76</v>
@@ -6253,30 +7142,48 @@
         <v>30</v>
       </c>
       <c r="O51" s="12">
+        <v>1</v>
+      </c>
+      <c r="P51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>1</v>
+      </c>
+      <c r="R51" s="12">
+        <v>1</v>
+      </c>
+      <c r="S51" s="12">
         <v>0.01</v>
       </c>
-      <c r="P51" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>5</v>
-      </c>
-      <c r="R51" s="12">
+      <c r="T51" s="12">
+        <v>5</v>
+      </c>
+      <c r="U51" s="12">
+        <v>5</v>
+      </c>
+      <c r="V51" s="12">
+        <v>0</v>
+      </c>
+      <c r="W51" s="12">
+        <v>0</v>
+      </c>
+      <c r="X51" s="12">
         <v>0.1</v>
       </c>
-      <c r="S51" s="12">
-        <v>5</v>
-      </c>
-      <c r="T51" s="12" t="s">
+      <c r="Y51" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>100008</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
@@ -6289,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>76</v>
@@ -6316,30 +7223,48 @@
         <v>35</v>
       </c>
       <c r="O52" s="12">
+        <v>1</v>
+      </c>
+      <c r="P52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>1</v>
+      </c>
+      <c r="R52" s="12">
+        <v>1</v>
+      </c>
+      <c r="S52" s="12">
         <v>0.01</v>
       </c>
-      <c r="P52" s="12">
+      <c r="T52" s="12">
         <v>6</v>
       </c>
-      <c r="Q52" s="12">
+      <c r="U52" s="12">
         <v>6</v>
       </c>
-      <c r="R52" s="12">
+      <c r="V52" s="12">
+        <v>0</v>
+      </c>
+      <c r="W52" s="12">
+        <v>0</v>
+      </c>
+      <c r="X52" s="12">
         <v>0.1</v>
       </c>
-      <c r="S52" s="12">
-        <v>5</v>
-      </c>
-      <c r="T52" s="12" t="s">
+      <c r="Y52" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>100009</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -6352,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>76</v>
@@ -6379,30 +7304,48 @@
         <v>10</v>
       </c>
       <c r="O53" s="4">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4">
+        <v>1</v>
+      </c>
+      <c r="S53" s="4">
         <v>0.01</v>
       </c>
-      <c r="P53" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4">
+      <c r="T53" s="4">
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <v>1</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4">
         <v>0.1</v>
       </c>
-      <c r="S53" s="4">
-        <v>5</v>
-      </c>
-      <c r="T53" s="4" t="s">
+      <c r="Y53" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>100009</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -6415,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>76</v>
@@ -6442,30 +7385,48 @@
         <v>15</v>
       </c>
       <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4">
         <v>0.01</v>
       </c>
-      <c r="P54" s="4">
+      <c r="T54" s="4">
         <v>2</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="U54" s="4">
         <v>2</v>
       </c>
-      <c r="R54" s="4">
+      <c r="V54" s="4">
+        <v>0</v>
+      </c>
+      <c r="W54" s="4">
+        <v>0</v>
+      </c>
+      <c r="X54" s="4">
         <v>0.1</v>
       </c>
-      <c r="S54" s="4">
-        <v>5</v>
-      </c>
-      <c r="T54" s="4" t="s">
+      <c r="Y54" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>100009</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -6478,7 +7439,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>76</v>
@@ -6505,30 +7466,48 @@
         <v>20</v>
       </c>
       <c r="O55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>1</v>
+      </c>
+      <c r="R55" s="4">
+        <v>1</v>
+      </c>
+      <c r="S55" s="4">
         <v>0.01</v>
       </c>
-      <c r="P55" s="4">
+      <c r="T55" s="4">
         <v>3</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="U55" s="4">
         <v>3</v>
       </c>
-      <c r="R55" s="4">
+      <c r="V55" s="4">
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
+        <v>0</v>
+      </c>
+      <c r="X55" s="4">
         <v>0.1</v>
       </c>
-      <c r="S55" s="4">
-        <v>5</v>
-      </c>
-      <c r="T55" s="4" t="s">
+      <c r="Y55" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>100009</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -6541,7 +7520,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>76</v>
@@ -6568,30 +7547,48 @@
         <v>25</v>
       </c>
       <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
         <v>0.01</v>
       </c>
-      <c r="P56" s="4">
+      <c r="T56" s="4">
         <v>4</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="U56" s="4">
         <v>4</v>
       </c>
-      <c r="R56" s="4">
+      <c r="V56" s="4">
+        <v>0</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0</v>
+      </c>
+      <c r="X56" s="4">
         <v>0.1</v>
       </c>
-      <c r="S56" s="4">
-        <v>5</v>
-      </c>
-      <c r="T56" s="4" t="s">
+      <c r="Y56" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>100009</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
@@ -6604,7 +7601,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>76</v>
@@ -6631,30 +7628,48 @@
         <v>30</v>
       </c>
       <c r="O57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4">
+        <v>1</v>
+      </c>
+      <c r="S57" s="4">
         <v>0.01</v>
       </c>
-      <c r="P57" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>5</v>
-      </c>
-      <c r="R57" s="4">
+      <c r="T57" s="4">
+        <v>5</v>
+      </c>
+      <c r="U57" s="4">
+        <v>5</v>
+      </c>
+      <c r="V57" s="4">
+        <v>0</v>
+      </c>
+      <c r="W57" s="4">
+        <v>0</v>
+      </c>
+      <c r="X57" s="4">
         <v>0.1</v>
       </c>
-      <c r="S57" s="4">
-        <v>5</v>
-      </c>
-      <c r="T57" s="4" t="s">
+      <c r="Y57" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>100009</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
@@ -6667,7 +7682,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>76</v>
@@ -6694,21 +7709,39 @@
         <v>35</v>
       </c>
       <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4">
         <v>0.01</v>
       </c>
-      <c r="P58" s="4">
+      <c r="T58" s="4">
         <v>6</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="U58" s="4">
         <v>6</v>
       </c>
-      <c r="R58" s="4">
+      <c r="V58" s="4">
+        <v>0</v>
+      </c>
+      <c r="W58" s="4">
+        <v>0</v>
+      </c>
+      <c r="X58" s="4">
         <v>0.1</v>
       </c>
-      <c r="S58" s="4">
-        <v>5</v>
-      </c>
-      <c r="T58" s="4" t="s">
+      <c r="Y58" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6764,7 +7797,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6790,10 +7823,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6802,10 +7835,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6814,10 +7847,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6857,12 +7890,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -6871,15 +7904,15 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6896,7 +7929,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -6905,10 +7938,10 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -6917,16 +7950,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6935,16 +7968,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6953,16 +7986,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6971,16 +8004,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95056928-F722-43EC-903B-6FD80BD889AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C0D0B6-347C-4E6A-B602-90F5D497C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47670" yWindow="3090" windowWidth="27915" windowHeight="18000" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1245" yWindow="2895" windowWidth="27435" windowHeight="18000" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="207">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,14 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>move_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클로이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4 안드로이드</t>
   </si>
   <si>
@@ -1068,22 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_cri_Inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cri_Inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cri_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_cri_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타격 시 회복량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,6 +1073,60 @@
   </si>
   <si>
     <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cri_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cri_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cri_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cri_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리자베스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 수인족</t>
+  </si>
+  <si>
+    <t>5 악마</t>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,12 +1201,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1232,7 +1252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1255,13 +1275,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,6 +1333,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,6 +1393,9 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1691,6 +1728,9 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2490,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2559,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" s="9"/>
     </row>
@@ -2531,13 +2571,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2546,37 +2586,37 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>8</v>
@@ -2584,7 +2624,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2593,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2649,52 +2689,52 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>15</v>
@@ -2705,7 +2745,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -2715,40 +2755,40 @@
         <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="4">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J5" s="4">
         <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L5" s="4">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
@@ -2760,7 +2800,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -2770,40 +2810,40 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" s="4">
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L6" s="4">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
@@ -2815,50 +2855,50 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E7,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J7" s="4">
         <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L7" s="4">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
@@ -2870,50 +2910,50 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E8,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J8" s="4">
         <v>168</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L8" s="4">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
@@ -2925,50 +2965,50 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E9,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H9" s="4">
         <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9" s="4">
         <v>167</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L9" s="4">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
@@ -2980,7 +3020,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -2990,43 +3030,208 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J10" s="4">
         <v>156</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L10" s="4">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E11,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="4">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="4">
+        <v>156</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E12,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="4">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4">
+        <v>156</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E13,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="4">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="4">
+        <v>156</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="4">
+        <v>100009</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3041,13 +3246,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E10</xm:sqref>
+          <xm:sqref>E5:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G10</xm:sqref>
+          <xm:sqref>G5:G13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3057,13 +3262,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3084,18 +3289,18 @@
     <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.25" customWidth="1"/>
-    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.25" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -3103,10 +3308,10 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -3127,63 +3332,66 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3252,10 +3460,13 @@
         <v>19</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3263,10 +3474,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>37</v>
@@ -3281,61 +3492,64 @@
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3347,17 +3561,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -3366,40 +3580,40 @@
         <v>100004</v>
       </c>
       <c r="J5" s="4">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="K5" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N5" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4">
         <v>0</v>
@@ -3408,16 +3622,19 @@
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100001</v>
       </c>
@@ -3429,17 +3646,17 @@
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -3448,40 +3665,40 @@
         <v>100004</v>
       </c>
       <c r="J6" s="4">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="K6" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M6" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N6" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="4">
         <v>0</v>
@@ -3490,16 +3707,19 @@
         <v>0</v>
       </c>
       <c r="X6" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100001</v>
       </c>
@@ -3511,17 +3731,17 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -3530,40 +3750,40 @@
         <v>100004</v>
       </c>
       <c r="J7" s="4">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="K7" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M7" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
@@ -3572,16 +3792,19 @@
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100001</v>
       </c>
@@ -3593,17 +3816,17 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F8,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -3654,16 +3877,19 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z8" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100001</v>
       </c>
@@ -3675,17 +3901,17 @@
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F9,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -3736,16 +3962,19 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y9" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100001</v>
       </c>
@@ -3757,17 +3986,17 @@
         <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F10,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -3818,16 +4047,19 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y10" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>100002</v>
       </c>
@@ -3839,17 +4071,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E11" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F11,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
@@ -3858,40 +4090,40 @@
         <v>100104</v>
       </c>
       <c r="J11" s="12">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="K11" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L11" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="M11" s="12">
+        <v>3</v>
+      </c>
+      <c r="N11" s="12">
+        <v>3</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
         <v>10</v>
       </c>
-      <c r="N11" s="12">
-        <v>10</v>
-      </c>
-      <c r="O11" s="12">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1</v>
-      </c>
       <c r="Q11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="12">
         <v>0</v>
@@ -3900,16 +4132,19 @@
         <v>0</v>
       </c>
       <c r="X11" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>100002</v>
       </c>
@@ -3921,17 +4156,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E12" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F12,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="12">
         <v>0</v>
@@ -3940,40 +4175,40 @@
         <v>100104</v>
       </c>
       <c r="J12" s="12">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="K12" s="12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M12" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N12" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T12" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -3982,16 +4217,19 @@
         <v>0</v>
       </c>
       <c r="X12" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>100002</v>
       </c>
@@ -4003,17 +4241,17 @@
         <v>3</v>
       </c>
       <c r="D13" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E13" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F13,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="12">
         <v>0</v>
@@ -4022,40 +4260,40 @@
         <v>100104</v>
       </c>
       <c r="J13" s="12">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="K13" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M13" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N13" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T13" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4064,16 +4302,19 @@
         <v>0</v>
       </c>
       <c r="X13" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>100002</v>
       </c>
@@ -4085,17 +4326,17 @@
         <v>4</v>
       </c>
       <c r="D14" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E14" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F14,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -4146,16 +4387,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y14" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>100002</v>
       </c>
@@ -4167,17 +4411,17 @@
         <v>5</v>
       </c>
       <c r="D15" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E15" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F15,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
@@ -4228,16 +4472,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y15" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>100002</v>
       </c>
@@ -4249,17 +4496,17 @@
         <v>6</v>
       </c>
       <c r="D16" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E16" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F16,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -4310,16 +4557,19 @@
         <v>0</v>
       </c>
       <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y16" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z16" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100003</v>
       </c>
@@ -4331,17 +4581,17 @@
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F17,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -4350,40 +4600,40 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="K17" s="4">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="L17" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>6</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
         <v>10</v>
       </c>
-      <c r="N17" s="4">
-        <v>10</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
       <c r="Q17" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="4">
         <v>0</v>
@@ -4392,16 +4642,19 @@
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>100003</v>
       </c>
@@ -4413,17 +4666,17 @@
         <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F18,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -4432,40 +4685,40 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="K18" s="4">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="L18" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N18" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="4">
         <v>0</v>
@@ -4474,16 +4727,19 @@
         <v>0</v>
       </c>
       <c r="X18" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>100003</v>
       </c>
@@ -4495,17 +4751,17 @@
         <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F19,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -4514,40 +4770,40 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="K19" s="4">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="L19" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N19" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T19" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V19" s="4">
         <v>0</v>
@@ -4556,16 +4812,19 @@
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>100003</v>
       </c>
@@ -4577,17 +4836,17 @@
         <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F20,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -4638,16 +4897,19 @@
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y20" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>100003</v>
       </c>
@@ -4659,17 +4921,17 @@
         <v>5</v>
       </c>
       <c r="D21" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F21,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -4720,16 +4982,19 @@
         <v>0</v>
       </c>
       <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y21" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z21" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>100003</v>
       </c>
@@ -4741,17 +5006,17 @@
         <v>6</v>
       </c>
       <c r="D22" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F22,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -4802,16 +5067,19 @@
         <v>0</v>
       </c>
       <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y22" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>100004</v>
       </c>
@@ -4830,10 +5098,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
@@ -4842,40 +5110,40 @@
         <v>0</v>
       </c>
       <c r="J23" s="12">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K23" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L23" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M23" s="12">
+        <v>3</v>
+      </c>
+      <c r="N23" s="12">
+        <v>3</v>
+      </c>
+      <c r="O23" s="12">
         <v>10</v>
       </c>
-      <c r="N23" s="12">
-        <v>10</v>
-      </c>
-      <c r="O23" s="12">
-        <v>1</v>
-      </c>
       <c r="P23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" s="12">
         <v>0</v>
@@ -4884,16 +5152,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>100004</v>
       </c>
@@ -4912,10 +5183,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="12">
         <v>0</v>
@@ -4924,40 +5195,40 @@
         <v>0</v>
       </c>
       <c r="J24" s="12">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K24" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L24" s="12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M24" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N24" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O24" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T24" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" s="12">
         <v>0</v>
@@ -4966,16 +5237,19 @@
         <v>0</v>
       </c>
       <c r="X24" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>100004</v>
       </c>
@@ -4994,10 +5268,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="12">
         <v>0</v>
@@ -5006,40 +5280,40 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K25" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L25" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M25" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N25" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O25" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T25" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U25" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" s="12">
         <v>0</v>
@@ -5048,16 +5322,19 @@
         <v>0</v>
       </c>
       <c r="X25" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>100004</v>
       </c>
@@ -5076,10 +5353,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
@@ -5130,16 +5407,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y26" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>100004</v>
       </c>
@@ -5158,10 +5438,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
@@ -5212,16 +5492,19 @@
         <v>0</v>
       </c>
       <c r="X27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y27" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>100004</v>
       </c>
@@ -5240,10 +5523,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
@@ -5294,16 +5577,19 @@
         <v>0</v>
       </c>
       <c r="X28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y28" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z28" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>100005</v>
       </c>
@@ -5315,17 +5601,17 @@
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E29" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -5334,40 +5620,40 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="K29" s="4">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="L29" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4">
         <v>10</v>
       </c>
-      <c r="N29" s="4">
-        <v>10</v>
-      </c>
-      <c r="O29" s="4">
-        <v>1</v>
-      </c>
       <c r="P29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="4">
         <v>0</v>
@@ -5376,16 +5662,19 @@
         <v>0</v>
       </c>
       <c r="X29" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>100005</v>
       </c>
@@ -5397,17 +5686,17 @@
         <v>2</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E30" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F30,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -5416,40 +5705,40 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="K30" s="4">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="L30" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M30" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N30" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O30" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="4">
         <v>0</v>
@@ -5458,16 +5747,19 @@
         <v>0</v>
       </c>
       <c r="X30" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>100005</v>
       </c>
@@ -5479,17 +5771,17 @@
         <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E31" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F31,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -5498,40 +5790,40 @@
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="K31" s="4">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="L31" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N31" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O31" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T31" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U31" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V31" s="4">
         <v>0</v>
@@ -5540,16 +5832,19 @@
         <v>0</v>
       </c>
       <c r="X31" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>100005</v>
       </c>
@@ -5561,17 +5856,17 @@
         <v>4</v>
       </c>
       <c r="D32" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E32" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F32,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -5622,16 +5917,19 @@
         <v>0</v>
       </c>
       <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y32" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z32" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>100005</v>
       </c>
@@ -5643,17 +5941,17 @@
         <v>5</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E33" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F33,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -5704,16 +6002,19 @@
         <v>0</v>
       </c>
       <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y33" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>100005</v>
       </c>
@@ -5725,17 +6026,17 @@
         <v>6</v>
       </c>
       <c r="D34" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E34" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F34,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -5786,38 +6087,41 @@
         <v>0</v>
       </c>
       <c r="X34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y34" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z34" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>100006</v>
       </c>
       <c r="B35" s="12" t="str">
         <f>VLOOKUP(A35,pc_data!A:B,2)</f>
-        <v>클로이</v>
+        <v>클레어</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
       </c>
       <c r="D35" s="12">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E35" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F35,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H35" s="12">
         <v>0</v>
@@ -5826,40 +6130,40 @@
         <v>100504</v>
       </c>
       <c r="J35" s="12">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="K35" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="L35" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M35" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="12">
         <v>0.01</v>
       </c>
       <c r="T35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="12">
         <v>0</v>
@@ -5868,38 +6172,41 @@
         <v>0</v>
       </c>
       <c r="X35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y35" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z35" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>100006</v>
       </c>
       <c r="B36" s="12" t="str">
         <f>VLOOKUP(A36,pc_data!A:B,2)</f>
-        <v>클로이</v>
+        <v>클레어</v>
       </c>
       <c r="C36" s="12">
         <v>2</v>
       </c>
       <c r="D36" s="12">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E36" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F36,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" s="12">
         <v>0</v>
@@ -5908,40 +6215,40 @@
         <v>100504</v>
       </c>
       <c r="J36" s="12">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="K36" s="12">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="L36" s="12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M36" s="12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N36" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="12">
         <v>0.01</v>
       </c>
       <c r="T36" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" s="12">
         <v>0</v>
@@ -5950,38 +6257,41 @@
         <v>0</v>
       </c>
       <c r="X36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y36" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z36" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>100006</v>
       </c>
       <c r="B37" s="12" t="str">
         <f>VLOOKUP(A37,pc_data!A:B,2)</f>
-        <v>클로이</v>
+        <v>클레어</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
       </c>
       <c r="D37" s="12">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E37" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F37,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -5990,40 +6300,40 @@
         <v>100504</v>
       </c>
       <c r="J37" s="12">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="K37" s="12">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L37" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M37" s="12">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N37" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="12">
         <v>0.01</v>
       </c>
       <c r="T37" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U37" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V37" s="12">
         <v>0</v>
@@ -6032,38 +6342,41 @@
         <v>0</v>
       </c>
       <c r="X37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y37" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z37" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>100006</v>
       </c>
       <c r="B38" s="12" t="str">
         <f>VLOOKUP(A38,pc_data!A:B,2)</f>
-        <v>클로이</v>
+        <v>클레어</v>
       </c>
       <c r="C38" s="12">
         <v>4</v>
       </c>
       <c r="D38" s="12">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E38" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F38,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H38" s="12">
         <v>0</v>
@@ -6114,38 +6427,41 @@
         <v>0</v>
       </c>
       <c r="X38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y38" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>100006</v>
       </c>
       <c r="B39" s="12" t="str">
         <f>VLOOKUP(A39,pc_data!A:B,2)</f>
-        <v>클로이</v>
+        <v>클레어</v>
       </c>
       <c r="C39" s="12">
         <v>5</v>
       </c>
       <c r="D39" s="12">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E39" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F39,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H39" s="12">
         <v>0</v>
@@ -6196,38 +6512,41 @@
         <v>0</v>
       </c>
       <c r="X39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y39" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z39" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>100006</v>
       </c>
       <c r="B40" s="12" t="str">
         <f>VLOOKUP(A40,pc_data!A:B,2)</f>
-        <v>클로이</v>
+        <v>클레어</v>
       </c>
       <c r="C40" s="12">
         <v>6</v>
       </c>
       <c r="D40" s="12">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E40" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H40" s="12">
         <v>0</v>
@@ -6278,37 +6597,40 @@
         <v>0</v>
       </c>
       <c r="X40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y40" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z40" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100007</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
       <c r="D41" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E41" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -6317,40 +6639,40 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="K41" s="4">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="L41" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M41" s="4">
+        <v>5</v>
+      </c>
+      <c r="N41" s="4">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4">
         <v>10</v>
       </c>
-      <c r="N41" s="4">
-        <v>10</v>
-      </c>
-      <c r="O41" s="4">
-        <v>1</v>
-      </c>
       <c r="P41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="4">
         <v>0</v>
@@ -6359,37 +6681,40 @@
         <v>0</v>
       </c>
       <c r="X41" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>100007</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E42" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -6398,40 +6723,40 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="K42" s="4">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="L42" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M42" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N42" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O42" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T42" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" s="4">
         <v>0</v>
@@ -6440,37 +6765,40 @@
         <v>0</v>
       </c>
       <c r="X42" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>100007</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
       </c>
       <c r="D43" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E43" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -6479,40 +6807,40 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="K43" s="4">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="L43" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M43" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N43" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O43" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T43" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U43" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V43" s="4">
         <v>0</v>
@@ -6521,37 +6849,40 @@
         <v>0</v>
       </c>
       <c r="X43" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>100007</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
       </c>
       <c r="D44" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E44" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -6602,37 +6933,40 @@
         <v>0</v>
       </c>
       <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y44" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z44" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>100007</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
       </c>
       <c r="D45" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E45" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -6683,37 +7017,40 @@
         <v>0</v>
       </c>
       <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y45" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z45" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>100007</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
       </c>
       <c r="D46" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E46" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -6764,37 +7101,40 @@
         <v>0</v>
       </c>
       <c r="X46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y46" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z46" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>100008</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
       </c>
       <c r="D47" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E47" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F47,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H47" s="12">
         <v>0</v>
@@ -6803,40 +7143,40 @@
         <v>0</v>
       </c>
       <c r="J47" s="12">
-        <v>500</v>
+        <v>652</v>
       </c>
       <c r="K47" s="12">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="L47" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M47" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N47" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O47" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="12">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="12">
         <v>0</v>
@@ -6845,37 +7185,40 @@
         <v>0</v>
       </c>
       <c r="X47" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>100008</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
       </c>
       <c r="D48" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E48" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F48,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H48" s="12">
         <v>0</v>
@@ -6884,40 +7227,40 @@
         <v>0</v>
       </c>
       <c r="J48" s="12">
-        <v>500</v>
+        <v>652</v>
       </c>
       <c r="K48" s="12">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="L48" s="12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M48" s="12">
+        <v>5</v>
+      </c>
+      <c r="N48" s="12">
+        <v>3</v>
+      </c>
+      <c r="O48" s="12">
         <v>15</v>
       </c>
-      <c r="N48" s="12">
-        <v>15</v>
-      </c>
-      <c r="O48" s="12">
-        <v>1</v>
-      </c>
       <c r="P48" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="12">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R48" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T48" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U48" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V48" s="12">
         <v>0</v>
@@ -6926,37 +7269,40 @@
         <v>0</v>
       </c>
       <c r="X48" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>100008</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
       </c>
       <c r="D49" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E49" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F49,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H49" s="12">
         <v>0</v>
@@ -6965,40 +7311,40 @@
         <v>0</v>
       </c>
       <c r="J49" s="12">
-        <v>500</v>
+        <v>652</v>
       </c>
       <c r="K49" s="12">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="L49" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M49" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N49" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O49" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="12">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T49" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U49" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V49" s="12">
         <v>0</v>
@@ -7007,37 +7353,40 @@
         <v>0</v>
       </c>
       <c r="X49" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>100008</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
       </c>
       <c r="D50" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E50" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F50,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H50" s="12">
         <v>0</v>
@@ -7088,37 +7437,40 @@
         <v>0</v>
       </c>
       <c r="X50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y50" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z50" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z50" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>100008</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
       </c>
       <c r="D51" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E51" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F51,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H51" s="12">
         <v>0</v>
@@ -7169,37 +7521,40 @@
         <v>0</v>
       </c>
       <c r="X51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y51" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z51" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>100008</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
       </c>
       <c r="D52" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E52" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F52,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H52" s="12">
         <v>0</v>
@@ -7250,21 +7605,24 @@
         <v>0</v>
       </c>
       <c r="X52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="12">
         <v>0.1</v>
       </c>
-      <c r="Y52" s="12">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z52" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>100009</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -7277,10 +7635,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -7289,40 +7647,40 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K53" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M53" s="4">
         <v>10</v>
       </c>
       <c r="N53" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" s="4">
         <v>0</v>
@@ -7331,21 +7689,24 @@
         <v>0</v>
       </c>
       <c r="X53" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z53" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>100009</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -7358,10 +7719,10 @@
         <v>3</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -7370,40 +7731,40 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K54" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="M54" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N54" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T54" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U54" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V54" s="4">
         <v>0</v>
@@ -7412,21 +7773,24 @@
         <v>0</v>
       </c>
       <c r="X54" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>100009</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -7439,10 +7803,10 @@
         <v>3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -7451,40 +7815,40 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K55" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="M55" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N55" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T55" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U55" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V55" s="4">
         <v>0</v>
@@ -7493,21 +7857,24 @@
         <v>0</v>
       </c>
       <c r="X55" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z55" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>100009</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -7520,10 +7887,10 @@
         <v>3</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -7574,21 +7941,24 @@
         <v>0</v>
       </c>
       <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y56" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z56" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z56" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>100009</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
@@ -7601,10 +7971,10 @@
         <v>3</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -7655,21 +8025,24 @@
         <v>0</v>
       </c>
       <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y57" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z57" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>100009</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
@@ -7682,10 +8055,10 @@
         <v>3</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -7736,19 +8109,23 @@
         <v>0</v>
       </c>
       <c r="X58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y58" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="4" t="s">
-        <v>56</v>
+      <c r="Z58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7781,15 +8158,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>46</v>
@@ -7797,7 +8174,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7814,7 +8191,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7823,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7835,10 +8212,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7847,10 +8224,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7890,29 +8267,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7929,19 +8306,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7950,16 +8327,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7968,16 +8345,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7986,16 +8363,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8004,16 +8381,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C0D0B6-347C-4E6A-B602-90F5D497C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74B101B-444C-4EAA-A1BE-1AFEB9C4CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="2895" windowWidth="27435" windowHeight="18000" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40275" yWindow="1980" windowWidth="32700" windowHeight="18000" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3264,11 +3264,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3583,10 +3583,10 @@
         <v>441</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L5" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>3</v>
@@ -3668,10 +3668,10 @@
         <v>441</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L6" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
@@ -3753,10 +3753,10 @@
         <v>441</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L7" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>3</v>
@@ -4093,10 +4093,10 @@
         <v>406</v>
       </c>
       <c r="K11" s="12">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L11" s="12">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M11" s="12">
         <v>3</v>
@@ -4178,10 +4178,10 @@
         <v>406</v>
       </c>
       <c r="K12" s="12">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L12" s="12">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M12" s="12">
         <v>3</v>
@@ -4263,10 +4263,10 @@
         <v>406</v>
       </c>
       <c r="K13" s="12">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L13" s="12">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M13" s="12">
         <v>3</v>
@@ -7650,10 +7650,10 @@
         <v>470</v>
       </c>
       <c r="K53" s="4">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="L53" s="4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="M53" s="4">
         <v>10</v>
@@ -7734,10 +7734,10 @@
         <v>470</v>
       </c>
       <c r="K54" s="4">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="L54" s="4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="M54" s="4">
         <v>10</v>
@@ -7818,10 +7818,10 @@
         <v>470</v>
       </c>
       <c r="K55" s="4">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="L55" s="4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="M55" s="4">
         <v>10</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74B101B-444C-4EAA-A1BE-1AFEB9C4CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE4ADE-09DA-4CB5-9B15-A952ECAC923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40275" yWindow="1980" windowWidth="32700" windowHeight="18000" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="pc_battle_data" sheetId="5" r:id="rId5"/>
     <sheet name="position_icon_data" sheetId="6" r:id="rId6"/>
     <sheet name="role_icon_data" sheetId="7" r:id="rId7"/>
+    <sheet name="attack_attribute_icon_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}</author>
+    <author>tc={15FA70F9-1022-46DA-A3AA-B5528ADE25BA}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
@@ -56,6 +58,14 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     role_icon_data 시트 참조</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{15FA70F9-1022-46DA-A3AA-B5528ADE25BA}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    생년월일 미정인 경우 0 으로 설정한다.</t>
       </text>
     </comment>
   </commentList>
@@ -138,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="218">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>move_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Role_Icon_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,18 +941,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법_방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물리 방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,126 +986,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>star_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_2:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>츠키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
-  </si>
-  <si>
-    <t>key_1:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_2:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격 시 회복량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강인함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">resist </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_cri_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cri_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_cri_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cri_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘리자베스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1128,6 +1086,90 @@
   <si>
     <t>weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기획자 확인용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>베리타리움</t>
+  </si>
+  <si>
+    <t>요력</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute_Icon_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_attack</t>
+  </si>
+  <si>
+    <t>physics_defend</t>
+  </si>
+  <si>
+    <t>magic_defend</t>
+  </si>
+  <si>
+    <t>physics_critical_chance</t>
+  </si>
+  <si>
+    <t>magic_critical_chance</t>
+  </si>
+  <si>
+    <t>physics_critical_power_add</t>
+  </si>
+  <si>
+    <t>magic_critical_power_add</t>
+  </si>
+  <si>
+    <t>attack_life_recovery</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1286,13 +1328,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,8 +1390,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1393,9 +1451,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
-      <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1728,9 +1784,79 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="31">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ELECTRICITY</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>전기</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VEGETARIUM</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>베리타리움</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VITALITY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>요력</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MAGIC</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>마력</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1743,9 +1869,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1783,7 +1909,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1889,7 +2015,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2031,7 +2157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2041,6 +2167,9 @@
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D2" dT="2023-12-19T02:22:00.75" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
     <text>role_icon_data 시트 참조</text>
+  </threadedComment>
+  <threadedComment ref="K2" dT="2024-02-06T05:07:34.38" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{15FA70F9-1022-46DA-A3AA-B5528ADE25BA}">
+    <text>생년월일 미정인 경우 0 으로 설정한다.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2170,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2186,9 +2315,10 @@
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -2205,8 +2335,12 @@
         <f>'[1]@role'!$A$1</f>
         <v>ROLE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="str">
+        <f>'[1]@attribute_type'!$A$1</f>
+        <v>ATTRIBUTE_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -2255,8 +2389,20 @@
         <f>'[1]@role'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q2" s="5" t="str">
+        <f>'[1]@attribute_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="R2" s="5" t="str">
+        <f>'[1]@attribute_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f>'[1]@attribute_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -2305,8 +2451,20 @@
         <f>'[1]@role'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q3" s="4" t="str">
+        <f>'[1]@attribute_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'[1]@attribute_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>'[1]@attribute_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -2355,8 +2513,20 @@
         <f>'[1]@role'!$C5</f>
         <v>1 탱커</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4" t="str">
+        <f>'[1]@attribute_type'!$A5</f>
+        <v>ELECTRICITY</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'[1]@attribute_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f>'[1]@attribute_type'!$C5</f>
+        <v>전기</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -2405,8 +2575,20 @@
         <f>'[1]@role'!$C6</f>
         <v>2 딜러</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="4" t="str">
+        <f>'[1]@attribute_type'!$A6</f>
+        <v>VEGETARIUM</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'[1]@attribute_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f>'[1]@attribute_type'!$C6</f>
+        <v>베리타리움</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -2455,8 +2637,20 @@
         <f>'[1]@role'!$C7</f>
         <v>3 서포터</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4" t="str">
+        <f>'[1]@attribute_type'!$A7</f>
+        <v>VITALITY</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'[1]@attribute_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f>'[1]@attribute_type'!$C7</f>
+        <v>요력</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -2493,8 +2687,20 @@
         <f>'[1]@role'!$C8</f>
         <v>4 힐러</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q7" s="4" t="str">
+        <f>'[1]@attribute_type'!$A8</f>
+        <v>MAGIC</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'[1]@attribute_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>'[1]@attribute_type'!$C8</f>
+        <v>마력</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -2508,7 +2714,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -2530,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2541,29 +2747,32 @@
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="4.125" customWidth="1"/>
     <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2571,13 +2780,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2586,45 +2795,51 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2633,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2645,16 +2860,16 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>0</v>
@@ -2663,25 +2878,31 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2689,63 +2910,69 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -2755,52 +2982,59 @@
         <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="4">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="4">
+        <v>170</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="4">
-        <v>170</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>100001</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="O5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -2810,52 +3044,59 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H6" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="4">
         <v>20</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="4">
+        <v>160</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="4">
-        <v>160</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>100002</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="O6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -2865,52 +3106,59 @@
         <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="K7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="4">
+        <v>150</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="4">
-        <v>150</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>100003</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="O7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -2920,52 +3168,59 @@
         <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H8" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="4">
         <v>30</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="K8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="4">
+        <v>168</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="4">
-        <v>168</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>100004</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="O8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -2975,52 +3230,59 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I9,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="4">
+        <v>22</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="4">
         <v>167</v>
       </c>
-      <c r="H9" s="4">
-        <v>22</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="M9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="4">
-        <v>167</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>100005</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="O9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -3030,54 +3292,61 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H10" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I10,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="4">
         <v>16</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="K10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="4">
+        <v>156</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="4">
-        <v>156</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>100006</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="O10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4">
@@ -3085,54 +3354,61 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H11" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I11,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="4">
         <v>16</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="K11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="4">
+        <v>156</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="4">
-        <v>156</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>100007</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="O11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -3140,54 +3416,61 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H12" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I12,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="4">
         <v>16</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="K12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="4">
+        <v>156</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="4">
-        <v>156</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>100008</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="O12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4">
@@ -3195,45 +3478,55 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H13" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I13,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="4">
         <v>16</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="K13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="4">
+        <v>156</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="4">
-        <v>156</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="N13" s="4">
         <v>100009</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="O13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3241,7 +3534,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F419FD-C813-4E3F-9701-4E344FD4F16F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
@@ -3254,6 +3547,12 @@
           </x14:formula1>
           <xm:sqref>G5:G13</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:I13</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3264,11 +3563,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L53" sqref="L53"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3297,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -3308,10 +3607,10 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -3332,49 +3631,49 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>44</v>
@@ -3385,13 +3684,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3474,10 +3773,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>37</v>
@@ -3492,61 +3791,61 @@
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -3554,7 +3853,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A5,pc_data!A:B,2,)</f>
         <v>루시아</v>
       </c>
       <c r="C5" s="4">
@@ -3568,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -3631,7 +3930,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -3639,7 +3938,7 @@
         <v>100001</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A6,pc_data!A:B,2,)</f>
         <v>루시아</v>
       </c>
       <c r="C6" s="4">
@@ -3653,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -3716,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -3724,7 +4023,7 @@
         <v>100001</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A7,pc_data!A:B,2,)</f>
         <v>루시아</v>
       </c>
       <c r="C7" s="4">
@@ -3738,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -3801,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -3809,7 +4108,7 @@
         <v>100001</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A8,pc_data!A:B,2,)</f>
         <v>루시아</v>
       </c>
       <c r="C8" s="4">
@@ -3823,10 +4122,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -3886,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -3894,7 +4193,7 @@
         <v>100001</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A9,pc_data!A:B,2,)</f>
         <v>루시아</v>
       </c>
       <c r="C9" s="4">
@@ -3908,10 +4207,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -3971,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -3979,7 +4278,7 @@
         <v>100001</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A10,pc_data!A:B,2,)</f>
         <v>루시아</v>
       </c>
       <c r="C10" s="4">
@@ -3993,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -4056,15 +4355,15 @@
         <v>5</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>100002</v>
       </c>
-      <c r="B11" s="12" t="str">
-        <f>VLOOKUP(A11,pc_data!A:B,2)</f>
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(A11,pc_data!A:B,2,)</f>
         <v>라일라</v>
       </c>
       <c r="C11" s="12">
@@ -4078,10 +4377,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
@@ -4141,15 +4440,15 @@
         <v>5</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>100002</v>
       </c>
-      <c r="B12" s="12" t="str">
-        <f>VLOOKUP(A12,pc_data!A:B,2)</f>
+      <c r="B12" s="4" t="str">
+        <f>VLOOKUP(A12,pc_data!A:B,2,)</f>
         <v>라일라</v>
       </c>
       <c r="C12" s="12">
@@ -4163,10 +4462,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="12">
         <v>0</v>
@@ -4226,15 +4525,15 @@
         <v>5</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>100002</v>
       </c>
-      <c r="B13" s="12" t="str">
-        <f>VLOOKUP(A13,pc_data!A:B,2)</f>
+      <c r="B13" s="4" t="str">
+        <f>VLOOKUP(A13,pc_data!A:B,2,)</f>
         <v>라일라</v>
       </c>
       <c r="C13" s="12">
@@ -4248,10 +4547,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="12">
         <v>0</v>
@@ -4311,15 +4610,15 @@
         <v>5</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>100002</v>
       </c>
-      <c r="B14" s="12" t="str">
-        <f>VLOOKUP(A14,pc_data!A:B,2)</f>
+      <c r="B14" s="4" t="str">
+        <f>VLOOKUP(A14,pc_data!A:B,2,)</f>
         <v>라일라</v>
       </c>
       <c r="C14" s="12">
@@ -4333,10 +4632,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -4396,15 +4695,15 @@
         <v>5</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>100002</v>
       </c>
-      <c r="B15" s="12" t="str">
-        <f>VLOOKUP(A15,pc_data!A:B,2)</f>
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(A15,pc_data!A:B,2,)</f>
         <v>라일라</v>
       </c>
       <c r="C15" s="12">
@@ -4418,10 +4717,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
@@ -4481,15 +4780,15 @@
         <v>5</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>100002</v>
       </c>
-      <c r="B16" s="12" t="str">
-        <f>VLOOKUP(A16,pc_data!A:B,2)</f>
+      <c r="B16" s="4" t="str">
+        <f>VLOOKUP(A16,pc_data!A:B,2,)</f>
         <v>라일라</v>
       </c>
       <c r="C16" s="12">
@@ -4503,10 +4802,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -4566,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -4574,7 +4873,7 @@
         <v>100003</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f>VLOOKUP(A17,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A17,pc_data!A:B,2,)</f>
         <v>바이올렛</v>
       </c>
       <c r="C17" s="4">
@@ -4588,10 +4887,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -4651,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
@@ -4659,7 +4958,7 @@
         <v>100003</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>VLOOKUP(A18,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A18,pc_data!A:B,2,)</f>
         <v>바이올렛</v>
       </c>
       <c r="C18" s="4">
@@ -4673,10 +4972,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -4736,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
@@ -4744,7 +5043,7 @@
         <v>100003</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>VLOOKUP(A19,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A19,pc_data!A:B,2,)</f>
         <v>바이올렛</v>
       </c>
       <c r="C19" s="4">
@@ -4758,10 +5057,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -4821,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
@@ -4829,7 +5128,7 @@
         <v>100003</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>VLOOKUP(A20,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A20,pc_data!A:B,2,)</f>
         <v>바이올렛</v>
       </c>
       <c r="C20" s="4">
@@ -4843,10 +5142,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -4906,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
@@ -4914,7 +5213,7 @@
         <v>100003</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>VLOOKUP(A21,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A21,pc_data!A:B,2,)</f>
         <v>바이올렛</v>
       </c>
       <c r="C21" s="4">
@@ -4928,10 +5227,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -4991,7 +5290,7 @@
         <v>5</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
@@ -4999,7 +5298,7 @@
         <v>100003</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f>VLOOKUP(A22,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A22,pc_data!A:B,2,)</f>
         <v>바이올렛</v>
       </c>
       <c r="C22" s="4">
@@ -5013,10 +5312,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -5076,15 +5375,15 @@
         <v>5</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>100004</v>
       </c>
-      <c r="B23" s="12" t="str">
-        <f>VLOOKUP(A23,pc_data!A:B,2)</f>
+      <c r="B23" s="4" t="str">
+        <f>VLOOKUP(A23,pc_data!A:B,2,)</f>
         <v>데이지</v>
       </c>
       <c r="C23" s="12">
@@ -5098,10 +5397,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
@@ -5161,15 +5460,15 @@
         <v>5</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>100004</v>
       </c>
-      <c r="B24" s="12" t="str">
-        <f>VLOOKUP(A24,pc_data!A:B,2)</f>
+      <c r="B24" s="4" t="str">
+        <f>VLOOKUP(A24,pc_data!A:B,2,)</f>
         <v>데이지</v>
       </c>
       <c r="C24" s="12">
@@ -5183,10 +5482,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="12">
         <v>0</v>
@@ -5246,15 +5545,15 @@
         <v>5</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>100004</v>
       </c>
-      <c r="B25" s="12" t="str">
-        <f>VLOOKUP(A25,pc_data!A:B,2)</f>
+      <c r="B25" s="4" t="str">
+        <f>VLOOKUP(A25,pc_data!A:B,2,)</f>
         <v>데이지</v>
       </c>
       <c r="C25" s="12">
@@ -5268,10 +5567,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="12">
         <v>0</v>
@@ -5331,15 +5630,15 @@
         <v>5</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>100004</v>
       </c>
-      <c r="B26" s="12" t="str">
-        <f>VLOOKUP(A26,pc_data!A:B,2)</f>
+      <c r="B26" s="4" t="str">
+        <f>VLOOKUP(A26,pc_data!A:B,2,)</f>
         <v>데이지</v>
       </c>
       <c r="C26" s="12">
@@ -5353,10 +5652,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
@@ -5416,15 +5715,15 @@
         <v>5</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>100004</v>
       </c>
-      <c r="B27" s="12" t="str">
-        <f>VLOOKUP(A27,pc_data!A:B,2)</f>
+      <c r="B27" s="4" t="str">
+        <f>VLOOKUP(A27,pc_data!A:B,2,)</f>
         <v>데이지</v>
       </c>
       <c r="C27" s="12">
@@ -5438,10 +5737,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
@@ -5501,15 +5800,15 @@
         <v>5</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>100004</v>
       </c>
-      <c r="B28" s="12" t="str">
-        <f>VLOOKUP(A28,pc_data!A:B,2)</f>
+      <c r="B28" s="4" t="str">
+        <f>VLOOKUP(A28,pc_data!A:B,2,)</f>
         <v>데이지</v>
       </c>
       <c r="C28" s="12">
@@ -5523,10 +5822,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
@@ -5586,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -5594,7 +5893,7 @@
         <v>100005</v>
       </c>
       <c r="B29" s="4" t="str">
-        <f>VLOOKUP(A29,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A29,pc_data!A:B,2,)</f>
         <v>에일린</v>
       </c>
       <c r="C29" s="4">
@@ -5608,10 +5907,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -5671,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
@@ -5679,7 +5978,7 @@
         <v>100005</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f>VLOOKUP(A30,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A30,pc_data!A:B,2,)</f>
         <v>에일린</v>
       </c>
       <c r="C30" s="4">
@@ -5693,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -5756,7 +6055,7 @@
         <v>5</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
@@ -5764,7 +6063,7 @@
         <v>100005</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f>VLOOKUP(A31,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A31,pc_data!A:B,2,)</f>
         <v>에일린</v>
       </c>
       <c r="C31" s="4">
@@ -5778,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -5841,7 +6140,7 @@
         <v>5</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
@@ -5849,7 +6148,7 @@
         <v>100005</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f>VLOOKUP(A32,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A32,pc_data!A:B,2,)</f>
         <v>에일린</v>
       </c>
       <c r="C32" s="4">
@@ -5863,10 +6162,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -5926,7 +6225,7 @@
         <v>5</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
@@ -5934,7 +6233,7 @@
         <v>100005</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f>VLOOKUP(A33,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A33,pc_data!A:B,2,)</f>
         <v>에일린</v>
       </c>
       <c r="C33" s="4">
@@ -5948,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -6011,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
@@ -6019,7 +6318,7 @@
         <v>100005</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f>VLOOKUP(A34,pc_data!A:B,2)</f>
+        <f>VLOOKUP(A34,pc_data!A:B,2,)</f>
         <v>에일린</v>
       </c>
       <c r="C34" s="4">
@@ -6033,10 +6332,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -6096,15 +6395,15 @@
         <v>5</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>100006</v>
       </c>
-      <c r="B35" s="12" t="str">
-        <f>VLOOKUP(A35,pc_data!A:B,2)</f>
+      <c r="B35" s="4" t="str">
+        <f>VLOOKUP(A35,pc_data!A:B,2,)</f>
         <v>클레어</v>
       </c>
       <c r="C35" s="12">
@@ -6118,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="12">
         <v>0</v>
@@ -6181,15 +6480,15 @@
         <v>5</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>100006</v>
       </c>
-      <c r="B36" s="12" t="str">
-        <f>VLOOKUP(A36,pc_data!A:B,2)</f>
+      <c r="B36" s="4" t="str">
+        <f>VLOOKUP(A36,pc_data!A:B,2,)</f>
         <v>클레어</v>
       </c>
       <c r="C36" s="12">
@@ -6203,10 +6502,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="12">
         <v>0</v>
@@ -6266,15 +6565,15 @@
         <v>5</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>100006</v>
       </c>
-      <c r="B37" s="12" t="str">
-        <f>VLOOKUP(A37,pc_data!A:B,2)</f>
+      <c r="B37" s="4" t="str">
+        <f>VLOOKUP(A37,pc_data!A:B,2,)</f>
         <v>클레어</v>
       </c>
       <c r="C37" s="12">
@@ -6288,10 +6587,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -6351,15 +6650,15 @@
         <v>5</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>100006</v>
       </c>
-      <c r="B38" s="12" t="str">
-        <f>VLOOKUP(A38,pc_data!A:B,2)</f>
+      <c r="B38" s="4" t="str">
+        <f>VLOOKUP(A38,pc_data!A:B,2,)</f>
         <v>클레어</v>
       </c>
       <c r="C38" s="12">
@@ -6373,10 +6672,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="12">
         <v>0</v>
@@ -6436,15 +6735,15 @@
         <v>5</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>100006</v>
       </c>
-      <c r="B39" s="12" t="str">
-        <f>VLOOKUP(A39,pc_data!A:B,2)</f>
+      <c r="B39" s="4" t="str">
+        <f>VLOOKUP(A39,pc_data!A:B,2,)</f>
         <v>클레어</v>
       </c>
       <c r="C39" s="12">
@@ -6458,10 +6757,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" s="12">
         <v>0</v>
@@ -6521,15 +6820,15 @@
         <v>5</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>100006</v>
       </c>
-      <c r="B40" s="12" t="str">
-        <f>VLOOKUP(A40,pc_data!A:B,2)</f>
+      <c r="B40" s="4" t="str">
+        <f>VLOOKUP(A40,pc_data!A:B,2,)</f>
         <v>클레어</v>
       </c>
       <c r="C40" s="12">
@@ -6543,10 +6842,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="12">
         <v>0</v>
@@ -6606,15 +6905,16 @@
         <v>5</v>
       </c>
       <c r="AA40" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100007</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>172</v>
+      <c r="B41" s="4" t="str">
+        <f>VLOOKUP(A41,pc_data!A:B,2,)</f>
+        <v>마네</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -6627,10 +6927,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -6690,15 +6990,16 @@
         <v>5</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>100007</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>172</v>
+      <c r="B42" s="4" t="str">
+        <f>VLOOKUP(A42,pc_data!A:B,2,)</f>
+        <v>마네</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -6711,10 +7012,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -6774,15 +7075,16 @@
         <v>5</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>100007</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>172</v>
+      <c r="B43" s="4" t="str">
+        <f>VLOOKUP(A43,pc_data!A:B,2,)</f>
+        <v>마네</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -6795,10 +7097,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -6858,15 +7160,16 @@
         <v>5</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>100007</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>172</v>
+      <c r="B44" s="4" t="str">
+        <f>VLOOKUP(A44,pc_data!A:B,2,)</f>
+        <v>마네</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -6879,10 +7182,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -6942,15 +7245,16 @@
         <v>5</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>100007</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>172</v>
+      <c r="B45" s="4" t="str">
+        <f>VLOOKUP(A45,pc_data!A:B,2,)</f>
+        <v>마네</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -6963,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -7026,15 +7330,16 @@
         <v>5</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>100007</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>172</v>
+      <c r="B46" s="4" t="str">
+        <f>VLOOKUP(A46,pc_data!A:B,2,)</f>
+        <v>마네</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -7047,10 +7352,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -7110,15 +7415,16 @@
         <v>5</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>100008</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>171</v>
+      <c r="B47" s="4" t="str">
+        <f>VLOOKUP(A47,pc_data!A:B,2,)</f>
+        <v>츠키</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -7131,10 +7437,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="12">
         <v>0</v>
@@ -7194,15 +7500,16 @@
         <v>5</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>100008</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>171</v>
+      <c r="B48" s="4" t="str">
+        <f>VLOOKUP(A48,pc_data!A:B,2,)</f>
+        <v>츠키</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -7215,10 +7522,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H48" s="12">
         <v>0</v>
@@ -7278,15 +7585,16 @@
         <v>5</v>
       </c>
       <c r="AA48" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>100008</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>171</v>
+      <c r="B49" s="4" t="str">
+        <f>VLOOKUP(A49,pc_data!A:B,2,)</f>
+        <v>츠키</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
@@ -7299,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H49" s="12">
         <v>0</v>
@@ -7362,15 +7670,16 @@
         <v>5</v>
       </c>
       <c r="AA49" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>100008</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>171</v>
+      <c r="B50" s="4" t="str">
+        <f>VLOOKUP(A50,pc_data!A:B,2,)</f>
+        <v>츠키</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
@@ -7383,10 +7692,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="12">
         <v>0</v>
@@ -7446,15 +7755,16 @@
         <v>5</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>100008</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>171</v>
+      <c r="B51" s="4" t="str">
+        <f>VLOOKUP(A51,pc_data!A:B,2,)</f>
+        <v>츠키</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -7467,10 +7777,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" s="12">
         <v>0</v>
@@ -7530,15 +7840,16 @@
         <v>5</v>
       </c>
       <c r="AA51" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>100008</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>171</v>
+      <c r="B52" s="4" t="str">
+        <f>VLOOKUP(A52,pc_data!A:B,2,)</f>
+        <v>츠키</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
@@ -7551,10 +7862,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52" s="12">
         <v>0</v>
@@ -7614,15 +7925,16 @@
         <v>5</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>100009</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>173</v>
+      <c r="B53" s="4" t="str">
+        <f>VLOOKUP(A53,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -7635,10 +7947,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -7698,15 +8010,16 @@
         <v>5</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>100009</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>173</v>
+      <c r="B54" s="4" t="str">
+        <f>VLOOKUP(A54,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -7719,10 +8032,10 @@
         <v>3</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -7782,15 +8095,16 @@
         <v>5</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>100009</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>173</v>
+      <c r="B55" s="4" t="str">
+        <f>VLOOKUP(A55,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -7803,10 +8117,10 @@
         <v>3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -7866,15 +8180,16 @@
         <v>5</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>100009</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>173</v>
+      <c r="B56" s="4" t="str">
+        <f>VLOOKUP(A56,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -7887,10 +8202,10 @@
         <v>3</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -7950,15 +8265,16 @@
         <v>5</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>100009</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>173</v>
+      <c r="B57" s="4" t="str">
+        <f>VLOOKUP(A57,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
@@ -7971,10 +8287,10 @@
         <v>3</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -8034,15 +8350,16 @@
         <v>5</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>100009</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>173</v>
+      <c r="B58" s="4" t="str">
+        <f>VLOOKUP(A58,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
@@ -8055,10 +8372,10 @@
         <v>3</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -8118,7 +8435,7 @@
         <v>5</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8158,15 +8475,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>46</v>
@@ -8174,7 +8491,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8191,7 +8508,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8200,10 +8517,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8212,10 +8529,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8224,10 +8541,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8253,7 +8570,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8267,29 +8584,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8306,19 +8623,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8327,16 +8644,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8345,16 +8662,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8363,16 +8680,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8381,16 +8698,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -8409,4 +8726,123 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD8FF2-D3CB-4C40-B541-49873683EA73}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E00BEFEA-32B6-49D0-8453-29BCD446D136}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE4ADE-09DA-4CB5-9B15-A952ECAC923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A02FA4-3876-4B4C-87E0-D54185D8EBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="228">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1170,46 @@
   </si>
   <si>
     <t>attack_life_recovery</t>
+  </si>
+  <si>
+    <t>중거리 클레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 클레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1294,7 +1334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1324,17 +1364,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1347,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,10 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2736,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3526,7 +3552,376 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="K14" s="15"/>
+      <c r="A14" s="4">
+        <v>100010</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E14,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I14,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="4">
+        <v>16</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="4">
+        <v>156</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="4">
+        <v>100010</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E15,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I15,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="4">
+        <v>16</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="4">
+        <v>156</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="4">
+        <v>100011</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E16,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I16,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="4">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="4">
+        <v>156</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="4">
+        <v>100006</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100013</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E17,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I17,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="4">
+        <v>156</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="4">
+        <v>100006</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>100014</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E18,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G18,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I18,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="4">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="4">
+        <v>156</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="4">
+        <v>100006</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>100015</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E19,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G19,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I19,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="4">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="4">
+        <v>156</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="4">
+        <v>100006</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3534,24 +3929,24 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F419FD-C813-4E3F-9701-4E344FD4F16F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E13</xm:sqref>
+          <xm:sqref>E5:E19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G13</xm:sqref>
+          <xm:sqref>G5:G19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I13</xm:sqref>
+          <xm:sqref>I5:I19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3563,11 +3958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A02FA4-3876-4B4C-87E0-D54185D8EBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A955EA-169F-47A3-8567-C2796843619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="229">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1172,14 +1172,6 @@
     <t>attack_life_recovery</t>
   </si>
   <si>
-    <t>중거리 클레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 클레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클레어 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1196,20 +1188,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100014</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100015</t>
   </si>
 </sst>
 </file>
@@ -2762,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3420,7 +3419,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
@@ -3482,7 +3481,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
@@ -3544,7 +3543,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4" t="s">
@@ -3553,7 +3552,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>100010</v>
+        <v>100012</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>218</v>
@@ -3595,7 +3594,7 @@
         <v>94</v>
       </c>
       <c r="N14" s="4">
-        <v>100010</v>
+        <v>100006</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>176</v>
@@ -3606,7 +3605,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4" t="s">
@@ -3615,7 +3614,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>100011</v>
+        <v>100013</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>219</v>
@@ -3657,7 +3656,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="4">
-        <v>100011</v>
+        <v>100006</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>176</v>
@@ -3668,7 +3667,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4" t="s">
@@ -3677,7 +3676,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>100012</v>
+        <v>100014</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>220</v>
@@ -3730,7 +3729,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4" t="s">
@@ -3739,7 +3738,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>100013</v>
+        <v>100015</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>221</v>
@@ -3792,134 +3791,10 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>100014</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E18,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G18,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I18,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="4">
-        <v>16</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="4">
-        <v>156</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="4">
-        <v>100006</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>100015</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E19,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G19,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I19,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="4">
-        <v>16</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="4">
-        <v>156</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="4">
-        <v>100006</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3934,19 +3809,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E19</xm:sqref>
+          <xm:sqref>E5:E17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G19</xm:sqref>
+          <xm:sqref>G5:G17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I19</xm:sqref>
+          <xm:sqref>I5:I17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3962,7 +3837,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A955EA-169F-47A3-8567-C2796843619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B2D81-524E-42A6-85F6-F005E9061E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="207">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,18 +603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100201, 100202,100203]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100301, 100302,100303]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100401, 100402,100403]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,30 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2, 12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일기쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8, 15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인별그램 올리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7, 10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너튜브 감상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[9, 10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,18 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,18 +747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,32 +893,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라일라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에일린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>루시아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4 안드로이드</t>
-  </si>
-  <si>
     <t>1 인간종족</t>
   </si>
   <si>
-    <t>바이올렛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6 천사</t>
   </si>
   <si>
@@ -990,15 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
   </si>
   <si>
@@ -1172,22 +1088,6 @@
     <t>attack_life_recovery</t>
   </si>
   <si>
-    <t>클레어 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클레어 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클레어 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클레어 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100007</t>
   </si>
   <si>
@@ -1197,18 +1097,34 @@
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100014</t>
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100015</t>
+  </si>
+  <si>
+    <t>전열용 루시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 라일라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 클레어 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 클레어 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2761,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="A18:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2805,13 +2721,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2820,43 +2736,43 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>8</v>
@@ -2864,7 +2780,7 @@
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2873,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -2885,7 +2801,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -2935,13 +2851,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>56</v>
@@ -2950,22 +2866,22 @@
         <v>11</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>12</v>
@@ -2974,19 +2890,19 @@
         <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>15</v>
@@ -2997,7 +2913,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -3007,47 +2923,47 @@
         <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H5" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J5" s="4">
         <v>24</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L5" s="4">
         <v>170</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N5" s="4">
         <v>100001</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4" t="s">
@@ -3059,7 +2975,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -3069,47 +2985,47 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J6" s="4">
         <v>20</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L6" s="4">
         <v>160</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N6" s="4">
         <v>100002</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4" t="s">
@@ -3118,7 +3034,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>100003</v>
+        <v>100006</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>164</v>
@@ -3128,50 +3044,50 @@
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E7,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="J7" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7" s="4">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N7" s="4">
-        <v>100003</v>
+        <v>100006</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
@@ -3180,60 +3096,60 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>100004</v>
+        <v>100007</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E8,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I8,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="J8" s="4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L8" s="4">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N8" s="4">
-        <v>100004</v>
+        <v>100007</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
@@ -3242,60 +3158,60 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>100005</v>
+        <v>100008</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E9,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H9" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I9,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J9" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L9" s="4">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N9" s="4">
-        <v>100005</v>
+        <v>100008</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
@@ -3304,60 +3220,60 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>100006</v>
+        <v>100009</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E10,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H10" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I10,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J10" s="4">
         <v>16</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L10" s="4">
         <v>156</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N10" s="4">
-        <v>100006</v>
+        <v>100009</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
@@ -3366,60 +3282,60 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>100007</v>
+        <v>100001</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E11,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="H11" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I11,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="J11" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="N11" s="4">
-        <v>100007</v>
+        <v>100001</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
@@ -3428,10 +3344,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>100008</v>
+        <v>100002</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -3441,47 +3357,47 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F12" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="H12" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I12,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="J12" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L12" s="4">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N12" s="4">
-        <v>100008</v>
+        <v>100002</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
@@ -3490,60 +3406,60 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>100009</v>
+        <v>100014</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E13,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F13" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="H13" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I13,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J13" s="4">
         <v>16</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L13" s="4">
         <v>156</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N13" s="4">
-        <v>100009</v>
+        <v>100006</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4" t="s">
@@ -3552,10 +3468,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>100012</v>
+        <v>100015</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -3565,236 +3481,50 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F14" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H14" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="J14" s="4">
         <v>16</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L14" s="4">
         <v>156</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N14" s="4">
         <v>100006</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>100013</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E15,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I15,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J15" s="4">
-        <v>16</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="4">
-        <v>156</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="4">
-        <v>100006</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>100014</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E16,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I16,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" s="4">
-        <v>16</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="4">
-        <v>156</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="4">
-        <v>100006</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>100015</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E17,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I17,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="4">
-        <v>16</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="4">
-        <v>156</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="4">
-        <v>100006</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3809,19 +3539,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E17</xm:sqref>
+          <xm:sqref>E5:E14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G17</xm:sqref>
+          <xm:sqref>G5:G14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I17</xm:sqref>
+          <xm:sqref>I5:I14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3831,13 +3561,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3877,7 +3607,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>61</v>
@@ -3901,49 +3631,49 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>44</v>
@@ -3954,13 +3684,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -4043,7 +3773,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>62</v>
@@ -4061,55 +3791,55 @@
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>49</v>
@@ -4137,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>63</v>
@@ -4222,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>63</v>
@@ -4307,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>63</v>
@@ -4392,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>63</v>
@@ -4477,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>63</v>
@@ -4562,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>63</v>
@@ -4647,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>64</v>
@@ -4732,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>64</v>
@@ -4817,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>64</v>
@@ -4902,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>64</v>
@@ -4987,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>64</v>
@@ -5072,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>64</v>
@@ -5138,3573 +4868,2043 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>100003</v>
+    <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>100006</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>VLOOKUP(A17,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E17" s="4">
+        <v>클레어</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E17" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F17,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>451</v>
-      </c>
-      <c r="K17" s="4">
-        <v>182</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>3</v>
-      </c>
-      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>100504</v>
+      </c>
+      <c r="J17" s="12">
+        <v>777</v>
+      </c>
+      <c r="K17" s="12">
+        <v>103</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
         <v>6</v>
       </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>50</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="N17" s="12">
         <v>5</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>100003</v>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>100006</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
-      </c>
-      <c r="C18" s="4">
+        <v>클레어</v>
+      </c>
+      <c r="C18" s="12">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E18" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F18,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>451</v>
-      </c>
-      <c r="K18" s="4">
-        <v>182</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>3</v>
-      </c>
-      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100504</v>
+      </c>
+      <c r="J18" s="12">
+        <v>777</v>
+      </c>
+      <c r="K18" s="12">
+        <v>103</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
         <v>6</v>
       </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>50</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4">
+      <c r="N18" s="12">
         <v>5</v>
       </c>
-      <c r="AA18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>100003</v>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T18" s="12">
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>100006</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
-      </c>
-      <c r="C19" s="4">
+        <v>클레어</v>
+      </c>
+      <c r="C19" s="12">
         <v>3</v>
       </c>
-      <c r="D19" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E19" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F19,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>451</v>
-      </c>
-      <c r="K19" s="4">
-        <v>182</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>3</v>
-      </c>
-      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100504</v>
+      </c>
+      <c r="J19" s="12">
+        <v>777</v>
+      </c>
+      <c r="K19" s="12">
+        <v>103</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
         <v>6</v>
       </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>50</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
+      <c r="N19" s="12">
         <v>5</v>
       </c>
-      <c r="AA19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>100003</v>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>100006</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>VLOOKUP(A20,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
-      </c>
-      <c r="C20" s="4">
+        <v>클레어</v>
+      </c>
+      <c r="C20" s="12">
         <v>4</v>
       </c>
-      <c r="D20" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E20" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F20,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100504</v>
+      </c>
+      <c r="J20" s="12">
         <v>500</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="12">
         <v>50</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="12">
         <v>50</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="12">
         <v>25</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="12">
         <v>25</v>
       </c>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4">
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>1</v>
+      </c>
+      <c r="R20" s="12">
+        <v>1</v>
+      </c>
+      <c r="S20" s="12">
         <v>0.01</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="12">
         <v>4</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="12">
         <v>4</v>
       </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="12">
         <v>5</v>
       </c>
-      <c r="AA20" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>100003</v>
+      <c r="AA20" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>100006</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>VLOOKUP(A21,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
-      </c>
-      <c r="C21" s="4">
+        <v>클레어</v>
+      </c>
+      <c r="C21" s="12">
         <v>5</v>
       </c>
-      <c r="D21" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E21" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F21,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100504</v>
+      </c>
+      <c r="J21" s="12">
         <v>500</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="12">
         <v>60</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="12">
         <v>60</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="12">
         <v>30</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="12">
         <v>30</v>
       </c>
-      <c r="O21" s="4">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
+      <c r="O21" s="12">
+        <v>1</v>
+      </c>
+      <c r="P21" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>1</v>
+      </c>
+      <c r="R21" s="12">
+        <v>1</v>
+      </c>
+      <c r="S21" s="12">
         <v>0.01</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="12">
         <v>5</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="12">
         <v>5</v>
       </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21" s="12">
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="12">
         <v>5</v>
       </c>
-      <c r="AA21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>100003</v>
+      <c r="AA21" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>100006</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>VLOOKUP(A22,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
-      </c>
-      <c r="C22" s="4">
+        <v>클레어</v>
+      </c>
+      <c r="C22" s="12">
         <v>6</v>
       </c>
-      <c r="D22" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E22" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F22,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100504</v>
+      </c>
+      <c r="J22" s="12">
         <v>500</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="12">
         <v>70</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="12">
         <v>70</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="12">
         <v>35</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="12">
         <v>35</v>
       </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>1</v>
+      </c>
+      <c r="R22" s="12">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12">
         <v>0.01</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="12">
         <v>6</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="12">
         <v>6</v>
       </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="12">
         <v>5</v>
       </c>
-      <c r="AA22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>100004</v>
+      <c r="AA22" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>100007</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>VLOOKUP(A23,pc_data!A:B,2,)</f>
-        <v>데이지</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
+        <v>마네</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E23" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F23,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>576</v>
+      </c>
+      <c r="K23" s="4">
+        <v>190</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F23,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="N23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>497</v>
-      </c>
-      <c r="K23" s="12">
-        <v>60</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
-        <v>3</v>
-      </c>
-      <c r="N23" s="12">
-        <v>3</v>
-      </c>
-      <c r="O23" s="12">
+      <c r="O23" s="4">
         <v>10</v>
       </c>
-      <c r="P23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>0</v>
-      </c>
-      <c r="R23" s="12">
-        <v>0</v>
-      </c>
-      <c r="S23" s="12">
-        <v>0</v>
-      </c>
-      <c r="T23" s="12">
-        <v>0</v>
-      </c>
-      <c r="U23" s="12">
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>50</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
         <v>5</v>
       </c>
-      <c r="V23" s="12">
-        <v>0</v>
-      </c>
-      <c r="W23" s="12">
-        <v>0</v>
-      </c>
-      <c r="X23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="12" t="s">
+      <c r="AA23" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>100004</v>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>100007</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>VLOOKUP(A24,pc_data!A:B,2,)</f>
-        <v>데이지</v>
-      </c>
-      <c r="C24" s="12">
+        <v>마네</v>
+      </c>
+      <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E24" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F24,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>576</v>
+      </c>
+      <c r="K24" s="4">
+        <v>190</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F24,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="N24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>497</v>
-      </c>
-      <c r="K24" s="12">
-        <v>60</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>3</v>
-      </c>
-      <c r="N24" s="12">
-        <v>3</v>
-      </c>
-      <c r="O24" s="12">
+      <c r="O24" s="4">
         <v>10</v>
       </c>
-      <c r="P24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>0</v>
-      </c>
-      <c r="R24" s="12">
-        <v>0</v>
-      </c>
-      <c r="S24" s="12">
-        <v>0</v>
-      </c>
-      <c r="T24" s="12">
-        <v>0</v>
-      </c>
-      <c r="U24" s="12">
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>50</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
         <v>5</v>
       </c>
-      <c r="V24" s="12">
-        <v>0</v>
-      </c>
-      <c r="W24" s="12">
-        <v>0</v>
-      </c>
-      <c r="X24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AA24" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>100004</v>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>100007</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>VLOOKUP(A25,pc_data!A:B,2,)</f>
-        <v>데이지</v>
-      </c>
-      <c r="C25" s="12">
+        <v>마네</v>
+      </c>
+      <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E25" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F25,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>576</v>
+      </c>
+      <c r="K25" s="4">
+        <v>190</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <v>5</v>
       </c>
-      <c r="E25" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F25,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="N25" s="4">
         <v>2</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="12">
-        <v>497</v>
-      </c>
-      <c r="K25" s="12">
-        <v>60</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="12">
-        <v>3</v>
-      </c>
-      <c r="N25" s="12">
-        <v>3</v>
-      </c>
-      <c r="O25" s="12">
+      <c r="O25" s="4">
         <v>10</v>
       </c>
-      <c r="P25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>0</v>
-      </c>
-      <c r="R25" s="12">
-        <v>0</v>
-      </c>
-      <c r="S25" s="12">
-        <v>0</v>
-      </c>
-      <c r="T25" s="12">
-        <v>0</v>
-      </c>
-      <c r="U25" s="12">
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>50</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
         <v>5</v>
       </c>
-      <c r="V25" s="12">
-        <v>0</v>
-      </c>
-      <c r="W25" s="12">
-        <v>0</v>
-      </c>
-      <c r="X25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="12" t="s">
+      <c r="AA25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>100004</v>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>100007</v>
       </c>
       <c r="B26" s="4" t="str">
         <f>VLOOKUP(A26,pc_data!A:B,2,)</f>
-        <v>데이지</v>
-      </c>
-      <c r="C26" s="12">
+        <v>마네</v>
+      </c>
+      <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E26" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F26,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>500</v>
+      </c>
+      <c r="K26" s="4">
+        <v>50</v>
+      </c>
+      <c r="L26" s="4">
+        <v>50</v>
+      </c>
+      <c r="M26" s="4">
+        <v>25</v>
+      </c>
+      <c r="N26" s="4">
+        <v>25</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T26" s="4">
+        <v>4</v>
+      </c>
+      <c r="U26" s="4">
+        <v>4</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z26" s="4">
         <v>5</v>
       </c>
-      <c r="E26" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F26,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="12">
-        <v>500</v>
-      </c>
-      <c r="K26" s="12">
-        <v>50</v>
-      </c>
-      <c r="L26" s="12">
-        <v>50</v>
-      </c>
-      <c r="M26" s="12">
-        <v>25</v>
-      </c>
-      <c r="N26" s="12">
-        <v>25</v>
-      </c>
-      <c r="O26" s="12">
-        <v>1</v>
-      </c>
-      <c r="P26" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>1</v>
-      </c>
-      <c r="R26" s="12">
-        <v>1</v>
-      </c>
-      <c r="S26" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T26" s="12">
-        <v>4</v>
-      </c>
-      <c r="U26" s="12">
-        <v>4</v>
-      </c>
-      <c r="V26" s="12">
-        <v>0</v>
-      </c>
-      <c r="W26" s="12">
-        <v>0</v>
-      </c>
-      <c r="X26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z26" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AA26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>100004</v>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>100007</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>VLOOKUP(A27,pc_data!A:B,2,)</f>
-        <v>데이지</v>
-      </c>
-      <c r="C27" s="12">
+        <v>마네</v>
+      </c>
+      <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E27" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F27,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>500</v>
+      </c>
+      <c r="K27" s="4">
+        <v>60</v>
+      </c>
+      <c r="L27" s="4">
+        <v>60</v>
+      </c>
+      <c r="M27" s="4">
+        <v>30</v>
+      </c>
+      <c r="N27" s="4">
+        <v>30</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T27" s="4">
         <v>5</v>
       </c>
-      <c r="E27" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F27,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <v>500</v>
-      </c>
-      <c r="K27" s="12">
-        <v>60</v>
-      </c>
-      <c r="L27" s="12">
-        <v>60</v>
-      </c>
-      <c r="M27" s="12">
-        <v>30</v>
-      </c>
-      <c r="N27" s="12">
-        <v>30</v>
-      </c>
-      <c r="O27" s="12">
-        <v>1</v>
-      </c>
-      <c r="P27" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>1</v>
-      </c>
-      <c r="R27" s="12">
-        <v>1</v>
-      </c>
-      <c r="S27" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T27" s="12">
+      <c r="U27" s="4">
         <v>5</v>
       </c>
-      <c r="U27" s="12">
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z27" s="4">
         <v>5</v>
       </c>
-      <c r="V27" s="12">
-        <v>0</v>
-      </c>
-      <c r="W27" s="12">
-        <v>0</v>
-      </c>
-      <c r="X27" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z27" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AA27" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>100004</v>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>100007</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,pc_data!A:B,2,)</f>
-        <v>데이지</v>
-      </c>
-      <c r="C28" s="12">
+        <v>마네</v>
+      </c>
+      <c r="C28" s="4">
         <v>6</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E28" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F28,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>500</v>
+      </c>
+      <c r="K28" s="4">
+        <v>70</v>
+      </c>
+      <c r="L28" s="4">
+        <v>70</v>
+      </c>
+      <c r="M28" s="4">
+        <v>35</v>
+      </c>
+      <c r="N28" s="4">
+        <v>35</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T28" s="4">
+        <v>6</v>
+      </c>
+      <c r="U28" s="4">
+        <v>6</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z28" s="4">
         <v>5</v>
       </c>
-      <c r="E28" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F28,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
-        <v>500</v>
-      </c>
-      <c r="K28" s="12">
-        <v>70</v>
-      </c>
-      <c r="L28" s="12">
-        <v>70</v>
-      </c>
-      <c r="M28" s="12">
-        <v>35</v>
-      </c>
-      <c r="N28" s="12">
-        <v>35</v>
-      </c>
-      <c r="O28" s="12">
-        <v>1</v>
-      </c>
-      <c r="P28" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>1</v>
-      </c>
-      <c r="R28" s="12">
-        <v>1</v>
-      </c>
-      <c r="S28" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T28" s="12">
-        <v>6</v>
-      </c>
-      <c r="U28" s="12">
-        <v>6</v>
-      </c>
-      <c r="V28" s="12">
-        <v>0</v>
-      </c>
-      <c r="W28" s="12">
-        <v>0</v>
-      </c>
-      <c r="X28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z28" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="12" t="s">
+      <c r="AA28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>100005</v>
+    <row r="29" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>100008</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>VLOOKUP(A29,pc_data!A:B,2,)</f>
-        <v>에일린</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="4">
+        <v>츠키</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>622</v>
-      </c>
-      <c r="K29" s="4">
-        <v>67</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
-        <v>4</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="F29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>652</v>
+      </c>
+      <c r="K29" s="12">
+        <v>179</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>5</v>
+      </c>
+      <c r="N29" s="12">
         <v>3</v>
       </c>
-      <c r="O29" s="4">
-        <v>10</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4">
-        <v>0</v>
-      </c>
-      <c r="V29" s="4">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4">
+      <c r="O29" s="12">
+        <v>15</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>75</v>
+      </c>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <v>0</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <v>0</v>
+      </c>
+      <c r="W29" s="12">
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="12">
         <v>5</v>
       </c>
-      <c r="AA29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>100005</v>
+      <c r="AA29" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>100008</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>VLOOKUP(A30,pc_data!A:B,2,)</f>
-        <v>에일린</v>
-      </c>
-      <c r="C30" s="4">
+        <v>츠키</v>
+      </c>
+      <c r="C30" s="12">
         <v>2</v>
       </c>
-      <c r="D30" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F30,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>622</v>
-      </c>
-      <c r="K30" s="4">
-        <v>67</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>4</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="F30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>652</v>
+      </c>
+      <c r="K30" s="12">
+        <v>179</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>5</v>
+      </c>
+      <c r="N30" s="12">
         <v>3</v>
       </c>
-      <c r="O30" s="4">
-        <v>10</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="4">
+      <c r="O30" s="12">
+        <v>15</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>75</v>
+      </c>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <v>0</v>
+      </c>
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12">
         <v>5</v>
       </c>
-      <c r="AA30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>100005</v>
+      <c r="AA30" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>100008</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>VLOOKUP(A31,pc_data!A:B,2,)</f>
-        <v>에일린</v>
-      </c>
-      <c r="C31" s="4">
+        <v>츠키</v>
+      </c>
+      <c r="C31" s="12">
         <v>3</v>
       </c>
-      <c r="D31" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F31,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>622</v>
-      </c>
-      <c r="K31" s="4">
-        <v>67</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>4</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="F31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>652</v>
+      </c>
+      <c r="K31" s="12">
+        <v>179</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>5</v>
+      </c>
+      <c r="N31" s="12">
         <v>3</v>
       </c>
-      <c r="O31" s="4">
-        <v>10</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4">
+      <c r="O31" s="12">
+        <v>15</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>75</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
+        <v>0</v>
+      </c>
+      <c r="X31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="12">
         <v>5</v>
       </c>
-      <c r="AA31" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>100005</v>
+      <c r="AA31" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>100008</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>VLOOKUP(A32,pc_data!A:B,2,)</f>
-        <v>에일린</v>
-      </c>
-      <c r="C32" s="4">
+        <v>츠키</v>
+      </c>
+      <c r="C32" s="12">
         <v>4</v>
       </c>
-      <c r="D32" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E32" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F32,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="F32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
         <v>500</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="12">
         <v>50</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="12">
         <v>50</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="12">
         <v>25</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="12">
         <v>25</v>
       </c>
-      <c r="O32" s="4">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
+      <c r="O32" s="12">
+        <v>1</v>
+      </c>
+      <c r="P32" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>1</v>
+      </c>
+      <c r="R32" s="12">
+        <v>1</v>
+      </c>
+      <c r="S32" s="12">
         <v>0.01</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="12">
         <v>4</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32" s="12">
         <v>4</v>
       </c>
-      <c r="V32" s="4">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-      <c r="X32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="4">
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <v>0</v>
+      </c>
+      <c r="X32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="Z32" s="12">
         <v>5</v>
       </c>
-      <c r="AA32" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>100005</v>
+      <c r="AA32" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>100008</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>VLOOKUP(A33,pc_data!A:B,2,)</f>
-        <v>에일린</v>
-      </c>
-      <c r="C33" s="4">
+        <v>츠키</v>
+      </c>
+      <c r="C33" s="12">
         <v>5</v>
       </c>
-      <c r="D33" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E33" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F33,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="F33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
         <v>500</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="12">
         <v>60</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="12">
         <v>60</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="12">
         <v>30</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="12">
         <v>30</v>
       </c>
-      <c r="O33" s="4">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4">
-        <v>1</v>
-      </c>
-      <c r="S33" s="4">
+      <c r="O33" s="12">
+        <v>1</v>
+      </c>
+      <c r="P33" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>1</v>
+      </c>
+      <c r="R33" s="12">
+        <v>1</v>
+      </c>
+      <c r="S33" s="12">
         <v>0.01</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="12">
         <v>5</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="12">
         <v>5</v>
       </c>
-      <c r="V33" s="4">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-      <c r="X33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="4">
+      <c r="V33" s="12">
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
+        <v>0</v>
+      </c>
+      <c r="X33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="Z33" s="12">
         <v>5</v>
       </c>
-      <c r="AA33" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>100005</v>
+      <c r="AA33" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>100008</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>VLOOKUP(A34,pc_data!A:B,2,)</f>
-        <v>에일린</v>
-      </c>
-      <c r="C34" s="4">
+        <v>츠키</v>
+      </c>
+      <c r="C34" s="12">
         <v>6</v>
       </c>
-      <c r="D34" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F34,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="F34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
         <v>500</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="12">
         <v>70</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="12">
         <v>70</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="12">
         <v>35</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="12">
         <v>35</v>
       </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1</v>
-      </c>
-      <c r="S34" s="4">
+      <c r="O34" s="12">
+        <v>1</v>
+      </c>
+      <c r="P34" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>1</v>
+      </c>
+      <c r="R34" s="12">
+        <v>1</v>
+      </c>
+      <c r="S34" s="12">
         <v>0.01</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="12">
         <v>6</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="12">
         <v>6</v>
       </c>
-      <c r="V34" s="4">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="4">
+      <c r="V34" s="12">
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
+        <v>0</v>
+      </c>
+      <c r="X34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="Z34" s="12">
         <v>5</v>
       </c>
-      <c r="AA34" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>100006</v>
+      <c r="AA34" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>100009</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>VLOOKUP(A35,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E35" s="12">
+        <v>엘리자베스</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F35,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J35" s="12">
-        <v>777</v>
-      </c>
-      <c r="K35" s="12">
-        <v>103</v>
-      </c>
-      <c r="L35" s="12">
-        <v>0</v>
-      </c>
-      <c r="M35" s="12">
-        <v>6</v>
-      </c>
-      <c r="N35" s="12">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>470</v>
+      </c>
+      <c r="K35" s="4">
+        <v>114</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>10</v>
+      </c>
+      <c r="N35" s="4">
+        <v>9</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>75</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
         <v>5</v>
       </c>
-      <c r="O35" s="12">
-        <v>0</v>
-      </c>
-      <c r="P35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="12">
-        <v>0</v>
-      </c>
-      <c r="R35" s="12">
-        <v>0</v>
-      </c>
-      <c r="S35" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T35" s="12">
-        <v>0</v>
-      </c>
-      <c r="U35" s="12">
-        <v>0</v>
-      </c>
-      <c r="V35" s="12">
-        <v>0</v>
-      </c>
-      <c r="W35" s="12">
-        <v>0</v>
-      </c>
-      <c r="X35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z35" s="12">
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="4">
         <v>5</v>
       </c>
-      <c r="AA35" s="12" t="s">
+      <c r="AA35" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>100006</v>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>100009</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>VLOOKUP(A36,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C36" s="12">
+        <v>엘리자베스</v>
+      </c>
+      <c r="C36" s="4">
         <v>2</v>
       </c>
-      <c r="D36" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="D36" s="4">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F36,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="12">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J36" s="12">
-        <v>777</v>
-      </c>
-      <c r="K36" s="12">
-        <v>103</v>
-      </c>
-      <c r="L36" s="12">
-        <v>0</v>
-      </c>
-      <c r="M36" s="12">
-        <v>6</v>
-      </c>
-      <c r="N36" s="12">
+        <v>3</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>470</v>
+      </c>
+      <c r="K36" s="4">
+        <v>114</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>10</v>
+      </c>
+      <c r="N36" s="4">
+        <v>9</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>75</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
         <v>5</v>
       </c>
-      <c r="O36" s="12">
-        <v>0</v>
-      </c>
-      <c r="P36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="12">
-        <v>0</v>
-      </c>
-      <c r="R36" s="12">
-        <v>0</v>
-      </c>
-      <c r="S36" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T36" s="12">
-        <v>0</v>
-      </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="12">
-        <v>0</v>
-      </c>
-      <c r="W36" s="12">
-        <v>0</v>
-      </c>
-      <c r="X36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z36" s="12">
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="4">
         <v>5</v>
       </c>
-      <c r="AA36" s="12" t="s">
+      <c r="AA36" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>100006</v>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>100009</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>VLOOKUP(A37,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C37" s="12">
+        <v>엘리자베스</v>
+      </c>
+      <c r="C37" s="4">
         <v>3</v>
       </c>
-      <c r="D37" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E37" s="12">
+      <c r="D37" s="4">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F37,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J37" s="12">
-        <v>777</v>
-      </c>
-      <c r="K37" s="12">
-        <v>103</v>
-      </c>
-      <c r="L37" s="12">
-        <v>0</v>
-      </c>
-      <c r="M37" s="12">
-        <v>6</v>
-      </c>
-      <c r="N37" s="12">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>470</v>
+      </c>
+      <c r="K37" s="4">
+        <v>114</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4">
+        <v>9</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>75</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
         <v>5</v>
       </c>
-      <c r="O37" s="12">
-        <v>0</v>
-      </c>
-      <c r="P37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="12">
-        <v>0</v>
-      </c>
-      <c r="R37" s="12">
-        <v>0</v>
-      </c>
-      <c r="S37" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T37" s="12">
-        <v>0</v>
-      </c>
-      <c r="U37" s="12">
-        <v>0</v>
-      </c>
-      <c r="V37" s="12">
-        <v>0</v>
-      </c>
-      <c r="W37" s="12">
-        <v>0</v>
-      </c>
-      <c r="X37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z37" s="12">
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="4">
         <v>5</v>
       </c>
-      <c r="AA37" s="12" t="s">
+      <c r="AA37" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>100006</v>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>100009</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>VLOOKUP(A38,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C38" s="12">
+        <v>엘리자베스</v>
+      </c>
+      <c r="C38" s="4">
         <v>4</v>
       </c>
-      <c r="D38" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F38,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="12">
-        <v>0</v>
-      </c>
-      <c r="I38" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J38" s="12">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
         <v>500</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="4">
         <v>50</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="4">
         <v>50</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="4">
         <v>25</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="4">
         <v>25</v>
       </c>
-      <c r="O38" s="12">
-        <v>1</v>
-      </c>
-      <c r="P38" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="12">
-        <v>1</v>
-      </c>
-      <c r="R38" s="12">
-        <v>1</v>
-      </c>
-      <c r="S38" s="12">
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4">
         <v>0.01</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="4">
         <v>4</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="4">
         <v>4</v>
       </c>
-      <c r="V38" s="12">
-        <v>0</v>
-      </c>
-      <c r="W38" s="12">
-        <v>0</v>
-      </c>
-      <c r="X38" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="12">
+      <c r="V38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z38" s="12">
+      <c r="Z38" s="4">
         <v>5</v>
       </c>
-      <c r="AA38" s="12" t="s">
+      <c r="AA38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>100006</v>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>100009</v>
       </c>
       <c r="B39" s="4" t="str">
         <f>VLOOKUP(A39,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C39" s="12">
+        <v>엘리자베스</v>
+      </c>
+      <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="D39" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E39" s="12">
+      <c r="D39" s="4">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F39,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="12">
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J39" s="12">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
         <v>500</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="4">
         <v>60</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="4">
         <v>60</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="4">
         <v>30</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="4">
         <v>30</v>
       </c>
-      <c r="O39" s="12">
-        <v>1</v>
-      </c>
-      <c r="P39" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="12">
-        <v>1</v>
-      </c>
-      <c r="R39" s="12">
-        <v>1</v>
-      </c>
-      <c r="S39" s="12">
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
         <v>0.01</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="4">
         <v>5</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="4">
         <v>5</v>
       </c>
-      <c r="V39" s="12">
-        <v>0</v>
-      </c>
-      <c r="W39" s="12">
-        <v>0</v>
-      </c>
-      <c r="X39" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="12">
+      <c r="V39" s="4">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z39" s="12">
+      <c r="Z39" s="4">
         <v>5</v>
       </c>
-      <c r="AA39" s="12" t="s">
+      <c r="AA39" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>100006</v>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>100009</v>
       </c>
       <c r="B40" s="4" t="str">
         <f>VLOOKUP(A40,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C40" s="12">
+        <v>엘리자베스</v>
+      </c>
+      <c r="C40" s="4">
         <v>6</v>
       </c>
-      <c r="D40" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E40" s="12">
+      <c r="D40" s="4">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J40" s="12">
+        <v>3</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
         <v>500</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="4">
         <v>70</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="4">
         <v>70</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="4">
         <v>35</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="4">
         <v>35</v>
       </c>
-      <c r="O40" s="12">
-        <v>1</v>
-      </c>
-      <c r="P40" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>1</v>
-      </c>
-      <c r="R40" s="12">
-        <v>1</v>
-      </c>
-      <c r="S40" s="12">
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
         <v>0.01</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="4">
         <v>6</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="4">
         <v>6</v>
       </c>
-      <c r="V40" s="12">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12">
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="12">
+      <c r="V40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4">
+        <v>0</v>
+      </c>
+      <c r="X40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z40" s="12">
+      <c r="Z40" s="4">
         <v>5</v>
       </c>
-      <c r="AA40" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B41" s="4" t="str">
-        <f>VLOOKUP(A41,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E41" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>576</v>
-      </c>
-      <c r="K41" s="4">
-        <v>190</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>5</v>
-      </c>
-      <c r="N41" s="4">
-        <v>2</v>
-      </c>
-      <c r="O41" s="4">
-        <v>10</v>
-      </c>
-      <c r="P41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>50</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-      <c r="T41" s="4">
-        <v>0</v>
-      </c>
-      <c r="U41" s="4">
-        <v>0</v>
-      </c>
-      <c r="V41" s="4">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4">
-        <v>0</v>
-      </c>
-      <c r="X41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B42" s="4" t="str">
-        <f>VLOOKUP(A42,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C42" s="4">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E42" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>576</v>
-      </c>
-      <c r="K42" s="4">
-        <v>190</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>5</v>
-      </c>
-      <c r="N42" s="4">
-        <v>2</v>
-      </c>
-      <c r="O42" s="4">
-        <v>10</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>50</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4">
-        <v>0</v>
-      </c>
-      <c r="U42" s="4">
-        <v>0</v>
-      </c>
-      <c r="V42" s="4">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4">
-        <v>0</v>
-      </c>
-      <c r="X42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B43" s="4" t="str">
-        <f>VLOOKUP(A43,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E43" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>576</v>
-      </c>
-      <c r="K43" s="4">
-        <v>190</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>5</v>
-      </c>
-      <c r="N43" s="4">
-        <v>2</v>
-      </c>
-      <c r="O43" s="4">
-        <v>10</v>
-      </c>
-      <c r="P43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>50</v>
-      </c>
-      <c r="R43" s="4">
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
-        <v>0</v>
-      </c>
-      <c r="T43" s="4">
-        <v>0</v>
-      </c>
-      <c r="U43" s="4">
-        <v>0</v>
-      </c>
-      <c r="V43" s="4">
-        <v>0</v>
-      </c>
-      <c r="W43" s="4">
-        <v>0</v>
-      </c>
-      <c r="X43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B44" s="4" t="str">
-        <f>VLOOKUP(A44,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E44" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>500</v>
-      </c>
-      <c r="K44" s="4">
-        <v>50</v>
-      </c>
-      <c r="L44" s="4">
-        <v>50</v>
-      </c>
-      <c r="M44" s="4">
-        <v>25</v>
-      </c>
-      <c r="N44" s="4">
-        <v>25</v>
-      </c>
-      <c r="O44" s="4">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1</v>
-      </c>
-      <c r="S44" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="4">
-        <v>4</v>
-      </c>
-      <c r="U44" s="4">
-        <v>4</v>
-      </c>
-      <c r="V44" s="4">
-        <v>0</v>
-      </c>
-      <c r="W44" s="4">
-        <v>0</v>
-      </c>
-      <c r="X44" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z44" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B45" s="4" t="str">
-        <f>VLOOKUP(A45,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C45" s="4">
-        <v>5</v>
-      </c>
-      <c r="D45" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E45" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>500</v>
-      </c>
-      <c r="K45" s="4">
-        <v>60</v>
-      </c>
-      <c r="L45" s="4">
-        <v>60</v>
-      </c>
-      <c r="M45" s="4">
-        <v>30</v>
-      </c>
-      <c r="N45" s="4">
-        <v>30</v>
-      </c>
-      <c r="O45" s="4">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>1</v>
-      </c>
-      <c r="R45" s="4">
-        <v>1</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="4">
-        <v>5</v>
-      </c>
-      <c r="U45" s="4">
-        <v>5</v>
-      </c>
-      <c r="V45" s="4">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4">
-        <v>0</v>
-      </c>
-      <c r="X45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B46" s="4" t="str">
-        <f>VLOOKUP(A46,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C46" s="4">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E46" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>500</v>
-      </c>
-      <c r="K46" s="4">
-        <v>70</v>
-      </c>
-      <c r="L46" s="4">
-        <v>70</v>
-      </c>
-      <c r="M46" s="4">
-        <v>35</v>
-      </c>
-      <c r="N46" s="4">
-        <v>35</v>
-      </c>
-      <c r="O46" s="4">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4">
-        <v>1</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="4">
-        <v>6</v>
-      </c>
-      <c r="U46" s="4">
-        <v>6</v>
-      </c>
-      <c r="V46" s="4">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4">
-        <v>0</v>
-      </c>
-      <c r="X46" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>100008</v>
-      </c>
-      <c r="B47" s="4" t="str">
-        <f>VLOOKUP(A47,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C47" s="12">
-        <v>1</v>
-      </c>
-      <c r="D47" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E47" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F47,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <v>652</v>
-      </c>
-      <c r="K47" s="12">
-        <v>179</v>
-      </c>
-      <c r="L47" s="12">
-        <v>0</v>
-      </c>
-      <c r="M47" s="12">
-        <v>5</v>
-      </c>
-      <c r="N47" s="12">
-        <v>3</v>
-      </c>
-      <c r="O47" s="12">
-        <v>15</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>75</v>
-      </c>
-      <c r="R47" s="12">
-        <v>0</v>
-      </c>
-      <c r="S47" s="12">
-        <v>0</v>
-      </c>
-      <c r="T47" s="12">
-        <v>0</v>
-      </c>
-      <c r="U47" s="12">
-        <v>0</v>
-      </c>
-      <c r="V47" s="12">
-        <v>0</v>
-      </c>
-      <c r="W47" s="12">
-        <v>0</v>
-      </c>
-      <c r="X47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>100008</v>
-      </c>
-      <c r="B48" s="4" t="str">
-        <f>VLOOKUP(A48,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C48" s="12">
-        <v>2</v>
-      </c>
-      <c r="D48" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E48" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F48,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0</v>
-      </c>
-      <c r="J48" s="12">
-        <v>652</v>
-      </c>
-      <c r="K48" s="12">
-        <v>179</v>
-      </c>
-      <c r="L48" s="12">
-        <v>0</v>
-      </c>
-      <c r="M48" s="12">
-        <v>5</v>
-      </c>
-      <c r="N48" s="12">
-        <v>3</v>
-      </c>
-      <c r="O48" s="12">
-        <v>15</v>
-      </c>
-      <c r="P48" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>75</v>
-      </c>
-      <c r="R48" s="12">
-        <v>0</v>
-      </c>
-      <c r="S48" s="12">
-        <v>0</v>
-      </c>
-      <c r="T48" s="12">
-        <v>0</v>
-      </c>
-      <c r="U48" s="12">
-        <v>0</v>
-      </c>
-      <c r="V48" s="12">
-        <v>0</v>
-      </c>
-      <c r="W48" s="12">
-        <v>0</v>
-      </c>
-      <c r="X48" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
-        <v>100008</v>
-      </c>
-      <c r="B49" s="4" t="str">
-        <f>VLOOKUP(A49,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C49" s="12">
-        <v>3</v>
-      </c>
-      <c r="D49" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E49" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F49,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0</v>
-      </c>
-      <c r="J49" s="12">
-        <v>652</v>
-      </c>
-      <c r="K49" s="12">
-        <v>179</v>
-      </c>
-      <c r="L49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="12">
-        <v>5</v>
-      </c>
-      <c r="N49" s="12">
-        <v>3</v>
-      </c>
-      <c r="O49" s="12">
-        <v>15</v>
-      </c>
-      <c r="P49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>75</v>
-      </c>
-      <c r="R49" s="12">
-        <v>0</v>
-      </c>
-      <c r="S49" s="12">
-        <v>0</v>
-      </c>
-      <c r="T49" s="12">
-        <v>0</v>
-      </c>
-      <c r="U49" s="12">
-        <v>0</v>
-      </c>
-      <c r="V49" s="12">
-        <v>0</v>
-      </c>
-      <c r="W49" s="12">
-        <v>0</v>
-      </c>
-      <c r="X49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>100008</v>
-      </c>
-      <c r="B50" s="4" t="str">
-        <f>VLOOKUP(A50,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C50" s="12">
-        <v>4</v>
-      </c>
-      <c r="D50" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E50" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F50,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12">
-        <v>500</v>
-      </c>
-      <c r="K50" s="12">
-        <v>50</v>
-      </c>
-      <c r="L50" s="12">
-        <v>50</v>
-      </c>
-      <c r="M50" s="12">
-        <v>25</v>
-      </c>
-      <c r="N50" s="12">
-        <v>25</v>
-      </c>
-      <c r="O50" s="12">
-        <v>1</v>
-      </c>
-      <c r="P50" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="12">
-        <v>1</v>
-      </c>
-      <c r="R50" s="12">
-        <v>1</v>
-      </c>
-      <c r="S50" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="12">
-        <v>4</v>
-      </c>
-      <c r="U50" s="12">
-        <v>4</v>
-      </c>
-      <c r="V50" s="12">
-        <v>0</v>
-      </c>
-      <c r="W50" s="12">
-        <v>0</v>
-      </c>
-      <c r="X50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z50" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA50" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
-        <v>100008</v>
-      </c>
-      <c r="B51" s="4" t="str">
-        <f>VLOOKUP(A51,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C51" s="12">
-        <v>5</v>
-      </c>
-      <c r="D51" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E51" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F51,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0</v>
-      </c>
-      <c r="J51" s="12">
-        <v>500</v>
-      </c>
-      <c r="K51" s="12">
-        <v>60</v>
-      </c>
-      <c r="L51" s="12">
-        <v>60</v>
-      </c>
-      <c r="M51" s="12">
-        <v>30</v>
-      </c>
-      <c r="N51" s="12">
-        <v>30</v>
-      </c>
-      <c r="O51" s="12">
-        <v>1</v>
-      </c>
-      <c r="P51" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>1</v>
-      </c>
-      <c r="R51" s="12">
-        <v>1</v>
-      </c>
-      <c r="S51" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="12">
-        <v>5</v>
-      </c>
-      <c r="U51" s="12">
-        <v>5</v>
-      </c>
-      <c r="V51" s="12">
-        <v>0</v>
-      </c>
-      <c r="W51" s="12">
-        <v>0</v>
-      </c>
-      <c r="X51" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z51" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA51" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
-        <v>100008</v>
-      </c>
-      <c r="B52" s="4" t="str">
-        <f>VLOOKUP(A52,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C52" s="12">
-        <v>6</v>
-      </c>
-      <c r="D52" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E52" s="12">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F52,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
-        <v>500</v>
-      </c>
-      <c r="K52" s="12">
-        <v>70</v>
-      </c>
-      <c r="L52" s="12">
-        <v>70</v>
-      </c>
-      <c r="M52" s="12">
-        <v>35</v>
-      </c>
-      <c r="N52" s="12">
-        <v>35</v>
-      </c>
-      <c r="O52" s="12">
-        <v>1</v>
-      </c>
-      <c r="P52" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>1</v>
-      </c>
-      <c r="R52" s="12">
-        <v>1</v>
-      </c>
-      <c r="S52" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="12">
-        <v>6</v>
-      </c>
-      <c r="U52" s="12">
-        <v>6</v>
-      </c>
-      <c r="V52" s="12">
-        <v>0</v>
-      </c>
-      <c r="W52" s="12">
-        <v>0</v>
-      </c>
-      <c r="X52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z52" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B53" s="4" t="str">
-        <f>VLOOKUP(A53,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>7</v>
-      </c>
-      <c r="E53" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F53,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>470</v>
-      </c>
-      <c r="K53" s="4">
-        <v>114</v>
-      </c>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>10</v>
-      </c>
-      <c r="N53" s="4">
-        <v>9</v>
-      </c>
-      <c r="O53" s="4">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>75</v>
-      </c>
-      <c r="R53" s="4">
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <v>0</v>
-      </c>
-      <c r="T53" s="4">
-        <v>0</v>
-      </c>
-      <c r="U53" s="4">
-        <v>5</v>
-      </c>
-      <c r="V53" s="4">
-        <v>0</v>
-      </c>
-      <c r="W53" s="4">
-        <v>0</v>
-      </c>
-      <c r="X53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA53" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <f>VLOOKUP(A54,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C54" s="4">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4">
-        <v>7</v>
-      </c>
-      <c r="E54" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F54,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>470</v>
-      </c>
-      <c r="K54" s="4">
-        <v>114</v>
-      </c>
-      <c r="L54" s="4">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <v>10</v>
-      </c>
-      <c r="N54" s="4">
-        <v>9</v>
-      </c>
-      <c r="O54" s="4">
-        <v>0</v>
-      </c>
-      <c r="P54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>75</v>
-      </c>
-      <c r="R54" s="4">
-        <v>0</v>
-      </c>
-      <c r="S54" s="4">
-        <v>0</v>
-      </c>
-      <c r="T54" s="4">
-        <v>0</v>
-      </c>
-      <c r="U54" s="4">
-        <v>5</v>
-      </c>
-      <c r="V54" s="4">
-        <v>0</v>
-      </c>
-      <c r="W54" s="4">
-        <v>0</v>
-      </c>
-      <c r="X54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B55" s="4" t="str">
-        <f>VLOOKUP(A55,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C55" s="4">
-        <v>3</v>
-      </c>
-      <c r="D55" s="4">
-        <v>7</v>
-      </c>
-      <c r="E55" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F55,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>470</v>
-      </c>
-      <c r="K55" s="4">
-        <v>114</v>
-      </c>
-      <c r="L55" s="4">
-        <v>0</v>
-      </c>
-      <c r="M55" s="4">
-        <v>10</v>
-      </c>
-      <c r="N55" s="4">
-        <v>9</v>
-      </c>
-      <c r="O55" s="4">
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>75</v>
-      </c>
-      <c r="R55" s="4">
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <v>0</v>
-      </c>
-      <c r="T55" s="4">
-        <v>0</v>
-      </c>
-      <c r="U55" s="4">
-        <v>5</v>
-      </c>
-      <c r="V55" s="4">
-        <v>0</v>
-      </c>
-      <c r="W55" s="4">
-        <v>0</v>
-      </c>
-      <c r="X55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <f>VLOOKUP(A56,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4</v>
-      </c>
-      <c r="D56" s="4">
-        <v>7</v>
-      </c>
-      <c r="E56" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F56,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>500</v>
-      </c>
-      <c r="K56" s="4">
-        <v>50</v>
-      </c>
-      <c r="L56" s="4">
-        <v>50</v>
-      </c>
-      <c r="M56" s="4">
-        <v>25</v>
-      </c>
-      <c r="N56" s="4">
-        <v>25</v>
-      </c>
-      <c r="O56" s="4">
-        <v>1</v>
-      </c>
-      <c r="P56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>1</v>
-      </c>
-      <c r="R56" s="4">
-        <v>1</v>
-      </c>
-      <c r="S56" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="4">
-        <v>4</v>
-      </c>
-      <c r="U56" s="4">
-        <v>4</v>
-      </c>
-      <c r="V56" s="4">
-        <v>0</v>
-      </c>
-      <c r="W56" s="4">
-        <v>0</v>
-      </c>
-      <c r="X56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z56" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA56" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B57" s="4" t="str">
-        <f>VLOOKUP(A57,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C57" s="4">
-        <v>5</v>
-      </c>
-      <c r="D57" s="4">
-        <v>7</v>
-      </c>
-      <c r="E57" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F57,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>500</v>
-      </c>
-      <c r="K57" s="4">
-        <v>60</v>
-      </c>
-      <c r="L57" s="4">
-        <v>60</v>
-      </c>
-      <c r="M57" s="4">
-        <v>30</v>
-      </c>
-      <c r="N57" s="4">
-        <v>30</v>
-      </c>
-      <c r="O57" s="4">
-        <v>1</v>
-      </c>
-      <c r="P57" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>1</v>
-      </c>
-      <c r="R57" s="4">
-        <v>1</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="4">
-        <v>5</v>
-      </c>
-      <c r="U57" s="4">
-        <v>5</v>
-      </c>
-      <c r="V57" s="4">
-        <v>0</v>
-      </c>
-      <c r="W57" s="4">
-        <v>0</v>
-      </c>
-      <c r="X57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z57" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B58" s="4" t="str">
-        <f>VLOOKUP(A58,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C58" s="4">
-        <v>6</v>
-      </c>
-      <c r="D58" s="4">
-        <v>7</v>
-      </c>
-      <c r="E58" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F58,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>500</v>
-      </c>
-      <c r="K58" s="4">
-        <v>70</v>
-      </c>
-      <c r="L58" s="4">
-        <v>70</v>
-      </c>
-      <c r="M58" s="4">
-        <v>35</v>
-      </c>
-      <c r="N58" s="4">
-        <v>35</v>
-      </c>
-      <c r="O58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>1</v>
-      </c>
-      <c r="R58" s="4">
-        <v>1</v>
-      </c>
-      <c r="S58" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="4">
-        <v>6</v>
-      </c>
-      <c r="U58" s="4">
-        <v>6</v>
-      </c>
-      <c r="V58" s="4">
-        <v>0</v>
-      </c>
-      <c r="W58" s="4">
-        <v>0</v>
-      </c>
-      <c r="X58" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z58" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="4" t="s">
+      <c r="AA40" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8720,7 +6920,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F58</xm:sqref>
+          <xm:sqref>F5:F40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8761,7 +6961,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8787,10 +6987,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8799,10 +6999,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8811,10 +7011,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -8854,12 +7054,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
@@ -8868,15 +7068,15 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8893,7 +7093,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -8902,10 +7102,10 @@
         <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8914,16 +7114,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8932,16 +7132,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8950,16 +7150,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8968,16 +7168,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -9015,12 +7215,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
@@ -9031,7 +7231,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -9042,7 +7242,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -9057,10 +7257,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9069,10 +7269,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9081,10 +7281,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9093,10 +7293,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B2D81-524E-42A6-85F6-F005E9061E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364DDD2E-E47D-4913-A7B6-CB112C8EA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41130" yWindow="2730" windowWidth="34815" windowHeight="16545" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="pc_battle_data" sheetId="5" r:id="rId5"/>
     <sheet name="position_icon_data" sheetId="6" r:id="rId6"/>
     <sheet name="role_icon_data" sheetId="7" r:id="rId7"/>
-    <sheet name="attack_attribute_icon_data" sheetId="8" r:id="rId8"/>
+    <sheet name="attribute_icon_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="211">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,215 +915,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_2:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리자베스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 수인족</t>
+  </si>
+  <si>
+    <t>5 악마</t>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기획자 확인용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>베리타리움</t>
+  </si>
+  <si>
+    <t>요력</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute_Icon_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_attack</t>
+  </si>
+  <si>
+    <t>physics_defend</t>
+  </si>
+  <si>
+    <t>magic_defend</t>
+  </si>
+  <si>
+    <t>physics_critical_chance</t>
+  </si>
+  <si>
+    <t>magic_critical_chance</t>
+  </si>
+  <si>
+    <t>physics_critical_power_add</t>
+  </si>
+  <si>
+    <t>magic_critical_power_add</t>
+  </si>
+  <si>
+    <t>attack_life_recovery</t>
+  </si>
+  <si>
+    <t>전열용 루시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 라일라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 클레어 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 클레어 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
-  </si>
-  <si>
-    <t>key_1:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_2:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격 시 회복량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강인함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">resist </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 수인족</t>
-  </si>
-  <si>
-    <t>5 악마</t>
-  </si>
-  <si>
-    <t>무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기획자 확인용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기</t>
-  </si>
-  <si>
-    <t>마력</t>
-  </si>
-  <si>
-    <t>베리타리움</t>
-  </si>
-  <si>
-    <t>요력</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Grey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute_Icon_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:ATTRIBUTE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physics_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic_attack</t>
-  </si>
-  <si>
-    <t>physics_defend</t>
-  </si>
-  <si>
-    <t>magic_defend</t>
-  </si>
-  <si>
-    <t>physics_critical_chance</t>
-  </si>
-  <si>
-    <t>magic_critical_chance</t>
-  </si>
-  <si>
-    <t>physics_critical_power_add</t>
-  </si>
-  <si>
-    <t>magic_critical_power_add</t>
-  </si>
-  <si>
-    <t>attack_life_recovery</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100007</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100008</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100014</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100015</t>
-  </si>
-  <si>
-    <t>전열용 루시아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전열용 라일라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전열용 클레어 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전열용 클레어 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,6 +1415,9 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1703,7 +1728,13 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -1798,6 +1829,9 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2677,21 +2711,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="A18:R30"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.125" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="4.5" customWidth="1"/>
     <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="16.875" bestFit="1" customWidth="1"/>
@@ -2736,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>74</v>
@@ -2780,7 +2817,7 @@
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2801,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -2866,7 +2903,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>11</v>
@@ -2937,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J5" s="4">
         <v>24</v>
@@ -2999,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="4">
         <v>20</v>
@@ -3034,60 +3071,60 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>100006</v>
+        <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E7,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I7,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J7" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L7" s="4">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N7" s="4">
-        <v>100006</v>
+        <v>100003</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
@@ -3096,10 +3133,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>100007</v>
+        <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -3123,33 +3160,33 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L8" s="4">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N8" s="4">
-        <v>100007</v>
+        <v>100004</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
@@ -3158,34 +3195,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>100008</v>
+        <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E9,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H9" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I9,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J9" s="4">
         <v>16</v>
@@ -3200,18 +3237,18 @@
         <v>85</v>
       </c>
       <c r="N9" s="4">
-        <v>100008</v>
+        <v>100005</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
@@ -3220,31 +3257,31 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>100009</v>
+        <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E10,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="H10" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I10,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>174</v>
@@ -3262,10 +3299,10 @@
         <v>85</v>
       </c>
       <c r="N10" s="4">
-        <v>100009</v>
+        <v>100006</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>101</v>
@@ -3273,7 +3310,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
@@ -3282,55 +3319,55 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>100001</v>
+        <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E11,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="H11" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I11,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J11" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L11" s="4">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N11" s="4">
-        <v>100001</v>
+        <v>100007</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -3344,10 +3381,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>100002</v>
+        <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -3361,43 +3398,43 @@
       </c>
       <c r="F12" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="H12" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I12,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J12" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" s="4">
-        <v>100002</v>
+        <v>100008</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
@@ -3406,34 +3443,34 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>100014</v>
+        <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E13,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="H13" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I13,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J13" s="4">
         <v>16</v>
@@ -3448,10 +3485,10 @@
         <v>85</v>
       </c>
       <c r="N13" s="4">
-        <v>100006</v>
+        <v>100009</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>101</v>
@@ -3459,7 +3496,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4" t="s">
@@ -3468,63 +3505,249 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>100015</v>
+        <v>100011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E14,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F14" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="H14" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I14,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J14" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L14" s="4">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N14" s="4">
-        <v>100006</v>
+        <v>100001</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E15,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I15,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="4">
+        <v>20</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="4">
+        <v>160</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="4">
+        <v>100002</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>100013</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E16,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I16,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="4">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="4">
+        <v>156</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="4">
+        <v>100005</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100014</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E17,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I17,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="4">
+        <v>156</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="4">
+        <v>100005</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3534,24 +3757,24 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F419FD-C813-4E3F-9701-4E344FD4F16F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E14</xm:sqref>
+          <xm:sqref>E5:E17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G14</xm:sqref>
+          <xm:sqref>G5:G17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I14</xm:sqref>
+          <xm:sqref>I5:I17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3561,13 +3784,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3576,7 +3799,7 @@
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
@@ -3643,19 +3866,19 @@
         <v>140</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>65</v>
@@ -3664,13 +3887,13 @@
         <v>66</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>67</v>
@@ -3684,13 +3907,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3794,34 +4017,34 @@
         <v>142</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>69</v>
@@ -3830,13 +4053,13 @@
         <v>71</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>68</v>
@@ -4868,2043 +5091,3573 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>100006</v>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100003</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>VLOOKUP(A17,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E17" s="12">
+        <v>바이올렛</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F17,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J17" s="12">
-        <v>777</v>
-      </c>
-      <c r="K17" s="12">
-        <v>103</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>6</v>
-      </c>
-      <c r="N17" s="12">
-        <v>5</v>
-      </c>
-      <c r="O17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>0</v>
-      </c>
-      <c r="R17" s="12">
-        <v>0</v>
-      </c>
-      <c r="S17" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T17" s="12">
-        <v>0</v>
-      </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="12">
-        <v>0</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>100006</v>
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>441</v>
+      </c>
+      <c r="K17" s="4">
+        <v>56</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>100003</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C18" s="12">
+        <v>바이올렛</v>
+      </c>
+      <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F18,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J18" s="12">
-        <v>777</v>
-      </c>
-      <c r="K18" s="12">
-        <v>103</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <v>6</v>
-      </c>
-      <c r="N18" s="12">
-        <v>5</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>0</v>
-      </c>
-      <c r="R18" s="12">
-        <v>0</v>
-      </c>
-      <c r="S18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T18" s="12">
-        <v>0</v>
-      </c>
-      <c r="U18" s="12">
-        <v>0</v>
-      </c>
-      <c r="V18" s="12">
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>100006</v>
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>441</v>
+      </c>
+      <c r="K18" s="4">
+        <v>56</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>100003</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C19" s="12">
+        <v>바이올렛</v>
+      </c>
+      <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E19" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F19,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J19" s="12">
-        <v>777</v>
-      </c>
-      <c r="K19" s="12">
-        <v>103</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>6</v>
-      </c>
-      <c r="N19" s="12">
-        <v>5</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>0</v>
-      </c>
-      <c r="R19" s="12">
-        <v>0</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0</v>
-      </c>
-      <c r="U19" s="12">
-        <v>0</v>
-      </c>
-      <c r="V19" s="12">
-        <v>0</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA19" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>100006</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>441</v>
+      </c>
+      <c r="K19" s="4">
+        <v>56</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>100003</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>VLOOKUP(A20,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C20" s="12">
+        <v>바이올렛</v>
+      </c>
+      <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F20,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J20" s="12">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>500</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="4">
         <v>50</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="4">
         <v>50</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="4">
         <v>25</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="4">
         <v>25</v>
       </c>
-      <c r="O20" s="12">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>1</v>
-      </c>
-      <c r="R20" s="12">
-        <v>1</v>
-      </c>
-      <c r="S20" s="12">
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
         <v>0.01</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="4">
         <v>4</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="4">
         <v>4</v>
       </c>
-      <c r="V20" s="12">
-        <v>0</v>
-      </c>
-      <c r="W20" s="12">
-        <v>0</v>
-      </c>
-      <c r="X20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="12">
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z20" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>100006</v>
+      <c r="Z20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>100003</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>VLOOKUP(A21,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E21" s="12">
+        <v>바이올렛</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F21,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J21" s="12">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <v>500</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="4">
         <v>60</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="4">
         <v>60</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="4">
         <v>30</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="4">
         <v>30</v>
       </c>
-      <c r="O21" s="12">
-        <v>1</v>
-      </c>
-      <c r="P21" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>1</v>
-      </c>
-      <c r="R21" s="12">
-        <v>1</v>
-      </c>
-      <c r="S21" s="12">
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
         <v>0.01</v>
       </c>
-      <c r="T21" s="12">
-        <v>5</v>
-      </c>
-      <c r="U21" s="12">
-        <v>5</v>
-      </c>
-      <c r="V21" s="12">
-        <v>0</v>
-      </c>
-      <c r="W21" s="12">
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="12">
+      <c r="T21" s="4">
+        <v>5</v>
+      </c>
+      <c r="U21" s="4">
+        <v>5</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z21" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>100006</v>
+      <c r="Z21" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>100003</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>VLOOKUP(A22,pc_data!A:B,2,)</f>
-        <v>클레어</v>
-      </c>
-      <c r="C22" s="12">
+        <v>바이올렛</v>
+      </c>
+      <c r="C22" s="4">
         <v>6</v>
       </c>
-      <c r="D22" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E22" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F22,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>500</v>
+      </c>
+      <c r="K22" s="4">
         <v>70</v>
       </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>100504</v>
-      </c>
-      <c r="J22" s="12">
-        <v>500</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="L22" s="4">
         <v>70</v>
       </c>
-      <c r="L22" s="12">
-        <v>70</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="M22" s="4">
         <v>35</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="4">
         <v>35</v>
       </c>
-      <c r="O22" s="12">
-        <v>1</v>
-      </c>
-      <c r="P22" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>1</v>
-      </c>
-      <c r="R22" s="12">
-        <v>1</v>
-      </c>
-      <c r="S22" s="12">
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
         <v>0.01</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="4">
         <v>6</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="4">
         <v>6</v>
       </c>
-      <c r="V22" s="12">
-        <v>0</v>
-      </c>
-      <c r="W22" s="12">
-        <v>0</v>
-      </c>
-      <c r="X22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="12">
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z22" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>100007</v>
+      <c r="Z22" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>100004</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>VLOOKUP(A23,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E23" s="4">
+        <v>데이지</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5</v>
+      </c>
+      <c r="E23" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F23,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>576</v>
-      </c>
-      <c r="K23" s="4">
-        <v>190</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>5</v>
-      </c>
-      <c r="N23" s="4">
-        <v>2</v>
-      </c>
-      <c r="O23" s="4">
-        <v>10</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>50</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="4" t="s">
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>777</v>
+      </c>
+      <c r="K23" s="12">
+        <v>103</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>6</v>
+      </c>
+      <c r="N23" s="12">
+        <v>5</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T23" s="12">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
+        <v>0</v>
+      </c>
+      <c r="X23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>100007</v>
+    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>100004</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>VLOOKUP(A24,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C24" s="4">
+        <v>데이지</v>
+      </c>
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F24,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>576</v>
-      </c>
-      <c r="K24" s="4">
-        <v>190</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>5</v>
-      </c>
-      <c r="N24" s="4">
-        <v>2</v>
-      </c>
-      <c r="O24" s="4">
-        <v>10</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>50</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="4" t="s">
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>777</v>
+      </c>
+      <c r="K24" s="12">
+        <v>103</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>6</v>
+      </c>
+      <c r="N24" s="12">
+        <v>5</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T24" s="12">
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>100007</v>
+    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>100004</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>VLOOKUP(A25,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C25" s="4">
+        <v>데이지</v>
+      </c>
+      <c r="C25" s="12">
         <v>3</v>
       </c>
-      <c r="D25" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="12">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F25,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>576</v>
-      </c>
-      <c r="K25" s="4">
-        <v>190</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>5</v>
-      </c>
-      <c r="N25" s="4">
-        <v>2</v>
-      </c>
-      <c r="O25" s="4">
-        <v>10</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>50</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4">
-        <v>0</v>
-      </c>
-      <c r="X25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="4" t="s">
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>777</v>
+      </c>
+      <c r="K25" s="12">
+        <v>103</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>6</v>
+      </c>
+      <c r="N25" s="12">
+        <v>5</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T25" s="12">
+        <v>0</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>100007</v>
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>100004</v>
       </c>
       <c r="B26" s="4" t="str">
         <f>VLOOKUP(A26,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C26" s="4">
+        <v>데이지</v>
+      </c>
+      <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="D26" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F26,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
         <v>500</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="12">
         <v>50</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="12">
         <v>50</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="12">
         <v>25</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="12">
         <v>25</v>
       </c>
-      <c r="O26" s="4">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
+      <c r="O26" s="12">
+        <v>1</v>
+      </c>
+      <c r="P26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1</v>
+      </c>
+      <c r="R26" s="12">
+        <v>1</v>
+      </c>
+      <c r="S26" s="12">
         <v>0.01</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="12">
         <v>4</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="12">
         <v>4</v>
       </c>
-      <c r="V26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="4">
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <v>0</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z26" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="4" t="s">
+      <c r="Z26" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>100007</v>
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>100004</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>VLOOKUP(A27,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E27" s="4">
+        <v>데이지</v>
+      </c>
+      <c r="C27" s="12">
+        <v>5</v>
+      </c>
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F27,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
         <v>500</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="12">
         <v>60</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="12">
         <v>60</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="12">
         <v>30</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="12">
         <v>30</v>
       </c>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-      <c r="R27" s="4">
-        <v>1</v>
-      </c>
-      <c r="S27" s="4">
+      <c r="O27" s="12">
+        <v>1</v>
+      </c>
+      <c r="P27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>1</v>
+      </c>
+      <c r="R27" s="12">
+        <v>1</v>
+      </c>
+      <c r="S27" s="12">
         <v>0.01</v>
       </c>
-      <c r="T27" s="4">
-        <v>5</v>
-      </c>
-      <c r="U27" s="4">
-        <v>5</v>
-      </c>
-      <c r="V27" s="4">
-        <v>0</v>
-      </c>
-      <c r="W27" s="4">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="4">
+      <c r="T27" s="12">
+        <v>5</v>
+      </c>
+      <c r="U27" s="12">
+        <v>5</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z27" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="4" t="s">
+      <c r="Z27" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>100007</v>
+    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>100004</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,pc_data!A:B,2,)</f>
-        <v>마네</v>
-      </c>
-      <c r="C28" s="4">
+        <v>데이지</v>
+      </c>
+      <c r="C28" s="12">
         <v>6</v>
       </c>
-      <c r="D28" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="12">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F28,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
         <v>500</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="12">
         <v>70</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="12">
         <v>70</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="12">
         <v>35</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="12">
         <v>35</v>
       </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
+      <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>1</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1</v>
+      </c>
+      <c r="S28" s="12">
         <v>0.01</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="12">
         <v>6</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="12">
         <v>6</v>
       </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="4">
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z28" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="4" t="s">
+      <c r="Z28" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>100008</v>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>100005</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>VLOOKUP(A29,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E29" s="12">
+        <v>클레어</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E29" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
-        <v>652</v>
-      </c>
-      <c r="K29" s="12">
-        <v>179</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <v>5</v>
-      </c>
-      <c r="N29" s="12">
         <v>3</v>
       </c>
-      <c r="O29" s="12">
-        <v>15</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>75</v>
-      </c>
-      <c r="R29" s="12">
-        <v>0</v>
-      </c>
-      <c r="S29" s="12">
-        <v>0</v>
-      </c>
-      <c r="T29" s="12">
-        <v>0</v>
-      </c>
-      <c r="U29" s="12">
-        <v>0</v>
-      </c>
-      <c r="V29" s="12">
-        <v>0</v>
-      </c>
-      <c r="W29" s="12">
-        <v>0</v>
-      </c>
-      <c r="X29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>100008</v>
+      <c r="F29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>100504</v>
+      </c>
+      <c r="J29" s="4">
+        <v>441</v>
+      </c>
+      <c r="K29" s="4">
+        <v>56</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>100005</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>VLOOKUP(A30,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C30" s="12">
+        <v>클레어</v>
+      </c>
+      <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E30" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F30,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>652</v>
-      </c>
-      <c r="K30" s="12">
-        <v>179</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="12">
-        <v>5</v>
-      </c>
-      <c r="N30" s="12">
         <v>3</v>
       </c>
-      <c r="O30" s="12">
-        <v>15</v>
-      </c>
-      <c r="P30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>75</v>
-      </c>
-      <c r="R30" s="12">
-        <v>0</v>
-      </c>
-      <c r="S30" s="12">
-        <v>0</v>
-      </c>
-      <c r="T30" s="12">
-        <v>0</v>
-      </c>
-      <c r="U30" s="12">
-        <v>0</v>
-      </c>
-      <c r="V30" s="12">
-        <v>0</v>
-      </c>
-      <c r="W30" s="12">
-        <v>0</v>
-      </c>
-      <c r="X30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA30" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>100008</v>
+      <c r="F30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>100504</v>
+      </c>
+      <c r="J30" s="4">
+        <v>441</v>
+      </c>
+      <c r="K30" s="4">
+        <v>56</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3</v>
+      </c>
+      <c r="N30" s="4">
+        <v>3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>100005</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>VLOOKUP(A31,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C31" s="12">
+        <v>클레어</v>
+      </c>
+      <c r="C31" s="4">
         <v>3</v>
       </c>
-      <c r="D31" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E31" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F31,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <v>652</v>
-      </c>
-      <c r="K31" s="12">
-        <v>179</v>
-      </c>
-      <c r="L31" s="12">
-        <v>0</v>
-      </c>
-      <c r="M31" s="12">
-        <v>5</v>
-      </c>
-      <c r="N31" s="12">
         <v>3</v>
       </c>
-      <c r="O31" s="12">
-        <v>15</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="12">
-        <v>75</v>
-      </c>
-      <c r="R31" s="12">
-        <v>0</v>
-      </c>
-      <c r="S31" s="12">
-        <v>0</v>
-      </c>
-      <c r="T31" s="12">
-        <v>0</v>
-      </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="12">
-        <v>0</v>
-      </c>
-      <c r="W31" s="12">
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA31" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>100008</v>
+      <c r="F31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>100504</v>
+      </c>
+      <c r="J31" s="4">
+        <v>441</v>
+      </c>
+      <c r="K31" s="4">
+        <v>56</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>100005</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>VLOOKUP(A32,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C32" s="12">
+        <v>클레어</v>
+      </c>
+      <c r="C32" s="4">
         <v>4</v>
       </c>
-      <c r="D32" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E32" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F32,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
-      <c r="J32" s="12">
+        <v>3</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>100504</v>
+      </c>
+      <c r="J32" s="4">
         <v>500</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="4">
         <v>50</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="4">
         <v>50</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="4">
         <v>25</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="4">
         <v>25</v>
       </c>
-      <c r="O32" s="12">
-        <v>1</v>
-      </c>
-      <c r="P32" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>1</v>
-      </c>
-      <c r="R32" s="12">
-        <v>1</v>
-      </c>
-      <c r="S32" s="12">
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
         <v>0.01</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="4">
         <v>4</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="4">
         <v>4</v>
       </c>
-      <c r="V32" s="12">
-        <v>0</v>
-      </c>
-      <c r="W32" s="12">
-        <v>0</v>
-      </c>
-      <c r="X32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="12">
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z32" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>100008</v>
+      <c r="Z32" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>100005</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>VLOOKUP(A33,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C33" s="12">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E33" s="12">
+        <v>클레어</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E33" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F33,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>100504</v>
+      </c>
+      <c r="J33" s="4">
         <v>500</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="4">
         <v>60</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="4">
         <v>60</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="4">
         <v>30</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="4">
         <v>30</v>
       </c>
-      <c r="O33" s="12">
-        <v>1</v>
-      </c>
-      <c r="P33" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>1</v>
-      </c>
-      <c r="R33" s="12">
-        <v>1</v>
-      </c>
-      <c r="S33" s="12">
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
         <v>0.01</v>
       </c>
-      <c r="T33" s="12">
-        <v>5</v>
-      </c>
-      <c r="U33" s="12">
-        <v>5</v>
-      </c>
-      <c r="V33" s="12">
-        <v>0</v>
-      </c>
-      <c r="W33" s="12">
-        <v>0</v>
-      </c>
-      <c r="X33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="12">
+      <c r="T33" s="4">
+        <v>5</v>
+      </c>
+      <c r="U33" s="4">
+        <v>5</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z33" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>100008</v>
+      <c r="Z33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>100005</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>VLOOKUP(A34,pc_data!A:B,2,)</f>
-        <v>츠키</v>
-      </c>
-      <c r="C34" s="12">
+        <v>클레어</v>
+      </c>
+      <c r="C34" s="4">
         <v>6</v>
       </c>
-      <c r="D34" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="D34" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E34" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F34,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>100504</v>
+      </c>
+      <c r="J34" s="4">
+        <v>500</v>
+      </c>
+      <c r="K34" s="4">
         <v>70</v>
       </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>500</v>
-      </c>
-      <c r="K34" s="12">
+      <c r="L34" s="4">
         <v>70</v>
       </c>
-      <c r="L34" s="12">
-        <v>70</v>
-      </c>
-      <c r="M34" s="12">
+      <c r="M34" s="4">
         <v>35</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="4">
         <v>35</v>
       </c>
-      <c r="O34" s="12">
-        <v>1</v>
-      </c>
-      <c r="P34" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>1</v>
-      </c>
-      <c r="R34" s="12">
-        <v>1</v>
-      </c>
-      <c r="S34" s="12">
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
         <v>0.01</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="4">
         <v>6</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="4">
         <v>6</v>
       </c>
-      <c r="V34" s="12">
-        <v>0</v>
-      </c>
-      <c r="W34" s="12">
-        <v>0</v>
-      </c>
-      <c r="X34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="12">
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z34" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA34" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>100009</v>
+      <c r="Z34" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>100006</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>VLOOKUP(A35,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4">
+        <v>에일린</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F35,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>470</v>
-      </c>
-      <c r="K35" s="4">
-        <v>114</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>10</v>
-      </c>
-      <c r="N35" s="4">
-        <v>9</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>75</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4">
-        <v>5</v>
-      </c>
-      <c r="V35" s="4">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-      <c r="X35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="4" t="s">
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>777</v>
+      </c>
+      <c r="K35" s="12">
+        <v>103</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>6</v>
+      </c>
+      <c r="N35" s="12">
+        <v>5</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+      <c r="P35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T35" s="12">
+        <v>0</v>
+      </c>
+      <c r="U35" s="12">
+        <v>0</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="12">
+        <v>0</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>100009</v>
+    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>100006</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>VLOOKUP(A36,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C36" s="4">
+        <v>에일린</v>
+      </c>
+      <c r="C36" s="12">
         <v>2</v>
       </c>
-      <c r="D36" s="4">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F36,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>470</v>
-      </c>
-      <c r="K36" s="4">
-        <v>114</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>10</v>
-      </c>
-      <c r="N36" s="4">
-        <v>9</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>75</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="4">
-        <v>0</v>
-      </c>
-      <c r="U36" s="4">
-        <v>5</v>
-      </c>
-      <c r="V36" s="4">
-        <v>0</v>
-      </c>
-      <c r="W36" s="4">
-        <v>0</v>
-      </c>
-      <c r="X36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="4" t="s">
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>777</v>
+      </c>
+      <c r="K36" s="12">
+        <v>103</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>6</v>
+      </c>
+      <c r="N36" s="12">
+        <v>5</v>
+      </c>
+      <c r="O36" s="12">
+        <v>0</v>
+      </c>
+      <c r="P36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>0</v>
+      </c>
+      <c r="R36" s="12">
+        <v>0</v>
+      </c>
+      <c r="S36" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T36" s="12">
+        <v>0</v>
+      </c>
+      <c r="U36" s="12">
+        <v>0</v>
+      </c>
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <v>0</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>100009</v>
+    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>100006</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>VLOOKUP(A37,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C37" s="4">
+        <v>에일린</v>
+      </c>
+      <c r="C37" s="12">
         <v>3</v>
       </c>
-      <c r="D37" s="4">
-        <v>7</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F37,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>470</v>
-      </c>
-      <c r="K37" s="4">
-        <v>114</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>10</v>
-      </c>
-      <c r="N37" s="4">
-        <v>9</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>75</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4">
-        <v>5</v>
-      </c>
-      <c r="V37" s="4">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4">
-        <v>0</v>
-      </c>
-      <c r="X37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA37" s="4" t="s">
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>777</v>
+      </c>
+      <c r="K37" s="12">
+        <v>103</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <v>6</v>
+      </c>
+      <c r="N37" s="12">
+        <v>5</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0</v>
+      </c>
+      <c r="P37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12">
+        <v>0</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T37" s="12">
+        <v>0</v>
+      </c>
+      <c r="U37" s="12">
+        <v>0</v>
+      </c>
+      <c r="V37" s="12">
+        <v>0</v>
+      </c>
+      <c r="W37" s="12">
+        <v>0</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>100009</v>
+    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>100006</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>VLOOKUP(A38,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C38" s="4">
+        <v>에일린</v>
+      </c>
+      <c r="C38" s="12">
         <v>4</v>
       </c>
-      <c r="D38" s="4">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F38,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
         <v>500</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="12">
         <v>50</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="12">
         <v>50</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="12">
         <v>25</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="12">
         <v>25</v>
       </c>
-      <c r="O38" s="4">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>1</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1</v>
-      </c>
-      <c r="S38" s="4">
+      <c r="O38" s="12">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>1</v>
+      </c>
+      <c r="R38" s="12">
+        <v>1</v>
+      </c>
+      <c r="S38" s="12">
         <v>0.01</v>
       </c>
-      <c r="T38" s="4">
+      <c r="T38" s="12">
         <v>4</v>
       </c>
-      <c r="U38" s="4">
+      <c r="U38" s="12">
         <v>4</v>
       </c>
-      <c r="V38" s="4">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4">
-        <v>0</v>
-      </c>
-      <c r="X38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4">
+      <c r="V38" s="12">
+        <v>0</v>
+      </c>
+      <c r="W38" s="12">
+        <v>0</v>
+      </c>
+      <c r="X38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z38" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="4" t="s">
+      <c r="Z38" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>100009</v>
+    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>100006</v>
       </c>
       <c r="B39" s="4" t="str">
         <f>VLOOKUP(A39,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
-      </c>
-      <c r="C39" s="4">
-        <v>5</v>
-      </c>
-      <c r="D39" s="4">
-        <v>7</v>
-      </c>
-      <c r="E39" s="4">
+        <v>에일린</v>
+      </c>
+      <c r="C39" s="12">
+        <v>5</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F39,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
         <v>500</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="12">
         <v>60</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="12">
         <v>60</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="12">
         <v>30</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="12">
         <v>30</v>
       </c>
-      <c r="O39" s="4">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-      <c r="S39" s="4">
+      <c r="O39" s="12">
+        <v>1</v>
+      </c>
+      <c r="P39" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>1</v>
+      </c>
+      <c r="R39" s="12">
+        <v>1</v>
+      </c>
+      <c r="S39" s="12">
         <v>0.01</v>
       </c>
-      <c r="T39" s="4">
-        <v>5</v>
-      </c>
-      <c r="U39" s="4">
-        <v>5</v>
-      </c>
-      <c r="V39" s="4">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4">
-        <v>0</v>
-      </c>
-      <c r="X39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="4">
+      <c r="T39" s="12">
+        <v>5</v>
+      </c>
+      <c r="U39" s="12">
+        <v>5</v>
+      </c>
+      <c r="V39" s="12">
+        <v>0</v>
+      </c>
+      <c r="W39" s="12">
+        <v>0</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="12">
         <v>0.1</v>
       </c>
-      <c r="Z39" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA39" s="4" t="s">
+      <c r="Z39" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>100009</v>
+    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>100006</v>
       </c>
       <c r="B40" s="4" t="str">
         <f>VLOOKUP(A40,pc_data!A:B,2,)</f>
+        <v>에일린</v>
+      </c>
+      <c r="C40" s="12">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E40" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>500</v>
+      </c>
+      <c r="K40" s="12">
+        <v>70</v>
+      </c>
+      <c r="L40" s="12">
+        <v>70</v>
+      </c>
+      <c r="M40" s="12">
+        <v>35</v>
+      </c>
+      <c r="N40" s="12">
+        <v>35</v>
+      </c>
+      <c r="O40" s="12">
+        <v>1</v>
+      </c>
+      <c r="P40" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>1</v>
+      </c>
+      <c r="R40" s="12">
+        <v>1</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T40" s="12">
+        <v>6</v>
+      </c>
+      <c r="U40" s="12">
+        <v>6</v>
+      </c>
+      <c r="V40" s="12">
+        <v>0</v>
+      </c>
+      <c r="W40" s="12">
+        <v>0</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>VLOOKUP(A41,pc_data!A:B,2,)</f>
+        <v>마네</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E41" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>576</v>
+      </c>
+      <c r="K41" s="4">
+        <v>190</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>5</v>
+      </c>
+      <c r="N41" s="4">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>10</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>50</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>VLOOKUP(A42,pc_data!A:B,2,)</f>
+        <v>마네</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E42" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>576</v>
+      </c>
+      <c r="K42" s="4">
+        <v>190</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>5</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>10</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>50</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0</v>
+      </c>
+      <c r="X42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>VLOOKUP(A43,pc_data!A:B,2,)</f>
+        <v>마네</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E43" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>576</v>
+      </c>
+      <c r="K43" s="4">
+        <v>190</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>5</v>
+      </c>
+      <c r="N43" s="4">
+        <v>2</v>
+      </c>
+      <c r="O43" s="4">
+        <v>10</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>50</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>VLOOKUP(A44,pc_data!A:B,2,)</f>
+        <v>마네</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E44" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>500</v>
+      </c>
+      <c r="K44" s="4">
+        <v>50</v>
+      </c>
+      <c r="L44" s="4">
+        <v>50</v>
+      </c>
+      <c r="M44" s="4">
+        <v>25</v>
+      </c>
+      <c r="N44" s="4">
+        <v>25</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T44" s="4">
+        <v>4</v>
+      </c>
+      <c r="U44" s="4">
+        <v>4</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>VLOOKUP(A45,pc_data!A:B,2,)</f>
+        <v>마네</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E45" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>500</v>
+      </c>
+      <c r="K45" s="4">
+        <v>60</v>
+      </c>
+      <c r="L45" s="4">
+        <v>60</v>
+      </c>
+      <c r="M45" s="4">
+        <v>30</v>
+      </c>
+      <c r="N45" s="4">
+        <v>30</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T45" s="4">
+        <v>5</v>
+      </c>
+      <c r="U45" s="4">
+        <v>5</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>VLOOKUP(A46,pc_data!A:B,2,)</f>
+        <v>마네</v>
+      </c>
+      <c r="C46" s="4">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E46" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>500</v>
+      </c>
+      <c r="K46" s="4">
+        <v>70</v>
+      </c>
+      <c r="L46" s="4">
+        <v>70</v>
+      </c>
+      <c r="M46" s="4">
+        <v>35</v>
+      </c>
+      <c r="N46" s="4">
+        <v>35</v>
+      </c>
+      <c r="O46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T46" s="4">
+        <v>6</v>
+      </c>
+      <c r="U46" s="4">
+        <v>6</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
+        <v>0</v>
+      </c>
+      <c r="X46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>VLOOKUP(A47,pc_data!A:B,2,)</f>
+        <v>츠키</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F47,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>652</v>
+      </c>
+      <c r="K47" s="12">
+        <v>179</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0</v>
+      </c>
+      <c r="M47" s="12">
+        <v>5</v>
+      </c>
+      <c r="N47" s="12">
+        <v>3</v>
+      </c>
+      <c r="O47" s="12">
+        <v>15</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>75</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12">
+        <v>0</v>
+      </c>
+      <c r="U47" s="12">
+        <v>0</v>
+      </c>
+      <c r="V47" s="12">
+        <v>0</v>
+      </c>
+      <c r="W47" s="12">
+        <v>0</v>
+      </c>
+      <c r="X47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>VLOOKUP(A48,pc_data!A:B,2,)</f>
+        <v>츠키</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E48" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F48,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>652</v>
+      </c>
+      <c r="K48" s="12">
+        <v>179</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
+        <v>5</v>
+      </c>
+      <c r="N48" s="12">
+        <v>3</v>
+      </c>
+      <c r="O48" s="12">
+        <v>15</v>
+      </c>
+      <c r="P48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>75</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
+        <v>0</v>
+      </c>
+      <c r="T48" s="12">
+        <v>0</v>
+      </c>
+      <c r="U48" s="12">
+        <v>0</v>
+      </c>
+      <c r="V48" s="12">
+        <v>0</v>
+      </c>
+      <c r="W48" s="12">
+        <v>0</v>
+      </c>
+      <c r="X48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>VLOOKUP(A49,pc_data!A:B,2,)</f>
+        <v>츠키</v>
+      </c>
+      <c r="C49" s="12">
+        <v>3</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E49" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F49,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>652</v>
+      </c>
+      <c r="K49" s="12">
+        <v>179</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="12">
+        <v>5</v>
+      </c>
+      <c r="N49" s="12">
+        <v>3</v>
+      </c>
+      <c r="O49" s="12">
+        <v>15</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>75</v>
+      </c>
+      <c r="R49" s="12">
+        <v>0</v>
+      </c>
+      <c r="S49" s="12">
+        <v>0</v>
+      </c>
+      <c r="T49" s="12">
+        <v>0</v>
+      </c>
+      <c r="U49" s="12">
+        <v>0</v>
+      </c>
+      <c r="V49" s="12">
+        <v>0</v>
+      </c>
+      <c r="W49" s="12">
+        <v>0</v>
+      </c>
+      <c r="X49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>VLOOKUP(A50,pc_data!A:B,2,)</f>
+        <v>츠키</v>
+      </c>
+      <c r="C50" s="12">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E50" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F50,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>500</v>
+      </c>
+      <c r="K50" s="12">
+        <v>50</v>
+      </c>
+      <c r="L50" s="12">
+        <v>50</v>
+      </c>
+      <c r="M50" s="12">
+        <v>25</v>
+      </c>
+      <c r="N50" s="12">
+        <v>25</v>
+      </c>
+      <c r="O50" s="12">
+        <v>1</v>
+      </c>
+      <c r="P50" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>1</v>
+      </c>
+      <c r="R50" s="12">
+        <v>1</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T50" s="12">
+        <v>4</v>
+      </c>
+      <c r="U50" s="12">
+        <v>4</v>
+      </c>
+      <c r="V50" s="12">
+        <v>0</v>
+      </c>
+      <c r="W50" s="12">
+        <v>0</v>
+      </c>
+      <c r="X50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>VLOOKUP(A51,pc_data!A:B,2,)</f>
+        <v>츠키</v>
+      </c>
+      <c r="C51" s="12">
+        <v>5</v>
+      </c>
+      <c r="D51" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E51" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F51,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>500</v>
+      </c>
+      <c r="K51" s="12">
+        <v>60</v>
+      </c>
+      <c r="L51" s="12">
+        <v>60</v>
+      </c>
+      <c r="M51" s="12">
+        <v>30</v>
+      </c>
+      <c r="N51" s="12">
+        <v>30</v>
+      </c>
+      <c r="O51" s="12">
+        <v>1</v>
+      </c>
+      <c r="P51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>1</v>
+      </c>
+      <c r="R51" s="12">
+        <v>1</v>
+      </c>
+      <c r="S51" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T51" s="12">
+        <v>5</v>
+      </c>
+      <c r="U51" s="12">
+        <v>5</v>
+      </c>
+      <c r="V51" s="12">
+        <v>0</v>
+      </c>
+      <c r="W51" s="12">
+        <v>0</v>
+      </c>
+      <c r="X51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>100008</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>VLOOKUP(A52,pc_data!A:B,2,)</f>
+        <v>츠키</v>
+      </c>
+      <c r="C52" s="12">
+        <v>6</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E52" s="12">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F52,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>500</v>
+      </c>
+      <c r="K52" s="12">
+        <v>70</v>
+      </c>
+      <c r="L52" s="12">
+        <v>70</v>
+      </c>
+      <c r="M52" s="12">
+        <v>35</v>
+      </c>
+      <c r="N52" s="12">
+        <v>35</v>
+      </c>
+      <c r="O52" s="12">
+        <v>1</v>
+      </c>
+      <c r="P52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>1</v>
+      </c>
+      <c r="R52" s="12">
+        <v>1</v>
+      </c>
+      <c r="S52" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="T52" s="12">
+        <v>6</v>
+      </c>
+      <c r="U52" s="12">
+        <v>6</v>
+      </c>
+      <c r="V52" s="12">
+        <v>0</v>
+      </c>
+      <c r="W52" s="12">
+        <v>0</v>
+      </c>
+      <c r="X52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>VLOOKUP(A53,pc_data!A:B,2,)</f>
         <v>엘리자베스</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F53,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>470</v>
+      </c>
+      <c r="K53" s="4">
+        <v>114</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>10</v>
+      </c>
+      <c r="N53" s="4">
+        <v>9</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>75</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <v>5</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>VLOOKUP(A54,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F54,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>470</v>
+      </c>
+      <c r="K54" s="4">
+        <v>114</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>10</v>
+      </c>
+      <c r="N54" s="4">
+        <v>9</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>75</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
+        <v>5</v>
+      </c>
+      <c r="V54" s="4">
+        <v>0</v>
+      </c>
+      <c r="W54" s="4">
+        <v>0</v>
+      </c>
+      <c r="X54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>VLOOKUP(A55,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F55,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>470</v>
+      </c>
+      <c r="K55" s="4">
+        <v>114</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>10</v>
+      </c>
+      <c r="N55" s="4">
+        <v>9</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>75</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <v>0</v>
+      </c>
+      <c r="T55" s="4">
+        <v>0</v>
+      </c>
+      <c r="U55" s="4">
+        <v>5</v>
+      </c>
+      <c r="V55" s="4">
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
+        <v>0</v>
+      </c>
+      <c r="X55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>VLOOKUP(A56,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F56,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>500</v>
+      </c>
+      <c r="K56" s="4">
+        <v>50</v>
+      </c>
+      <c r="L56" s="4">
+        <v>50</v>
+      </c>
+      <c r="M56" s="4">
+        <v>25</v>
+      </c>
+      <c r="N56" s="4">
+        <v>25</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T56" s="4">
+        <v>4</v>
+      </c>
+      <c r="U56" s="4">
+        <v>4</v>
+      </c>
+      <c r="V56" s="4">
+        <v>0</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>VLOOKUP(A57,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7</v>
+      </c>
+      <c r="E57" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F57,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>500</v>
+      </c>
+      <c r="K57" s="4">
+        <v>60</v>
+      </c>
+      <c r="L57" s="4">
+        <v>60</v>
+      </c>
+      <c r="M57" s="4">
+        <v>30</v>
+      </c>
+      <c r="N57" s="4">
+        <v>30</v>
+      </c>
+      <c r="O57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4">
+        <v>1</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T57" s="4">
+        <v>5</v>
+      </c>
+      <c r="U57" s="4">
+        <v>5</v>
+      </c>
+      <c r="V57" s="4">
+        <v>0</v>
+      </c>
+      <c r="W57" s="4">
+        <v>0</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>VLOOKUP(A58,pc_data!A:B,2,)</f>
+        <v>엘리자베스</v>
+      </c>
+      <c r="C58" s="4">
         <v>6</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D58" s="4">
         <v>7</v>
       </c>
-      <c r="E40" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="E58" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F58,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
         <v>500</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K58" s="4">
         <v>70</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L58" s="4">
         <v>70</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M58" s="4">
         <v>35</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N58" s="4">
         <v>35</v>
       </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4">
+      <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4">
         <v>0.01</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T58" s="4">
         <v>6</v>
       </c>
-      <c r="U40" s="4">
+      <c r="U58" s="4">
         <v>6</v>
       </c>
-      <c r="V40" s="4">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4">
-        <v>0</v>
-      </c>
-      <c r="X40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="4">
+      <c r="V58" s="4">
+        <v>0</v>
+      </c>
+      <c r="W58" s="4">
+        <v>0</v>
+      </c>
+      <c r="X58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="4">
         <v>0.1</v>
       </c>
-      <c r="Z40" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA40" s="4" t="s">
+      <c r="Z58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6920,7 +8673,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F40</xm:sqref>
+          <xm:sqref>F5:F58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6961,7 +8714,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7076,7 +8829,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7202,7 +8955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD8FF2-D3CB-4C40-B541-49873683EA73}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7215,7 +8968,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7231,7 +8984,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7242,7 +8995,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -7257,10 +9010,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7269,10 +9022,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7281,10 +9034,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7293,10 +9046,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364DDD2E-E47D-4913-A7B6-CB112C8EA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE2492-E99F-4C1C-B333-B5E3B99076B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41130" yWindow="2730" windowWidth="34815" windowHeight="16545" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="2115" yWindow="2160" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <author>tc={15FA70F9-1022-46DA-A3AA-B5528ADE25BA}</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     role_icon_data 시트 참조</t>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{15FA70F9-1022-46DA-A3AA-B5528ADE25BA}">
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{15FA70F9-1022-46DA-A3AA-B5528ADE25BA}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="226">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,14 +163,6 @@
   </si>
   <si>
     <t>캐릭터 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 속한 종족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기획자 확인용) 캐릭 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,14 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#lobby_basic_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#lobby_merry_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Role_Tanker</t>
   </si>
   <si>
@@ -893,259 +877,309 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1 인간종족</t>
+  </si>
+  <si>
+    <t>6 천사</t>
+  </si>
+  <si>
+    <t>별성 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_2:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 수인족</t>
+  </si>
+  <si>
+    <t>5 악마</t>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기획자 확인용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>베리타리움</t>
+  </si>
+  <si>
+    <t>요력</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute_Icon_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_attack</t>
+  </si>
+  <si>
+    <t>physics_defend</t>
+  </si>
+  <si>
+    <t>magic_defend</t>
+  </si>
+  <si>
+    <t>physics_critical_chance</t>
+  </si>
+  <si>
+    <t>magic_critical_chance</t>
+  </si>
+  <si>
+    <t>physics_critical_power_add</t>
+  </si>
+  <si>
+    <t>magic_critical_power_add</t>
+  </si>
+  <si>
+    <t>attack_life_recovery</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_basic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_merry_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아</t>
+  </si>
+  <si>
     <t>라일라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 인간종족</t>
-  </si>
-  <si>
-    <t>6 천사</t>
-  </si>
-  <si>
-    <t>별성 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_2:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:POSITION_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:ROLE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격 시 회복량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강인함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">resist </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올렛</t>
+  </si>
+  <si>
+    <t>데이지</t>
   </si>
   <si>
     <t>클레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린</t>
   </si>
   <si>
     <t>마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>츠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 수인족</t>
-  </si>
-  <si>
-    <t>5 악마</t>
-  </si>
-  <si>
-    <t>무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기획자 확인용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기</t>
-  </si>
-  <si>
-    <t>마력</t>
-  </si>
-  <si>
-    <t>베리타리움</t>
-  </si>
-  <si>
-    <t>요력</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Grey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute_Icon_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:ENUM:ATTRIBUTE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physics_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic_attack</t>
-  </si>
-  <si>
-    <t>physics_defend</t>
-  </si>
-  <si>
-    <t>magic_defend</t>
-  </si>
-  <si>
-    <t>physics_critical_chance</t>
-  </si>
-  <si>
-    <t>magic_critical_chance</t>
-  </si>
-  <si>
-    <t>physics_critical_power_add</t>
-  </si>
-  <si>
-    <t>magic_critical_power_add</t>
-  </si>
-  <si>
-    <t>attack_life_recovery</t>
   </si>
   <si>
     <t>전열용 루시아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전열용 라일라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전열용 클레어 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전열용 클레어 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이올렛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에일린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
+  </si>
+  <si>
+    <t>character_name_0001</t>
+  </si>
+  <si>
+    <t>character_name_0002</t>
+  </si>
+  <si>
+    <t>character_name_0003</t>
+  </si>
+  <si>
+    <t>character_name_0004</t>
+  </si>
+  <si>
+    <t>character_name_0005</t>
+  </si>
+  <si>
+    <t>character_name_0006</t>
+  </si>
+  <si>
+    <t>character_name_0007</t>
+  </si>
+  <si>
+    <t>character_name_0008</t>
+  </si>
+  <si>
+    <t>character_name_0009</t>
+  </si>
+  <si>
+    <t>character_name_0010</t>
+  </si>
+  <si>
+    <t>character_name_0011</t>
+  </si>
+  <si>
+    <t>character_name_0012</t>
+  </si>
+  <si>
+    <t>character_name_0013</t>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#name_kr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1255,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1304,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1313,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1397,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1728,13 +1774,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -2140,10 +2180,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2023-12-19T02:22:00.75" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
+  <threadedComment ref="E2" dT="2023-12-19T02:22:00.75" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{CB45DB7A-9AF2-466B-B2A5-9B249AA35C04}">
     <text>role_icon_data 시트 참조</text>
   </threadedComment>
-  <threadedComment ref="K2" dT="2024-02-06T05:07:34.38" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{15FA70F9-1022-46DA-A3AA-B5528ADE25BA}">
+  <threadedComment ref="L2" dT="2024-02-06T05:07:34.38" personId="{99C3A3CE-39E9-4C54-82A7-CCE82ABA6C36}" id="{15FA70F9-1022-46DA-A3AA-B5528ADE25BA}">
     <text>생년월일 미정인 경우 0 으로 설정한다.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2169,12 +2209,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2184,73 +2224,73 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2711,1044 +2751,1093 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="R4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
+        <v>211</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="D5" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E5,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="H5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="4">
         <v>24</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="L5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="4">
         <v>170</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="N5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="4">
         <v>100001</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
+        <v>212</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="D6" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E6,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I6,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="F6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="4">
         <v>20</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="L6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="4">
         <v>160</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="N6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="4">
         <v>100002</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
+        <v>213</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D7" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E7,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I7,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="F7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="4">
         <v>20</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="L7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="4">
         <v>160</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="N7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="4">
         <v>100003</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
+        <v>214</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D8" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E8,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I8,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="F8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H8,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="4">
         <v>20</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="L8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4">
         <v>160</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="N8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="4">
         <v>100004</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
+        <v>215</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D9" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E9,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F9,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I9,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="H9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="J9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="4">
         <v>16</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="L9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="4">
         <v>156</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="N9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="4">
         <v>100005</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q9" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
       <c r="D10" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E10,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F10,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I10,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="H10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="J10" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="4">
         <v>16</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="L10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="4">
         <v>156</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="N10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="4">
         <v>100006</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="4">
+        <v>217</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E11,'!참조_ENUM'!$O$3:$O$7,0))</f>
+      <c r="E11" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I11,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="F11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J11,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="4">
         <v>16</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="L11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="4">
         <v>156</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="N11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="4">
         <v>100007</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q11" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F12,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H12,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J12,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E12,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I12,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>16</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="L12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="4">
         <v>156</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="N12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="4">
         <v>100008</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q12" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="4">
+        <v>219</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E13,'!참조_ENUM'!$O$3:$O$7,0))</f>
+      <c r="E13" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I13,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="F13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="J13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="4">
         <v>16</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="L13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="4">
         <v>156</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="N13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="4">
         <v>100009</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="4">
+        <v>220</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E14,'!참조_ENUM'!$O$3:$O$7,0))</f>
+      <c r="E14" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I14,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="H14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="J14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="4">
         <v>24</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="L14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="4">
         <v>170</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="N14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="4">
         <v>100001</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="4">
+        <v>221</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E15,'!참조_ENUM'!$O$3:$O$7,0))</f>
+      <c r="E15" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I15,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="F15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J15,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="4">
         <v>20</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="L15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="4">
         <v>160</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="N15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="4">
         <v>100002</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="4">
+        <v>222</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E16,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E16" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F16,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I16,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="H16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="J16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="4">
         <v>16</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="L16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="4">
         <v>156</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="N16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="4">
         <v>100005</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="4">
+        <v>223</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(E17,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E17" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F17,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I17,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="H17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J17,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="J17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="4">
         <v>16</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="L17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="4">
         <v>156</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="N17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="4">
         <v>100005</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="P17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
-        <v>16</v>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3762,19 +3851,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E17</xm:sqref>
+          <xm:sqref>F5:F17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G17</xm:sqref>
+          <xm:sqref>H5:H17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I17</xm:sqref>
+          <xm:sqref>J5:J17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3787,16 +3876,16 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
@@ -3819,113 +3908,113 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -3934,141 +4023,141 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -4077,7 +4166,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,pc_data!A:B,2,)</f>
-        <v>루시아</v>
+        <v>character_name_0001</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -4090,10 +4179,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -4153,7 +4242,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -4162,7 +4251,7 @@
       </c>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,pc_data!A:B,2,)</f>
-        <v>루시아</v>
+        <v>character_name_0001</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -4175,10 +4264,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -4238,7 +4327,7 @@
         <v>5</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -4247,7 +4336,7 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,pc_data!A:B,2,)</f>
-        <v>루시아</v>
+        <v>character_name_0001</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -4260,10 +4349,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -4323,7 +4412,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -4332,7 +4421,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,pc_data!A:B,2,)</f>
-        <v>루시아</v>
+        <v>character_name_0001</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4345,10 +4434,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -4408,7 +4497,7 @@
         <v>5</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -4417,7 +4506,7 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,pc_data!A:B,2,)</f>
-        <v>루시아</v>
+        <v>character_name_0001</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -4430,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -4493,7 +4582,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -4502,7 +4591,7 @@
       </c>
       <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,pc_data!A:B,2,)</f>
-        <v>루시아</v>
+        <v>character_name_0001</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
@@ -4515,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -4578,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4587,7 +4676,7 @@
       </c>
       <c r="B11" s="4" t="str">
         <f>VLOOKUP(A11,pc_data!A:B,2,)</f>
-        <v>라일라</v>
+        <v>character_name_0002</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -4600,10 +4689,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
@@ -4663,7 +4752,7 @@
         <v>5</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4672,7 +4761,7 @@
       </c>
       <c r="B12" s="4" t="str">
         <f>VLOOKUP(A12,pc_data!A:B,2,)</f>
-        <v>라일라</v>
+        <v>character_name_0002</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -4685,10 +4774,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="12">
         <v>0</v>
@@ -4748,7 +4837,7 @@
         <v>5</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4757,7 +4846,7 @@
       </c>
       <c r="B13" s="4" t="str">
         <f>VLOOKUP(A13,pc_data!A:B,2,)</f>
-        <v>라일라</v>
+        <v>character_name_0002</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
@@ -4770,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="12">
         <v>0</v>
@@ -4833,7 +4922,7 @@
         <v>5</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4842,7 +4931,7 @@
       </c>
       <c r="B14" s="4" t="str">
         <f>VLOOKUP(A14,pc_data!A:B,2,)</f>
-        <v>라일라</v>
+        <v>character_name_0002</v>
       </c>
       <c r="C14" s="12">
         <v>4</v>
@@ -4855,10 +4944,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -4918,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4927,7 +5016,7 @@
       </c>
       <c r="B15" s="4" t="str">
         <f>VLOOKUP(A15,pc_data!A:B,2,)</f>
-        <v>라일라</v>
+        <v>character_name_0002</v>
       </c>
       <c r="C15" s="12">
         <v>5</v>
@@ -4940,10 +5029,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
@@ -5003,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5012,7 +5101,7 @@
       </c>
       <c r="B16" s="4" t="str">
         <f>VLOOKUP(A16,pc_data!A:B,2,)</f>
-        <v>라일라</v>
+        <v>character_name_0002</v>
       </c>
       <c r="C16" s="12">
         <v>6</v>
@@ -5025,10 +5114,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -5088,7 +5177,7 @@
         <v>5</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -5097,7 +5186,7 @@
       </c>
       <c r="B17" s="4" t="str">
         <f>VLOOKUP(A17,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
+        <v>character_name_0003</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -5110,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -5173,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
@@ -5182,7 +5271,7 @@
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
+        <v>character_name_0003</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -5195,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -5258,7 +5347,7 @@
         <v>5</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
@@ -5267,7 +5356,7 @@
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
+        <v>character_name_0003</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -5280,10 +5369,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -5343,7 +5432,7 @@
         <v>5</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
@@ -5352,7 +5441,7 @@
       </c>
       <c r="B20" s="4" t="str">
         <f>VLOOKUP(A20,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
+        <v>character_name_0003</v>
       </c>
       <c r="C20" s="4">
         <v>4</v>
@@ -5365,10 +5454,10 @@
         <v>3</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -5428,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
@@ -5437,7 +5526,7 @@
       </c>
       <c r="B21" s="4" t="str">
         <f>VLOOKUP(A21,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
+        <v>character_name_0003</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
@@ -5450,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -5513,7 +5602,7 @@
         <v>5</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
@@ -5522,7 +5611,7 @@
       </c>
       <c r="B22" s="4" t="str">
         <f>VLOOKUP(A22,pc_data!A:B,2,)</f>
-        <v>바이올렛</v>
+        <v>character_name_0003</v>
       </c>
       <c r="C22" s="4">
         <v>6</v>
@@ -5535,10 +5624,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -5598,7 +5687,7 @@
         <v>5</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5607,7 +5696,7 @@
       </c>
       <c r="B23" s="4" t="str">
         <f>VLOOKUP(A23,pc_data!A:B,2,)</f>
-        <v>데이지</v>
+        <v>character_name_0004</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -5620,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
@@ -5683,7 +5772,7 @@
         <v>5</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5692,7 +5781,7 @@
       </c>
       <c r="B24" s="4" t="str">
         <f>VLOOKUP(A24,pc_data!A:B,2,)</f>
-        <v>데이지</v>
+        <v>character_name_0004</v>
       </c>
       <c r="C24" s="12">
         <v>2</v>
@@ -5705,10 +5794,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" s="12">
         <v>0</v>
@@ -5768,7 +5857,7 @@
         <v>5</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5777,7 +5866,7 @@
       </c>
       <c r="B25" s="4" t="str">
         <f>VLOOKUP(A25,pc_data!A:B,2,)</f>
-        <v>데이지</v>
+        <v>character_name_0004</v>
       </c>
       <c r="C25" s="12">
         <v>3</v>
@@ -5790,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" s="12">
         <v>0</v>
@@ -5853,7 +5942,7 @@
         <v>5</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5862,7 +5951,7 @@
       </c>
       <c r="B26" s="4" t="str">
         <f>VLOOKUP(A26,pc_data!A:B,2,)</f>
-        <v>데이지</v>
+        <v>character_name_0004</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -5875,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
@@ -5938,7 +6027,7 @@
         <v>5</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5947,7 +6036,7 @@
       </c>
       <c r="B27" s="4" t="str">
         <f>VLOOKUP(A27,pc_data!A:B,2,)</f>
-        <v>데이지</v>
+        <v>character_name_0004</v>
       </c>
       <c r="C27" s="12">
         <v>5</v>
@@ -5960,10 +6049,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
@@ -6023,7 +6112,7 @@
         <v>5</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6032,7 +6121,7 @@
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,pc_data!A:B,2,)</f>
-        <v>데이지</v>
+        <v>character_name_0004</v>
       </c>
       <c r="C28" s="12">
         <v>6</v>
@@ -6045,10 +6134,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
@@ -6108,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -6117,7 +6206,7 @@
       </c>
       <c r="B29" s="4" t="str">
         <f>VLOOKUP(A29,pc_data!A:B,2,)</f>
-        <v>클레어</v>
+        <v>character_name_0005</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -6130,10 +6219,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -6193,7 +6282,7 @@
         <v>5</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
@@ -6202,7 +6291,7 @@
       </c>
       <c r="B30" s="4" t="str">
         <f>VLOOKUP(A30,pc_data!A:B,2,)</f>
-        <v>클레어</v>
+        <v>character_name_0005</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -6215,10 +6304,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -6278,7 +6367,7 @@
         <v>5</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
@@ -6287,7 +6376,7 @@
       </c>
       <c r="B31" s="4" t="str">
         <f>VLOOKUP(A31,pc_data!A:B,2,)</f>
-        <v>클레어</v>
+        <v>character_name_0005</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -6300,10 +6389,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -6363,7 +6452,7 @@
         <v>5</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
@@ -6372,7 +6461,7 @@
       </c>
       <c r="B32" s="4" t="str">
         <f>VLOOKUP(A32,pc_data!A:B,2,)</f>
-        <v>클레어</v>
+        <v>character_name_0005</v>
       </c>
       <c r="C32" s="4">
         <v>4</v>
@@ -6385,10 +6474,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -6448,7 +6537,7 @@
         <v>5</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
@@ -6457,7 +6546,7 @@
       </c>
       <c r="B33" s="4" t="str">
         <f>VLOOKUP(A33,pc_data!A:B,2,)</f>
-        <v>클레어</v>
+        <v>character_name_0005</v>
       </c>
       <c r="C33" s="4">
         <v>5</v>
@@ -6470,10 +6559,10 @@
         <v>3</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -6533,7 +6622,7 @@
         <v>5</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
@@ -6542,7 +6631,7 @@
       </c>
       <c r="B34" s="4" t="str">
         <f>VLOOKUP(A34,pc_data!A:B,2,)</f>
-        <v>클레어</v>
+        <v>character_name_0005</v>
       </c>
       <c r="C34" s="4">
         <v>6</v>
@@ -6555,10 +6644,10 @@
         <v>3</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -6618,7 +6707,7 @@
         <v>5</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6627,7 +6716,7 @@
       </c>
       <c r="B35" s="4" t="str">
         <f>VLOOKUP(A35,pc_data!A:B,2,)</f>
-        <v>에일린</v>
+        <v>character_name_0006</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -6640,10 +6729,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H35" s="12">
         <v>0</v>
@@ -6703,7 +6792,7 @@
         <v>5</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6712,7 +6801,7 @@
       </c>
       <c r="B36" s="4" t="str">
         <f>VLOOKUP(A36,pc_data!A:B,2,)</f>
-        <v>에일린</v>
+        <v>character_name_0006</v>
       </c>
       <c r="C36" s="12">
         <v>2</v>
@@ -6725,10 +6814,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H36" s="12">
         <v>0</v>
@@ -6788,7 +6877,7 @@
         <v>5</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6797,7 +6886,7 @@
       </c>
       <c r="B37" s="4" t="str">
         <f>VLOOKUP(A37,pc_data!A:B,2,)</f>
-        <v>에일린</v>
+        <v>character_name_0006</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -6810,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -6873,7 +6962,7 @@
         <v>5</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6882,7 +6971,7 @@
       </c>
       <c r="B38" s="4" t="str">
         <f>VLOOKUP(A38,pc_data!A:B,2,)</f>
-        <v>에일린</v>
+        <v>character_name_0006</v>
       </c>
       <c r="C38" s="12">
         <v>4</v>
@@ -6895,10 +6984,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H38" s="12">
         <v>0</v>
@@ -6958,7 +7047,7 @@
         <v>5</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6967,7 +7056,7 @@
       </c>
       <c r="B39" s="4" t="str">
         <f>VLOOKUP(A39,pc_data!A:B,2,)</f>
-        <v>에일린</v>
+        <v>character_name_0006</v>
       </c>
       <c r="C39" s="12">
         <v>5</v>
@@ -6980,10 +7069,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H39" s="12">
         <v>0</v>
@@ -7043,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7052,7 +7141,7 @@
       </c>
       <c r="B40" s="4" t="str">
         <f>VLOOKUP(A40,pc_data!A:B,2,)</f>
-        <v>에일린</v>
+        <v>character_name_0006</v>
       </c>
       <c r="C40" s="12">
         <v>6</v>
@@ -7065,10 +7154,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H40" s="12">
         <v>0</v>
@@ -7128,7 +7217,7 @@
         <v>5</v>
       </c>
       <c r="AA40" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
@@ -7137,7 +7226,7 @@
       </c>
       <c r="B41" s="4" t="str">
         <f>VLOOKUP(A41,pc_data!A:B,2,)</f>
-        <v>마네</v>
+        <v>character_name_0007</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -7150,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -7213,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
@@ -7222,7 +7311,7 @@
       </c>
       <c r="B42" s="4" t="str">
         <f>VLOOKUP(A42,pc_data!A:B,2,)</f>
-        <v>마네</v>
+        <v>character_name_0007</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -7235,10 +7324,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -7298,7 +7387,7 @@
         <v>5</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
@@ -7307,7 +7396,7 @@
       </c>
       <c r="B43" s="4" t="str">
         <f>VLOOKUP(A43,pc_data!A:B,2,)</f>
-        <v>마네</v>
+        <v>character_name_0007</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -7320,10 +7409,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -7383,7 +7472,7 @@
         <v>5</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
@@ -7392,7 +7481,7 @@
       </c>
       <c r="B44" s="4" t="str">
         <f>VLOOKUP(A44,pc_data!A:B,2,)</f>
-        <v>마네</v>
+        <v>character_name_0007</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -7405,10 +7494,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -7468,7 +7557,7 @@
         <v>5</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
@@ -7477,7 +7566,7 @@
       </c>
       <c r="B45" s="4" t="str">
         <f>VLOOKUP(A45,pc_data!A:B,2,)</f>
-        <v>마네</v>
+        <v>character_name_0007</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -7490,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -7553,7 +7642,7 @@
         <v>5</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
@@ -7562,7 +7651,7 @@
       </c>
       <c r="B46" s="4" t="str">
         <f>VLOOKUP(A46,pc_data!A:B,2,)</f>
-        <v>마네</v>
+        <v>character_name_0007</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -7575,10 +7664,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -7638,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7647,7 +7736,7 @@
       </c>
       <c r="B47" s="4" t="str">
         <f>VLOOKUP(A47,pc_data!A:B,2,)</f>
-        <v>츠키</v>
+        <v>character_name_0008</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -7660,10 +7749,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H47" s="12">
         <v>0</v>
@@ -7723,7 +7812,7 @@
         <v>5</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7732,7 +7821,7 @@
       </c>
       <c r="B48" s="4" t="str">
         <f>VLOOKUP(A48,pc_data!A:B,2,)</f>
-        <v>츠키</v>
+        <v>character_name_0008</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -7745,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H48" s="12">
         <v>0</v>
@@ -7808,7 +7897,7 @@
         <v>5</v>
       </c>
       <c r="AA48" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7817,7 +7906,7 @@
       </c>
       <c r="B49" s="4" t="str">
         <f>VLOOKUP(A49,pc_data!A:B,2,)</f>
-        <v>츠키</v>
+        <v>character_name_0008</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
@@ -7830,10 +7919,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H49" s="12">
         <v>0</v>
@@ -7893,7 +7982,7 @@
         <v>5</v>
       </c>
       <c r="AA49" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7902,7 +7991,7 @@
       </c>
       <c r="B50" s="4" t="str">
         <f>VLOOKUP(A50,pc_data!A:B,2,)</f>
-        <v>츠키</v>
+        <v>character_name_0008</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
@@ -7915,10 +8004,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H50" s="12">
         <v>0</v>
@@ -7978,7 +8067,7 @@
         <v>5</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7987,7 +8076,7 @@
       </c>
       <c r="B51" s="4" t="str">
         <f>VLOOKUP(A51,pc_data!A:B,2,)</f>
-        <v>츠키</v>
+        <v>character_name_0008</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -8000,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H51" s="12">
         <v>0</v>
@@ -8063,7 +8152,7 @@
         <v>5</v>
       </c>
       <c r="AA51" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8072,7 +8161,7 @@
       </c>
       <c r="B52" s="4" t="str">
         <f>VLOOKUP(A52,pc_data!A:B,2,)</f>
-        <v>츠키</v>
+        <v>character_name_0008</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
@@ -8085,10 +8174,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H52" s="12">
         <v>0</v>
@@ -8148,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
@@ -8157,7 +8246,7 @@
       </c>
       <c r="B53" s="4" t="str">
         <f>VLOOKUP(A53,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
+        <v>character_name_0009</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -8170,10 +8259,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -8233,7 +8322,7 @@
         <v>5</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
@@ -8242,7 +8331,7 @@
       </c>
       <c r="B54" s="4" t="str">
         <f>VLOOKUP(A54,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
+        <v>character_name_0009</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -8255,10 +8344,10 @@
         <v>3</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -8318,7 +8407,7 @@
         <v>5</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
@@ -8327,7 +8416,7 @@
       </c>
       <c r="B55" s="4" t="str">
         <f>VLOOKUP(A55,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
+        <v>character_name_0009</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -8340,10 +8429,10 @@
         <v>3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -8403,7 +8492,7 @@
         <v>5</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
@@ -8412,7 +8501,7 @@
       </c>
       <c r="B56" s="4" t="str">
         <f>VLOOKUP(A56,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
+        <v>character_name_0009</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -8425,10 +8514,10 @@
         <v>3</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -8488,7 +8577,7 @@
         <v>5</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
@@ -8497,7 +8586,7 @@
       </c>
       <c r="B57" s="4" t="str">
         <f>VLOOKUP(A57,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
+        <v>character_name_0009</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
@@ -8510,10 +8599,10 @@
         <v>3</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -8573,7 +8662,7 @@
         <v>5</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
@@ -8582,7 +8671,7 @@
       </c>
       <c r="B58" s="4" t="str">
         <f>VLOOKUP(A58,pc_data!A:B,2,)</f>
-        <v>엘리자베스</v>
+        <v>character_name_0009</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
@@ -8595,10 +8684,10 @@
         <v>3</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -8658,7 +8747,7 @@
         <v>5</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -8698,40 +8787,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8740,10 +8829,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8752,10 +8841,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8764,10 +8853,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -8807,58 +8896,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8867,16 +8956,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8885,16 +8974,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8903,16 +8992,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8921,16 +9010,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -8955,7 +9044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD8FF2-D3CB-4C40-B541-49873683EA73}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8968,40 +9057,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9010,10 +9099,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9022,10 +9111,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9034,10 +9123,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9046,10 +9135,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE2492-E99F-4C1C-B333-B5E3B99076B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9815E48-817E-4B80-8917-737174F4BD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2160" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39135" yWindow="1230" windowWidth="38565" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="229">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,134 +1053,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_basic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_merry_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아</t>
+  </si>
+  <si>
+    <t>라일라</t>
+  </si>
+  <si>
+    <t>바이올렛</t>
+  </si>
+  <si>
+    <t>데이지</t>
+  </si>
+  <si>
+    <t>클레어</t>
+  </si>
+  <si>
+    <t>에일린</t>
+  </si>
+  <si>
+    <t>마네</t>
+  </si>
+  <si>
+    <t>츠키</t>
+  </si>
+  <si>
+    <t>엘리자베스</t>
+  </si>
+  <si>
+    <t>전열용 루시아</t>
+  </si>
+  <si>
+    <t>전열용 라일라</t>
+  </si>
+  <si>
+    <t>전열용 클레어 1</t>
+  </si>
+  <si>
+    <t>전열용 클레어 2</t>
+  </si>
+  <si>
+    <t>character_name_0001</t>
+  </si>
+  <si>
+    <t>character_name_0002</t>
+  </si>
+  <si>
+    <t>character_name_0003</t>
+  </si>
+  <si>
+    <t>character_name_0004</t>
+  </si>
+  <si>
+    <t>character_name_0005</t>
+  </si>
+  <si>
+    <t>character_name_0006</t>
+  </si>
+  <si>
+    <t>character_name_0007</t>
+  </si>
+  <si>
+    <t>character_name_0008</t>
+  </si>
+  <si>
+    <t>character_name_0009</t>
+  </si>
+  <si>
+    <t>character_name_0010</t>
+  </si>
+  <si>
+    <t>character_name_0011</t>
+  </si>
+  <si>
+    <t>character_name_0012</t>
+  </si>
+  <si>
+    <t>character_name_0013</t>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#name_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004</t>
+  </si>
+  <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobby_basic_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobby_merry_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종족명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아</t>
-  </si>
-  <si>
-    <t>라일라</t>
-  </si>
-  <si>
-    <t>바이올렛</t>
-  </si>
-  <si>
-    <t>데이지</t>
-  </si>
-  <si>
-    <t>클레어</t>
-  </si>
-  <si>
-    <t>에일린</t>
-  </si>
-  <si>
-    <t>마네</t>
-  </si>
-  <si>
-    <t>츠키</t>
-  </si>
-  <si>
-    <t>엘리자베스</t>
-  </si>
-  <si>
-    <t>전열용 루시아</t>
-  </si>
-  <si>
-    <t>전열용 라일라</t>
-  </si>
-  <si>
-    <t>전열용 클레어 1</t>
-  </si>
-  <si>
-    <t>전열용 클레어 2</t>
-  </si>
-  <si>
-    <t>character_name_0001</t>
-  </si>
-  <si>
-    <t>character_name_0002</t>
-  </si>
-  <si>
-    <t>character_name_0003</t>
-  </si>
-  <si>
-    <t>character_name_0004</t>
-  </si>
-  <si>
-    <t>character_name_0005</t>
-  </si>
-  <si>
-    <t>character_name_0006</t>
-  </si>
-  <si>
-    <t>character_name_0007</t>
-  </si>
-  <si>
-    <t>character_name_0008</t>
-  </si>
-  <si>
-    <t>character_name_0009</t>
-  </si>
-  <si>
-    <t>character_name_0010</t>
-  </si>
-  <si>
-    <t>character_name_0011</t>
-  </si>
-  <si>
-    <t>character_name_0012</t>
-  </si>
-  <si>
-    <t>character_name_0013</t>
-  </si>
-  <si>
-    <t>name_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#name_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
   </si>
 </sst>
 </file>
@@ -2754,10 +2759,10 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2811,10 +2816,10 @@
         <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>170</v>
@@ -2932,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>110</v>
@@ -2980,10 +2985,10 @@
         <v>94</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>12</v>
@@ -3000,10 +3005,10 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3065,10 +3070,10 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3130,10 +3135,10 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -3183,7 +3188,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="s">
@@ -3195,10 +3200,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -3248,7 +3253,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
@@ -3260,10 +3265,10 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -3308,12 +3313,12 @@
         <v>147</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
@@ -3325,10 +3330,10 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -3378,7 +3383,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4" t="s">
@@ -3390,10 +3395,10 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -3443,7 +3448,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4" t="s">
@@ -3455,10 +3460,10 @@
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -3508,7 +3513,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4" t="s">
@@ -3520,10 +3525,10 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -3573,7 +3578,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
@@ -3585,10 +3590,10 @@
         <v>100011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -3650,10 +3655,10 @@
         <v>100012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -3715,10 +3720,10 @@
         <v>100013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -3768,7 +3773,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4" t="s">
@@ -3780,10 +3785,10 @@
         <v>100014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -3833,7 +3838,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4" t="s">
@@ -3876,10 +3881,10 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4164,15 +4169,15 @@
       <c r="A5" s="4">
         <v>100001</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,pc_data!A:B,2,)</f>
-        <v>character_name_0001</v>
+      <c r="B5" s="11" t="str">
+        <f>VLOOKUP(A5,pc_data!A:C,3,FALSE)</f>
+        <v>루시아</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F5,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4191,19 +4196,19 @@
         <v>100004</v>
       </c>
       <c r="J5" s="4">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="K5" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -4227,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
@@ -4249,15 +4254,15 @@
       <c r="A6" s="4">
         <v>100001</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,pc_data!A:B,2,)</f>
-        <v>character_name_0001</v>
+      <c r="B6" s="11" t="str">
+        <f>VLOOKUP(A6,pc_data!A:C,3,FALSE)</f>
+        <v>루시아</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F6,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4276,19 +4281,19 @@
         <v>100004</v>
       </c>
       <c r="J6" s="4">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <v>56</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
       <c r="M6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -4312,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W6" s="4">
         <v>0</v>
@@ -4334,15 +4339,15 @@
       <c r="A7" s="4">
         <v>100001</v>
       </c>
-      <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,pc_data!A:B,2,)</f>
-        <v>character_name_0001</v>
+      <c r="B7" s="11" t="str">
+        <f>VLOOKUP(A7,pc_data!A:C,3,FALSE)</f>
+        <v>루시아</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F7,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4361,19 +4366,19 @@
         <v>100004</v>
       </c>
       <c r="J7" s="4">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="K7" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -4397,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
@@ -4419,15 +4424,15 @@
       <c r="A8" s="4">
         <v>100001</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,pc_data!A:B,2,)</f>
-        <v>character_name_0001</v>
+      <c r="B8" s="11" t="str">
+        <f>VLOOKUP(A8,pc_data!A:C,3,FALSE)</f>
+        <v>루시아</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F8,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4446,44 +4451,44 @@
         <v>100004</v>
       </c>
       <c r="J8" s="4">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="K8" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
         <v>25</v>
       </c>
-      <c r="N8" s="4">
-        <v>25</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="4">
-        <v>4</v>
-      </c>
-      <c r="U8" s="4">
-        <v>4</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
       <c r="W8" s="4">
         <v>0</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="4">
         <v>5</v>
@@ -4504,15 +4509,15 @@
       <c r="A9" s="4">
         <v>100001</v>
       </c>
-      <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,pc_data!A:B,2,)</f>
-        <v>character_name_0001</v>
+      <c r="B9" s="11" t="str">
+        <f>VLOOKUP(A9,pc_data!A:C,3,FALSE)</f>
+        <v>루시아</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F9,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4531,43 +4536,43 @@
         <v>100004</v>
       </c>
       <c r="J9" s="4">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K9" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M9" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -4576,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="4">
         <v>5</v>
@@ -4589,15 +4594,15 @@
       <c r="A10" s="4">
         <v>100001</v>
       </c>
-      <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,pc_data!A:B,2,)</f>
-        <v>character_name_0001</v>
+      <c r="B10" s="11" t="str">
+        <f>VLOOKUP(A10,pc_data!A:C,3,FALSE)</f>
+        <v>루시아</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F10,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4616,43 +4621,43 @@
         <v>100004</v>
       </c>
       <c r="J10" s="4">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="K10" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="O10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U10" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
@@ -4661,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="4">
         <v>5</v>
@@ -4674,15 +4679,15 @@
       <c r="A11" s="12">
         <v>100002</v>
       </c>
-      <c r="B11" s="4" t="str">
-        <f>VLOOKUP(A11,pc_data!A:B,2,)</f>
-        <v>character_name_0002</v>
+      <c r="B11" s="11" t="str">
+        <f>VLOOKUP(A11,pc_data!A:C,3,FALSE)</f>
+        <v>라일라</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F11,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4701,25 +4706,25 @@
         <v>100104</v>
       </c>
       <c r="J11" s="12">
-        <v>406</v>
+        <v>483</v>
       </c>
       <c r="K11" s="12">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
       </c>
       <c r="M11" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="12">
         <v>0</v>
@@ -4759,15 +4764,15 @@
       <c r="A12" s="12">
         <v>100002</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f>VLOOKUP(A12,pc_data!A:B,2,)</f>
-        <v>character_name_0002</v>
+      <c r="B12" s="11" t="str">
+        <f>VLOOKUP(A12,pc_data!A:C,3,FALSE)</f>
+        <v>라일라</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
       </c>
       <c r="D12" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E12" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F12,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4786,25 +4791,25 @@
         <v>100104</v>
       </c>
       <c r="J12" s="12">
-        <v>406</v>
+        <v>507</v>
       </c>
       <c r="K12" s="12">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
       <c r="M12" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P12" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="12">
         <v>0</v>
@@ -4844,15 +4849,15 @@
       <c r="A13" s="12">
         <v>100002</v>
       </c>
-      <c r="B13" s="4" t="str">
-        <f>VLOOKUP(A13,pc_data!A:B,2,)</f>
-        <v>character_name_0002</v>
+      <c r="B13" s="11" t="str">
+        <f>VLOOKUP(A13,pc_data!A:C,3,FALSE)</f>
+        <v>라일라</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
       </c>
       <c r="D13" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E13" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F13,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4871,25 +4876,25 @@
         <v>100104</v>
       </c>
       <c r="J13" s="12">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="K13" s="12">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
       <c r="M13" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P13" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="12">
         <v>0</v>
@@ -4929,15 +4934,15 @@
       <c r="A14" s="12">
         <v>100002</v>
       </c>
-      <c r="B14" s="4" t="str">
-        <f>VLOOKUP(A14,pc_data!A:B,2,)</f>
-        <v>character_name_0002</v>
+      <c r="B14" s="11" t="str">
+        <f>VLOOKUP(A14,pc_data!A:C,3,FALSE)</f>
+        <v>라일라</v>
       </c>
       <c r="C14" s="12">
         <v>4</v>
       </c>
       <c r="D14" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E14" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F14,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -4956,40 +4961,40 @@
         <v>100104</v>
       </c>
       <c r="J14" s="12">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="K14" s="12">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="L14" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M14" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N14" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O14" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T14" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U14" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -5001,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="12">
         <v>5</v>
@@ -5014,15 +5019,15 @@
       <c r="A15" s="12">
         <v>100002</v>
       </c>
-      <c r="B15" s="4" t="str">
-        <f>VLOOKUP(A15,pc_data!A:B,2,)</f>
-        <v>character_name_0002</v>
+      <c r="B15" s="11" t="str">
+        <f>VLOOKUP(A15,pc_data!A:C,3,FALSE)</f>
+        <v>라일라</v>
       </c>
       <c r="C15" s="12">
         <v>5</v>
       </c>
       <c r="D15" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E15" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F15,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5041,40 +5046,40 @@
         <v>100104</v>
       </c>
       <c r="J15" s="12">
-        <v>500</v>
+        <v>587</v>
       </c>
       <c r="K15" s="12">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L15" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M15" s="12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N15" s="12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O15" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T15" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U15" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -5086,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="12">
         <v>5</v>
@@ -5099,15 +5104,15 @@
       <c r="A16" s="12">
         <v>100002</v>
       </c>
-      <c r="B16" s="4" t="str">
-        <f>VLOOKUP(A16,pc_data!A:B,2,)</f>
-        <v>character_name_0002</v>
+      <c r="B16" s="11" t="str">
+        <f>VLOOKUP(A16,pc_data!A:C,3,FALSE)</f>
+        <v>라일라</v>
       </c>
       <c r="C16" s="12">
         <v>6</v>
       </c>
       <c r="D16" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E16" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F16,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5126,40 +5131,40 @@
         <v>100104</v>
       </c>
       <c r="J16" s="12">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="K16" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L16" s="12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M16" s="12">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N16" s="12">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="O16" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T16" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U16" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -5171,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="12">
         <v>5</v>
@@ -5184,15 +5189,15 @@
       <c r="A17" s="4">
         <v>100003</v>
       </c>
-      <c r="B17" s="4" t="str">
-        <f>VLOOKUP(A17,pc_data!A:B,2,)</f>
-        <v>character_name_0003</v>
+      <c r="B17" s="11" t="str">
+        <f>VLOOKUP(A17,pc_data!A:C,3,FALSE)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F17,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5211,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>441</v>
+        <v>556</v>
       </c>
       <c r="K17" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
@@ -5269,15 +5274,15 @@
       <c r="A18" s="4">
         <v>100003</v>
       </c>
-      <c r="B18" s="4" t="str">
-        <f>VLOOKUP(A18,pc_data!A:B,2,)</f>
-        <v>character_name_0003</v>
+      <c r="B18" s="11" t="str">
+        <f>VLOOKUP(A18,pc_data!A:C,3,FALSE)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F18,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5296,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>441</v>
+        <v>583</v>
       </c>
       <c r="K18" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -5354,15 +5359,15 @@
       <c r="A19" s="4">
         <v>100003</v>
       </c>
-      <c r="B19" s="4" t="str">
-        <f>VLOOKUP(A19,pc_data!A:B,2,)</f>
-        <v>character_name_0003</v>
+      <c r="B19" s="11" t="str">
+        <f>VLOOKUP(A19,pc_data!A:C,3,FALSE)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F19,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5381,19 +5386,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>441</v>
+        <v>612</v>
       </c>
       <c r="K19" s="4">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
@@ -5439,15 +5444,15 @@
       <c r="A20" s="4">
         <v>100003</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f>VLOOKUP(A20,pc_data!A:B,2,)</f>
-        <v>character_name_0003</v>
+      <c r="B20" s="11" t="str">
+        <f>VLOOKUP(A20,pc_data!A:C,3,FALSE)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C20" s="4">
         <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F20,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5466,40 +5471,40 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="K20" s="4">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L20" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N20" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T20" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U20" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V20" s="4">
         <v>0</v>
@@ -5511,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="4">
         <v>5</v>
@@ -5524,15 +5529,15 @@
       <c r="A21" s="4">
         <v>100003</v>
       </c>
-      <c r="B21" s="4" t="str">
-        <f>VLOOKUP(A21,pc_data!A:B,2,)</f>
-        <v>character_name_0003</v>
+      <c r="B21" s="11" t="str">
+        <f>VLOOKUP(A21,pc_data!A:C,3,FALSE)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F21,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5551,40 +5556,40 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="K21" s="4">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L21" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V21" s="4">
         <v>0</v>
@@ -5596,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="4">
         <v>5</v>
@@ -5609,15 +5614,15 @@
       <c r="A22" s="4">
         <v>100003</v>
       </c>
-      <c r="B22" s="4" t="str">
-        <f>VLOOKUP(A22,pc_data!A:B,2,)</f>
-        <v>character_name_0003</v>
+      <c r="B22" s="11" t="str">
+        <f>VLOOKUP(A22,pc_data!A:C,3,FALSE)</f>
+        <v>바이올렛</v>
       </c>
       <c r="C22" s="4">
         <v>6</v>
       </c>
       <c r="D22" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F22,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -5636,40 +5641,40 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>500</v>
+        <v>709</v>
       </c>
       <c r="K22" s="4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L22" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N22" s="4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="O22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T22" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U22" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V22" s="4">
         <v>0</v>
@@ -5681,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="4">
         <v>5</v>
@@ -5694,9 +5699,9 @@
       <c r="A23" s="12">
         <v>100004</v>
       </c>
-      <c r="B23" s="4" t="str">
-        <f>VLOOKUP(A23,pc_data!A:B,2,)</f>
-        <v>character_name_0004</v>
+      <c r="B23" s="11" t="str">
+        <f>VLOOKUP(A23,pc_data!A:C,3,FALSE)</f>
+        <v>데이지</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -5721,19 +5726,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="12">
-        <v>777</v>
+        <v>547</v>
       </c>
       <c r="K23" s="12">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
       </c>
       <c r="M23" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N23" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O23" s="12">
         <v>0</v>
@@ -5748,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T23" s="12">
         <v>0</v>
@@ -5766,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="12">
         <v>5</v>
@@ -5779,9 +5784,9 @@
       <c r="A24" s="12">
         <v>100004</v>
       </c>
-      <c r="B24" s="4" t="str">
-        <f>VLOOKUP(A24,pc_data!A:B,2,)</f>
-        <v>character_name_0004</v>
+      <c r="B24" s="11" t="str">
+        <f>VLOOKUP(A24,pc_data!A:C,3,FALSE)</f>
+        <v>데이지</v>
       </c>
       <c r="C24" s="12">
         <v>2</v>
@@ -5806,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="J24" s="12">
-        <v>777</v>
+        <v>574</v>
       </c>
       <c r="K24" s="12">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
       </c>
       <c r="M24" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N24" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O24" s="12">
         <v>0</v>
@@ -5833,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T24" s="12">
         <v>0</v>
@@ -5851,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="12">
         <v>5</v>
@@ -5864,9 +5869,9 @@
       <c r="A25" s="12">
         <v>100004</v>
       </c>
-      <c r="B25" s="4" t="str">
-        <f>VLOOKUP(A25,pc_data!A:B,2,)</f>
-        <v>character_name_0004</v>
+      <c r="B25" s="11" t="str">
+        <f>VLOOKUP(A25,pc_data!A:C,3,FALSE)</f>
+        <v>데이지</v>
       </c>
       <c r="C25" s="12">
         <v>3</v>
@@ -5891,19 +5896,19 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>777</v>
+        <v>603</v>
       </c>
       <c r="K25" s="12">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="L25" s="12">
         <v>0</v>
       </c>
       <c r="M25" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N25" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O25" s="12">
         <v>0</v>
@@ -5918,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T25" s="12">
         <v>0</v>
@@ -5936,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="12">
         <v>5</v>
@@ -5949,9 +5954,9 @@
       <c r="A26" s="12">
         <v>100004</v>
       </c>
-      <c r="B26" s="4" t="str">
-        <f>VLOOKUP(A26,pc_data!A:B,2,)</f>
-        <v>character_name_0004</v>
+      <c r="B26" s="11" t="str">
+        <f>VLOOKUP(A26,pc_data!A:C,3,FALSE)</f>
+        <v>데이지</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -5976,40 +5981,40 @@
         <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>500</v>
+        <v>633</v>
       </c>
       <c r="K26" s="12">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L26" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M26" s="12">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N26" s="12">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T26" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26" s="12">
         <v>0</v>
@@ -6021,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="12">
         <v>5</v>
@@ -6034,9 +6039,9 @@
       <c r="A27" s="12">
         <v>100004</v>
       </c>
-      <c r="B27" s="4" t="str">
-        <f>VLOOKUP(A27,pc_data!A:B,2,)</f>
-        <v>character_name_0004</v>
+      <c r="B27" s="11" t="str">
+        <f>VLOOKUP(A27,pc_data!A:C,3,FALSE)</f>
+        <v>데이지</v>
       </c>
       <c r="C27" s="12">
         <v>5</v>
@@ -6061,40 +6066,40 @@
         <v>0</v>
       </c>
       <c r="J27" s="12">
-        <v>500</v>
+        <v>664</v>
       </c>
       <c r="K27" s="12">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L27" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M27" s="12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N27" s="12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T27" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U27" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V27" s="12">
         <v>0</v>
@@ -6106,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="12">
         <v>5</v>
@@ -6119,9 +6124,9 @@
       <c r="A28" s="12">
         <v>100004</v>
       </c>
-      <c r="B28" s="4" t="str">
-        <f>VLOOKUP(A28,pc_data!A:B,2,)</f>
-        <v>character_name_0004</v>
+      <c r="B28" s="11" t="str">
+        <f>VLOOKUP(A28,pc_data!A:C,3,FALSE)</f>
+        <v>데이지</v>
       </c>
       <c r="C28" s="12">
         <v>6</v>
@@ -6146,40 +6151,40 @@
         <v>0</v>
       </c>
       <c r="J28" s="12">
-        <v>500</v>
+        <v>698</v>
       </c>
       <c r="K28" s="12">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L28" s="12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M28" s="12">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N28" s="12">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="O28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T28" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U28" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V28" s="12">
         <v>0</v>
@@ -6191,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="12">
         <v>5</v>
@@ -6204,15 +6209,15 @@
       <c r="A29" s="4">
         <v>100005</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f>VLOOKUP(A29,pc_data!A:B,2,)</f>
-        <v>character_name_0005</v>
+      <c r="B29" s="11" t="str">
+        <f>VLOOKUP(A29,pc_data!A:C,3,FALSE)</f>
+        <v>클레어</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6231,10 +6236,10 @@
         <v>100504</v>
       </c>
       <c r="J29" s="4">
-        <v>441</v>
+        <v>576</v>
       </c>
       <c r="K29" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -6243,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
@@ -6267,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W29" s="4">
         <v>0</v>
@@ -6289,15 +6294,15 @@
       <c r="A30" s="4">
         <v>100005</v>
       </c>
-      <c r="B30" s="4" t="str">
-        <f>VLOOKUP(A30,pc_data!A:B,2,)</f>
-        <v>character_name_0005</v>
+      <c r="B30" s="11" t="str">
+        <f>VLOOKUP(A30,pc_data!A:C,3,FALSE)</f>
+        <v>클레어</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="4">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F30,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6316,10 +6321,10 @@
         <v>100504</v>
       </c>
       <c r="J30" s="4">
-        <v>441</v>
+        <v>604</v>
       </c>
       <c r="K30" s="4">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -6328,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="4">
         <v>0</v>
@@ -6352,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W30" s="4">
         <v>0</v>
@@ -6374,15 +6379,15 @@
       <c r="A31" s="4">
         <v>100005</v>
       </c>
-      <c r="B31" s="4" t="str">
-        <f>VLOOKUP(A31,pc_data!A:B,2,)</f>
-        <v>character_name_0005</v>
+      <c r="B31" s="11" t="str">
+        <f>VLOOKUP(A31,pc_data!A:C,3,FALSE)</f>
+        <v>클레어</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F31,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6401,10 +6406,10 @@
         <v>100504</v>
       </c>
       <c r="J31" s="4">
-        <v>441</v>
+        <v>635</v>
       </c>
       <c r="K31" s="4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
@@ -6413,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="4">
         <v>0</v>
@@ -6437,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W31" s="4">
         <v>0</v>
@@ -6459,15 +6464,15 @@
       <c r="A32" s="4">
         <v>100005</v>
       </c>
-      <c r="B32" s="4" t="str">
-        <f>VLOOKUP(A32,pc_data!A:B,2,)</f>
-        <v>character_name_0005</v>
+      <c r="B32" s="11" t="str">
+        <f>VLOOKUP(A32,pc_data!A:C,3,FALSE)</f>
+        <v>클레어</v>
       </c>
       <c r="C32" s="4">
         <v>4</v>
       </c>
       <c r="D32" s="4">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F32,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6486,43 +6491,43 @@
         <v>100504</v>
       </c>
       <c r="J32" s="4">
-        <v>500</v>
+        <v>666</v>
       </c>
       <c r="K32" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L32" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N32" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T32" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U32" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V32" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W32" s="4">
         <v>0</v>
@@ -6531,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="4">
         <v>5</v>
@@ -6544,15 +6549,15 @@
       <c r="A33" s="4">
         <v>100005</v>
       </c>
-      <c r="B33" s="4" t="str">
-        <f>VLOOKUP(A33,pc_data!A:B,2,)</f>
-        <v>character_name_0005</v>
+      <c r="B33" s="11" t="str">
+        <f>VLOOKUP(A33,pc_data!A:C,3,FALSE)</f>
+        <v>클레어</v>
       </c>
       <c r="C33" s="4">
         <v>5</v>
       </c>
       <c r="D33" s="4">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F33,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6571,43 +6576,43 @@
         <v>100504</v>
       </c>
       <c r="J33" s="4">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K33" s="4">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L33" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N33" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T33" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U33" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V33" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W33" s="4">
         <v>0</v>
@@ -6616,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="4">
         <v>5</v>
@@ -6629,15 +6634,15 @@
       <c r="A34" s="4">
         <v>100005</v>
       </c>
-      <c r="B34" s="4" t="str">
-        <f>VLOOKUP(A34,pc_data!A:B,2,)</f>
-        <v>character_name_0005</v>
+      <c r="B34" s="11" t="str">
+        <f>VLOOKUP(A34,pc_data!A:C,3,FALSE)</f>
+        <v>클레어</v>
       </c>
       <c r="C34" s="4">
         <v>6</v>
       </c>
       <c r="D34" s="4">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="E34" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F34,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6656,43 +6661,43 @@
         <v>100504</v>
       </c>
       <c r="J34" s="4">
-        <v>500</v>
+        <v>735</v>
       </c>
       <c r="K34" s="4">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L34" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="N34" s="4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="O34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T34" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U34" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V34" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W34" s="4">
         <v>0</v>
@@ -6701,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="4">
         <v>5</v>
@@ -6714,15 +6719,15 @@
       <c r="A35" s="12">
         <v>100006</v>
       </c>
-      <c r="B35" s="4" t="str">
-        <f>VLOOKUP(A35,pc_data!A:B,2,)</f>
-        <v>character_name_0006</v>
+      <c r="B35" s="11" t="str">
+        <f>VLOOKUP(A35,pc_data!A:C,3,FALSE)</f>
+        <v>에일린</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
       </c>
       <c r="D35" s="12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E35" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F35,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6741,19 +6746,19 @@
         <v>0</v>
       </c>
       <c r="J35" s="12">
-        <v>777</v>
+        <v>574</v>
       </c>
       <c r="K35" s="12">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="L35" s="12">
         <v>0</v>
       </c>
       <c r="M35" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N35" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O35" s="12">
         <v>0</v>
@@ -6768,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T35" s="12">
         <v>0</v>
@@ -6777,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W35" s="12">
         <v>0</v>
@@ -6786,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="12">
         <v>5</v>
@@ -6799,15 +6804,15 @@
       <c r="A36" s="12">
         <v>100006</v>
       </c>
-      <c r="B36" s="4" t="str">
-        <f>VLOOKUP(A36,pc_data!A:B,2,)</f>
-        <v>character_name_0006</v>
+      <c r="B36" s="11" t="str">
+        <f>VLOOKUP(A36,pc_data!A:C,3,FALSE)</f>
+        <v>에일린</v>
       </c>
       <c r="C36" s="12">
         <v>2</v>
       </c>
       <c r="D36" s="12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F36,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6826,19 +6831,19 @@
         <v>0</v>
       </c>
       <c r="J36" s="12">
-        <v>777</v>
+        <v>602</v>
       </c>
       <c r="K36" s="12">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="L36" s="12">
         <v>0</v>
       </c>
       <c r="M36" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N36" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O36" s="12">
         <v>0</v>
@@ -6853,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T36" s="12">
         <v>0</v>
@@ -6862,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W36" s="12">
         <v>0</v>
@@ -6871,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="12">
         <v>5</v>
@@ -6884,15 +6889,15 @@
       <c r="A37" s="12">
         <v>100006</v>
       </c>
-      <c r="B37" s="4" t="str">
-        <f>VLOOKUP(A37,pc_data!A:B,2,)</f>
-        <v>character_name_0006</v>
+      <c r="B37" s="11" t="str">
+        <f>VLOOKUP(A37,pc_data!A:C,3,FALSE)</f>
+        <v>에일린</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
       </c>
       <c r="D37" s="12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F37,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6911,19 +6916,19 @@
         <v>0</v>
       </c>
       <c r="J37" s="12">
-        <v>777</v>
+        <v>632</v>
       </c>
       <c r="K37" s="12">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="L37" s="12">
         <v>0</v>
       </c>
       <c r="M37" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N37" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O37" s="12">
         <v>0</v>
@@ -6938,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T37" s="12">
         <v>0</v>
@@ -6947,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W37" s="12">
         <v>0</v>
@@ -6956,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="12">
         <v>5</v>
@@ -6969,15 +6974,15 @@
       <c r="A38" s="12">
         <v>100006</v>
       </c>
-      <c r="B38" s="4" t="str">
-        <f>VLOOKUP(A38,pc_data!A:B,2,)</f>
-        <v>character_name_0006</v>
+      <c r="B38" s="11" t="str">
+        <f>VLOOKUP(A38,pc_data!A:C,3,FALSE)</f>
+        <v>에일린</v>
       </c>
       <c r="C38" s="12">
         <v>4</v>
       </c>
       <c r="D38" s="12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E38" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F38,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6996,43 +7001,43 @@
         <v>0</v>
       </c>
       <c r="J38" s="12">
-        <v>500</v>
+        <v>664</v>
       </c>
       <c r="K38" s="12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L38" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M38" s="12">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N38" s="12">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="O38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T38" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U38" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V38" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W38" s="12">
         <v>0</v>
@@ -7041,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="12">
         <v>5</v>
@@ -7054,15 +7059,15 @@
       <c r="A39" s="12">
         <v>100006</v>
       </c>
-      <c r="B39" s="4" t="str">
-        <f>VLOOKUP(A39,pc_data!A:B,2,)</f>
-        <v>character_name_0006</v>
+      <c r="B39" s="11" t="str">
+        <f>VLOOKUP(A39,pc_data!A:C,3,FALSE)</f>
+        <v>에일린</v>
       </c>
       <c r="C39" s="12">
         <v>5</v>
       </c>
       <c r="D39" s="12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E39" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F39,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7081,43 +7086,43 @@
         <v>0</v>
       </c>
       <c r="J39" s="12">
-        <v>500</v>
+        <v>697</v>
       </c>
       <c r="K39" s="12">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L39" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M39" s="12">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N39" s="12">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T39" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U39" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V39" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W39" s="12">
         <v>0</v>
@@ -7126,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="12">
         <v>5</v>
@@ -7139,15 +7144,15 @@
       <c r="A40" s="12">
         <v>100006</v>
       </c>
-      <c r="B40" s="4" t="str">
-        <f>VLOOKUP(A40,pc_data!A:B,2,)</f>
-        <v>character_name_0006</v>
+      <c r="B40" s="11" t="str">
+        <f>VLOOKUP(A40,pc_data!A:C,3,FALSE)</f>
+        <v>에일린</v>
       </c>
       <c r="C40" s="12">
         <v>6</v>
       </c>
       <c r="D40" s="12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E40" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F40,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7166,43 +7171,43 @@
         <v>0</v>
       </c>
       <c r="J40" s="12">
-        <v>500</v>
+        <v>732</v>
       </c>
       <c r="K40" s="12">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L40" s="12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M40" s="12">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="N40" s="12">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="O40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T40" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U40" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V40" s="12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W40" s="12">
         <v>0</v>
@@ -7211,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="12">
         <v>5</v>
@@ -7224,15 +7229,15 @@
       <c r="A41" s="4">
         <v>100007</v>
       </c>
-      <c r="B41" s="4" t="str">
-        <f>VLOOKUP(A41,pc_data!A:B,2,)</f>
-        <v>character_name_0007</v>
+      <c r="B41" s="11" t="str">
+        <f>VLOOKUP(A41,pc_data!A:C,3,FALSE)</f>
+        <v>마네</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
       <c r="D41" s="4">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="E41" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7251,28 +7256,28 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="K41" s="4">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="L41" s="4">
         <v>0</v>
       </c>
       <c r="M41" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P41" s="4">
         <v>0</v>
       </c>
       <c r="Q41" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4">
         <v>0</v>
@@ -7309,15 +7314,15 @@
       <c r="A42" s="4">
         <v>100007</v>
       </c>
-      <c r="B42" s="4" t="str">
-        <f>VLOOKUP(A42,pc_data!A:B,2,)</f>
-        <v>character_name_0007</v>
+      <c r="B42" s="11" t="str">
+        <f>VLOOKUP(A42,pc_data!A:C,3,FALSE)</f>
+        <v>마네</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7336,28 +7341,28 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K42" s="4">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="L42" s="4">
         <v>0</v>
       </c>
       <c r="M42" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P42" s="4">
         <v>0</v>
       </c>
       <c r="Q42" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4">
         <v>0</v>
@@ -7394,15 +7399,15 @@
       <c r="A43" s="4">
         <v>100007</v>
       </c>
-      <c r="B43" s="4" t="str">
-        <f>VLOOKUP(A43,pc_data!A:B,2,)</f>
-        <v>character_name_0007</v>
+      <c r="B43" s="11" t="str">
+        <f>VLOOKUP(A43,pc_data!A:C,3,FALSE)</f>
+        <v>마네</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
       </c>
       <c r="D43" s="4">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="E43" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7421,28 +7426,28 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="K43" s="4">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="L43" s="4">
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P43" s="4">
         <v>0</v>
       </c>
       <c r="Q43" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R43" s="4">
         <v>0</v>
@@ -7479,15 +7484,15 @@
       <c r="A44" s="4">
         <v>100007</v>
       </c>
-      <c r="B44" s="4" t="str">
-        <f>VLOOKUP(A44,pc_data!A:B,2,)</f>
-        <v>character_name_0007</v>
+      <c r="B44" s="11" t="str">
+        <f>VLOOKUP(A44,pc_data!A:C,3,FALSE)</f>
+        <v>마네</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
       </c>
       <c r="D44" s="4">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="E44" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7506,40 +7511,40 @@
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="K44" s="4">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L44" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M44" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N44" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T44" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U44" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V44" s="4">
         <v>0</v>
@@ -7551,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="4">
         <v>5</v>
@@ -7564,15 +7569,15 @@
       <c r="A45" s="4">
         <v>100007</v>
       </c>
-      <c r="B45" s="4" t="str">
-        <f>VLOOKUP(A45,pc_data!A:B,2,)</f>
-        <v>character_name_0007</v>
+      <c r="B45" s="11" t="str">
+        <f>VLOOKUP(A45,pc_data!A:C,3,FALSE)</f>
+        <v>마네</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
       </c>
       <c r="D45" s="4">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="E45" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7591,40 +7596,40 @@
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <v>500</v>
+        <v>670</v>
       </c>
       <c r="K45" s="4">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L45" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M45" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N45" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T45" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U45" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V45" s="4">
         <v>0</v>
@@ -7636,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="4">
         <v>5</v>
@@ -7649,15 +7654,15 @@
       <c r="A46" s="4">
         <v>100007</v>
       </c>
-      <c r="B46" s="4" t="str">
-        <f>VLOOKUP(A46,pc_data!A:B,2,)</f>
-        <v>character_name_0007</v>
+      <c r="B46" s="11" t="str">
+        <f>VLOOKUP(A46,pc_data!A:C,3,FALSE)</f>
+        <v>마네</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
       </c>
       <c r="D46" s="4">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="E46" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7676,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>500</v>
+        <v>704</v>
       </c>
       <c r="K46" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L46" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N46" s="4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T46" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U46" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V46" s="4">
         <v>0</v>
@@ -7721,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="4">
         <v>5</v>
@@ -7734,15 +7739,15 @@
       <c r="A47" s="12">
         <v>100008</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f>VLOOKUP(A47,pc_data!A:B,2,)</f>
-        <v>character_name_0008</v>
+      <c r="B47" s="11" t="str">
+        <f>VLOOKUP(A47,pc_data!A:C,3,FALSE)</f>
+        <v>츠키</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
       </c>
       <c r="D47" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F47,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7761,34 +7766,34 @@
         <v>0</v>
       </c>
       <c r="J47" s="12">
-        <v>652</v>
+        <v>512</v>
       </c>
       <c r="K47" s="12">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="L47" s="12">
         <v>0</v>
       </c>
       <c r="M47" s="12">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12">
+        <v>2</v>
+      </c>
+      <c r="O47" s="12">
+        <v>10</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
         <v>5</v>
-      </c>
-      <c r="N47" s="12">
-        <v>3</v>
-      </c>
-      <c r="O47" s="12">
-        <v>15</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>75</v>
-      </c>
-      <c r="R47" s="12">
-        <v>0</v>
-      </c>
-      <c r="S47" s="12">
-        <v>0</v>
       </c>
       <c r="T47" s="12">
         <v>0</v>
@@ -7819,15 +7824,15 @@
       <c r="A48" s="12">
         <v>100008</v>
       </c>
-      <c r="B48" s="4" t="str">
-        <f>VLOOKUP(A48,pc_data!A:B,2,)</f>
-        <v>character_name_0008</v>
+      <c r="B48" s="11" t="str">
+        <f>VLOOKUP(A48,pc_data!A:C,3,FALSE)</f>
+        <v>츠키</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
       </c>
       <c r="D48" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E48" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F48,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7846,34 +7851,34 @@
         <v>0</v>
       </c>
       <c r="J48" s="12">
-        <v>652</v>
+        <v>537</v>
       </c>
       <c r="K48" s="12">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="L48" s="12">
         <v>0</v>
       </c>
       <c r="M48" s="12">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12">
+        <v>2</v>
+      </c>
+      <c r="O48" s="12">
+        <v>10</v>
+      </c>
+      <c r="P48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
         <v>5</v>
-      </c>
-      <c r="N48" s="12">
-        <v>3</v>
-      </c>
-      <c r="O48" s="12">
-        <v>15</v>
-      </c>
-      <c r="P48" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>75</v>
-      </c>
-      <c r="R48" s="12">
-        <v>0</v>
-      </c>
-      <c r="S48" s="12">
-        <v>0</v>
       </c>
       <c r="T48" s="12">
         <v>0</v>
@@ -7904,15 +7909,15 @@
       <c r="A49" s="12">
         <v>100008</v>
       </c>
-      <c r="B49" s="4" t="str">
-        <f>VLOOKUP(A49,pc_data!A:B,2,)</f>
-        <v>character_name_0008</v>
+      <c r="B49" s="11" t="str">
+        <f>VLOOKUP(A49,pc_data!A:C,3,FALSE)</f>
+        <v>츠키</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
       </c>
       <c r="D49" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F49,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -7931,34 +7936,34 @@
         <v>0</v>
       </c>
       <c r="J49" s="12">
-        <v>652</v>
+        <v>564</v>
       </c>
       <c r="K49" s="12">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="L49" s="12">
         <v>0</v>
       </c>
       <c r="M49" s="12">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12">
+        <v>2</v>
+      </c>
+      <c r="O49" s="12">
+        <v>11</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12">
+        <v>0</v>
+      </c>
+      <c r="S49" s="12">
         <v>5</v>
-      </c>
-      <c r="N49" s="12">
-        <v>3</v>
-      </c>
-      <c r="O49" s="12">
-        <v>15</v>
-      </c>
-      <c r="P49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>75</v>
-      </c>
-      <c r="R49" s="12">
-        <v>0</v>
-      </c>
-      <c r="S49" s="12">
-        <v>0</v>
       </c>
       <c r="T49" s="12">
         <v>0</v>
@@ -7989,15 +7994,15 @@
       <c r="A50" s="12">
         <v>100008</v>
       </c>
-      <c r="B50" s="4" t="str">
-        <f>VLOOKUP(A50,pc_data!A:B,2,)</f>
-        <v>character_name_0008</v>
+      <c r="B50" s="11" t="str">
+        <f>VLOOKUP(A50,pc_data!A:C,3,FALSE)</f>
+        <v>츠키</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
       </c>
       <c r="D50" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F50,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8016,40 +8021,40 @@
         <v>0</v>
       </c>
       <c r="J50" s="12">
-        <v>500</v>
+        <v>592</v>
       </c>
       <c r="K50" s="12">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L50" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M50" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N50" s="12">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O50" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P50" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="12">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="T50" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U50" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V50" s="12">
         <v>0</v>
@@ -8061,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="12">
         <v>5</v>
@@ -8074,15 +8079,15 @@
       <c r="A51" s="12">
         <v>100008</v>
       </c>
-      <c r="B51" s="4" t="str">
-        <f>VLOOKUP(A51,pc_data!A:B,2,)</f>
-        <v>character_name_0008</v>
+      <c r="B51" s="11" t="str">
+        <f>VLOOKUP(A51,pc_data!A:C,3,FALSE)</f>
+        <v>츠키</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
       </c>
       <c r="D51" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F51,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8101,40 +8106,40 @@
         <v>0</v>
       </c>
       <c r="J51" s="12">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="K51" s="12">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L51" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M51" s="12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N51" s="12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O51" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="12">
-        <v>0.01</v>
+        <v>6</v>
       </c>
       <c r="T51" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U51" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V51" s="12">
         <v>0</v>
@@ -8146,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="12">
         <v>5</v>
@@ -8159,15 +8164,15 @@
       <c r="A52" s="12">
         <v>100008</v>
       </c>
-      <c r="B52" s="4" t="str">
-        <f>VLOOKUP(A52,pc_data!A:B,2,)</f>
-        <v>character_name_0008</v>
+      <c r="B52" s="11" t="str">
+        <f>VLOOKUP(A52,pc_data!A:C,3,FALSE)</f>
+        <v>츠키</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
       </c>
       <c r="D52" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F52,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8186,40 +8191,40 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <v>500</v>
+        <v>653</v>
       </c>
       <c r="K52" s="12">
         <v>70</v>
       </c>
       <c r="L52" s="12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M52" s="12">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N52" s="12">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="O52" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="12">
-        <v>0.01</v>
+        <v>6</v>
       </c>
       <c r="T52" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U52" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V52" s="12">
         <v>0</v>
@@ -8231,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="12">
         <v>5</v>
@@ -8244,15 +8249,15 @@
       <c r="A53" s="4">
         <v>100009</v>
       </c>
-      <c r="B53" s="4" t="str">
-        <f>VLOOKUP(A53,pc_data!A:B,2,)</f>
-        <v>character_name_0009</v>
+      <c r="B53" s="11" t="str">
+        <f>VLOOKUP(A53,pc_data!A:C,3,FALSE)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
       <c r="D53" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F53,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8271,19 +8276,19 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="K53" s="4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M53" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N53" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O53" s="4">
         <v>0</v>
@@ -8292,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R53" s="4">
         <v>0</v>
@@ -8304,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V53" s="4">
         <v>0</v>
@@ -8329,15 +8334,15 @@
       <c r="A54" s="4">
         <v>100009</v>
       </c>
-      <c r="B54" s="4" t="str">
-        <f>VLOOKUP(A54,pc_data!A:B,2,)</f>
-        <v>character_name_0009</v>
+      <c r="B54" s="11" t="str">
+        <f>VLOOKUP(A54,pc_data!A:C,3,FALSE)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F54,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8356,19 +8361,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="K54" s="4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M54" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N54" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
@@ -8377,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R54" s="4">
         <v>0</v>
@@ -8389,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V54" s="4">
         <v>0</v>
@@ -8414,15 +8419,15 @@
       <c r="A55" s="4">
         <v>100009</v>
       </c>
-      <c r="B55" s="4" t="str">
-        <f>VLOOKUP(A55,pc_data!A:B,2,)</f>
-        <v>character_name_0009</v>
+      <c r="B55" s="11" t="str">
+        <f>VLOOKUP(A55,pc_data!A:C,3,FALSE)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F55,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8441,19 +8446,19 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>470</v>
+        <v>589</v>
       </c>
       <c r="K55" s="4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M55" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N55" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O55" s="4">
         <v>0</v>
@@ -8462,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4">
         <v>0</v>
@@ -8474,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V55" s="4">
         <v>0</v>
@@ -8499,15 +8504,15 @@
       <c r="A56" s="4">
         <v>100009</v>
       </c>
-      <c r="B56" s="4" t="str">
-        <f>VLOOKUP(A56,pc_data!A:B,2,)</f>
-        <v>character_name_0009</v>
+      <c r="B56" s="11" t="str">
+        <f>VLOOKUP(A56,pc_data!A:C,3,FALSE)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
       </c>
       <c r="D56" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E56" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F56,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8526,40 +8531,40 @@
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <v>500</v>
+        <v>619</v>
       </c>
       <c r="K56" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M56" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N56" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T56" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U56" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V56" s="4">
         <v>0</v>
@@ -8571,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="4">
         <v>5</v>
@@ -8584,15 +8589,15 @@
       <c r="A57" s="4">
         <v>100009</v>
       </c>
-      <c r="B57" s="4" t="str">
-        <f>VLOOKUP(A57,pc_data!A:B,2,)</f>
-        <v>character_name_0009</v>
+      <c r="B57" s="11" t="str">
+        <f>VLOOKUP(A57,pc_data!A:C,3,FALSE)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C57" s="4">
         <v>5</v>
       </c>
       <c r="D57" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F57,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8611,40 +8616,40 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K57" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M57" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N57" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T57" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U57" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V57" s="4">
         <v>0</v>
@@ -8656,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="4">
         <v>5</v>
@@ -8669,15 +8674,15 @@
       <c r="A58" s="4">
         <v>100009</v>
       </c>
-      <c r="B58" s="4" t="str">
-        <f>VLOOKUP(A58,pc_data!A:B,2,)</f>
-        <v>character_name_0009</v>
+      <c r="B58" s="11" t="str">
+        <f>VLOOKUP(A58,pc_data!A:C,3,FALSE)</f>
+        <v>엘리자베스</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
       </c>
       <c r="D58" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F58,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -8696,40 +8701,40 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>500</v>
+        <v>682</v>
       </c>
       <c r="K58" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M58" s="4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N58" s="4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="O58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T58" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U58" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V58" s="4">
         <v>0</v>
@@ -8741,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="4">
         <v>5</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9815E48-817E-4B80-8917-737174F4BD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728C58B-53D5-4CDB-98F3-EC9447019931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39135" yWindow="1230" windowWidth="38565" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39150" yWindow="1905" windowWidth="37215" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="237">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,22 +977,6 @@
     <t>요력</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Grey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1186,6 +1170,44 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Electric</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Veritarium</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Charm</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Mana</t>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>system_attribute_electric</t>
+  </si>
+  <si>
+    <t>system_attribute_veritarium</t>
+  </si>
+  <si>
+    <t>system_attribute_charm</t>
+  </si>
+  <si>
+    <t>system_attribute_mana</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1282,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,6 +1337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1358,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1436,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1853,7 +1887,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>VITALITY</v>
+            <v>CHARM</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -1864,7 +1898,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MAGIC</v>
+            <v>MANA</v>
           </cell>
           <cell r="B8">
             <v>4</v>
@@ -2659,7 +2693,7 @@
       </c>
       <c r="Q6" s="4" t="str">
         <f>'[1]@attribute_type'!$A7</f>
-        <v>VITALITY</v>
+        <v>CHARM</v>
       </c>
       <c r="R6" s="4">
         <f>'[1]@attribute_type'!$B7</f>
@@ -2709,7 +2743,7 @@
       </c>
       <c r="Q7" s="4" t="str">
         <f>'[1]@attribute_type'!$A8</f>
-        <v>MAGIC</v>
+        <v>MANA</v>
       </c>
       <c r="R7" s="4">
         <f>'[1]@attribute_type'!$B8</f>
@@ -2756,13 +2790,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2790,13 +2824,13 @@
     <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2816,13 +2850,13 @@
         <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>161</v>
@@ -2863,8 +2897,11 @@
       <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -2890,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
@@ -2931,16 +2968,19 @@
       <c r="V3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>110</v>
@@ -2958,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
@@ -2985,10 +3025,10 @@
         <v>94</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>12</v>
@@ -2999,16 +3039,19 @@
       <c r="V4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3055,8 +3098,12 @@
       <c r="Q5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="R5" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T5" s="4" t="s">
         <v>100</v>
       </c>
@@ -3064,16 +3111,19 @@
       <c r="V5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3120,8 +3170,12 @@
       <c r="Q6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="R6" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T6" s="4" t="s">
         <v>101</v>
       </c>
@@ -3129,16 +3183,19 @@
       <c r="V6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -3185,25 +3242,32 @@
       <c r="Q7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="R7" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T7" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -3250,25 +3314,32 @@
       <c r="Q8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="R8" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T8" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -3313,27 +3384,34 @@
         <v>147</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T9" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -3380,25 +3458,32 @@
       <c r="Q10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="R10" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1010102</v>
+      </c>
       <c r="T10" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -3445,25 +3530,32 @@
       <c r="Q11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="R11" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T11" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -3510,25 +3602,32 @@
       <c r="Q12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="R12" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T12" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -3575,25 +3674,32 @@
       <c r="Q13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="R13" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T13" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -3640,25 +3746,32 @@
       <c r="Q14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="R14" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T14" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -3705,25 +3818,32 @@
       <c r="Q15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="R15" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T15" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -3770,25 +3890,32 @@
       <c r="Q16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="R16" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T16" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -3835,14 +3962,21 @@
       <c r="Q17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="R17" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1010051</v>
+      </c>
       <c r="T17" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -3881,10 +4015,10 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4111,34 +4245,34 @@
         <v>138</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>67</v>
@@ -4196,13 +4330,13 @@
         <v>100004</v>
       </c>
       <c r="J5" s="4">
-        <v>410</v>
+        <v>505</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -4232,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="4">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
@@ -4281,13 +4415,13 @@
         <v>100004</v>
       </c>
       <c r="J6" s="4">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
@@ -4317,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="W6" s="4">
         <v>0</v>
@@ -4366,13 +4500,13 @@
         <v>100004</v>
       </c>
       <c r="J7" s="4">
-        <v>452</v>
+        <v>556</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -4402,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="4">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
@@ -4451,13 +4585,13 @@
         <v>100004</v>
       </c>
       <c r="J8" s="4">
-        <v>474</v>
+        <v>584</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
@@ -4487,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="4">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="W8" s="4">
         <v>0</v>
@@ -4536,13 +4670,13 @@
         <v>100004</v>
       </c>
       <c r="J9" s="4">
-        <v>498</v>
+        <v>613</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -4572,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -4621,13 +4755,13 @@
         <v>100004</v>
       </c>
       <c r="J10" s="4">
-        <v>523</v>
+        <v>644</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M10" s="4">
         <v>1</v>
@@ -4657,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
@@ -4706,10 +4840,10 @@
         <v>100104</v>
       </c>
       <c r="J11" s="12">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="K11" s="12">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -4721,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P11" s="12">
         <v>0</v>
@@ -4791,10 +4925,10 @@
         <v>100104</v>
       </c>
       <c r="J12" s="12">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="K12" s="12">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -4806,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>
@@ -4876,10 +5010,10 @@
         <v>100104</v>
       </c>
       <c r="J13" s="12">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="K13" s="12">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -4891,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P13" s="12">
         <v>0</v>
@@ -4961,10 +5095,10 @@
         <v>100104</v>
       </c>
       <c r="J14" s="12">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="K14" s="12">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -4976,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P14" s="12">
         <v>0</v>
@@ -5046,10 +5180,10 @@
         <v>100104</v>
       </c>
       <c r="J15" s="12">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="K15" s="12">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
@@ -5061,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P15" s="12">
         <v>0</v>
@@ -5131,10 +5265,10 @@
         <v>100104</v>
       </c>
       <c r="J16" s="12">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="K16" s="12">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
@@ -5146,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P16" s="12">
         <v>0</v>
@@ -5216,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>556</v>
+        <v>760</v>
       </c>
       <c r="K17" s="4">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -5231,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
@@ -5301,10 +5435,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>583</v>
+        <v>798</v>
       </c>
       <c r="K18" s="4">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -5316,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P18" s="4">
         <v>0</v>
@@ -5386,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>612</v>
+        <v>837</v>
       </c>
       <c r="K19" s="4">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
@@ -5401,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P19" s="4">
         <v>0</v>
@@ -5471,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>643</v>
+        <v>879</v>
       </c>
       <c r="K20" s="4">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
@@ -5486,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -5556,10 +5690,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>675</v>
+        <v>923</v>
       </c>
       <c r="K21" s="4">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -5571,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -5641,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>709</v>
+        <v>969</v>
       </c>
       <c r="K22" s="4">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
@@ -5656,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -5726,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="12">
-        <v>547</v>
+        <v>748</v>
       </c>
       <c r="K23" s="12">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
@@ -5741,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P23" s="12">
         <v>0</v>
@@ -5811,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="12">
-        <v>574</v>
+        <v>785</v>
       </c>
       <c r="K24" s="12">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
@@ -5826,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P24" s="12">
         <v>0</v>
@@ -5896,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>603</v>
+        <v>824</v>
       </c>
       <c r="K25" s="12">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="L25" s="12">
         <v>0</v>
@@ -5911,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P25" s="12">
         <v>0</v>
@@ -5981,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>633</v>
+        <v>865</v>
       </c>
       <c r="K26" s="12">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
@@ -5996,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P26" s="12">
         <v>0</v>
@@ -6066,10 +6200,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="12">
-        <v>664</v>
+        <v>909</v>
       </c>
       <c r="K27" s="12">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L27" s="12">
         <v>0</v>
@@ -6081,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P27" s="12">
         <v>0</v>
@@ -6151,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="12">
-        <v>698</v>
+        <v>954</v>
       </c>
       <c r="K28" s="12">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
@@ -6166,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P28" s="12">
         <v>0</v>
@@ -6236,10 +6370,10 @@
         <v>100504</v>
       </c>
       <c r="J29" s="4">
-        <v>576</v>
+        <v>1076</v>
       </c>
       <c r="K29" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -6321,10 +6455,10 @@
         <v>100504</v>
       </c>
       <c r="J30" s="4">
-        <v>604</v>
+        <v>1129</v>
       </c>
       <c r="K30" s="4">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -6406,10 +6540,10 @@
         <v>100504</v>
       </c>
       <c r="J31" s="4">
-        <v>635</v>
+        <v>1186</v>
       </c>
       <c r="K31" s="4">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
@@ -6491,10 +6625,10 @@
         <v>100504</v>
       </c>
       <c r="J32" s="4">
-        <v>666</v>
+        <v>1245</v>
       </c>
       <c r="K32" s="4">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
@@ -6576,10 +6710,10 @@
         <v>100504</v>
       </c>
       <c r="J33" s="4">
-        <v>700</v>
+        <v>1307</v>
       </c>
       <c r="K33" s="4">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
@@ -6661,10 +6795,10 @@
         <v>100504</v>
       </c>
       <c r="J34" s="4">
-        <v>735</v>
+        <v>1373</v>
       </c>
       <c r="K34" s="4">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
@@ -6746,10 +6880,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="12">
-        <v>574</v>
+        <v>936</v>
       </c>
       <c r="K35" s="12">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L35" s="12">
         <v>0</v>
@@ -6782,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W35" s="12">
         <v>0</v>
@@ -6831,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="12">
-        <v>602</v>
+        <v>982</v>
       </c>
       <c r="K36" s="12">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L36" s="12">
         <v>0</v>
@@ -6867,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="W36" s="12">
         <v>0</v>
@@ -6916,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="12">
-        <v>632</v>
+        <v>1031</v>
       </c>
       <c r="K37" s="12">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="L37" s="12">
         <v>0</v>
@@ -6952,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="12">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="W37" s="12">
         <v>0</v>
@@ -7001,10 +7135,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="12">
-        <v>664</v>
+        <v>1083</v>
       </c>
       <c r="K38" s="12">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L38" s="12">
         <v>0</v>
@@ -7037,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="12">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="W38" s="12">
         <v>0</v>
@@ -7086,10 +7220,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="12">
-        <v>697</v>
+        <v>1137</v>
       </c>
       <c r="K39" s="12">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L39" s="12">
         <v>0</v>
@@ -7122,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="W39" s="12">
         <v>0</v>
@@ -7171,10 +7305,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="12">
-        <v>732</v>
+        <v>1194</v>
       </c>
       <c r="K40" s="12">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="L40" s="12">
         <v>0</v>
@@ -7207,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W40" s="12">
         <v>0</v>
@@ -7256,10 +7390,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>552</v>
+        <v>746</v>
       </c>
       <c r="K41" s="4">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="L41" s="4">
         <v>0</v>
@@ -7268,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="N41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="4">
         <v>0</v>
@@ -7341,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>579</v>
+        <v>783</v>
       </c>
       <c r="K42" s="4">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="L42" s="4">
         <v>0</v>
@@ -7353,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="N42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" s="4">
         <v>0</v>
@@ -7426,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>608</v>
+        <v>822</v>
       </c>
       <c r="K43" s="4">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="L43" s="4">
         <v>0</v>
@@ -7438,7 +7572,7 @@
         <v>2</v>
       </c>
       <c r="N43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="4">
         <v>0</v>
@@ -7511,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>639</v>
+        <v>863</v>
       </c>
       <c r="K44" s="4">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="L44" s="4">
         <v>0</v>
@@ -7523,7 +7657,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" s="4">
         <v>0</v>
@@ -7596,10 +7730,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <v>670</v>
+        <v>906</v>
       </c>
       <c r="K45" s="4">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="L45" s="4">
         <v>0</v>
@@ -7608,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="N45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" s="4">
         <v>0</v>
@@ -7681,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>704</v>
+        <v>952</v>
       </c>
       <c r="K46" s="4">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -7693,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="N46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" s="4">
         <v>0</v>
@@ -7766,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="12">
-        <v>512</v>
+        <v>756</v>
       </c>
       <c r="K47" s="12">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="L47" s="12">
         <v>0</v>
@@ -7793,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T47" s="12">
         <v>0</v>
@@ -7851,10 +7985,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="12">
-        <v>537</v>
+        <v>793</v>
       </c>
       <c r="K48" s="12">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="L48" s="12">
         <v>0</v>
@@ -7878,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T48" s="12">
         <v>0</v>
@@ -7936,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="12">
-        <v>564</v>
+        <v>833</v>
       </c>
       <c r="K49" s="12">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="L49" s="12">
         <v>0</v>
@@ -7963,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T49" s="12">
         <v>0</v>
@@ -8021,10 +8155,10 @@
         <v>0</v>
       </c>
       <c r="J50" s="12">
-        <v>592</v>
+        <v>875</v>
       </c>
       <c r="K50" s="12">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="L50" s="12">
         <v>0</v>
@@ -8048,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T50" s="12">
         <v>0</v>
@@ -8106,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="12">
-        <v>622</v>
+        <v>918</v>
       </c>
       <c r="K51" s="12">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="L51" s="12">
         <v>0</v>
@@ -8133,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T51" s="12">
         <v>0</v>
@@ -8191,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <v>653</v>
+        <v>964</v>
       </c>
       <c r="K52" s="12">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="L52" s="12">
         <v>0</v>
@@ -8218,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T52" s="12">
         <v>0</v>
@@ -8276,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M53" s="4">
         <v>1</v>
@@ -8361,13 +8495,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="M54" s="4">
         <v>1</v>
@@ -8446,13 +8580,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="K55" s="4">
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="M55" s="4">
         <v>1</v>
@@ -8531,13 +8665,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="M56" s="4">
         <v>1</v>
@@ -8616,13 +8750,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="M57" s="4">
         <v>1</v>
@@ -8701,13 +8835,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="M58" s="4">
         <v>1</v>
@@ -9047,103 +9181,125 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD8FF2-D3CB-4C40-B541-49873683EA73}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B5,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B6,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(B8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>167</v>
+      <c r="D8" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -9156,7 +9312,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B8</xm:sqref>
+          <xm:sqref>C5:C8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728C58B-53D5-4CDB-98F3-EC9447019931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6EFBF-1922-440E-A937-968FBE0C2FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39150" yWindow="1905" windowWidth="37215" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="555" yWindow="1710" windowWidth="37215" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="239">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,6 +1208,14 @@
   </si>
   <si>
     <t>system_attribute_mana</t>
+  </si>
+  <si>
+    <t>초기 오픈 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_open_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1500,9 +1508,6 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
-      <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1908,9 +1913,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2790,13 +2792,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2822,15 +2824,16 @@
     <col min="20" max="20" width="51.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2900,8 +2903,11 @@
       <c r="W2" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -2971,8 +2977,11 @@
       <c r="W3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3042,8 +3051,11 @@
       <c r="W4" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3114,8 +3126,11 @@
       <c r="W5" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -3186,8 +3201,11 @@
       <c r="W6" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -3258,8 +3276,11 @@
       <c r="W7" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -3330,8 +3351,11 @@
       <c r="W8" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -3402,8 +3426,11 @@
       <c r="W9" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3474,8 +3501,11 @@
       <c r="W10" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
@@ -3546,8 +3576,11 @@
       <c r="W11" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
@@ -3618,8 +3651,11 @@
       <c r="W12" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
@@ -3690,8 +3726,11 @@
       <c r="W13" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100011</v>
       </c>
@@ -3762,8 +3801,11 @@
       <c r="W14" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100012</v>
       </c>
@@ -3834,8 +3876,11 @@
       <c r="W15" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100013</v>
       </c>
@@ -3906,8 +3951,11 @@
       <c r="W16" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100014</v>
       </c>
@@ -3977,6 +4025,9 @@
       </c>
       <c r="W17" s="4">
         <v>0.35</v>
+      </c>
+      <c r="X17" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4015,10 +4066,10 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4415,13 +4466,13 @@
         <v>100004</v>
       </c>
       <c r="J6" s="4">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
@@ -4500,13 +4551,13 @@
         <v>100004</v>
       </c>
       <c r="J7" s="4">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -4536,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
@@ -4585,13 +4636,13 @@
         <v>100004</v>
       </c>
       <c r="J8" s="4">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
@@ -4621,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W8" s="4">
         <v>0</v>
@@ -4670,13 +4721,13 @@
         <v>100004</v>
       </c>
       <c r="J9" s="4">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -4706,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -4755,13 +4806,13 @@
         <v>100004</v>
       </c>
       <c r="J10" s="4">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M10" s="4">
         <v>1</v>
@@ -4791,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
@@ -4925,7 +4976,7 @@
         <v>100104</v>
       </c>
       <c r="J12" s="12">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K12" s="12">
         <v>133</v>
@@ -5013,7 +5064,7 @@
         <v>490</v>
       </c>
       <c r="K13" s="12">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -5095,10 +5146,10 @@
         <v>100104</v>
       </c>
       <c r="J14" s="12">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="K14" s="12">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -5180,10 +5231,10 @@
         <v>100104</v>
       </c>
       <c r="J15" s="12">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="K15" s="12">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
@@ -5265,10 +5316,10 @@
         <v>100104</v>
       </c>
       <c r="J16" s="12">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="K16" s="12">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
@@ -5435,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="K18" s="4">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -5520,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="K19" s="4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
@@ -5535,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4">
         <v>0</v>
@@ -5605,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="K20" s="4">
         <v>119</v>
@@ -5690,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K21" s="4">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -5705,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -5775,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>969</v>
+        <v>1016</v>
       </c>
       <c r="K22" s="4">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
@@ -5790,7 +5841,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -5945,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="12">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="K24" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
@@ -6030,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="K25" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="12">
         <v>0</v>
@@ -6115,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="K26" s="12">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
@@ -6130,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P26" s="12">
         <v>0</v>
@@ -6200,10 +6251,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="12">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="K27" s="12">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L27" s="12">
         <v>0</v>
@@ -6215,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P27" s="12">
         <v>0</v>
@@ -6285,10 +6336,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="12">
-        <v>954</v>
+        <v>999</v>
       </c>
       <c r="K28" s="12">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
@@ -6300,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P28" s="12">
         <v>0</v>
@@ -6361,7 +6412,7 @@
         <v>109</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -6446,7 +6497,7 @@
         <v>109</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -6458,7 +6509,7 @@
         <v>1129</v>
       </c>
       <c r="K30" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -6531,7 +6582,7 @@
         <v>109</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -6540,10 +6591,10 @@
         <v>100504</v>
       </c>
       <c r="J31" s="4">
-        <v>1186</v>
+        <v>1214</v>
       </c>
       <c r="K31" s="4">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
@@ -6616,7 +6667,7 @@
         <v>109</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -6625,10 +6676,10 @@
         <v>100504</v>
       </c>
       <c r="J32" s="4">
-        <v>1245</v>
+        <v>1335</v>
       </c>
       <c r="K32" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
@@ -6701,7 +6752,7 @@
         <v>109</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -6710,10 +6761,10 @@
         <v>100504</v>
       </c>
       <c r="J33" s="4">
-        <v>1307</v>
+        <v>1502</v>
       </c>
       <c r="K33" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
@@ -6746,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W33" s="4">
         <v>0</v>
@@ -6786,7 +6837,7 @@
         <v>109</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -6795,16 +6846,16 @@
         <v>100504</v>
       </c>
       <c r="J34" s="4">
-        <v>1373</v>
+        <v>1728</v>
       </c>
       <c r="K34" s="4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
       </c>
       <c r="M34" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" s="4">
         <v>2</v>
@@ -6831,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W34" s="4">
         <v>0</v>
@@ -6965,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="12">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="K36" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36" s="12">
         <v>0</v>
@@ -7053,7 +7104,7 @@
         <v>1031</v>
       </c>
       <c r="K37" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L37" s="12">
         <v>0</v>
@@ -7135,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="12">
-        <v>1083</v>
+        <v>1114</v>
       </c>
       <c r="K38" s="12">
         <v>65</v>
@@ -7171,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W38" s="12">
         <v>0</v>
@@ -7220,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="12">
-        <v>1137</v>
+        <v>1225</v>
       </c>
       <c r="K39" s="12">
         <v>69</v>
@@ -7256,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W39" s="12">
         <v>0</v>
@@ -7305,19 +7356,19 @@
         <v>0</v>
       </c>
       <c r="J40" s="12">
-        <v>1194</v>
+        <v>1372</v>
       </c>
       <c r="K40" s="12">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L40" s="12">
         <v>0</v>
       </c>
       <c r="M40" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O40" s="12">
         <v>0</v>
@@ -7341,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="W40" s="12">
         <v>0</v>
@@ -7390,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="K41" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L41" s="4">
         <v>0</v>
@@ -7423,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V41" s="4">
         <v>0</v>
@@ -7475,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>783</v>
+        <v>730</v>
       </c>
       <c r="K42" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L42" s="4">
         <v>0</v>
@@ -7508,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V42" s="4">
         <v>0</v>
@@ -7560,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>822</v>
+        <v>767</v>
       </c>
       <c r="K43" s="4">
         <v>109</v>
@@ -7593,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V43" s="4">
         <v>0</v>
@@ -7645,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="K44" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L44" s="4">
         <v>0</v>
@@ -7678,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V44" s="4">
         <v>0</v>
@@ -7730,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="K45" s="4">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L45" s="4">
         <v>0</v>
@@ -7763,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V45" s="4">
         <v>0</v>
@@ -7815,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="K46" s="4">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -7848,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V46" s="4">
         <v>0</v>
@@ -7900,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="12">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="K47" s="12">
         <v>104</v>
@@ -7930,7 +7981,7 @@
         <v>11</v>
       </c>
       <c r="T47" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U47" s="12">
         <v>0</v>
@@ -7985,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="12">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="K48" s="12">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L48" s="12">
         <v>0</v>
@@ -8015,7 +8066,7 @@
         <v>11</v>
       </c>
       <c r="T48" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U48" s="12">
         <v>0</v>
@@ -8070,10 +8121,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="12">
-        <v>833</v>
+        <v>768</v>
       </c>
       <c r="K49" s="12">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L49" s="12">
         <v>0</v>
@@ -8085,7 +8136,7 @@
         <v>2</v>
       </c>
       <c r="O49" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P49" s="12">
         <v>0</v>
@@ -8100,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="T49" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U49" s="12">
         <v>0</v>
@@ -8155,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="12">
-        <v>875</v>
+        <v>820</v>
       </c>
       <c r="K50" s="12">
         <v>120</v>
@@ -8182,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="S50" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T50" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U50" s="12">
         <v>0</v>
@@ -8240,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="12">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="K51" s="12">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L51" s="12">
         <v>0</v>
@@ -8267,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="S51" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T51" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U51" s="12">
         <v>0</v>
@@ -8325,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <v>964</v>
+        <v>981</v>
       </c>
       <c r="K52" s="12">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L52" s="12">
         <v>0</v>
@@ -8340,7 +8391,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P52" s="12">
         <v>0</v>
@@ -8352,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T52" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U52" s="12">
         <v>0</v>
@@ -8410,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="M53" s="4">
         <v>1</v>
@@ -8437,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T53" s="4">
         <v>0</v>
@@ -8495,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="M54" s="4">
         <v>1</v>
@@ -8522,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T54" s="4">
         <v>0</v>
@@ -8580,13 +8631,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="K55" s="4">
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M55" s="4">
         <v>1</v>
@@ -8607,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T55" s="4">
         <v>0</v>
@@ -8665,13 +8716,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="M56" s="4">
         <v>1</v>
@@ -8692,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T56" s="4">
         <v>0</v>
@@ -8750,13 +8801,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="M57" s="4">
         <v>1</v>
@@ -8777,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T57" s="4">
         <v>0</v>
@@ -8835,13 +8886,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="M58" s="4">
         <v>1</v>
@@ -8862,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T58" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6EFBF-1922-440E-A937-968FBE0C2FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1392712F-3369-4450-A198-3D8709A9C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1710" windowWidth="37215" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-28176" yWindow="2280" windowWidth="27492" windowHeight="11820" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="240">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1157,64 +1157,69 @@
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100004</t>
   </si>
   <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Electric</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Veritarium</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Charm</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Mana</t>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>system_attribute_electric</t>
+  </si>
+  <si>
+    <t>system_attribute_veritarium</t>
+  </si>
+  <si>
+    <t>system_attribute_charm</t>
+  </si>
+  <si>
+    <t>system_attribute_mana</t>
+  </si>
+  <si>
+    <t>초기 오픈 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_open_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 안드로이드</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100007</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100008</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100009</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Electric</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Veritarium</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Charm</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/CharacterInfo/Icon_Power_Mana</t>
-  </si>
-  <si>
-    <t>크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>system_attribute_electric</t>
-  </si>
-  <si>
-    <t>system_attribute_veritarium</t>
-  </si>
-  <si>
-    <t>system_attribute_charm</t>
-  </si>
-  <si>
-    <t>system_attribute_mana</t>
-  </si>
-  <si>
-    <t>초기 오픈 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_open_check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,6 +1497,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1814,22 +1820,88 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1839,8 +1911,21 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
             <v>ATTRIBUTE_TYPE</v>
@@ -2246,39 +2331,39 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -2286,32 +2371,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2319,17 +2404,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2358,23 +2443,23 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -2396,7 +2481,7 @@
         <v>ATTRIBUTE_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -2458,7 +2543,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -2520,7 +2605,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -2582,7 +2667,7 @@
         <v>전기</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -2644,7 +2729,7 @@
         <v>베리타리움</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -2706,7 +2791,7 @@
         <v>요력</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -2756,7 +2841,7 @@
         <v>마력</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -2770,7 +2855,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -2795,45 +2880,45 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2901,13 +2986,13 @@
         <v>6</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -2981,7 +3066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3049,13 +3134,13 @@
         <v>13</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3127,10 +3212,10 @@
         <v>0.35</v>
       </c>
       <c r="X5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -3202,10 +3287,10 @@
         <v>0.35</v>
       </c>
       <c r="X6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -3227,10 +3312,10 @@
       </c>
       <c r="G7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3280,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -3302,10 +3387,10 @@
       </c>
       <c r="G8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="I8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3355,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -3417,7 +3502,7 @@
         <v>1010051</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
@@ -3430,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3452,10 +3537,10 @@
       </c>
       <c r="G10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H10,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I10" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J10,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3492,7 +3577,7 @@
         <v>1010102</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4" t="s">
@@ -3505,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
@@ -3567,7 +3652,7 @@
         <v>1010051</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4" t="s">
@@ -3577,10 +3662,10 @@
         <v>0.35</v>
       </c>
       <c r="X11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
@@ -3642,7 +3727,7 @@
         <v>1010051</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4" t="s">
@@ -3652,10 +3737,10 @@
         <v>0.35</v>
       </c>
       <c r="X12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
@@ -3717,7 +3802,7 @@
         <v>1010051</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
@@ -3727,10 +3812,10 @@
         <v>0.35</v>
       </c>
       <c r="X13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>100011</v>
       </c>
@@ -3805,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>100012</v>
       </c>
@@ -3880,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>100013</v>
       </c>
@@ -3955,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>100014</v>
       </c>
@@ -4066,42 +4151,42 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.375" customWidth="1"/>
-    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.25" customWidth="1"/>
-    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.3984375" customWidth="1"/>
+    <col min="19" max="19" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.19921875" customWidth="1"/>
+    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -4184,7 +4269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -4267,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4350,7 +4435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -4435,7 +4520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>100001</v>
       </c>
@@ -4520,7 +4605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>100001</v>
       </c>
@@ -4605,7 +4690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>100001</v>
       </c>
@@ -4690,7 +4775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>100001</v>
       </c>
@@ -4775,7 +4860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>100001</v>
       </c>
@@ -4860,7 +4945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>100002</v>
       </c>
@@ -4945,7 +5030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>100002</v>
       </c>
@@ -5030,7 +5115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>100002</v>
       </c>
@@ -5115,7 +5200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>100002</v>
       </c>
@@ -5200,7 +5285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>100002</v>
       </c>
@@ -5285,7 +5370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>100002</v>
       </c>
@@ -5370,7 +5455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>100003</v>
       </c>
@@ -5455,7 +5540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>100003</v>
       </c>
@@ -5540,7 +5625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>100003</v>
       </c>
@@ -5625,7 +5710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>100003</v>
       </c>
@@ -5710,7 +5795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>100003</v>
       </c>
@@ -5795,7 +5880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>100003</v>
       </c>
@@ -5880,7 +5965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>100004</v>
       </c>
@@ -5965,7 +6050,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>100004</v>
       </c>
@@ -6050,7 +6135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>100004</v>
       </c>
@@ -6135,7 +6220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>100004</v>
       </c>
@@ -6220,7 +6305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>100004</v>
       </c>
@@ -6305,7 +6390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>100004</v>
       </c>
@@ -6390,7 +6475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>100005</v>
       </c>
@@ -6475,7 +6560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>100005</v>
       </c>
@@ -6560,7 +6645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>100005</v>
       </c>
@@ -6645,7 +6730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>100005</v>
       </c>
@@ -6730,7 +6815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>100005</v>
       </c>
@@ -6815,7 +6900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>100005</v>
       </c>
@@ -6900,7 +6985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>100006</v>
       </c>
@@ -6985,7 +7070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>100006</v>
       </c>
@@ -7070,7 +7155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>100006</v>
       </c>
@@ -7155,7 +7240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>100006</v>
       </c>
@@ -7240,7 +7325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>100006</v>
       </c>
@@ -7325,7 +7410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>100006</v>
       </c>
@@ -7410,7 +7495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>100007</v>
       </c>
@@ -7495,7 +7580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>100007</v>
       </c>
@@ -7580,7 +7665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>100007</v>
       </c>
@@ -7665,7 +7750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>100007</v>
       </c>
@@ -7750,7 +7835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>100007</v>
       </c>
@@ -7835,7 +7920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>100007</v>
       </c>
@@ -7920,7 +8005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>100008</v>
       </c>
@@ -8005,7 +8090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>100008</v>
       </c>
@@ -8090,7 +8175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>100008</v>
       </c>
@@ -8175,7 +8260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>100008</v>
       </c>
@@ -8260,7 +8345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
         <v>100008</v>
       </c>
@@ -8345,7 +8430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
         <v>100008</v>
       </c>
@@ -8430,7 +8515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>100009</v>
       </c>
@@ -8515,7 +8600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>100009</v>
       </c>
@@ -8600,7 +8685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>100009</v>
       </c>
@@ -8685,7 +8770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>100009</v>
       </c>
@@ -8770,7 +8855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>100009</v>
       </c>
@@ -8855,7 +8940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>100009</v>
       </c>
@@ -8968,19 +9053,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="66.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -8991,7 +9076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
@@ -9002,7 +9087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -9013,7 +9098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
@@ -9025,7 +9110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
@@ -9037,7 +9122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
@@ -9075,21 +9160,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="60.625" customWidth="1"/>
-    <col min="4" max="4" width="59.75" customWidth="1"/>
-    <col min="5" max="5" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="3" width="60.59765625" customWidth="1"/>
+    <col min="4" max="4" width="59.69921875" customWidth="1"/>
+    <col min="5" max="5" width="62.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -9106,7 +9191,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>146</v>
       </c>
@@ -9123,7 +9208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -9140,7 +9225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
@@ -9158,7 +9243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
@@ -9176,7 +9261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
@@ -9194,7 +9279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
@@ -9238,25 +9323,25 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="66.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>53</v>
@@ -9265,12 +9350,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>7</v>
@@ -9279,7 +9364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>167</v>
       </c>
@@ -9293,64 +9378,64 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1392712F-3369-4450-A198-3D8709A9C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F4CC1D-C87C-4592-A66A-A138863A7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28176" yWindow="2280" windowWidth="27492" windowHeight="11820" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1485" yWindow="1245" windowWidth="35475" windowHeight="18660" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1820,88 +1820,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1911,20 +1845,8 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="31">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -2331,39 +2253,39 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -2371,32 +2293,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2404,17 +2326,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2431,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,20 +2368,20 @@
       <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -2481,7 +2403,7 @@
         <v>ATTRIBUTE_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -2543,7 +2465,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -2605,7 +2527,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -2667,7 +2589,7 @@
         <v>전기</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -2729,7 +2651,7 @@
         <v>베리타리움</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -2791,7 +2713,7 @@
         <v>요력</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -2841,7 +2763,7 @@
         <v>마력</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -2855,7 +2777,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -2879,46 +2801,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +2914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -3066,7 +2988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3140,7 +3062,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3215,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -3290,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -3319,10 +3241,10 @@
       </c>
       <c r="I7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K7" s="4">
         <v>20</v>
@@ -3365,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -3394,10 +3316,10 @@
       </c>
       <c r="I8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K8" s="4">
         <v>20</v>
@@ -3440,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -3515,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3544,10 +3466,10 @@
       </c>
       <c r="I10" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J10,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K10" s="4">
         <v>16</v>
@@ -3590,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
@@ -3612,10 +3534,10 @@
       </c>
       <c r="G11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H11,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I11" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J11,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3665,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
@@ -3740,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
@@ -3815,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100011</v>
       </c>
@@ -3890,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100012</v>
       </c>
@@ -3965,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100013</v>
       </c>
@@ -4040,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100014</v>
       </c>
@@ -4150,43 +4072,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.3984375" customWidth="1"/>
-    <col min="19" max="19" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.19921875" customWidth="1"/>
-    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.25" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -4269,7 +4191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -4352,7 +4274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4435,7 +4357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -4520,7 +4442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100001</v>
       </c>
@@ -4605,7 +4527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100001</v>
       </c>
@@ -4690,7 +4612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100001</v>
       </c>
@@ -4775,7 +4697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100001</v>
       </c>
@@ -4860,7 +4782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100001</v>
       </c>
@@ -4945,7 +4867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>100002</v>
       </c>
@@ -4961,10 +4883,10 @@
       </c>
       <c r="E11" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F11,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>62</v>
@@ -5030,7 +4952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>100002</v>
       </c>
@@ -5046,10 +4968,10 @@
       </c>
       <c r="E12" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F12,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>62</v>
@@ -5115,7 +5037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>100002</v>
       </c>
@@ -5131,10 +5053,10 @@
       </c>
       <c r="E13" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F13,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>62</v>
@@ -5200,7 +5122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>100002</v>
       </c>
@@ -5216,10 +5138,10 @@
       </c>
       <c r="E14" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F14,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>62</v>
@@ -5285,7 +5207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>100002</v>
       </c>
@@ -5301,10 +5223,10 @@
       </c>
       <c r="E15" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F15,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>62</v>
@@ -5370,7 +5292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>100002</v>
       </c>
@@ -5386,10 +5308,10 @@
       </c>
       <c r="E16" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F16,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>62</v>
@@ -5455,7 +5377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100003</v>
       </c>
@@ -5471,10 +5393,10 @@
       </c>
       <c r="E17" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F17,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
@@ -5540,7 +5462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>100003</v>
       </c>
@@ -5556,10 +5478,10 @@
       </c>
       <c r="E18" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F18,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
@@ -5625,7 +5547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>100003</v>
       </c>
@@ -5641,10 +5563,10 @@
       </c>
       <c r="E19" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F19,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>61</v>
@@ -5710,7 +5632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>100003</v>
       </c>
@@ -5726,10 +5648,10 @@
       </c>
       <c r="E20" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F20,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>61</v>
@@ -5795,7 +5717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>100003</v>
       </c>
@@ -5811,10 +5733,10 @@
       </c>
       <c r="E21" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F21,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>61</v>
@@ -5880,7 +5802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>100003</v>
       </c>
@@ -5896,10 +5818,10 @@
       </c>
       <c r="E22" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F22,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>61</v>
@@ -5965,7 +5887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>100004</v>
       </c>
@@ -5981,10 +5903,10 @@
       </c>
       <c r="E23" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F23,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>68</v>
@@ -6050,7 +5972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>100004</v>
       </c>
@@ -6066,10 +5988,10 @@
       </c>
       <c r="E24" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F24,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>68</v>
@@ -6135,7 +6057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>100004</v>
       </c>
@@ -6151,10 +6073,10 @@
       </c>
       <c r="E25" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F25,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>68</v>
@@ -6220,7 +6142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>100004</v>
       </c>
@@ -6236,10 +6158,10 @@
       </c>
       <c r="E26" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F26,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>68</v>
@@ -6305,7 +6227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>100004</v>
       </c>
@@ -6321,10 +6243,10 @@
       </c>
       <c r="E27" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F27,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>68</v>
@@ -6390,7 +6312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>100004</v>
       </c>
@@ -6406,10 +6328,10 @@
       </c>
       <c r="E28" s="12">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F28,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>68</v>
@@ -6475,7 +6397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>100005</v>
       </c>
@@ -6491,10 +6413,10 @@
       </c>
       <c r="E29" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F29,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>68</v>
@@ -6560,7 +6482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>100005</v>
       </c>
@@ -6576,10 +6498,10 @@
       </c>
       <c r="E30" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F30,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>68</v>
@@ -6645,7 +6567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>100005</v>
       </c>
@@ -6661,10 +6583,10 @@
       </c>
       <c r="E31" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F31,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>68</v>
@@ -6730,7 +6652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>100005</v>
       </c>
@@ -6746,10 +6668,10 @@
       </c>
       <c r="E32" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F32,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>68</v>
@@ -6815,7 +6737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>100005</v>
       </c>
@@ -6831,10 +6753,10 @@
       </c>
       <c r="E33" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F33,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>68</v>
@@ -6900,7 +6822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>100005</v>
       </c>
@@ -6916,10 +6838,10 @@
       </c>
       <c r="E34" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F34,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>68</v>
@@ -6985,7 +6907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>100006</v>
       </c>
@@ -7070,7 +6992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>100006</v>
       </c>
@@ -7155,7 +7077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>100006</v>
       </c>
@@ -7240,7 +7162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>100006</v>
       </c>
@@ -7325,7 +7247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>100006</v>
       </c>
@@ -7410,7 +7332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>100006</v>
       </c>
@@ -7495,7 +7417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100007</v>
       </c>
@@ -7511,10 +7433,10 @@
       </c>
       <c r="E41" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F41,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>68</v>
@@ -7580,7 +7502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>100007</v>
       </c>
@@ -7596,10 +7518,10 @@
       </c>
       <c r="E42" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F42,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>68</v>
@@ -7665,7 +7587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>100007</v>
       </c>
@@ -7681,10 +7603,10 @@
       </c>
       <c r="E43" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F43,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>68</v>
@@ -7750,7 +7672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>100007</v>
       </c>
@@ -7766,10 +7688,10 @@
       </c>
       <c r="E44" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F44,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>68</v>
@@ -7835,7 +7757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>100007</v>
       </c>
@@ -7851,10 +7773,10 @@
       </c>
       <c r="E45" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F45,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>68</v>
@@ -7920,7 +7842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>100007</v>
       </c>
@@ -7936,10 +7858,10 @@
       </c>
       <c r="E46" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F46,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>68</v>
@@ -8005,7 +7927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>100008</v>
       </c>
@@ -8090,7 +8012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>100008</v>
       </c>
@@ -8175,7 +8097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>100008</v>
       </c>
@@ -8260,7 +8182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>100008</v>
       </c>
@@ -8345,7 +8267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>100008</v>
       </c>
@@ -8430,7 +8352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>100008</v>
       </c>
@@ -8515,7 +8437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>100009</v>
       </c>
@@ -8600,7 +8522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>100009</v>
       </c>
@@ -8685,7 +8607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>100009</v>
       </c>
@@ -8770,7 +8692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>100009</v>
       </c>
@@ -8855,7 +8777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>100009</v>
       </c>
@@ -8940,7 +8862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>100009</v>
       </c>
@@ -9053,19 +8975,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="66.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="66.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -9076,7 +8998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
@@ -9087,7 +9009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -9098,7 +9020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
@@ -9110,7 +9032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
@@ -9122,7 +9044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
@@ -9160,21 +9082,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
-    <col min="3" max="3" width="60.59765625" customWidth="1"/>
-    <col min="4" max="4" width="59.69921875" customWidth="1"/>
-    <col min="5" max="5" width="62.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="59.75" customWidth="1"/>
+    <col min="5" max="5" width="62.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -9191,7 +9113,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>146</v>
       </c>
@@ -9208,7 +9130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -9225,7 +9147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
@@ -9243,7 +9165,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
@@ -9261,7 +9183,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
@@ -9279,7 +9201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
@@ -9323,20 +9245,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="66.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -9350,7 +9272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
@@ -9364,7 +9286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>167</v>
       </c>
@@ -9378,7 +9300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
@@ -9393,7 +9315,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
@@ -9408,7 +9330,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
@@ -9423,7 +9345,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F4CC1D-C87C-4592-A66A-A138863A7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFDE134-FC62-49A9-BB5F-9A6EF9AD0FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1245" windowWidth="35475" windowHeight="18660" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1820,22 +1820,88 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1845,8 +1911,20 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -2801,11 +2879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3193,7 +3271,7 @@
         <v>98</v>
       </c>
       <c r="R6" s="4">
-        <v>1010101</v>
+        <v>1010201</v>
       </c>
       <c r="S6" s="4">
         <v>1010051</v>
@@ -3268,7 +3346,7 @@
         <v>98</v>
       </c>
       <c r="R7" s="4">
-        <v>1010101</v>
+        <v>1010301</v>
       </c>
       <c r="S7" s="4">
         <v>1010051</v>
@@ -3343,7 +3421,7 @@
         <v>98</v>
       </c>
       <c r="R8" s="4">
-        <v>1010101</v>
+        <v>1010401</v>
       </c>
       <c r="S8" s="4">
         <v>1010051</v>
@@ -3418,7 +3496,7 @@
         <v>183</v>
       </c>
       <c r="R9" s="4">
-        <v>1010101</v>
+        <v>1010501</v>
       </c>
       <c r="S9" s="4">
         <v>1010051</v>
@@ -3493,7 +3571,7 @@
         <v>99</v>
       </c>
       <c r="R10" s="4">
-        <v>1010101</v>
+        <v>1010601</v>
       </c>
       <c r="S10" s="4">
         <v>1010102</v>
@@ -3568,7 +3646,7 @@
         <v>99</v>
       </c>
       <c r="R11" s="4">
-        <v>1010101</v>
+        <v>1010701</v>
       </c>
       <c r="S11" s="4">
         <v>1010051</v>
@@ -3643,7 +3721,7 @@
         <v>99</v>
       </c>
       <c r="R12" s="4">
-        <v>1010101</v>
+        <v>1010801</v>
       </c>
       <c r="S12" s="4">
         <v>1010051</v>
@@ -3718,7 +3796,7 @@
         <v>99</v>
       </c>
       <c r="R13" s="4">
-        <v>1010101</v>
+        <v>1010901</v>
       </c>
       <c r="S13" s="4">
         <v>1010051</v>
@@ -4072,7 +4150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFDE134-FC62-49A9-BB5F-9A6EF9AD0FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8787E24-F26F-484A-83B7-EBAC0F5D88AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="450" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="242">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,6 +1220,14 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100601, 100602,100603]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,6 +1522,9 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1850,20 +1861,8 @@
         </row>
       </sheetData>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
@@ -1918,13 +1917,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -1998,6 +1991,9 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2879,11 +2875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4150,11 +4146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4451,10 +4447,10 @@
       </c>
       <c r="E5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F5,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>61</v>
@@ -4536,10 +4532,10 @@
       </c>
       <c r="E6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F6,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>61</v>
@@ -4621,10 +4617,10 @@
       </c>
       <c r="E7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F7,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>61</v>
@@ -4706,10 +4702,10 @@
       </c>
       <c r="E8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F8,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>61</v>
@@ -4791,10 +4787,10 @@
       </c>
       <c r="E9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F9,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>61</v>
@@ -4876,10 +4872,10 @@
       </c>
       <c r="E10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(F10,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>61</v>
@@ -8537,13 +8533,13 @@
         <v>109</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
       </c>
       <c r="I53" s="4">
-        <v>0</v>
+        <v>100604</v>
       </c>
       <c r="J53" s="4">
         <v>544</v>
@@ -8622,13 +8618,13 @@
         <v>109</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
       </c>
       <c r="I54" s="4">
-        <v>0</v>
+        <v>100604</v>
       </c>
       <c r="J54" s="4">
         <v>560</v>
@@ -8707,13 +8703,13 @@
         <v>109</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
       </c>
       <c r="I55" s="4">
-        <v>0</v>
+        <v>100604</v>
       </c>
       <c r="J55" s="4">
         <v>585</v>
@@ -8792,13 +8788,13 @@
         <v>109</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
       </c>
       <c r="I56" s="4">
-        <v>0</v>
+        <v>100604</v>
       </c>
       <c r="J56" s="4">
         <v>620</v>
@@ -8877,13 +8873,13 @@
         <v>109</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
       </c>
       <c r="I57" s="4">
-        <v>0</v>
+        <v>100604</v>
       </c>
       <c r="J57" s="4">
         <v>667</v>
@@ -8962,13 +8958,13 @@
         <v>109</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
       </c>
       <c r="I58" s="4">
-        <v>0</v>
+        <v>100604</v>
       </c>
       <c r="J58" s="4">
         <v>727</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8787E24-F26F-484A-83B7-EBAC0F5D88AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3803D-3C14-40CD-B26A-2D4FB5321913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40575" yWindow="2295" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="244">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,6 +1228,14 @@
   </si>
   <si>
     <t>[100601, 100602,100603]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,9 +1530,9 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1622,7 +1630,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -1838,7 +1846,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
@@ -1860,9 +1868,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
@@ -1884,7 +1892,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="16" refreshError="1"/>
       <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
@@ -1892,8 +1900,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
@@ -1901,15 +1909,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -1917,7 +1925,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -1991,7 +1999,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
@@ -2875,11 +2883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3786,10 +3794,10 @@
         <v>100009</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="R13" s="4">
         <v>1010901</v>
@@ -3883,7 +3891,7 @@
         <v>0.35</v>
       </c>
       <c r="X14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -3958,7 +3966,7 @@
         <v>0.35</v>
       </c>
       <c r="X15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -4146,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3803D-3C14-40CD-B26A-2D4FB5321913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA2D8D-AF43-44EC-B9E0-2542DF11FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40575" yWindow="2295" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40395" yWindow="1680" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1531,8 +1531,6 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
-      <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1909,15 +1907,33 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22" refreshError="1"/>
       <sheetData sheetId="23" refreshError="1"/>
       <sheetData sheetId="24" refreshError="1"/>
       <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27" refreshError="1"/>
       <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -1999,9 +2015,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2887,7 +2901,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA2D8D-AF43-44EC-B9E0-2542DF11FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589938E2-E031-4AFA-9CFC-A8E5C3DB0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40395" yWindow="1680" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="10305" yWindow="1785" windowWidth="31935" windowHeight="17955" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="271">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,6 +1236,117 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 10]</t>
+  </si>
+  <si>
+    <t>쇼핑, 경전 읽기</t>
+  </si>
+  <si>
+    <t>[1, 13]</t>
+  </si>
+  <si>
+    <t>아무 것도 안 하기</t>
+  </si>
+  <si>
+    <t>[2, 12]</t>
+  </si>
+  <si>
+    <t>가사 전반</t>
+  </si>
+  <si>
+    <t>아가씨 모시기</t>
+  </si>
+  <si>
+    <t>[7, 10]</t>
+  </si>
+  <si>
+    <t>애니메이션 보기</t>
+  </si>
+  <si>
+    <t>서민체험</t>
+  </si>
+  <si>
+    <t>[4, 24]</t>
+  </si>
+  <si>
+    <t>장비 구매</t>
+  </si>
+  <si>
+    <t>[9, 10]</t>
+  </si>
+  <si>
+    <t>사람 구경</t>
+  </si>
+  <si>
+    <t>[3, 2]</t>
+  </si>
+  <si>
+    <t>독서</t>
+  </si>
+  <si>
+    <t>클레어와 어릴 때부터 함께 지낸 안드로이드 자매 중 언니.
+차가워 보이는 인상과 달리 속이 깊고 감정 표현도 풍부하다.</t>
+  </si>
+  <si>
+    <t>클레어와 어릴 때부터 함께 지낸 안드로이드 자매 중 동생.
+상냥한 외모와 달리 속은…?</t>
+  </si>
+  <si>
+    <t>전이된 지 얼마 되지 않은 수색대원.
+테라에 적응하지 못하고 위태롭게 홀로 활동하고 있었으나,
+당신을 만나고 모든 것이 바뀌었다.</t>
+  </si>
+  <si>
+    <t>차원 관리국 직속 특임대 제 3과의 지정사수.
+겁이 많아 조준경도 쓰지 않지만 백발백중의
+사격 실력을 자랑한다.
+엄청난 부잣집 딸이라는 소문이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비너스 수도회의 수녀님.
+본인의 의상은 물론, 수도회 특산품인 수제 여성복을
+대부분 디자인하고 있다.
+갸루 스타일인건 그냥 취향. 알고 보면 순수하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷골목 해결사 집단 '노네임' 소속 용병.
+분명 엘프인데도 마나를 전혀 사용하지 않고,
+과거도 베일에 싸여 있다.
+실력이 뛰어나서 벌이가 좋지만 대부분 장비를
+구매하는데에 써버리기 때문에 항상 생활고에 시달리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살단, '월영단'의 두 간부 중 하나.
+본업을 하는 중에는 섬뜩한 모습을 보인다는
+소문이 무성하지만, 진위는 밝혀지지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원 관리국 수색 지원과에 파견 나온 고위 천사.
+원래 소속과 직위는 재무기획과의 비서관이다.
+겉모습과 행동은 콧대높은 귀족 아가씨 그 자체.
+하지만 특이하게도 안드로이드인 바이올렛, 데이지와
+실제 자매처럼 지내고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마족들의 모임인 만마전의 여왕.
+아주 마족답게도 속으로는 내향적이고 소심하다.
+그래도 오랜 경험으로 겉으로는 완벽한 여왕님을 연기할 수 있게 되었으니 다행.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100301, 100302,100303]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100201, 100202,100203]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1531,6 +1642,9 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1628,7 +1742,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -1844,7 +1958,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
@@ -1866,9 +1980,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
@@ -1890,7 +2004,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
@@ -1898,8 +2012,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
@@ -1907,33 +2021,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DROP_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -1941,7 +2037,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -2015,7 +2111,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2897,11 +2996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3193,16 +3292,16 @@
         <v>163</v>
       </c>
       <c r="K5" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="M5" s="4">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="O5" s="4">
         <v>100001</v>
@@ -3224,7 +3323,7 @@
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="W5" s="4">
         <v>0.35</v>
@@ -3268,16 +3367,16 @@
         <v>162</v>
       </c>
       <c r="K6" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="M6" s="4">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="O6" s="4">
         <v>100002</v>
@@ -3299,7 +3398,7 @@
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4" t="s">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="W6" s="4">
         <v>0.35</v>
@@ -3343,16 +3442,16 @@
         <v>164</v>
       </c>
       <c r="K7" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="M7" s="4">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="O7" s="4">
         <v>100003</v>
@@ -3374,7 +3473,7 @@
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="W7" s="4">
         <v>0.35</v>
@@ -3418,16 +3517,16 @@
         <v>164</v>
       </c>
       <c r="K8" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="M8" s="4">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="O8" s="4">
         <v>100004</v>
@@ -3449,7 +3548,7 @@
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="W8" s="4">
         <v>0.35</v>
@@ -3493,16 +3592,16 @@
         <v>164</v>
       </c>
       <c r="K9" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="M9" s="4">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="O9" s="4">
         <v>100005</v>
@@ -3524,7 +3623,7 @@
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="W9" s="4">
         <v>0.35</v>
@@ -3568,16 +3667,16 @@
         <v>162</v>
       </c>
       <c r="K10" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="M10" s="4">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="O10" s="4">
         <v>100006</v>
@@ -3599,7 +3698,7 @@
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="W10" s="4">
         <v>0.35</v>
@@ -3643,16 +3742,16 @@
         <v>162</v>
       </c>
       <c r="K11" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="M11" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="O11" s="4">
         <v>100007</v>
@@ -3674,7 +3773,7 @@
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="W11" s="4">
         <v>0.35</v>
@@ -3718,16 +3817,16 @@
         <v>165</v>
       </c>
       <c r="K12" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="M12" s="4">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="O12" s="4">
         <v>100008</v>
@@ -3749,7 +3848,7 @@
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="W12" s="4">
         <v>0.35</v>
@@ -3793,16 +3892,16 @@
         <v>163</v>
       </c>
       <c r="K13" s="4">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="M13" s="4">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="O13" s="4">
         <v>100009</v>
@@ -3824,7 +3923,7 @@
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="W13" s="4">
         <v>0.35</v>
@@ -4168,11 +4267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5495,13 +5594,13 @@
         <v>108</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>100204</v>
       </c>
       <c r="J17" s="4">
         <v>760</v>
@@ -5580,13 +5679,13 @@
         <v>108</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>100204</v>
       </c>
       <c r="J18" s="4">
         <v>782</v>
@@ -5665,13 +5764,13 @@
         <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>100204</v>
       </c>
       <c r="J19" s="4">
         <v>818</v>
@@ -5750,13 +5849,13 @@
         <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>100204</v>
       </c>
       <c r="J20" s="4">
         <v>867</v>
@@ -5835,13 +5934,13 @@
         <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>100204</v>
       </c>
       <c r="J21" s="4">
         <v>932</v>
@@ -5920,13 +6019,13 @@
         <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>100204</v>
       </c>
       <c r="J22" s="4">
         <v>1016</v>
@@ -6005,13 +6104,13 @@
         <v>108</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
       </c>
       <c r="I23" s="12">
-        <v>0</v>
+        <v>100304</v>
       </c>
       <c r="J23" s="12">
         <v>748</v>
@@ -6090,13 +6189,13 @@
         <v>108</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H24" s="12">
         <v>0</v>
       </c>
       <c r="I24" s="12">
-        <v>0</v>
+        <v>100304</v>
       </c>
       <c r="J24" s="12">
         <v>770</v>
@@ -6175,13 +6274,13 @@
         <v>108</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H25" s="12">
         <v>0</v>
       </c>
       <c r="I25" s="12">
-        <v>0</v>
+        <v>100304</v>
       </c>
       <c r="J25" s="12">
         <v>805</v>
@@ -6260,13 +6359,13 @@
         <v>108</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
       </c>
       <c r="I26" s="12">
-        <v>0</v>
+        <v>100304</v>
       </c>
       <c r="J26" s="12">
         <v>853</v>
@@ -6345,13 +6444,13 @@
         <v>108</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
       </c>
       <c r="I27" s="12">
-        <v>0</v>
+        <v>100304</v>
       </c>
       <c r="J27" s="12">
         <v>917</v>
@@ -6430,13 +6529,13 @@
         <v>108</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
       </c>
       <c r="I28" s="12">
-        <v>0</v>
+        <v>100304</v>
       </c>
       <c r="J28" s="12">
         <v>999</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589938E2-E031-4AFA-9CFC-A8E5C3DB0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659CE59-C668-4076-9EEB-91ED7C2575CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="1785" windowWidth="31935" windowHeight="17955" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="273">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,10 +1053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lobby_merry_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,6 +1343,18 @@
   </si>
   <si>
     <t>[100201, 100202,100203]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_essence_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원전달 스탠딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essence_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,76 +1959,34 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -2030,14 +1996,14 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -2994,13 +2960,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3022,20 +2988,21 @@
     <col min="16" max="16" width="53.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="58" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3055,10 +3022,10 @@
         <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>166</v>
@@ -3091,25 +3058,28 @@
         <v>120</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -3168,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>7</v>
@@ -3177,21 +3147,24 @@
         <v>7</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>110</v>
@@ -3239,33 +3212,36 @@
         <v>186</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="X4" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3295,13 +3271,13 @@
         <v>19</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M5" s="4">
         <v>164</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" s="4">
         <v>100001</v>
@@ -3316,31 +3292,34 @@
         <v>1010101</v>
       </c>
       <c r="S5" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T5" s="4">
         <v>1010051</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="W5" s="4">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="X5" s="4">
         <v>0.35</v>
       </c>
-      <c r="X5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3370,13 +3349,13 @@
         <v>21</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M6" s="4">
         <v>171</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O6" s="4">
         <v>100002</v>
@@ -3391,31 +3370,34 @@
         <v>1010201</v>
       </c>
       <c r="S6" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T6" s="4">
         <v>1010051</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="W6" s="4">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="X6" s="4">
         <v>0.35</v>
       </c>
-      <c r="X6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -3432,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3445,13 +3427,13 @@
         <v>15</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M7" s="4">
         <v>147</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O7" s="4">
         <v>100003</v>
@@ -3466,31 +3448,34 @@
         <v>1010301</v>
       </c>
       <c r="S7" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T7" s="4">
         <v>1010051</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W7" s="4">
+      <c r="U7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="X7" s="4">
         <v>0.35</v>
       </c>
-      <c r="X7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -3507,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3520,13 +3505,13 @@
         <v>15</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M8" s="4">
         <v>147</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O8" s="4">
         <v>100004</v>
@@ -3541,31 +3526,34 @@
         <v>1010401</v>
       </c>
       <c r="S8" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T8" s="4">
         <v>1010051</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="W8" s="4">
+      <c r="U8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="X8" s="4">
         <v>0.35</v>
       </c>
-      <c r="X8" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -3595,13 +3583,13 @@
         <v>23</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M9" s="4">
         <v>163</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O9" s="4">
         <v>100005</v>
@@ -3616,31 +3604,34 @@
         <v>1010501</v>
       </c>
       <c r="S9" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T9" s="4">
         <v>1010051</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="W9" s="4">
+      <c r="U9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="X9" s="4">
         <v>0.35</v>
       </c>
-      <c r="X9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -3670,13 +3661,13 @@
         <v>26</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M10" s="4">
         <v>176</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O10" s="4">
         <v>100006</v>
@@ -3691,31 +3682,34 @@
         <v>1010601</v>
       </c>
       <c r="S10" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T10" s="4">
         <v>1010102</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="U10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="X10" s="4">
         <v>0.35</v>
       </c>
-      <c r="X10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -3745,13 +3739,13 @@
         <v>24</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M11" s="4">
         <v>168</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O11" s="4">
         <v>100007</v>
@@ -3766,31 +3760,34 @@
         <v>1010701</v>
       </c>
       <c r="S11" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T11" s="4">
         <v>1010051</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="U11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X11" s="4">
         <v>0.35</v>
       </c>
-      <c r="X11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -3820,13 +3817,13 @@
         <v>11</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M12" s="4">
         <v>131</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O12" s="4">
         <v>100008</v>
@@ -3841,31 +3838,34 @@
         <v>1010801</v>
       </c>
       <c r="S12" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T12" s="4">
         <v>1010051</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="W12" s="4">
+      <c r="U12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="X12" s="4">
         <v>0.35</v>
       </c>
-      <c r="X12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -3895,52 +3895,55 @@
         <v>32</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M13" s="4">
         <v>175</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O13" s="4">
         <v>100009</v>
       </c>
       <c r="P13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="R13" s="4">
         <v>1010901</v>
       </c>
       <c r="S13" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T13" s="4">
         <v>1010051</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="W13" s="4">
+      <c r="U13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X13" s="4">
         <v>0.35</v>
       </c>
-      <c r="X13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -3991,31 +3994,34 @@
         <v>1010101</v>
       </c>
       <c r="S14" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T14" s="4">
         <v>1010051</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>0.35</v>
       </c>
-      <c r="X14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -4066,31 +4072,34 @@
         <v>1010101</v>
       </c>
       <c r="S15" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T15" s="4">
         <v>1010051</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>0.35</v>
       </c>
-      <c r="X15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -4141,31 +4150,34 @@
         <v>1010101</v>
       </c>
       <c r="S16" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T16" s="4">
         <v>1010051</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>0.35</v>
       </c>
-      <c r="X16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -4216,19 +4228,22 @@
         <v>1010101</v>
       </c>
       <c r="S17" s="4">
+        <v>1010602</v>
+      </c>
+      <c r="T17" s="4">
         <v>1010051</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>0.35</v>
       </c>
-      <c r="X17" s="4" t="b">
+      <c r="Y17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4267,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
@@ -4826,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>61</v>
@@ -5594,7 +5609,7 @@
         <v>108</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -5679,7 +5694,7 @@
         <v>108</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -5764,7 +5779,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -5849,7 +5864,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -5934,7 +5949,7 @@
         <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -6019,7 +6034,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -6104,7 +6119,7 @@
         <v>108</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
@@ -6189,7 +6204,7 @@
         <v>108</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H24" s="12">
         <v>0</v>
@@ -6274,7 +6289,7 @@
         <v>108</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H25" s="12">
         <v>0</v>
@@ -6359,7 +6374,7 @@
         <v>108</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
@@ -6444,7 +6459,7 @@
         <v>108</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
@@ -6529,7 +6544,7 @@
         <v>108</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
@@ -8654,7 +8669,7 @@
         <v>109</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -8739,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -8824,7 +8839,7 @@
         <v>109</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -8909,7 +8924,7 @@
         <v>109</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -8994,7 +9009,7 @@
         <v>109</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -9079,7 +9094,7 @@
         <v>109</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -9458,7 +9473,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>53</v>
@@ -9472,7 +9487,7 @@
         <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>7</v>
@@ -9486,10 +9501,10 @@
         <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>49</v>
@@ -9501,13 +9516,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9516,13 +9531,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9531,13 +9546,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9546,13 +9561,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659CE59-C668-4076-9EEB-91ED7C2575CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51271CD5-180A-4817-AB85-931E4C57609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="275">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,6 +1355,14 @@
   </si>
   <si>
     <t>essence_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,11 +1967,35 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="4">
@@ -1979,14 +2011,44 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1996,7 +2058,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31">
         <row r="4">
           <cell r="A4" t="str">
@@ -2963,10 +3031,10 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3507,7 @@
         <v>100003</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>98</v>
@@ -3517,7 +3585,7 @@
         <v>100004</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>98</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51271CD5-180A-4817-AB85-931E4C57609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D720FFB-A98C-4D26-9EC8-7E13E29CA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1346,10 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lobby_essence_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근원전달 스탠딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,6 +1359,10 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_merry_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3031,10 +3031,10 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3126,7 +3126,7 @@
         <v>120</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>121</v>
@@ -3280,10 +3280,10 @@
         <v>186</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>12</v>
@@ -3507,7 +3507,7 @@
         <v>100003</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>98</v>
@@ -3585,7 +3585,7 @@
         <v>100004</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>98</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D720FFB-A98C-4D26-9EC8-7E13E29CA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7A040-27AF-469A-A891-F4E08DAE7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39525" yWindow="1125" windowWidth="31995" windowHeight="19320" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="256">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,9 +204,6 @@
   <si>
     <t>script</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터설명설명설명</t>
   </si>
   <si>
     <t>사용 가능한 데이터 타입</t>
@@ -655,30 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3, 10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독서하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9, 10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페 탐방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Role_Icon_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,26 +1002,10 @@
     <t>attack_life_recovery</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100001_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100002_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Pc_Icon/PC_100006_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lobby_basic_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1088,18 +1045,6 @@
     <t>엘리자베스</t>
   </si>
   <si>
-    <t>전열용 루시아</t>
-  </si>
-  <si>
-    <t>전열용 라일라</t>
-  </si>
-  <si>
-    <t>전열용 클레어 1</t>
-  </si>
-  <si>
-    <t>전열용 클레어 2</t>
-  </si>
-  <si>
     <t>character_name_0001</t>
   </si>
   <si>
@@ -1125,18 +1070,6 @@
   </si>
   <si>
     <t>character_name_0009</t>
-  </si>
-  <si>
-    <t>character_name_0010</t>
-  </si>
-  <si>
-    <t>character_name_0011</t>
-  </si>
-  <si>
-    <t>character_name_0012</t>
-  </si>
-  <si>
-    <t>character_name_0013</t>
   </si>
   <si>
     <t>name_id</t>
@@ -1967,89 +1900,29 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
+            <v>LIMIT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -2058,20 +1931,8 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="31">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -2486,12 +2347,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2362,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2511,63 +2372,63 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3028,13 +2889,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3066,7 +2927,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="9"/>
     </row>
@@ -3081,75 +2942,75 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -3161,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -3173,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
@@ -3182,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>0</v>
@@ -3218,10 +3079,10 @@
         <v>7</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3229,76 +3090,76 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3306,10 +3167,10 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3319,42 +3180,42 @@
         <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I5" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K5" s="4">
         <v>19</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="M5" s="4">
         <v>164</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="O5" s="4">
         <v>100001</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R5" s="4">
         <v>1010101</v>
@@ -3366,11 +3227,11 @@
         <v>1010051</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="X5" s="4">
         <v>0.35</v>
@@ -3384,10 +3245,10 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3397,42 +3258,42 @@
         <v>2</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K6" s="4">
         <v>21</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M6" s="4">
         <v>171</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="O6" s="4">
         <v>100002</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R6" s="4">
         <v>1010201</v>
@@ -3444,11 +3305,11 @@
         <v>1010051</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="X6" s="4">
         <v>0.35</v>
@@ -3462,10 +3323,10 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -3475,42 +3336,42 @@
         <v>2</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K7" s="4">
         <v>15</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M7" s="4">
         <v>147</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="O7" s="4">
         <v>100003</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R7" s="4">
         <v>1010301</v>
@@ -3522,11 +3383,11 @@
         <v>1010051</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="X7" s="4">
         <v>0.35</v>
@@ -3540,10 +3401,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -3553,42 +3414,42 @@
         <v>2</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="I8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K8" s="4">
         <v>15</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M8" s="4">
         <v>147</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="O8" s="4">
         <v>100004</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R8" s="4">
         <v>1010401</v>
@@ -3600,11 +3461,11 @@
         <v>1010051</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="X8" s="4">
         <v>0.35</v>
@@ -3618,10 +3479,10 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -3631,42 +3492,42 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I9" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K9" s="4">
         <v>23</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="M9" s="4">
         <v>163</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="O9" s="4">
         <v>100005</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R9" s="4">
         <v>1010501</v>
@@ -3678,11 +3539,11 @@
         <v>1010051</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="X9" s="4">
         <v>0.35</v>
@@ -3696,10 +3557,10 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -3709,42 +3570,42 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I10" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K10" s="4">
         <v>26</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M10" s="4">
         <v>176</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="O10" s="4">
         <v>100006</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4">
         <v>1010601</v>
@@ -3756,11 +3617,11 @@
         <v>1010102</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="X10" s="4">
         <v>0.35</v>
@@ -3774,10 +3635,10 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -3787,42 +3648,42 @@
         <v>2</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I11" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K11" s="4">
         <v>24</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M11" s="4">
         <v>168</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="O11" s="4">
         <v>100007</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4">
         <v>1010701</v>
@@ -3834,11 +3695,11 @@
         <v>1010051</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="X11" s="4">
         <v>0.35</v>
@@ -3852,10 +3713,10 @@
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -3865,42 +3726,42 @@
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G12" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I12" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K12" s="4">
         <v>11</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="M12" s="4">
         <v>131</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="O12" s="4">
         <v>100008</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4">
         <v>1010801</v>
@@ -3912,11 +3773,11 @@
         <v>1010051</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="X12" s="4">
         <v>0.35</v>
@@ -3930,10 +3791,10 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -3943,42 +3804,42 @@
         <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G13" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I13" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K13" s="4">
         <v>32</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="M13" s="4">
         <v>175</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="O13" s="4">
         <v>100009</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="R13" s="4">
         <v>1010901</v>
@@ -3990,329 +3851,17 @@
         <v>1010051</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="X13" s="4">
         <v>0.35</v>
       </c>
       <c r="Y13" s="4" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F14,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H14,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J14,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="4">
-        <v>24</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="4">
-        <v>170</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1010101</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1010602</v>
-      </c>
-      <c r="T14" s="4">
-        <v>1010051</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="Y14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F15,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H15,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J15,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="4">
-        <v>20</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="4">
-        <v>160</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="4">
-        <v>100002</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="4">
-        <v>1010101</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1010602</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1010051</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="Y15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>100013</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F16,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H16,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J16,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="4">
-        <v>16</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="4">
-        <v>156</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="4">
-        <v>100005</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1010101</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1010602</v>
-      </c>
-      <c r="T16" s="4">
-        <v>1010051</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="Y16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>100014</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(F17,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(H17,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J17,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="4">
-        <v>16</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="4">
-        <v>156</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="4">
-        <v>100005</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1010101</v>
-      </c>
-      <c r="S17" s="4">
-        <v>1010602</v>
-      </c>
-      <c r="T17" s="4">
-        <v>1010051</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="Y17" s="4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4326,19 +3875,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$3:$O$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F17</xm:sqref>
+          <xm:sqref>F5:F13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE49CEC5-CA23-452C-AD15-7B4AB0347788}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H17</xm:sqref>
+          <xm:sqref>H5:H13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{868E2CAE-0D9D-4AA3-AA91-4715B4A0546C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J17</xm:sqref>
+          <xm:sqref>J5:J13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4351,10 +3900,10 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4383,113 +3932,113 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -4498,55 +4047,55 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>7</v>
@@ -4560,79 +4109,79 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -4654,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -4717,7 +4266,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -4739,10 +4288,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -4802,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -4824,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -4887,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -4909,10 +4458,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -4972,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -4994,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -5057,7 +4606,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -5079,10 +4628,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -5142,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5164,10 +4713,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
@@ -5227,7 +4776,7 @@
         <v>5</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5249,10 +4798,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="12">
         <v>0</v>
@@ -5312,7 +4861,7 @@
         <v>5</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5334,10 +4883,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="12">
         <v>0</v>
@@ -5397,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5419,10 +4968,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -5482,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5504,10 +5053,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
@@ -5567,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5589,10 +5138,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -5652,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -5674,10 +5223,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -5737,7 +5286,7 @@
         <v>5</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
@@ -5759,10 +5308,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -5822,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
@@ -5844,10 +5393,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -5907,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
@@ -5929,10 +5478,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -5992,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
@@ -6014,10 +5563,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -6077,7 +5626,7 @@
         <v>5</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
@@ -6099,10 +5648,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -6162,7 +5711,7 @@
         <v>5</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6184,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
@@ -6247,7 +5796,7 @@
         <v>5</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6269,10 +5818,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H24" s="12">
         <v>0</v>
@@ -6332,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6354,10 +5903,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H25" s="12">
         <v>0</v>
@@ -6417,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6439,10 +5988,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
@@ -6502,7 +6051,7 @@
         <v>5</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6524,10 +6073,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
@@ -6587,7 +6136,7 @@
         <v>5</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6609,10 +6158,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
@@ -6672,7 +6221,7 @@
         <v>5</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -6694,10 +6243,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -6757,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
@@ -6779,10 +6328,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -6842,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
@@ -6864,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -6927,7 +6476,7 @@
         <v>5</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
@@ -6949,10 +6498,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -7012,7 +6561,7 @@
         <v>5</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
@@ -7034,10 +6583,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -7097,7 +6646,7 @@
         <v>5</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
@@ -7119,10 +6668,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -7182,7 +6731,7 @@
         <v>5</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7204,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="12">
         <v>0</v>
@@ -7267,7 +6816,7 @@
         <v>5</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7289,10 +6838,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="12">
         <v>0</v>
@@ -7352,7 +6901,7 @@
         <v>5</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7374,10 +6923,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -7437,7 +6986,7 @@
         <v>5</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7459,10 +7008,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="12">
         <v>0</v>
@@ -7522,7 +7071,7 @@
         <v>5</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7544,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="12">
         <v>0</v>
@@ -7607,7 +7156,7 @@
         <v>5</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7629,10 +7178,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="12">
         <v>0</v>
@@ -7692,7 +7241,7 @@
         <v>5</v>
       </c>
       <c r="AA40" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
@@ -7714,10 +7263,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -7777,7 +7326,7 @@
         <v>5</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
@@ -7799,10 +7348,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -7862,7 +7411,7 @@
         <v>5</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
@@ -7884,10 +7433,10 @@
         <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -7947,7 +7496,7 @@
         <v>5</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
@@ -7969,10 +7518,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -8032,7 +7581,7 @@
         <v>5</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
@@ -8054,10 +7603,10 @@
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -8117,7 +7666,7 @@
         <v>5</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
@@ -8139,10 +7688,10 @@
         <v>2</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -8202,7 +7751,7 @@
         <v>5</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8224,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="12">
         <v>0</v>
@@ -8287,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8309,10 +7858,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48" s="12">
         <v>0</v>
@@ -8372,7 +7921,7 @@
         <v>5</v>
       </c>
       <c r="AA48" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8394,10 +7943,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="12">
         <v>0</v>
@@ -8457,7 +8006,7 @@
         <v>5</v>
       </c>
       <c r="AA49" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8479,10 +8028,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" s="12">
         <v>0</v>
@@ -8542,7 +8091,7 @@
         <v>5</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8564,10 +8113,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="12">
         <v>0</v>
@@ -8627,7 +8176,7 @@
         <v>5</v>
       </c>
       <c r="AA51" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8649,10 +8198,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="12">
         <v>0</v>
@@ -8712,7 +8261,7 @@
         <v>5</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
@@ -8734,10 +8283,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -8797,7 +8346,7 @@
         <v>5</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
@@ -8819,10 +8368,10 @@
         <v>3</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -8882,7 +8431,7 @@
         <v>5</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
@@ -8904,10 +8453,10 @@
         <v>3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -8967,7 +8516,7 @@
         <v>5</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
@@ -8989,10 +8538,10 @@
         <v>3</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -9052,7 +8601,7 @@
         <v>5</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
@@ -9074,10 +8623,10 @@
         <v>3</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -9137,7 +8686,7 @@
         <v>5</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
@@ -9159,10 +8708,10 @@
         <v>3</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -9222,7 +8771,7 @@
         <v>5</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -9262,23 +8811,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -9289,13 +8838,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9304,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9316,10 +8865,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9328,10 +8877,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -9371,29 +8920,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -9410,19 +8959,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9431,16 +8980,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9449,16 +8998,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -9467,16 +9016,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9485,16 +9034,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9533,29 +9082,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>7</v>
@@ -9566,16 +9115,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9584,13 +9133,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9599,13 +9148,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9614,13 +9163,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9629,13 +9178,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7A040-27AF-469A-A891-F4E08DAE7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727759F2-DEE4-4563-93F9-417306C35495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39525" yWindow="1125" windowWidth="31995" windowHeight="19320" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41355" yWindow="2535" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="257">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1296,6 +1296,10 @@
   </si>
   <si>
     <t>lobby_merry_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1900,22 +1904,76 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
@@ -1931,7 +1989,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2892,10 +2956,10 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3524,7 +3588,7 @@
         <v>100005</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>174</v>
@@ -3539,7 +3603,7 @@
         <v>1010051</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="s">
@@ -3617,7 +3681,7 @@
         <v>1010102</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727759F2-DEE4-4563-93F9-417306C35495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0B0AA9-D5F5-4AD1-9986-6FD96E3E0889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41355" yWindow="2535" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40440" yWindow="750" windowWidth="35430" windowHeight="19320" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1904,83 +1904,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1989,13 +1929,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2955,11 +2889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3963,11 +3897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4279,13 +4213,13 @@
         <v>100004</v>
       </c>
       <c r="J5" s="4">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -4315,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="4">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
@@ -4364,13 +4298,13 @@
         <v>100004</v>
       </c>
       <c r="J6" s="4">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
@@ -4400,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="W6" s="4">
         <v>0</v>
@@ -4449,13 +4383,13 @@
         <v>100004</v>
       </c>
       <c r="J7" s="4">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -4485,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="4">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
@@ -4534,13 +4468,13 @@
         <v>100004</v>
       </c>
       <c r="J8" s="4">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
@@ -4570,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="4">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="W8" s="4">
         <v>0</v>
@@ -4619,13 +4553,13 @@
         <v>100004</v>
       </c>
       <c r="J9" s="4">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -4655,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -4704,13 +4638,13 @@
         <v>100004</v>
       </c>
       <c r="J10" s="4">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M10" s="4">
         <v>1</v>
@@ -4740,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
@@ -6319,10 +6253,10 @@
         <v>100504</v>
       </c>
       <c r="J29" s="4">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="K29" s="4">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -6355,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="4">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="W29" s="4">
         <v>0</v>
@@ -6404,10 +6338,10 @@
         <v>100504</v>
       </c>
       <c r="J30" s="4">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="K30" s="4">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -6440,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="W30" s="4">
         <v>0</v>
@@ -6489,10 +6423,10 @@
         <v>100504</v>
       </c>
       <c r="J31" s="4">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="K31" s="4">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
@@ -6525,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="4">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="W31" s="4">
         <v>0</v>
@@ -6574,10 +6508,10 @@
         <v>100504</v>
       </c>
       <c r="J32" s="4">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="K32" s="4">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
@@ -6610,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="4">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="W32" s="4">
         <v>0</v>
@@ -6659,10 +6593,10 @@
         <v>100504</v>
       </c>
       <c r="J33" s="4">
-        <v>1502</v>
+        <v>1511</v>
       </c>
       <c r="K33" s="4">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
@@ -6695,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="4">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="W33" s="4">
         <v>0</v>
@@ -6744,10 +6678,10 @@
         <v>100504</v>
       </c>
       <c r="J34" s="4">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="K34" s="4">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
@@ -6780,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="4">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="W34" s="4">
         <v>0</v>
@@ -6829,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="12">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="K35" s="12">
         <v>57</v>
@@ -6865,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="W35" s="12">
         <v>0</v>
@@ -6914,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="12">
-        <v>973</v>
+        <v>994</v>
       </c>
       <c r="K36" s="12">
         <v>58</v>
@@ -6950,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="W36" s="12">
         <v>0</v>
@@ -6999,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="12">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="K37" s="12">
         <v>61</v>
@@ -7035,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W37" s="12">
         <v>0</v>
@@ -7084,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="12">
-        <v>1114</v>
+        <v>1138</v>
       </c>
       <c r="K38" s="12">
         <v>65</v>
@@ -7120,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="12">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="W38" s="12">
         <v>0</v>
@@ -7169,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="12">
-        <v>1225</v>
+        <v>1252</v>
       </c>
       <c r="K39" s="12">
         <v>69</v>
@@ -7205,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="W39" s="12">
         <v>0</v>
@@ -7254,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="12">
-        <v>1372</v>
+        <v>1402</v>
       </c>
       <c r="K40" s="12">
         <v>76</v>
@@ -7290,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="12">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="W40" s="12">
         <v>0</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0B0AA9-D5F5-4AD1-9986-6FD96E3E0889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAEEEB-41E5-481C-80DD-D998EA84DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40440" yWindow="750" windowWidth="35430" windowHeight="19320" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="259">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,6 +1300,14 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Hero/Hero_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1904,22 +1912,76 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1929,7 +1991,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2889,11 +2957,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3369,7 +3437,7 @@
         <v>253</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="R7" s="4">
         <v>1010301</v>
@@ -3447,7 +3515,7 @@
         <v>254</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="R8" s="4">
         <v>1010401</v>
@@ -3897,7 +3965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAEEEB-41E5-481C-80DD-D998EA84DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7FB5C1-243D-4ADA-ABB6-7C0CAD82C2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1912,76 +1912,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1991,13 +1937,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2409,39 +2349,39 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2449,32 +2389,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -2482,17 +2422,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2509,7 +2449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2524,20 +2464,20 @@
       <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -2559,7 +2499,7 @@
         <v>ATTRIBUTE_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -2621,7 +2561,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -2683,7 +2623,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -2745,7 +2685,7 @@
         <v>전기</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -2807,7 +2747,7 @@
         <v>베리타리움</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -2869,7 +2809,7 @@
         <v>요력</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -2919,7 +2859,7 @@
         <v>마력</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -2933,7 +2873,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -2958,46 +2898,46 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.69921875" customWidth="1"/>
+    <col min="20" max="20" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="51.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3074,7 +3014,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
@@ -3151,7 +3091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3168,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -3306,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -3384,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -3462,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -3540,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -3575,16 +3515,16 @@
         <v>157</v>
       </c>
       <c r="K9" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M9" s="4">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O9" s="4">
         <v>100005</v>
@@ -3618,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3653,16 +3593,16 @@
         <v>155</v>
       </c>
       <c r="K10" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M10" s="4">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O10" s="4">
         <v>100006</v>
@@ -3696,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
@@ -3774,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
@@ -3852,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
@@ -3972,36 +3912,36 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.375" customWidth="1"/>
-    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.25" customWidth="1"/>
-    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.3984375" customWidth="1"/>
+    <col min="19" max="19" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.19921875" customWidth="1"/>
+    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4084,7 +4024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
@@ -4167,7 +4107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4250,7 +4190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -4335,7 +4275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>100001</v>
       </c>
@@ -4420,7 +4360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>100001</v>
       </c>
@@ -4505,7 +4445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>100001</v>
       </c>
@@ -4590,7 +4530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>100001</v>
       </c>
@@ -4675,7 +4615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>100001</v>
       </c>
@@ -4760,7 +4700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>100002</v>
       </c>
@@ -4845,7 +4785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>100002</v>
       </c>
@@ -4930,7 +4870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>100002</v>
       </c>
@@ -5015,7 +4955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>100002</v>
       </c>
@@ -5100,7 +5040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>100002</v>
       </c>
@@ -5185,7 +5125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>100002</v>
       </c>
@@ -5270,7 +5210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>100003</v>
       </c>
@@ -5355,7 +5295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>100003</v>
       </c>
@@ -5440,7 +5380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>100003</v>
       </c>
@@ -5525,7 +5465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>100003</v>
       </c>
@@ -5610,7 +5550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>100003</v>
       </c>
@@ -5695,7 +5635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>100003</v>
       </c>
@@ -5780,7 +5720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>100004</v>
       </c>
@@ -5865,7 +5805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>100004</v>
       </c>
@@ -5950,7 +5890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>100004</v>
       </c>
@@ -6035,7 +5975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>100004</v>
       </c>
@@ -6120,7 +6060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>100004</v>
       </c>
@@ -6205,7 +6145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>100004</v>
       </c>
@@ -6290,7 +6230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>100005</v>
       </c>
@@ -6375,7 +6315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>100005</v>
       </c>
@@ -6460,7 +6400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>100005</v>
       </c>
@@ -6545,7 +6485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>100005</v>
       </c>
@@ -6630,7 +6570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>100005</v>
       </c>
@@ -6715,7 +6655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>100005</v>
       </c>
@@ -6800,7 +6740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>100006</v>
       </c>
@@ -6885,7 +6825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>100006</v>
       </c>
@@ -6970,7 +6910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>100006</v>
       </c>
@@ -7055,7 +6995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>100006</v>
       </c>
@@ -7140,7 +7080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>100006</v>
       </c>
@@ -7225,7 +7165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>100006</v>
       </c>
@@ -7310,7 +7250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>100007</v>
       </c>
@@ -7395,7 +7335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>100007</v>
       </c>
@@ -7480,7 +7420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>100007</v>
       </c>
@@ -7565,7 +7505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>100007</v>
       </c>
@@ -7650,7 +7590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>100007</v>
       </c>
@@ -7735,7 +7675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>100007</v>
       </c>
@@ -7820,7 +7760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>100008</v>
       </c>
@@ -7905,7 +7845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>100008</v>
       </c>
@@ -7990,7 +7930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>100008</v>
       </c>
@@ -8075,7 +8015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>100008</v>
       </c>
@@ -8160,7 +8100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
         <v>100008</v>
       </c>
@@ -8245,7 +8185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
         <v>100008</v>
       </c>
@@ -8330,7 +8270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>100009</v>
       </c>
@@ -8415,7 +8355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>100009</v>
       </c>
@@ -8500,7 +8440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>100009</v>
       </c>
@@ -8585,7 +8525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>100009</v>
       </c>
@@ -8670,7 +8610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>100009</v>
       </c>
@@ -8755,7 +8695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>100009</v>
       </c>
@@ -8868,19 +8808,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="66.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -8891,7 +8831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>138</v>
       </c>
@@ -8902,7 +8842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -8913,7 +8853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
@@ -8925,7 +8865,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
@@ -8937,7 +8877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(B7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
@@ -8975,21 +8915,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="60.625" customWidth="1"/>
-    <col min="4" max="4" width="59.75" customWidth="1"/>
-    <col min="5" max="5" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="3" width="60.59765625" customWidth="1"/>
+    <col min="4" max="4" width="59.69921875" customWidth="1"/>
+    <col min="5" max="5" width="62.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -9006,7 +8946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>139</v>
       </c>
@@ -9023,7 +8963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -9040,7 +8980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
@@ -9058,7 +8998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
@@ -9076,7 +9016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
@@ -9094,7 +9034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(B8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
@@ -9138,20 +9078,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="66.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -9165,7 +9105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
@@ -9179,7 +9119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
@@ -9193,7 +9133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
@@ -9208,7 +9148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
@@ -9223,7 +9163,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
@@ -9238,7 +9178,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(C8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>

--- a/Android/ExcelData/PCTable.xlsx
+++ b/Android/ExcelData/PCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7FB5C1-243D-4ADA-ABB6-7C0CAD82C2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21CCFB2-A0AC-4315-B433-8935609D7C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="260">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,6 +1308,10 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/UI/Units/Hero/UIHero_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100401, 100402,100403]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,6 +1610,7 @@
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1912,22 +1917,76 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1937,7 +1996,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2016,6 +2081,7 @@
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2349,39 +2415,39 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2389,32 +2455,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -2422,17 +2488,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2449,7 +2515,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,20 +2530,20 @@
       <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -2499,7 +2565,7 @@
         <v>ATTRIBUTE_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -2561,7 +2627,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -2623,7 +2689,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -2685,7 +2751,7 @@
         <v>전기</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -2747,7 +2813,7 @@
         <v>베리타리움</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -2809,7 +2875,7 @@
         <v>요력</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -2859,7 +2925,7 @@
         <v>마력</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -2873,7 +2939,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -2897,47 +2963,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.8984